--- a/prompt_test/data/health_20250411_summary.xlsx
+++ b/prompt_test/data/health_20250411_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>사회적 불평등과 차별이 건강에 부정적 영향을 미칠 수 있으며, 관리와 예방의 중요성을 강조합니다.</t>
+          <t>사회적 차별과 불평등이 스트레스와 질병을 유발해 건강에 악영향을 미칠 수 있습니다.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>한국형 1차의료 모델을 북미·중동에 도입하는 디지털 헬스케어 서비스 협약 체결 소식.</t>
+          <t>해외 디지털 헬스케어 서비스 확장에 관한 내용으로 건강관리 동기 유발과는 관련성이 낮습니다.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>임신 중 호르몬 변화로 발생할 수 있는 쥐젖은 미용상 문제 외에는 건강에 무해하며, 병원에서 안전하게 제거할 수 있습니다.</t>
+          <t>이 기사는 연예인과 관련된 내용으로 건강 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>여에스더의 뇌동맥류 투병 사례는 정기적 검진과 예방 관리의 중요성을 강조하며 보험 필요성을 느끼게 합니다.</t>
+          <t>유명인의 사례를 중심으로 한 기사로, 고객과의 커뮤니케이션에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>고지방·고탄수화물 식단이 폐선암 위험을 높일 수 있어 건강 관리와 예방이 중요합니다.</t>
+          <t>고지방·고탄수화물 식품은 폐선암 위험을 높일 수 있어 건강 관리를 위해 섭취를 줄이는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>양자 컴퓨팅 기술의 발전과 글로벌 기업들의 경쟁을 다룬 기사로 건강 정보와 직접적 관련이 없습니다.</t>
+          <t>양자컴퓨터의 발전과 관련된 기사로, 건강 관리와 직접적인 관련성이 낮습니다.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -872,12 +872,12 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>노인 구강 건강 개선을 위한 교육 영상이 요양보호 종사자들에게 제공되어 삶의 질 향상에 기여합니다.</t>
+          <t>이 기사는 기업의 사회공헌활동과 관련된 내용으로 건강 정보 중심의 기사로 보기 어렵습니다.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>북한 공작원 출신 김신조 목사와 그를 처음 신고한 나무꾼 우성제씨의 50년 우정 이야기.</t>
+          <t>이 기사는 건강 관련 정보보다는 역사적 사건과 개인의 인연에 관한 내용으로 건강 관리와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>AI와 첨단 기술이 노화 과정을 설계 가능하게 하여 건강한 노화와 예방 관리의 중요성을 강조합니다.</t>
+          <t>AI와 바이오 기술이 노화 억제를 돕고, 건강한 노화를 설계하는 시대가 도래하고 있습니다.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1041,14 +1041,10 @@
           <t>https://media.naver.com/journalist/009/22006</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>우울증은 의욕 저하와 우울감을 유발하며, 규칙적인 운동과 생활습관 개선이 극복에 도움을 줄 수 있습니다.</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1096,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>고가 항암제와 희소 질환 치료제의 건강보험 등재가 지연되면 환자 부담이 커져 치료 시기를 놓칠 수 있습니다.</t>
+          <t>해당 기사는 고가 항암제와 희소 질환 치료제의 건강보험 등재 지연 문제를 다루며, 건강 관리 동기 유발과는 직접 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1153,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>개정 첨생법으로 서울대병원 등에서 CAR-T 세포 치료가 활성화되어 암 치료 효율과 비용 절감이 기대됩니다.</t>
+          <t>첨단재생의료법 개정으로 암 치료를 위한 세포 치료가 대중화되고 치료 효율이 높아지고 있습니다.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1214,12 +1210,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>개정 첨생법으로 세포·유전자 치료제 개발이 활성화되어 건강 관리와 치료 가능성이 높아지고 있습니다.</t>
+          <t>국내 바이오기업의 세포·유전자 치료제 개발이 활성화될 전망이나, 건강 관리와 직접적 연관성은 부족함.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1267,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>전자담배의 합성 향료 성분이 '팝콘 폐'와 같은 치명적 폐 질환을 유발할 수 있어 주의가 필요합니다.</t>
+          <t>전자담배의 장기적 사용은 치명적인 폐 질환을 유발할 수 있어 청소년의 사용을 경계해야 합니다.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1328,7 +1324,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>가수 김준수를 협박해 금품을 갈취한 혐의를 받는 여성 BJ의 항소심 재판 소식.</t>
+          <t>해당 기사는 건강 정보와 관련이 없으며, 법적 문제와 관련된 내용입니다.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1385,7 +1381,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>개정 첨생법으로 CAR-T세포 치료가 대중화되어 고비용 해외 원정 치료의 필요성이 줄어듭니다.</t>
+          <t>개정된 첨생법으로 암 환자들이 첨단 세포 치료를 국내에서 받을 수 있어 치료 접근성이 향상되었습니다.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1442,7 +1438,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>전자담배 사용이 폐질환을 유발할 수 있어 청소년의 사용을 주의할 필요가 있습니다.</t>
+          <t>전자담배 사용이 폐질환을 유발할 수 있어 청소년의 건강 관리와 예방이 중요합니다.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1499,7 +1495,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>현미는 영양가가 높지만 무기 비소 함량이 높아 어린이의 섭취 시 주의가 필요합니다.</t>
+          <t>현미의 비소 함량이 높아 어린이 섭취 시 주의가 필요하며, 쌀을 여러 번 씻어 비소를 줄일 수 있습니다.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1556,7 +1552,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>홈플러스 전단채 투자 피해자들이 경영진과 대주주를 사기 혐의로 고소한 사건을 다룬 기사입니다.</t>
+          <t>해당 기사는 보험과 관련된 건강 정보가 아닌 금융 사기 사건에 관한 내용입니다.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1613,7 +1609,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>헌법재판소가 박성재 법무부 장관의 탄핵소추를 기각하고 직무에 복귀시켰다는 내용의 기사입니다.</t>
+          <t>기사 내용은 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1670,12 +1666,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>우울증은 노인도 겪을 수 있으며, 규칙적인 운동과 생활 습관이 극복에 도움을 줄 수 있습니다.</t>
+          <t>유명인의 개인적인 우울증 경험과 극복 방법을 다루어 보험 상담에 직접 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1715,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>스마일게이트의 모바일 RPG '에픽세븐'에 신규 에피소드와 영웅 업데이트 및 편의성 개선이 이루어졌다.</t>
+          <t>이 기사는 게임 업데이트에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1776,12 +1772,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>긴급 지원 덕분에 전립선암 수술을 받은 박씨는 이재민을 위해 자신의 생활비를 기부했습니다.</t>
+          <t>이 기사는 건강 정보보다는 기부와 사회적 지원에 관한 내용으로 보험 상담에 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1829,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>밀라노 디자인 위크에서 알칸타라의 다양한 협업과 설치 작품을 통해 고급 라이프스타일 브랜드의 가능성을 선보였다.</t>
+          <t>이 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>지씨지놈의 상장 및 자금조달 계획 관련 기사로 건강 정보와 직접적 관련이 없습니다.</t>
+          <t>이 기사는 기업의 상장 및 재무 상황에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1947,7 +1943,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>흑염소스틱 제품은 건강 정보보다는 제품 소개에 중점을 둔 기사로, 보험 상담에 활용하기 부적합합니다.</t>
+          <t>제품 출시와 관련된 광고성 내용으로 건강 정보 중심의 기사로 보기 어렵습니다.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2033,7 +2029,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>메탈리카의 음악과 개인적 경험을 통해 정치적 변화를 겪은 이야기를 다룬 기사입니다.</t>
+          <t>기사는 메탈리카의 음악과 정치적 메시지를 중심으로 하며, 건강 정보와 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2082,12 +2078,12 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>실손의료보험은 과잉 진료 문제로 개혁이 필요하며, 건강한 삶을 위한 보험의 중요성을 강조합니다.</t>
+          <t>실손보험의 역사와 개혁 방안에 대한 내용으로 건강 관리 동기 유발과 직접적 관련이 적음.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2135,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>전자담배 흡연이 치명적인 폐 질환인 '팝콘 폐'를 유발할 수 있어 조기 예방과 금연이 중요합니다.</t>
+          <t>전자담배 흡연이 폐질환 '팝콘 폐'를 유발할 수 있어 금연과 예방이 중요합니다.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2196,7 +2192,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>이 기사는 시인의 삶과 고난을 다루는 문학적 내용으로, 건강 정보나 보험 상담에 직접 활용하기 어렵습니다.</t>
+          <t>이 기사는 건강 정보나 보험 상담에 직접적으로 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2253,7 +2249,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>중국에서 한국 드라마 '폭싹 속았수다'의 장면을 따라 하는 '김선호 챌린지'가 유행하고 있다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없으며, 드라마와 연예인 관련 내용이 주를 이룹니다.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2310,12 +2306,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>저혈압 쇼크로 쓰러진 유학생을 신속한 응급처치로 구한 사례는 건강 관리와 응급 상황 대처의 중요성을 보여줍니다.</t>
+          <t>기사 내용은 특정 사건과 관련된 영웅적인 행동을 다루고 있으며, 건강 관리나 예방과 직접적인 연관성이 없습니다.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>노동 및 산업재해 관련 행정소송 지침서 발간 소식으로, 건강 정보와 관련성이 낮습니다.</t>
+          <t>기사에는 건강 관련 정보가 포함되어 있지 않으며, 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2424,7 +2420,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>이 기사는 정치적 내용 중심으로, 건강 관련 정보가 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>정치 관련 기사로 건강 정보와 관련성이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2481,7 +2477,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>폴란드 증후군을 가진 여성이 보석 가슴으로 자존감을 회복한 사례로, 건강 정보보다는 개인적 경험에 초점이 맞춰져 있습니다.</t>
+          <t>이 기사는 개인의 자존감 회복 사례로 건강 정보와 직접적 관련성이 낮습니다.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2530,7 +2526,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>스포츠 손상 예방을 위해 충분한 준비 운동이 중요하며, 부상 시 조기 진단과 적절한 치료가 필요합니다.</t>
+          <t>스포츠 손상 예방을 위해 충분한 준비 운동과 조기 진단이 중요하며, 적절한 치료 계획이 필요합니다.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2587,7 +2583,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>트럼프 대통령의 관세 정책 변화로 한국 증시에 외국인 투자 증가, 방산·조선주 급등.</t>
+          <t>해당 기사는 금융 및 주식시장 관련 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2636,7 +2632,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>프란치스코 교황의 건강 상태와 외부 활동에 관한 기사로, 건강 관리나 보험과 직접적 관련이 없습니다.</t>
+          <t>프란치스코 교황의 폐렴 회복과 관련된 개인적 행보를 다룬 기사로 건강 정보 전달에는 부적합합니다.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2693,7 +2689,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>찰스 3세가 이탈리아 의회에서 유럽 단결을 호소하며 단테의 작품을 인용했다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2750,7 +2746,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>변호사 자격정지와 관련된 법적 판결 기사로 건강 정보와 무관합니다.</t>
+          <t>이 기사는 변호사 관련 법적 판결에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2807,7 +2803,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>회전근개파열은 중장년층에서 흔하며, 예방을 위해 운동 전 준비운동과 적절한 운동 강도가 중요합니다.</t>
+          <t>회전근개파열 예방을 위해 중장년층은 운동 전 준비운동과 적절한 강도의 운동을 통해 어깨를 보호해야 합니다.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2864,12 +2860,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>현대건설이 입주민의 정신 건강을 위한 명상 공간과 AI 운동 솔루션을 도입하여 건강 관리의 중요성을 강조합니다.</t>
+          <t>현대건설의 H 카밍부스는 명상과 AI 기반 운동 솔루션을 제공하는 주거 서비스입니다.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2917,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>중국의 AI 영상이 미국의 제조업 일자리 회귀를 조롱하며 반미 감정을 드러냈다.</t>
+          <t>이 기사는 미국의 제조업과 정치적 밈에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2978,7 +2974,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>강용석 변호사의 선거법 위반 혐의 관련 판결 내용으로, 건강 정보와 관련이 없습니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3035,7 +3031,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>강용석 변호사가 불법 선거운동 및 정치자금법 위반으로 5년간 변호사 활동이 제한된다.</t>
+          <t>이 기사는 건강이나 보험과 관련된 내용이 아니며, 법적 판결에 관한 내용입니다.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3092,7 +3088,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>중앙경찰학교 졸업식에서 다양한 배경을 가진 신임 경찰들이 주목받았다.</t>
+          <t>이 기사는 경찰학교 졸업식과 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3149,7 +3145,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>이 기사는 독립운동가의 유물 경매에 관한 내용으로 건강 관련 정보와는 무관합니다.</t>
+          <t>기사 내용은 독립운동가의 유묵 경매와 관련된 정보로 건강 관련 정보가 포함되어 있지 않습니다.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3206,7 +3202,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>고(故) 권호석 할아버지의 환경 보호와 기부 활동을 기리는 기사로, 건강 정보와 직접적 관련은 없음.</t>
+          <t>이 기사는 고 권호석 할아버지의 환경 보호 및 기부 활동에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3263,7 +3259,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>정부의 공공기관장 인선 문제와 정치적 논란에 관한 기사로 건강 정보와 관련이 없습니다.</t>
+          <t>기사 내용은 공공기관장 인선 문제와 관련된 정치적 이슈로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3312,7 +3308,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>부고 기사로 건강 정보와 관련된 내용이 없어 보험 상담에 활용하기 부적합합니다.</t>
+          <t>부고 기사로 건강 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3369,7 +3365,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>제주4·3기록물의 유네스코 세계기록유산 등재는 역사적 가치와 진실 규명 노력을 인정받은 사례입니다.</t>
+          <t>제주4·3기록물의 유네스코 세계기록유산 등재와 관련된 역사적 가치와 중요성을 다룬 기사입니다.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3426,7 +3422,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>제주4·3 기록물이 유네스코 세계기록유산에 등재되어 역사적 의미를 세계와 공유하게 되었다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3483,7 +3479,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>나경원 의원의 대선 출마와 관련된 정치적 내용으로, 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 정치적 내용으로 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3540,7 +3536,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>경기도 광명시 지하터널 붕괴 사고로 인근 학교와 아파트 주민들이 대피했다.</t>
+          <t>이 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3597,7 +3593,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>경기도 광명시 신안산선 지하터널 공사 현장에서 붕괴 사고 발생, 인근 초등학교 학생들은 안전하게 대피.</t>
+          <t>기사 내용은 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3654,12 +3650,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>위고비로 체중 감량 시 부작용에 주의가 필요하며 건강한 다이어트 방법에 대한 상담이 중요합니다.</t>
+          <t>유명인의 체중 감량 사례와 관련된 기사로, 건강 관리 동기 유발에 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3707,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자의 AI 로봇 '볼리'와 구글 제미나이의 협업으로 가정용 로봇 성능이 향상될 예정이다.</t>
+          <t>이 기사는 삼성전자의 AI 로봇 '볼리'에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3766,11 +3762,7 @@
           <t>https://media.naver.com/journalist/015/73812</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>이 기사는 정치와 연금 개혁 관련 내용으로, 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>False</t>
@@ -3825,7 +3817,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>제주 4·3 사건과 산림녹화 기록물이 유네스코 세계기록유산에 등재되었다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3882,7 +3874,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>이경규의 건강 악화 사례는 당독소 관리의 중요성을 강조하며, 당뇨 예방과 관리에 보험의 필요성을 시사합니다.</t>
+          <t>당독소는 체내 독소를 증가시켜 건강에 해로우므로 당뇨 관리 시 당독소 관리가 중요합니다.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3939,7 +3931,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>직원 학대 사건으로 건강 관련 정보나 보험 상담에 활용하기 부적합한 내용입니다.</t>
+          <t>직장 내 괴롭힘 사례로, 건강 정보나 보험 상담과 관련성이 낮아 활용하기 부적합한 기사입니다.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3996,7 +3988,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>트와이스 정연이 유기동물 보호소에 사료 2톤을 기부하며 동물 사랑을 실천했다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4045,7 +4037,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>이 기사는 한국의 유네스코 세계기록유산 등재에 관한 내용으로, 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 유네스코 세계기록유산 등재에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4057,7 +4049,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>‘핸썸가이즈’ 편성 변경…목요 예능 접수 예고</t>
+          <t>4·3기록물 세계기록유산 등재…제주 ‘유네스코 5관왕’ 등극</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4067,12 +4059,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288677</t>
+          <t>https://www.mk.co.kr/article/11289048</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474609</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474817?sid=102</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4085,31 +4077,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>제221차 유네스코 집행이사회, 파리에서 회의 열고 등재 승인국제사회로부터 역사적 가치, 진정성, 보편적 중요성 인정 받아제221차 유네스코 집행이사회는 11일 ‘진실을 밝히다:제주4·3아카이브(Revealing Truth : Jeju 4·3 Archives)’의 세계기록유산 등재를 최종 승인했다.[제주도 제공]제주4·3기록물이 유네스코 세계기록유산에 등재됐다. 지난 2018년부터 시작된 등재 노력이 7년 만에 결실을 이루면서 제주는 ‘유네스코 5관왕’의 대기록을 달성했다.제221차 유네스코 집행이사회는 11일 오전 6시5분(프랑스 현지 시각 10일 오후 11시5분) 프랑스 파리에서 회의를 열고 ‘진실을 밝히다:제주4·3아카이브(Revealing Truth : Jeju 4·3 Archives)’의 세계기록유산 등재를 최종 승인했다.제주4·3기록물은 진실 규명과 화해의 과정을 담은 1만4673건의 역사적 기록을 담고 있다. 군법회의 수형인 명부와 옥중 엽서, 희생자와 유족들의 증언, 시민사회의 진상규명 운동 기록, 정부의 공식 진상조사보고서 등이 대표적이다.유네스코 세계기록유산 등재로 제주4·3기록물은 국제사회로부터 역사적 가치와 진정성, 보편적 중요성을 인정받았다.유네스코 국제자문위원회는 제주4·3기록물에 대해 “국가 폭력에 맞서 진실을 밝히고, 사회적 화해를 이뤄내며 희생자의 명예를 회복하기 위한 노력을 조명한다. 화해와 상생을 향한 지역사회의 민주주의 실천이 이룬 성과”라고 평가했다.제주도는 제주4·3기록물의 세계기록유산등재로 △생물권보전지역 △세계자연유산 △세계지질공원 △무형문화유산까지 ‘유네스코 5관왕’의 대기록을 달성했다.오영훈 제주지사는 “제주4·3의 아픔을 치유하고 화해와 상생을 이뤄낸 제주도민의 역사적 여정이 세계의 유산이 된 뜻깊은 순간”이라며 “이번 등재를 계기로 제주4·3이 담고 있는 평화와 인권, 화해와 상생의 가치를 전 세계와 함께 나누겠다”고 강조했다.이어 “제주4·3 관련 기록물을 체계적으로 수집해 보존하고 이를 미래 세대를 위한 평화·인권 교육의 살아있는 자료로 활용하겠다”며 “누구나 쉽게 접근할 수 있는 아카이브 구축을 위해 정부와 긴밀히 협력해 나가겠다”고 덧붙였다.한편 현재 프랑스 파리국제대학촌 한국관에서는 제주4·3기록물의 세계기록유산 등재를 기념하는 ‘제주4·3 아카이브(ARCHIVES):진실과 화해’ 특별전이 열리고 있다. 제주 고경호 기자</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>고경호 기자</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/81108</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>이 기사는 건강 관련 정보가 아닌 유네스코 세계기록유산 등재와 관련된 내용입니다.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4·3기록물 세계기록유산 등재…제주 ‘유네스코 5관왕’ 등극</t>
+          <t>이재명, 열흘 만에 ‘선거법 위반’ 상고심 소송기록접수통지서 수령</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289048</t>
+          <t>https://www.chosun.com/national/court_law/2025/04/11/656JBZHKHBDPJE5TPJ6GSRSKKM/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474817?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898956?sid=102</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4124,22 +4136,22 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>제221차 유네스코 집행이사회, 파리에서 회의 열고 등재 승인국제사회로부터 역사적 가치, 진정성, 보편적 중요성 인정 받아제221차 유네스코 집행이사회는 11일 ‘진실을 밝히다:제주4·3아카이브(Revealing Truth : Jeju 4·3 Archives)’의 세계기록유산 등재를 최종 승인했다.[제주도 제공]제주4·3기록물이 유네스코 세계기록유산에 등재됐다. 지난 2018년부터 시작된 등재 노력이 7년 만에 결실을 이루면서 제주는 ‘유네스코 5관왕’의 대기록을 달성했다.제221차 유네스코 집행이사회는 11일 오전 6시5분(프랑스 현지 시각 10일 오후 11시5분) 프랑스 파리에서 회의를 열고 ‘진실을 밝히다:제주4·3아카이브(Revealing Truth : Jeju 4·3 Archives)’의 세계기록유산 등재를 최종 승인했다.제주4·3기록물은 진실 규명과 화해의 과정을 담은 1만4673건의 역사적 기록을 담고 있다. 군법회의 수형인 명부와 옥중 엽서, 희생자와 유족들의 증언, 시민사회의 진상규명 운동 기록, 정부의 공식 진상조사보고서 등이 대표적이다.유네스코 세계기록유산 등재로 제주4·3기록물은 국제사회로부터 역사적 가치와 진정성, 보편적 중요성을 인정받았다.유네스코 국제자문위원회는 제주4·3기록물에 대해 “국가 폭력에 맞서 진실을 밝히고, 사회적 화해를 이뤄내며 희생자의 명예를 회복하기 위한 노력을 조명한다. 화해와 상생을 향한 지역사회의 민주주의 실천이 이룬 성과”라고 평가했다.제주도는 제주4·3기록물의 세계기록유산등재로 △생물권보전지역 △세계자연유산 △세계지질공원 △무형문화유산까지 ‘유네스코 5관왕’의 대기록을 달성했다.오영훈 제주지사는 “제주4·3의 아픔을 치유하고 화해와 상생을 이뤄낸 제주도민의 역사적 여정이 세계의 유산이 된 뜻깊은 순간”이라며 “이번 등재를 계기로 제주4·3이 담고 있는 평화와 인권, 화해와 상생의 가치를 전 세계와 함께 나누겠다”고 강조했다.이어 “제주4·3 관련 기록물을 체계적으로 수집해 보존하고 이를 미래 세대를 위한 평화·인권 교육의 살아있는 자료로 활용하겠다”며 “누구나 쉽게 접근할 수 있는 아카이브 구축을 위해 정부와 긴밀히 협력해 나가겠다”고 덧붙였다.한편 현재 프랑스 파리국제대학촌 한국관에서는 제주4·3기록물의 세계기록유산 등재를 기념하는 ‘제주4·3 아카이브(ARCHIVES):진실과 화해’ 특별전이 열리고 있다. 제주 고경호 기자</t>
+          <t>이재명 더불어민주당 전 대표가 10일 21대 대통령 선거 출마 영상을 공개했다. 이 전 대표는 먹고 사는 문제를 해결하고 고통 없는 삶을 추구하는 '먹사니즘'을 넘어, 실용주의를 앞세워 더 행복한 삶을 지향하는 '잘사니즘' 등을 강조했다./뉴스1‘공직선거법 위반 사건’ 관련 상고심을 앞둔 이재명 전 더불어민주당 대표가 소송기록접수 통지서 등 서류를 수령했다. 상고 절차가 마무리되면 대법원은 내달 중 이 전 대표의 상고심 심리에 돌입하게 될 전망이다. 다만 3심은 사실심이 아닌 법률심인 만큼 이 전 대표가 ‘대통령 선거 후보’ 신분으로 대법원에 출석할 가능성은 작다.11일 법조계에 따르면 이 전 대표는 전날 사무원을 통해 법원이 발송한 소송기록접수 통지서와 상고장 부본, 국선변호인 선정 안내 고지서 등을 전달받았다. 소송기록접수 통지서는 항소심 사건 기록이 대법원에 접수됐음을 당사자에게 알리는 문서다.앞서 대법원은 지난달 31일 이 전 대표에게 소송기록접수 통지서를 보냈으나, 이 전 대표 측이 일주일 넘게 수령하지 않으면서 절차가 지연됐다. 문서가 ‘폐문부재(당사자가 없고 문이 닫혀 있음)’ 사유로 반송되자 대법원은 지난 7일 서울남부지법·인천지법 소속 집행관에게 통지서를 인편으로 전달하도록 요청했다. 집행관 송달은 우편으로 송달이 이뤄지지 않을 때 실시하는 특별 송달 방식이다.검찰도 10일 담당 재판부인 대법원 3부에 상고이유서를 제출했다. 이 전 대표 측은 검찰의 상고이유서를 송달받으면 그로부터 10일 이내에 이에 대한 답변서를 제출해야 한다. 피상고인의 답변서 제출 절차까지 마무리되면 대법원은 주심 대법관을 정하고 본격적인 심리에 착수하게 된다. 이에 따라 늦어도 이달 말까지는 상고심 개시 전 절차가 완료될 것이라는 예상이 나온다.이 전 대표는 지난 대선을 앞둔 2021년 12월 방송에서 대장동 개발 실무 책임자인 고(故) 김문기 성남도시개발공사 처장을 성남시장 재직 중에 알면서도 몰랐다고 하고, 같은 해 10월 국정감사에서 “국토교통부 협박으로 백현동 부지 용도를 상향했다”고 발언해 허위 사실 공표 혐의로 2022년 9월 기소됐다.이 전 대표는 1심에서 징역 1년에 집행유예 2년을 선고했지만, 2심은 지난달 26일 문제가 된 발언이 허위 사실 공표 행위로 볼 수 없다며 이 전 대표에게 무죄를 선고했다. 검찰 측이 상고하면서 이 사건은 지난달 28일 대법원으로 넘어가게 됐다.한편 이 전 대표는 10일 영상 메시지를 통해 오는 6월 3일 예정된 제21대 대선에 출사표를 던졌다. 대선 선거 운동 기간은 5월 12일부터 6월 2일까지다.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>고경호 기자</t>
+          <t>김나영 기자</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/81108</t>
+          <t>https://media.naver.com/journalist/023/79466</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>유네스코 세계기록유산에 제주4·3기록물이 등재되며 역사적 가치와 중요성을 인정받았다.</t>
+          <t>정치 및 법률 관련 내용으로 건강 정보와 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4151,22 +4163,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>이재명, 열흘 만에 ‘선거법 위반’ 상고심 소송기록접수통지서 수령</t>
+          <t>미셸 “남편 일정 불참했다고 이혼설… 뭘 몰라”</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/court_law/2025/04/11/656JBZHKHBDPJE5TPJ6GSRSKKM/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.donga.com/news/People/article/all/20250410/131393669/2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898956?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627540?sid=102</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4181,22 +4193,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>이재명 더불어민주당 전 대표가 10일 21대 대통령 선거 출마 영상을 공개했다. 이 전 대표는 먹고 사는 문제를 해결하고 고통 없는 삶을 추구하는 '먹사니즘'을 넘어, 실용주의를 앞세워 더 행복한 삶을 지향하는 '잘사니즘' 등을 강조했다./뉴스1‘공직선거법 위반 사건’ 관련 상고심을 앞둔 이재명 전 더불어민주당 대표가 소송기록접수 통지서 등 서류를 수령했다. 상고 절차가 마무리되면 대법원은 내달 중 이 전 대표의 상고심 심리에 돌입하게 될 전망이다. 다만 3심은 사실심이 아닌 법률심인 만큼 이 전 대표가 ‘대통령 선거 후보’ 신분으로 대법원에 출석할 가능성은 작다.11일 법조계에 따르면 이 전 대표는 전날 사무원을 통해 법원이 발송한 소송기록접수 통지서와 상고장 부본, 국선변호인 선정 안내 고지서 등을 전달받았다. 소송기록접수 통지서는 항소심 사건 기록이 대법원에 접수됐음을 당사자에게 알리는 문서다.앞서 대법원은 지난달 31일 이 전 대표에게 소송기록접수 통지서를 보냈으나, 이 전 대표 측이 일주일 넘게 수령하지 않으면서 절차가 지연됐다. 문서가 ‘폐문부재(당사자가 없고 문이 닫혀 있음)’ 사유로 반송되자 대법원은 지난 7일 서울남부지법·인천지법 소속 집행관에게 통지서를 인편으로 전달하도록 요청했다. 집행관 송달은 우편으로 송달이 이뤄지지 않을 때 실시하는 특별 송달 방식이다.검찰도 10일 담당 재판부인 대법원 3부에 상고이유서를 제출했다. 이 전 대표 측은 검찰의 상고이유서를 송달받으면 그로부터 10일 이내에 이에 대한 답변서를 제출해야 한다. 피상고인의 답변서 제출 절차까지 마무리되면 대법원은 주심 대법관을 정하고 본격적인 심리에 착수하게 된다. 이에 따라 늦어도 이달 말까지는 상고심 개시 전 절차가 완료될 것이라는 예상이 나온다.이 전 대표는 지난 대선을 앞둔 2021년 12월 방송에서 대장동 개발 실무 책임자인 고(故) 김문기 성남도시개발공사 처장을 성남시장 재직 중에 알면서도 몰랐다고 하고, 같은 해 10월 국정감사에서 “국토교통부 협박으로 백현동 부지 용도를 상향했다”고 발언해 허위 사실 공표 혐의로 2022년 9월 기소됐다.이 전 대표는 1심에서 징역 1년에 집행유예 2년을 선고했지만, 2심은 지난달 26일 문제가 된 발언이 허위 사실 공표 행위로 볼 수 없다며 이 전 대표에게 무죄를 선고했다. 검찰 측이 상고하면서 이 사건은 지난달 28일 대법원으로 넘어가게 됐다.한편 이 전 대표는 10일 영상 메시지를 통해 오는 6월 3일 예정된 제21대 대선에 출사표를 던졌다. 대선 선거 운동 기간은 5월 12일부터 6월 2일까지다.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>김나영 기자</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/023/79466</t>
-        </is>
-      </c>
+          <t>트럼프 취임식-카터 장례식 불참에“내 스스로 일정 결정” 이혼설 일축“여성에 대한 시선 얼마나 큰지 느껴”버락 오바마 전 미국 대통령(오른쪽)과 부인 미셸 여사가 2018년 11월 수도 워싱턴에서 열린 미셸 여사의 자서전 ‘비커밍’의 북투어 행사에 등장했다.  사진 출처 미셸 오바마 인스타그램“내가 스스로 일정을 결정한다는 사실을 이해하지 못하고 사람들은 우리 부부가 이혼 절차를 밟고 있을 거라고 생각하더라.”버락 오바마 전 미국 대통령의 부인 미셸 오바마 여사가 최근 전직 대통령 부부 행사에 잇따라 불참하면서 불거진 이혼설에 대해 내놓은 반응이다. 미셸 여사가 9일(현지 시간) 배우 소피아 부시가 진행하는 팟캐스트에 출연해 이혼설을 일축했다고 미 NBC 방송 등이 전했다.미셸 여사는 올 1월 지미 카터 전 대통령의 장례식과 도널드 트럼프 대통령의 취임식에 연달아 불참했다. 통상 전직 대통령 장례식과 신임 대통령 취임식엔 전직 대통령 부부가 관례적으로 참석한다. 당시 전현직 대통령 부부들 가운데 오바마 전 대통령만 혼자 행사에 참석했다.미셸 여사는 이날 팟캐스트에서 전직 대통령 부부 행사 일정을 소화하지 않은 것과 부부 관계는 아무런 상관이 없다고 했다. 그는 “현재 일정표를 스스로 관리한다”며 “다 큰 어른으로서 혼자 결정을 내리고 있을 뿐”이라고 말했다. 개인 일정으로 행사들에 불참했다는 것. 행사 불참으로 불거진 부부 불화설과 관련해 그는 “여성으로서 다른 사람들의 기대를 충족시켜야 한다는 시선이 얼마나 큰지 느꼈다”고 토로했다.미셸 여사가 트럼프 대통령 취임식에 나타나지 않자, 그가 트럼프 대통령에 대한 반감 탓에 불참했다는 해석도 나왔다. 과거 트럼프 대통령이 오바마 전 대통령의 출생증명서에 의문을 제기하는 등 확인되지 않은 내용으로 정치 공세를 펼치자 반감이 쌓였다는 것이다. 미셸 여사는 자신의 회고록 ‘비커밍’에서 “절대 용서하지 않겠다”며 트럼프 대통령에 대한 반감을 드러냈다. 2020년엔 트럼프 행정부의 인종차별과 위선적 행동 때문에 경미한 우울증을 앓고 있다고도 했다.미셸 여사는 1988년 미 하버드대 로스쿨을 졸업한 변호사 출신으로 1992년 오바마 전 대통령과 결혼했다. 2008년 남편이 대선에 뛰어들자 선거운동에 적극 참여했고, 젊은 이미지로 대중적인 인기를 누렸다. 꾸준히 민주당의 잠재적 대선 후보로도 거론돼 왔다. 미셸 여사는 남편이 정치 경력을 쌓을 때 가사와 육아 부담을 혼자 짊어져 부부 갈등을 빚었다고 2022년 방송 인터뷰에서 밝히기도 했다.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>이재명 전 더불어민주당 대표의 대법원 상고심과 대통령 선거 출마 관련 소식.</t>
+          <t>이 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4208,22 +4212,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>이준영, ‘24시 헬스클럽’ 관장 됐다</t>
+          <t>"그 女선교사 없었다면 유관순 열사가 있었을까" [백성호의 현문우답]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289224</t>
+          <t>https://www.joongang.co.kr/article/25327780</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474898</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433442?sid=110</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4236,31 +4240,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>백성호 종교전문기자지난달 25일 충남 공주의 영명 고등학교를 찾았다. 한국교회총연합(대표회장 김종혁 목사)이 주관한 기독교 근대 문화유산 탐방의 일환이었다. 학교 바로 뒤 언덕에 영명 동산이 있었다. 그곳에 조그만 선교사 묘역이 있었다. 그중 눈에 띈 것은 샤프 선교사(1872~1906)의 묘비였다. 그는 유관순 열사의 스승인 사애리시 선교사의 남편이다. 1906년 이곳에 묻혔을 때, 그의 나이는 고작 34세에 불과했다.영명 고등학교 뒷동산에 있는 사애리시 선교사 부부와 유관순 열사(왼쪽)의 동상. 여양현(왼족) 영명중고 교장과 서만철 한국침례신학대 특임교수가 그들의 생애에 대해서 설명하고 있다. 공주=백성호 기자여기가 슬픔의 끝이 아니었다. 그에게는 3년 전에 결혼한 젊디젊은 아내가 있었다. 그가 바로 사애리시 선교사다. 남편의 성인 ‘샤프’를 따 사(史)씨가 됐고, ‘사랑의 이치를 베푼다’는 뜻에서 ‘애리시(愛理施)’란 이름을 썼다. 영어 이름은 ‘앨리스 하몬드 샤프(Alice H. Sharp)’였다.그녀의 생애를 아는 이라면 이런 물음을 던진다. “만약 사애리시 선교사가 없었다면, 유관순 열사가 있었을까?” 그만큼 유관순의 삶에 큰 영향을 미친 이가 사애리시 선교사다.사애리시 선교사는 캐나다에서 태어났다. 1900년 말에 미국 감리교 선교사로 한국에 왔다. 동료였던 샤프 선교사와 1903년 이화학당 본관에서 결혼했다. 이듬해 두 사람은 공주 선교부 책임자로 임명됐다.영명 고등학교 뒷동산에 있는 선교사 묘역. 왼쪽에 사애리시 선교사의 묘비가 보인다. 오른쪽 뒷편이 남편 샤프 선교사의 묘다. 이들은 결혼 3년 만에 사별했다. 공주=백성호 기자샤프 선교사 부부는 공주를 중심으로 강경, 논산 등 충남 일대 농촌 마을을 오가며 선교 활동을 했다. 1906년 겨울이었다. 한파가 몰아치는 날이었다. 강경과 논산에서 전도를 하고 돌아오던 샤프 선교사는 세찬 진눈깨비를 만났다. 길을 가기가 쉽지 않았다. 마침 산모퉁이에 초가가 있었다. 빈집이었다. 샤프 선교사는 그곳에 들어가 눈보라와 추위를 피하며 몸을 녹였다.그 집은 장티푸스로 죽은 사람의 장례를 치른 상여를 보관하는 상엿집이었다. 그걸 모른 채 샤프 선교사는 그만 그 상여를 만졌다. 결국 전염병인 장티푸스에 걸리고 말았다. 한 달 뒤에 샤프 선교사는 세상을 떠났다. 결혼 3년 만에 남편을 잃은 사애리시 선교사는 큰 충격을 받았다. 슬픔을 견디지 못한 사애리시 선교사는 미국으로 돌아갔다.쉽지 않은 일이다. 남편을 잃은 이국땅으로 다시 돌아와, 자신의 생을 바치는 일 말이다. 2년간 몸과 마음을 추스른 사애리시는 ”우리는 잃은 것이 많지만, 하나님께서 우리에게 좋은 것을 주실 것이다”라며 다시 한국으로 돌아왔다. 청상과부가 된 그녀를 한국 사람들은 “사 부인”이라고 불렀다.사애리시 선교사는 교육에도 정성을 쏟았다. 공주에 명선학당을 세워 여자아이를 모아 교육을 했고, 나중에 영명여학교가 됐다. 충청 전역을 통틀어 근대식 여성 교육의 시초였다. 사애리시는 선교차 들렀던 목천군 이동면의 지령리 교회에서 한 소녀를 만났다. 수차례 오가며 소녀가 똑똑하고 신앙심이 있음을 확인했다. 그녀는 소녀에게 영명여학교에 와서 공부할 수 있도록 길을 놓았다. 그 소녀의 이름이 유관순이다.1902년 세워진 공주 제일교회의 최초 예배당 사진이 교회 벽면에 걸려 있다. 오른쪽은 사애리시 선교사와 유관순 열사의 모습니다. 사애리시 선교사는 유관순을 자신을 딸처럼 대했다. 백성호 기자영명 여학교에 다니던 여학생들의 모습이다. 흰 동그라미가 사애리시 선교사, 노란 동그라미가 당시 재학 중이던 유관순의 모습이다. 공주=백성호 기자유관순은 1914년 영명 여학교에 입학해 2년간 공부했다. 기독교적 의미가 담긴 ‘영명(永明)’은 ‘영원한 빛’이란 뜻이다. 총신대 역사교육과 허은철 교수는 “유관순은 어렸을 때부터 한글을 빨리 익혀서 성경 말씀을 많이 암송했다”며 “당시 사애리시 선교사는 어린 유관순을 잘 챙겨주었으며, 자신의 딸 같이 대했다. 심지어 학비를 모두 대주며 서울 이화학당 보통과에 입학해 공부할 수 있도록 전폭적 지원을 했다”고 설명했다.1919년 4월 충남 병천 아우내 장터에서 만세운동이 벌어졌다. 일제의 강제 휴교령으로 고향에 내려와 있던 유관순은 두 살짜리 조카를 등에 업고 만세운동에 참여했다. 유관순의 부모는 만세운동 중 일본 헌병에게 모두 살해당했다. 유관순은 체포돼 모진 고문을 당하다 17세 나이에 옥사했다. 유관순 집안은 독립운동과 관련해 부모와 형제, 조카까지 모두 9명이 애국훈장을 받았다.유관순 열사는 아우내 장터에서 만세운동을 하다가 체포돼 수감됐고, 모진 고문을 당하다 옥사했다. 공주제일교회 기념관에 전시된 유관순 열사의 옥중 사진. 백성호 기자서만철 한국침례신학대 특임교수는 ”일제의 침탈과 수탈 과정을 지켜보던 서양 선교사들은 학생들에게 직간접적으로 민족정신을 일깨우는 교육을 했다”며 “유관순에게 신학문을 가르치고 민족정신을 가르친 사람이 사애리시 선교사였다. 한마디로 유관순의 스승이었다”고 말했다.사애리시 선교사가 키워낸 여성 인재는 유관순뿐만 아니다. 해방 후 자유당 정부에서 장관을 역임하고 중앙여자대학교(중앙대 전신)를 설립한 임영신, 한국 최초의 여성 경찰서장 노마리아, 한국 감리교 최초의 여성 목사인 전밀라 등 다수였다.1940년 일제는 선교사 강제 추방령을 내렸다. 사애리시 선교사는 69세 때 한국을 떠났다. 남편을 잃은 이국땅에서 무려 38년간 교육 선교를 하며 자신의 생애를 바쳤다. 미국으로 돌아간 사애리시 선교사는 1972년 캘리포니아주 패서디나의 은퇴선교사요양원에서 101세를 일기로 소천했다. 방에 남겨진 유품은 옷가지 몇 벌과 오래된 트랜지스터라디오 하나뿐이었다고 한다.서동표 군산중동교회 담임목사(왼쪽)와 소강석 새에덴교회 담임목사가 초기 선교사들의 생애와 그들이 학교를 세워 학생들에게 일깨운 민족정신에 대해 설명하고 있다. 뒤에 보이는 건물은 군산 3.1운동 기념관이다. 군산=백성호 기자기독교 근대문화유산 탐방에 동행한 소강석 목사(한교총 전 대표회장)는 “당시 미국 선교본부는 정교분리 원칙을 세웠다. 그런데 미션 학교 입장에서 볼 때 일제의 만행이 너무 지나쳤다”며 “선교사들은 학생들에게 성경에 나타난 자유와 사랑, 박애의 정신을 가르쳤다. 이는 결국 민족정신을 일깨우는 역할을 했다”고 강조했다.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>백성호 기자</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/025/24905</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>기사 내용이 건강 정보와 관련이 없어 활용이 불가합니다.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>미셸 “남편 일정 불참했다고 이혼설… 뭘 몰라”</t>
+          <t>때이른 봄바람 타고, 꽃가루 알레르기도 빨리 덮쳤다</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/People/article/all/20250410/131393669/2</t>
+          <t>https://www.chosun.com/national/transport-environment/2025/04/11/SZZZSGL6BVB37NXCFC2EXOYTBU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627540?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898918?sid=102</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4275,41 +4299,49 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>트럼프 취임식-카터 장례식 불참에“내 스스로 일정 결정” 이혼설 일축“여성에 대한 시선 얼마나 큰지 느껴”버락 오바마 전 미국 대통령(오른쪽)과 부인 미셸 여사가 2018년 11월 수도 워싱턴에서 열린 미셸 여사의 자서전 ‘비커밍’의 북투어 행사에 등장했다.  사진 출처 미셸 오바마 인스타그램“내가 스스로 일정을 결정한다는 사실을 이해하지 못하고 사람들은 우리 부부가 이혼 절차를 밟고 있을 거라고 생각하더라.”버락 오바마 전 미국 대통령의 부인 미셸 오바마 여사가 최근 전직 대통령 부부 행사에 잇따라 불참하면서 불거진 이혼설에 대해 내놓은 반응이다. 미셸 여사가 9일(현지 시간) 배우 소피아 부시가 진행하는 팟캐스트에 출연해 이혼설을 일축했다고 미 NBC 방송 등이 전했다.미셸 여사는 올 1월 지미 카터 전 대통령의 장례식과 도널드 트럼프 대통령의 취임식에 연달아 불참했다. 통상 전직 대통령 장례식과 신임 대통령 취임식엔 전직 대통령 부부가 관례적으로 참석한다. 당시 전현직 대통령 부부들 가운데 오바마 전 대통령만 혼자 행사에 참석했다.미셸 여사는 이날 팟캐스트에서 전직 대통령 부부 행사 일정을 소화하지 않은 것과 부부 관계는 아무런 상관이 없다고 했다. 그는 “현재 일정표를 스스로 관리한다”며 “다 큰 어른으로서 혼자 결정을 내리고 있을 뿐”이라고 말했다. 개인 일정으로 행사들에 불참했다는 것. 행사 불참으로 불거진 부부 불화설과 관련해 그는 “여성으로서 다른 사람들의 기대를 충족시켜야 한다는 시선이 얼마나 큰지 느꼈다”고 토로했다.미셸 여사가 트럼프 대통령 취임식에 나타나지 않자, 그가 트럼프 대통령에 대한 반감 탓에 불참했다는 해석도 나왔다. 과거 트럼프 대통령이 오바마 전 대통령의 출생증명서에 의문을 제기하는 등 확인되지 않은 내용으로 정치 공세를 펼치자 반감이 쌓였다는 것이다. 미셸 여사는 자신의 회고록 ‘비커밍’에서 “절대 용서하지 않겠다”며 트럼프 대통령에 대한 반감을 드러냈다. 2020년엔 트럼프 행정부의 인종차별과 위선적 행동 때문에 경미한 우울증을 앓고 있다고도 했다.미셸 여사는 1988년 미 하버드대 로스쿨을 졸업한 변호사 출신으로 1992년 오바마 전 대통령과 결혼했다. 2008년 남편이 대선에 뛰어들자 선거운동에 적극 참여했고, 젊은 이미지로 대중적인 인기를 누렸다. 꾸준히 민주당의 잠재적 대선 후보로도 거론돼 왔다. 미셸 여사는 남편이 정치 경력을 쌓을 때 가사와 육아 부담을 혼자 짊어져 부부 갈등을 빚었다고 2022년 방송 인터뷰에서 밝히기도 했다.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>봄철 알레르기 질환 기승게티이미지코리아서울에 사는 직장인 이모(30)씨는 지난달 초부터 재채기, 콧물, 코막힘 등 비염 증상이 나타나 동네 의원을 다니고 있다. 이씨는 “일할 때 집중도 잘 안 되고 만성 피로에 시달리고 있다”며 “보통 3월 말이나 4월 초쯤 비염 증상이 생기는데 올해는 더 일찍 나타나 고생”이라고 했다.온난화로 봄 시작이 앞당겨지면서, 봄철 불청객인 꽃가루 알레르기가 찾아오는 시기도 점점 빨라지고 있다. 10일 국립기상과학원에 따르면, 이달 1~10일 경기 한양대구리병원 인근에서 채집한 꽃가루는 총 152개로 작년 같은 기간(141개)보다 7.8% 증가했다. 환경부 관계자는 “봄이 갈수록 앞당겨지면서 꽃가루 날림 현상도 빨라지고 있다”고 했다. 올 3월 평균 기온은 영상 7.6도로 작년 3월(6.9도)보다 따뜻했다.꽃가루 알레르기 때문에 병원을 찾는 환자도 갈수록 늘고 있다. 이비인후과 전문의 12명이 근무하는 하나이비인후과병원의 이상덕 원장은 “올해는 3월부터 알레르기성 비염이나 결막염으로 병원을 찾는 환자가 늘었다”고 했다. 건강보험심사평가원에 따르면, 알레르기성 비염 환자는 2021년 491만1876명에서 2023년 743만373명으로 50% 넘게 증가했다. 같은 기간 알레르기성 결막염 환자는 9% 증가해 200만명에 육박했고, 천식 환자도 52.6% 늘어 100만명을 넘어섰다. 한두희 서울대병원 이비인후과 교수는 “알레르기성 비염 환자 등의 증가는 코로나가 한창일 때 낮아졌던 병원 접근성이 회복된 영향으로 추정된다”면서 “코로나를 거치며 호흡기 증상에 대한 국민들의 관심이 늘어나 조금이라도 불편함을 느끼면 병원을 가는 경우가 증가했을 수도 있다”고 말했다.그래픽=양진경꽃가루 알레르기를 일으키는 주범은 꽃보다 나무다. 참나무·오리나무·자작나무·삼나무처럼 번식을 위해 봄바람에 꽃가루를 날려 보내는 ‘풍매화(風媒花)’가 알레르기를 주로 일으킨다. 통상 4월 초순부터 5월 하순까지 꽃가루를 날리는 참나무는 산속에서 자라지만, 최근 점점 도심에도 심고 있다. 물가 등에 주로 자라는 오리나무의 꽃가루도 바람에 실려 도심까지 날아올 수 있다. 한대식물인 자작나무는 남한에 자생하지 않지만 전국 골프장, 휴양 시설, 신규 아파트 단지에 조경 목적으로 심는 추세다. 삼나무는 일제강점기에 일본에서 들여와 제주도와 남해안에 심었고, 삼나무 때문에 봄에 제주도 여행을 갔다가 알레르기에 시달리는 사람이 많은 것으로 알려져 있다.그래픽=양진경꽃가루 지수는 ‘낮음’~‘매우 높음’의 4단계로 나누는데, 10일 전남 광양에서는 꽃가루(참나무) 위험 지수가 ‘높음’을 보였다. 대부분의 알레르기 환자에게 증상이 나타날 수 있어 야외 활동 자제를 권고하는 수준이다. 부산, 울산, 경남 창원·김해·양산은 ‘보통’으로, 알레르기 환자에게 야외 활동 시 선글라스와 마스크를 착용하도록 권고했다. 11일에는 경북 포항, 대구 일부와 경산 등지로 ‘보통’ 예보가 확대되고, 12일에는 경남·전남 남해안 일부 지역이 ‘높음’을 보일 전망이다.알레르기 질환은 집먼지진드기나 찬 기온, 황사·미세 먼지에 의해서도 심해진다. 봄철에는 겨우내 옷장에 보관 중이던 봄옷을 꺼내 입는 과정에서 알레르기가 심해질 수 있다. 따뜻하고 습한 곳을 좋아하는 집먼지진드기는 주로 옷이나 침구류, 카펫 등에 살고, 곰팡이도 습기를 좋아하기 때문이다. 또 봄철을 맞아 새벽이나 밤에 운동을 하거나, 큰 일교차로 인해 감기에 걸려 알레르기 증상이 악화하는 경우가 많다.이상덕 원장은 “꽃가루 알레르기가 발생하기 전부터 알레르기를 낮추는 약물을 복용하면 증상이 미미하거나 거의 없이 꽃가루 시즌을 넘어갈 수 있다”고 했다. 권혁수 서울아산병원 알레르기내과 교수는 “꽃가루 알레르기를 방치하면 수면에도 큰 영향을 미치기 때문에 효과와 안전성이 입증된, 코에 뿌리는 스테로이드제(스프레이) 등으로 적절히 치료하는 것이 중요하다”고 했다. 또 코를 세척하고 점안액을 넣으면 자극을 줄일 수 있다.일상에선 꽃가루 농도가 높은 날에는 실내에서 창문을 닫고, 외출할 때 마스크나 모자 등으로 얼굴을 가리는 것이 좋다. 꽃가루가 잘 달라붙는 니트나 털옷은 피해야 하고, 꽃가루가 많은 날 낮에 빨래를 밖에 널어 말리지 않아야 한다. 외출 후 손과 얼굴을 깨끗이 씻는 것이 좋다.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>정해민 기자</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/023/79763</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>미셸 오바마 여사가 전직 대통령 행사 불참과 관련된 이혼설을 부인하며 개인 일정에 따른 결정임을 밝혔다.</t>
+          <t>봄철 꽃가루 알레르기 예방을 위해 마스크 착용과 실내 활동을 권장하며, 약물 치료로 증상 완화가 가능하다.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>‘최민환과 이혼’ 율희 “인생의 실패 아냐”(‘뛰어야 산다’)</t>
+          <t>힐스테이트에 '1인 전용 명상공간'</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288996</t>
+          <t>https://www.hankyung.com/article/2025041162931</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474780</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118145?sid=101</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4322,31 +4354,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>현대건설, 수원 호매실 첫 도입"심리적 안정 효과 높여준다"현대건설이 힐스테이트 입주민의 정신 건강과 정서적 안정감을 고려한 아파트 전용 명상 공간 ‘H 카밍부스’를 국내 처음으로 공동주택에 도입한다.현대건설은 경기 수원 권선구 ‘힐스테이트 호매실’에 H 카밍부스를 처음 적용한다고 11일 밝혔다. 기존 입주 단지 업그레이드뿐만 아니라 입주민의 일상까지 배려하는 차별화된 주거 서비스를 확대할 계획이라고 설명했다.1인 전용 명상 공간인 H 카밍부스는 아파트 단지 내에서 입주민이 자유롭게 이용할 수 있는 ‘멘털 힐링 특화 시설’이다. 복잡한 일상에서 벗어나 정서적 안정을 찾을 수 있도록 설계됐다.이 공간은 심리적 몰입을 돕는 차분한 색채의 인테리어 자재, 낮은 조도의 조명, 차음(소음차단) 구조를 적용해 심리 안정 효과를 높여준다. 대표 명상 플랫폼 ‘마보’와 협업해 명상 초보자도 쉽게 활용할 수 있도록 영상 기반 명상 콘텐츠를 제공한다. 사용자는 부스 내에서 마음 챙김, 호흡법, 수면 습관 등 다양한 프로그램을 선택해 이용할 수 있다. 현대건설은 마보가 제시하는 디지털 웰빙 솔루션을 H 카밍부스에 적용해 입주민의 주거 만족도를 높일 계획이다.현대건설은 힐스테이트 호매실에 인공지능(AI) 기반 헬스케어 공간 ‘H 헬시플레저’를 함께 적용했다. 닥터엑솔·마이베네핏과 협업한 이 시스템은 GX룸에 설치돼 체형 분석 및 관절가동범위(ROM), 체력 측정을 통한 개인 맞춤형 운동 솔루션 등의 서비스를 제공한다. AI 모션인식 기술이 적용돼 혼자서도 코칭에 따라 운동할 수 있다.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>심은지 기자</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/015/26005</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>현대건설이 아파트에 명상과 운동을 위한 공간을 도입해 정신적, 신체적 건강 관리를 지원합니다.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>“P가 뭐더라?” 지예은, 왕초보의 운전할 결심(‘런닝맨’)</t>
+          <t>"개헌 필요하다" 67%…"尹 파면 동의" TK서도 57%[중앙일보 여론조사]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289388</t>
+          <t>https://www.joongang.co.kr/article/25327821</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005475028</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433482?sid=100</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4359,31 +4411,47 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>개헌에 찬성하는 여론이 70%에 육박하고, 개헌을 할 경우 4년 중임 대통령제로 권력 구조를 바꿔야 한다는 여론이 큰 것으로 나타났다.중앙일보가 한국갤럽에 의뢰해 지난 8~9일 실시한 여론조사에서 개헌 필요성을 물은 결과 ‘필요하다’는 응답은 67%로 집계됐다. ‘필요하지 않다’는 21%였다. 연령대로 보면 50대, 60대, 70세 이상에서의 찬성 비율이 각각 71%, 71%, 68%로 40대 이하에 비해 개헌 찬성 여론이 강했다. 허진재 한국갤럽 여론수석은 “개헌의 필요성에 대한 국민적 공감대가 형성돼 있다고 평가할 수 있다”고 말했다.지지 정당별로는 국민의힘 지지층의 70%가 찬성해 더불어민주당 지지층(66%)보다 찬성 비율이 높았다. 이는 지난 1월 22~23일 YTN·엠브레인퍼블릭 조사에서 민주당 지지층(54%)의 찬성 비율이 국민의힘 지지층(30%)보다 높았던 것과 대조적이다. 이재명 전 민주당 대표가 공직선거법 2심 재판에서 무죄를 선고받고, 윤석열 전 대통령이 파면된 뒤로 각 정당 지지층의 개헌 관련 선호도가 달라진 셈이다. 허진재 수석은 “이대로 대선 분위기가 흘러가면 이재명 전 대표가 5년 동안 대통령을 할 가능성이 커지면서 개헌으로 판을 흔들기 싫은 민주당 지지층과 판을 흔들고 싶은 국민의힘 지지층이 상황이 뒤바뀐 것으로 보인다”고 분석했다.정근영 디자이너선호하는 권력 구조는 현행 대통령 중심제가 41%로 가장 높았다. 대통령이 외치를 맡고 국무총리가 내치를 맡는 분권형 대통령제는 24%, 국회 다수당이 행정부를 구성하는 의원내각제는 19%로 나타났다. 장승진 국민대 정치외교학과 교수는 “대통령 중심제가 한국인에게 가장 익숙한 제도고, 87년 민주화 운동의 가장 큰 성과가 대통령 직선제여서 지지 여론이 더 높은 것으로 보인다”며 “의원내각제는 익숙하지 않은 데다가 국회에 대한 불신 때문에 지지도가 낮다”고 설명했다.대통령 임기는 4년씩 두 번 할 수 있는 4년 중임제(62%)가 현행 5년 단임제(33%)보다 선호도가 높았다.정근영 디자이너개헌을 위한 국민투표 시기는 6·3 대선 때 실시(34%)와 내년 6월 지방선거 때 실시(34%)의 응답 비율이 같았다. 2028년 4월 총선 때 함께 해야한다는 의견은 22%였다. 눈에 띄는 점은 지지 정당별 차이였다. 민주당 지지층은 ‘이번 대선 때’가 25%, ‘지방선거 때’가 40%로 조사됐고, 국민의힘 지지층은 ‘이번 대선 때’가 40%, ‘지방선거 때’가 25%로 집계됐다. 국민의힘 지지층이 상대적으로 빠른 개헌을 원하는 셈이다.윤 전 대통령 파면 결정에 ‘동의한다’는 응답은 73%로 ‘동의하지 않는다’(24%)는 응답의 세 배였다. 특히 ‘매우 동의한다’가 60%에 달했다. 보수세가 강한 대구·경북에서도 ‘동의한다’가 57%로 더 많았고, 70세 이상에서도 50%였다. 다만 국민의힘 지지층에선 ‘동의한다’가 34%로 ‘동의하지 않는다’(63%)보다 적었다.장윤진 한국갤럽 여론분석실 부장은 “높은 연령대에서도 ‘동의한다’가 절반 나온 것을 보면 윤 전 대통령 파면에 대한 정당성은 확보된 것으로 보인다”며 “대선 국면으로 전환이 빨리 된 것”이라고 평가했다.신재민 기자◇여론조사 어떻게 진행했나이번 조사는 중앙일보가 한국갤럽에 의뢰해 4월 8일~9일 전국의 만 18세 이상 남녀 1004명을 대상으로 휴대전화(가상번호) 면접 조사 방식으로 진행했다. 응답률은 14.5%(6915명 중 1004명)이며 3월 행정안전부 주민등록 인구 기준으로 성별·연령별·지역별 가중값을 부여했고, 표본오차는 95% 신뢰 수준에서 최대 ±3.1%포인트다. 자세한 내용은 중앙선거여론조사심의위원회 홈페이지(www.nesdc.go.kr) 참조.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>윤성민 기자</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/025/70806</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>"그 女선교사 없었다면 유관순 열사가 있었을까" [백성호의 현문우답]</t>
+          <t>김준호 위고비로 6kg 감량…“식욕·수면욕 다 떨어진다”</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327780</t>
+          <t>https://www.donga.com/news/Society/article/all/20250411/131397225/2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433442?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627677?sid=102</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4398,22 +4466,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>백성호 종교전문기자지난달 25일 충남 공주의 영명 고등학교를 찾았다. 한국교회총연합(대표회장 김종혁 목사)이 주관한 기독교 근대 문화유산 탐방의 일환이었다. 학교 바로 뒤 언덕에 영명 동산이 있었다. 그곳에 조그만 선교사 묘역이 있었다. 그중 눈에 띈 것은 샤프 선교사(1872~1906)의 묘비였다. 그는 유관순 열사의 스승인 사애리시 선교사의 남편이다. 1906년 이곳에 묻혔을 때, 그의 나이는 고작 34세에 불과했다.영명 고등학교 뒷동산에 있는 사애리시 선교사 부부와 유관순 열사(왼쪽)의 동상. 여양현(왼족) 영명중고 교장과 서만철 한국침례신학대 특임교수가 그들의 생애에 대해서 설명하고 있다. 공주=백성호 기자여기가 슬픔의 끝이 아니었다. 그에게는 3년 전에 결혼한 젊디젊은 아내가 있었다. 그가 바로 사애리시 선교사다. 남편의 성인 ‘샤프’를 따 사(史)씨가 됐고, ‘사랑의 이치를 베푼다’는 뜻에서 ‘애리시(愛理施)’란 이름을 썼다. 영어 이름은 ‘앨리스 하몬드 샤프(Alice H. Sharp)’였다.그녀의 생애를 아는 이라면 이런 물음을 던진다. “만약 사애리시 선교사가 없었다면, 유관순 열사가 있었을까?” 그만큼 유관순의 삶에 큰 영향을 미친 이가 사애리시 선교사다.사애리시 선교사는 캐나다에서 태어났다. 1900년 말에 미국 감리교 선교사로 한국에 왔다. 동료였던 샤프 선교사와 1903년 이화학당 본관에서 결혼했다. 이듬해 두 사람은 공주 선교부 책임자로 임명됐다.영명 고등학교 뒷동산에 있는 선교사 묘역. 왼쪽에 사애리시 선교사의 묘비가 보인다. 오른쪽 뒷편이 남편 샤프 선교사의 묘다. 이들은 결혼 3년 만에 사별했다. 공주=백성호 기자샤프 선교사 부부는 공주를 중심으로 강경, 논산 등 충남 일대 농촌 마을을 오가며 선교 활동을 했다. 1906년 겨울이었다. 한파가 몰아치는 날이었다. 강경과 논산에서 전도를 하고 돌아오던 샤프 선교사는 세찬 진눈깨비를 만났다. 길을 가기가 쉽지 않았다. 마침 산모퉁이에 초가가 있었다. 빈집이었다. 샤프 선교사는 그곳에 들어가 눈보라와 추위를 피하며 몸을 녹였다.그 집은 장티푸스로 죽은 사람의 장례를 치른 상여를 보관하는 상엿집이었다. 그걸 모른 채 샤프 선교사는 그만 그 상여를 만졌다. 결국 전염병인 장티푸스에 걸리고 말았다. 한 달 뒤에 샤프 선교사는 세상을 떠났다. 결혼 3년 만에 남편을 잃은 사애리시 선교사는 큰 충격을 받았다. 슬픔을 견디지 못한 사애리시 선교사는 미국으로 돌아갔다.쉽지 않은 일이다. 남편을 잃은 이국땅으로 다시 돌아와, 자신의 생을 바치는 일 말이다. 2년간 몸과 마음을 추스른 사애리시는 ”우리는 잃은 것이 많지만, 하나님께서 우리에게 좋은 것을 주실 것이다”라며 다시 한국으로 돌아왔다. 청상과부가 된 그녀를 한국 사람들은 “사 부인”이라고 불렀다.사애리시 선교사는 교육에도 정성을 쏟았다. 공주에 명선학당을 세워 여자아이를 모아 교육을 했고, 나중에 영명여학교가 됐다. 충청 전역을 통틀어 근대식 여성 교육의 시초였다. 사애리시는 선교차 들렀던 목천군 이동면의 지령리 교회에서 한 소녀를 만났다. 수차례 오가며 소녀가 똑똑하고 신앙심이 있음을 확인했다. 그녀는 소녀에게 영명여학교에 와서 공부할 수 있도록 길을 놓았다. 그 소녀의 이름이 유관순이다.1902년 세워진 공주 제일교회의 최초 예배당 사진이 교회 벽면에 걸려 있다. 오른쪽은 사애리시 선교사와 유관순 열사의 모습니다. 사애리시 선교사는 유관순을 자신을 딸처럼 대했다. 백성호 기자영명 여학교에 다니던 여학생들의 모습이다. 흰 동그라미가 사애리시 선교사, 노란 동그라미가 당시 재학 중이던 유관순의 모습이다. 공주=백성호 기자유관순은 1914년 영명 여학교에 입학해 2년간 공부했다. 기독교적 의미가 담긴 ‘영명(永明)’은 ‘영원한 빛’이란 뜻이다. 총신대 역사교육과 허은철 교수는 “유관순은 어렸을 때부터 한글을 빨리 익혀서 성경 말씀을 많이 암송했다”며 “당시 사애리시 선교사는 어린 유관순을 잘 챙겨주었으며, 자신의 딸 같이 대했다. 심지어 학비를 모두 대주며 서울 이화학당 보통과에 입학해 공부할 수 있도록 전폭적 지원을 했다”고 설명했다.1919년 4월 충남 병천 아우내 장터에서 만세운동이 벌어졌다. 일제의 강제 휴교령으로 고향에 내려와 있던 유관순은 두 살짜리 조카를 등에 업고 만세운동에 참여했다. 유관순의 부모는 만세운동 중 일본 헌병에게 모두 살해당했다. 유관순은 체포돼 모진 고문을 당하다 17세 나이에 옥사했다. 유관순 집안은 독립운동과 관련해 부모와 형제, 조카까지 모두 9명이 애국훈장을 받았다.유관순 열사는 아우내 장터에서 만세운동을 하다가 체포돼 수감됐고, 모진 고문을 당하다 옥사했다. 공주제일교회 기념관에 전시된 유관순 열사의 옥중 사진. 백성호 기자서만철 한국침례신학대 특임교수는 ”일제의 침탈과 수탈 과정을 지켜보던 서양 선교사들은 학생들에게 직간접적으로 민족정신을 일깨우는 교육을 했다”며 “유관순에게 신학문을 가르치고 민족정신을 가르친 사람이 사애리시 선교사였다. 한마디로 유관순의 스승이었다”고 말했다.사애리시 선교사가 키워낸 여성 인재는 유관순뿐만 아니다. 해방 후 자유당 정부에서 장관을 역임하고 중앙여자대학교(중앙대 전신)를 설립한 임영신, 한국 최초의 여성 경찰서장 노마리아, 한국 감리교 최초의 여성 목사인 전밀라 등 다수였다.1940년 일제는 선교사 강제 추방령을 내렸다. 사애리시 선교사는 69세 때 한국을 떠났다. 남편을 잃은 이국땅에서 무려 38년간 교육 선교를 하며 자신의 생애를 바쳤다. 미국으로 돌아간 사애리시 선교사는 1972년 캘리포니아주 패서디나의 은퇴선교사요양원에서 101세를 일기로 소천했다. 방에 남겨진 유품은 옷가지 몇 벌과 오래된 트랜지스터라디오 하나뿐이었다고 한다.서동표 군산중동교회 담임목사(왼쪽)와 소강석 새에덴교회 담임목사가 초기 선교사들의 생애와 그들이 학교를 세워 학생들에게 일깨운 민족정신에 대해 설명하고 있다. 뒤에 보이는 건물은 군산 3.1운동 기념관이다. 군산=백성호 기자기독교 근대문화유산 탐방에 동행한 소강석 목사(한교총 전 대표회장)는 “당시 미국 선교본부는 정교분리 원칙을 세웠다. 그런데 미션 학교 입장에서 볼 때 일제의 만행이 너무 지나쳤다”며 “선교사들은 학생들에게 성경에 나타난 자유와 사랑, 박애의 정신을 가르쳤다. 이는 결국 민족정신을 일깨우는 역할을 했다”고 강조했다.</t>
+          <t>개그맨 김준호. 사진=김준호 유튜브 채널 ‘준호지민’ 캡쳐개그우먼 김지민과 결혼을 앞둔 개그맨 김준호가 위고비를 통해 6kg을 감량했다고 밝혔다.10일 김준호의 유튜브 채널에는 “웨딩드레스 피팅 하는 날”이라는 제목의 영상이 올라왔다.영상 속 김준호는 “결혼 준비하면서 살을 많이 뺐다 하더라”라는 제작진의 질문에 “고비고비 위고비. 지금이 고비다. 위고비를 계속해야 할지”라며 위고비로 체중 감량에 성공했다고 밝혔다.김준호는 “83kg에서 77kg까지 뺐다. 이제 유지를 해야 한다. 운동 계속해야 한다”라고 다짐했다. 이를 들은 김지민은 “살 계속 빼지 말라”며 “너무 예민해진다. 요즘 대하기 되게 힘들다. 옛날에는 되게 뭐만 해도 긍정적인 사람이었는데 부정적인 사람으로 변했다”며 김준호의 다이어트를 만류했다.이에 김준호는 “요새 먹는 것, 자는 것이 잘 안된다. 수면욕, 식욕이 다 떨어지더라”라고 부작용을 토로했다.개그맨 김준호. 사진=김준호 유튜브 채널 ‘준호지민’ 캡쳐최근 유튜버 빠니보틀 또한 위고비를 통해 70kg 대에서 64kg까지 약 10kg을 감량했다고 밝힌 바 있다.그는 “전성기 때 몸무게는 62kg이었다”라며 “내가 그걸(위고비) 맞아서 살을 뺐다고 하면 사람들은 뒷광고 하냐고 욕을 하는데 좀 억울하다. 밥을 남기면 ‘위고비 맞아서 그렇다’고 설명했는데 왜 자꾸 얘기하냐고 하더라”고 억울함을 토로하기도 했다.한편, 위고비는 덴마크 제약사 노보노디스크가 개발한 비만 치료제다. 위고비의 주성분은 글루카곤 유사 펩타이드-1(GLP-1)이라는 호르몬을 모방한 세마글루타이드다.GLP-1은 인슐린 분비를 촉진하고 글루카곤의 분비를 억제해 포만감을 느끼게 한다. GLP-1을 모방한 세마글루타이드는 뇌를 속여 포만감을 일으키고 음식물 섭취량을 줄이는 기능을 한다.해외에서는 테슬라 CEO 일론 머스크와 모델이자 사업가인 킴 카다시안이 위고비를 통해 체중 감량에 성공했다고 밝히기도 했다.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>백성호 기자</t>
+          <t>김승현 기자</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/025/24905</t>
+          <t>https://media.naver.com/journalist/020/81749</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>이 기사는 사애리시 선교사와 유관순 열사의 역사적 관계를 다루며 건강 정보와는 관련이 없습니다.</t>
+          <t>유명인의 체중 감량 사례와 비만 치료제 위고비의 부작용을 다룬 기사로, 건강 관리 동기 유발에 부적합합니다.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4425,22 +4493,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>때이른 봄바람 타고, 꽃가루 알레르기도 빨리 덮쳤다</t>
+          <t>“한국을 알려야 한다”...대한해협 건너편, 고국사랑 진심이었던 그 사...</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/transport-environment/2025/04/11/SZZZSGL6BVB37NXCFC2EXOYTBU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.mk.co.kr/article/11288627</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898918?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474567?sid=104</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4455,34 +4523,34 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>봄철 알레르기 질환 기승게티이미지코리아서울에 사는 직장인 이모(30)씨는 지난달 초부터 재채기, 콧물, 코막힘 등 비염 증상이 나타나 동네 의원을 다니고 있다. 이씨는 “일할 때 집중도 잘 안 되고 만성 피로에 시달리고 있다”며 “보통 3월 말이나 4월 초쯤 비염 증상이 생기는데 올해는 더 일찍 나타나 고생”이라고 했다.온난화로 봄 시작이 앞당겨지면서, 봄철 불청객인 꽃가루 알레르기가 찾아오는 시기도 점점 빨라지고 있다. 10일 국립기상과학원에 따르면, 이달 1~10일 경기 한양대구리병원 인근에서 채집한 꽃가루는 총 152개로 작년 같은 기간(141개)보다 7.8% 증가했다. 환경부 관계자는 “봄이 갈수록 앞당겨지면서 꽃가루 날림 현상도 빨라지고 있다”고 했다. 올 3월 평균 기온은 영상 7.6도로 작년 3월(6.9도)보다 따뜻했다.꽃가루 알레르기 때문에 병원을 찾는 환자도 갈수록 늘고 있다. 이비인후과 전문의 12명이 근무하는 하나이비인후과병원의 이상덕 원장은 “올해는 3월부터 알레르기성 비염이나 결막염으로 병원을 찾는 환자가 늘었다”고 했다. 건강보험심사평가원에 따르면, 알레르기성 비염 환자는 2021년 491만1876명에서 2023년 743만373명으로 50% 넘게 증가했다. 같은 기간 알레르기성 결막염 환자는 9% 증가해 200만명에 육박했고, 천식 환자도 52.6% 늘어 100만명을 넘어섰다. 한두희 서울대병원 이비인후과 교수는 “알레르기성 비염 환자 등의 증가는 코로나가 한창일 때 낮아졌던 병원 접근성이 회복된 영향으로 추정된다”면서 “코로나를 거치며 호흡기 증상에 대한 국민들의 관심이 늘어나 조금이라도 불편함을 느끼면 병원을 가는 경우가 증가했을 수도 있다”고 말했다.그래픽=양진경꽃가루 알레르기를 일으키는 주범은 꽃보다 나무다. 참나무·오리나무·자작나무·삼나무처럼 번식을 위해 봄바람에 꽃가루를 날려 보내는 ‘풍매화(風媒花)’가 알레르기를 주로 일으킨다. 통상 4월 초순부터 5월 하순까지 꽃가루를 날리는 참나무는 산속에서 자라지만, 최근 점점 도심에도 심고 있다. 물가 등에 주로 자라는 오리나무의 꽃가루도 바람에 실려 도심까지 날아올 수 있다. 한대식물인 자작나무는 남한에 자생하지 않지만 전국 골프장, 휴양 시설, 신규 아파트 단지에 조경 목적으로 심는 추세다. 삼나무는 일제강점기에 일본에서 들여와 제주도와 남해안에 심었고, 삼나무 때문에 봄에 제주도 여행을 갔다가 알레르기에 시달리는 사람이 많은 것으로 알려져 있다.그래픽=양진경꽃가루 지수는 ‘낮음’~‘매우 높음’의 4단계로 나누는데, 10일 전남 광양에서는 꽃가루(참나무) 위험 지수가 ‘높음’을 보였다. 대부분의 알레르기 환자에게 증상이 나타날 수 있어 야외 활동 자제를 권고하는 수준이다. 부산, 울산, 경남 창원·김해·양산은 ‘보통’으로, 알레르기 환자에게 야외 활동 시 선글라스와 마스크를 착용하도록 권고했다. 11일에는 경북 포항, 대구 일부와 경산 등지로 ‘보통’ 예보가 확대되고, 12일에는 경남·전남 남해안 일부 지역이 ‘높음’을 보일 전망이다.알레르기 질환은 집먼지진드기나 찬 기온, 황사·미세 먼지에 의해서도 심해진다. 봄철에는 겨우내 옷장에 보관 중이던 봄옷을 꺼내 입는 과정에서 알레르기가 심해질 수 있다. 따뜻하고 습한 곳을 좋아하는 집먼지진드기는 주로 옷이나 침구류, 카펫 등에 살고, 곰팡이도 습기를 좋아하기 때문이다. 또 봄철을 맞아 새벽이나 밤에 운동을 하거나, 큰 일교차로 인해 감기에 걸려 알레르기 증상이 악화하는 경우가 많다.이상덕 원장은 “꽃가루 알레르기가 발생하기 전부터 알레르기를 낮추는 약물을 복용하면 증상이 미미하거나 거의 없이 꽃가루 시즌을 넘어갈 수 있다”고 했다. 권혁수 서울아산병원 알레르기내과 교수는 “꽃가루 알레르기를 방치하면 수면에도 큰 영향을 미치기 때문에 효과와 안전성이 입증된, 코에 뿌리는 스테로이드제(스프레이) 등으로 적절히 치료하는 것이 중요하다”고 했다. 또 코를 세척하고 점안액을 넣으면 자극을 줄일 수 있다.일상에선 꽃가루 농도가 높은 날에는 실내에서 창문을 닫고, 외출할 때 마스크나 모자 등으로 얼굴을 가리는 것이 좋다. 꽃가루가 잘 달라붙는 니트나 털옷은 피해야 하고, 꽃가루가 많은 날 낮에 빨래를 밖에 널어 말리지 않아야 한다. 외출 후 손과 얼굴을 깨끗이 씻는 것이 좋다.</t>
+          <t>오사카 엑스포서 재일동포 거목 故이희건 기려15세때 日 건너가 사업 성공신한은행 설립 등 한일 가교1970년 오사카 엑스포 당시韓 참가할 수 있게 모금 주도도쿄올림픽 경비 전액지원도온갖 핍박에도 늘 고국 사랑고 이희건 전 신한금융 명예회장오는 13일 일본 오사카에서 개막하는 ‘오사카·간사이 만국박람회(오사카 엑스포)’ 한국관에는 특별한 전시물이 있다. 한국관 전시실은 20분 정도 체험할 수 있는 3개 공간으로 구성됐는데, 마지막 공간에서 출구로 나오면 ‘재일동포 지원 기념 월’을 마주할 수 있다.한국관 관계자는 “체험 공간도 중요하지만 이를 가능하게 한 것이 이분들의 차별과 억압 속에 빛난 고국 사랑이었다는 점을 강조하기 위해 제일 마지막 장소에 이를 배치했다”고 말했다.기념비에는 한국 경제 산업 발전과 양국 관계에 기여한 재일동포의 역할과 공헌에 관한 내용이 한국어·일본어·영어로 나란히 소개돼 있다. 모든 내용의 중심에는 2011년 작고한 이희건 전 신한금융 명예회장이 있다.오사카 엑스포는 1970년에도 열렸다. 당시 우리 국력 수준을 고려할 때 엑스포 참가는 엄두도 못 낼 상황이었다. 올해 엑스포에 159곳이 참가한 반면 당시 엑스포는78곳이 전부였다.어려운 경제 상황에서도 한국관 설립이 가능했던 것은 재일동포 덕분이다. 이들은 한국을 세계에 알려야 한다는 일념하에서 후원회를 결성하고 한국관 건설에 필요한 비용의 절반을 기부했다.당시 기부액은 2억2000만엔, 현재 기준으로 환산하면 500억원 이상의 가치가 있는 금액이다. 재일동포의 후원으로 건축가 김수근이 설계한 15개 열주가 늘어선 한국관은 당시 엑스포에서 화제가 된 건물 중 하나로 꼽힌다.이를 진두지휘한 것이 당시 오사카 재일동포의 중심이자 ‘보스’로 불리던 이희건 전 회장이다. 어려운 가정의 차남으로 태어나 15세에 일본으로 건너간 그는 수완을 발휘해 건실한 사업체를 일궈냈다.하지만 주변의 재일동포가 일본에서 은행을 이용하기 어려워 사업이 힘들다는 점을 느끼고 금융업에 뛰어들어 1956년 오사카흥은을 설립했다.오사카흥은은 재일동포 사업의 마중물이 돼줬고 오사카 지역 내 한인 사회는 크게 성장할 수 있었다. 이후 이 전 회장은 고국에서도 금융업을 통해 기여할 수 있는 방법을 계속해서 찾았고, 이는 1982년 신한은행 설립으로 이어진다.연설이 청산유수 같고 성격이 괄괄해 남들을 리드해왔던 이 전 회장은 1964년 도쿄올림픽 때에도, 1988년 서울올림픽 때에도 고국 지원의 중심에 있었다. 도쿄올림픽 때는 한일 국교 정상화 전인데도 불구하고 일본 정부의 차가운 눈길을 피해 올림픽에 참가한 한국 선수들의 모든 경비를 책임졌다.서울올림픽 개최를 위해 조직한 후원회 회장도 당연히 이 전 회장의 몫이었다. 당시에는 ‘고국에 경사가 났다’며 기쁨의 눈물을 훔치면서 쌈짓돈을 기부한 재일동포가 10만명에 달했다.이들의 기부액은 총 100억엔, 당시 환율로는 540억원에 달한다. 서울 올림픽공원에 세워진 대부분의 건물이 재일동포 기부금으로 지어졌을 정도다.1970년 오사카 엑스포 이후 55년 만에 다시 엑스포가 열린다. 이 전 회장이 설립한 한일교류재단은 이번에도 한국관 건립에 3억원을 쾌척했다. 고국의 경제력을 감안하면 적은 금액일 수도 있지만 그들의 고국 사랑은 결코 중단되지 않은 것이다.1992년 시작한 한국 제품 사기 캠페인인 ‘바이 코리안 운동’. 가운데가 이희건 전 신한금융 명예회장 [신한금융]최근 일본에 한식 붐이 크게 불고 있는데 그 시작을 1992년 이 전 회장이 시작한 ‘바이 코리안 운동’에서 찾는 사람들이 많다. 일본 현지에서 한국산 제품 사기 운동을 벌였고, 이것이 1990년대 중반부터 일본에 불어닥친 한국 김치·라면 붐으로 이어졌다는 것이다.진창수 주오사카총영사는 “도쿄의 대사관과 오사카총영사관 등 일본 내 주요 공관 대부분이 재일동포가 억압과 차별 속에서 힘들게 번 돈으로 지어졌다”며 “다음달 열리는 엑스포 한국의 날에 이들에 대한 감사의 의미를 담은 행사를 준비하고 있다”고 말했다.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>정해민 기자</t>
+          <t>이승훈 기자</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/023/79763</t>
+          <t>https://media.naver.com/journalist/009/21780</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>봄철 꽃가루 알레르기 증가로 예방과 관리의 중요성이 강조되며, 알레르기 증상 완화 방법이 제시됩니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>차태현→이이경 ‘핸썸가이즈’, 17일부터 日→木 편성변경 [공식]</t>
+          <t>‘트럼프 깜짝통화’로 존재감 키운 한덕수, 보수 대선후보 ‘히든카드...</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4492,12 +4560,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288702</t>
+          <t>https://www.mk.co.kr/article/11288642</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474628</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474579?sid=100</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4510,31 +4578,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>‘韓대행 출마설’ 왜 나오나트럼프, 통화서 “출마할거냐”40년 관료 경제 전문성 강점尹파면후 행보에 보수층 주목시간 빠듯해 경선 참여 힘들듯무소속 출마후 단일화 가능성민주당 “한덕수 나오면 땡큐”한덕수 대통령 권한대행 국무총리(왼쪽)가 10일 정부서울청사에서 정인교 통상교섭본부장(영상 왼쪽), 조현동 주미대사와 미국 관세 조치 대응을 위한 영상 회의를 하고 있다. [사진 제공 = 총리실]보수 진영에서 ‘한덕수 차출론’이 일파만파 번지고 있다.윤석열 전 대통령 파면으로 6월 3일 조기 대선을 치르게 되자 보수 진영에는 패배감이 자욱했다. 국민의힘에 압도적 지지를 받는 후보도 없었다.그러자 시선은 국정 수습 과정에서 안정감을 보여준 한덕수 대통령 권한대행 국무총리에게 빠르게 쏠리고 있다.한 권한대행은 과연 ‘기울어진 운동장’을 평평하게 만들 히든 카드가 될 수 있을까.국민의힘 내부에 잠복해 있던 한덕수 차출론이 수면 위로 급부상한 데는 두 가지 계기가 있었다.한 권한대행이 마은혁 헌법재판관을 임명하면서 보수 성향의 이완규 법제처장·함상훈 서울고법 부장판사를 ‘깜짝 지명’하는 강수를 둔 것이 첫 번째다. 보수 진영에선 한 권한대행의 결단력을 다시 보게 됐다.이어 도널드 트럼프 미국 대통령과 전화 통화를 하며 관세전쟁의 해결사 역할을 할 가능성을 기대하게 만들었다. 10일에는 트럼프 대통령이 통화에서 한 권한대행에게 출마 의사를 물었다는 뒷얘기가 전해졌다. 한 권한대행이 “결정된 것은 없다”며 즉답을 피했다는 소식에 출마 가능성을 열었다는 해석이 쏟아졌다.정치권에선 이 같은 행보가 준비된 것이란 분석도 내놓고 있다. 지난해 12월 27일 국회의 탄핵소추로 인해 직무가 정지된 후 3개월간 숙고를 거쳐 어떤 ‘결심’에 다다른 것 아니냐는 것이다.한 권한대행의 행보는 더불어민주당에 쏠릴 시선을 분산시키고 보수 진영의 열패감을 희석하는 데 이미 도움이 되고 있다는 분석도 나온다. ‘힘’ 있는 모습을 보이며 국정 수습에도 탄력이 붙고 있다는 평가 역시 나온다.국민의힘 내부 의견은 갈린다. 이날 국민의힘 호남지역 당협위원장들이 출마 촉구 선언문을 냈고, 의원들도 연판장을 돌린다는 소문이 돌았다.국민의힘 A의원은 “그는 총리 두 번에다 주미대사를 지낸 외교·통상 전문가”라며 “호남 출신이기도 해서 확장성을 보유한 검증된 후보”라고 높이 평가했다.중진인 B의원은 “국정 경험이 풍부한 데다 범죄 혐의와도 완전히 무관한 사람은 한덕수 총리”라면서 “이재명을 상대로 충분히 승산이 있는 카드”라고 했다. 최소 10여 명의 의원이 한 권한대행 출마를 지지하고 있는 것으로 파악된다.물론 윤 전 대통령 파면으로 국정 책임자 위치에 있는 한 권한대행이 돌연 차기 대권에 도전하는 것은 쉽지 않다는 주장도 있다. 당내 인사를 후보로 세워 민주당과 1대1 구도를 만드는 것이 옳다는 얘기다.한 권한대행은 최근까지 국민의힘 지도부는 물론 주변에도 출마 의사를 명시적으로 밝힌 적은 없다. 다만 그가 출마 가능성을 완전히 닫은 것도 아니라는 말이 계속 흘러나온다.당장 국민의힘 경선에 나오려면 이달 14~15일 후보 등록을 해야 한다. 일단 한 권한대행이 직을 버리고 경선에 출마할 가능성은 낮다는 분석이다.김문수 전 고용노동부 장관은 지난 7일 사표를 냈다. 황우여 국민의힘 선거관리위원장은 이날 “(한 권한대행이) 뜻이 있다면 속히 들어오는 게 맞는다”고 했다.10일 오전 서울 종로구 정부서울청사에서 열린 국정현안관계장관회의 한덕수 대통령 권한대행 겸 국무총리의 모습 [사진 = 대통려실사진기자단]다만 국민의힘 후보가 결정되는 과정에서 보수 진영 전체로 판을 확대해 ‘국민 경선’의 기회가 다시 만들어진다면 얘기가 달라진다.한 권한대행이 선거 30일 전인 5월 4일 이전에만 사퇴하면 대선에 출마할 수 있다. 국민의힘 최종 후보가 정해지고도 이재명 전 민주당 대표와 ‘박빙’ 상황을 만들지 못하면 한 권한대행이 무소속으로 등판하고, 이후 보수 진영에서 단일화 과정을 만들 수 있다는 시나리오다.이양수 국민의힘 사무총장은 “경선이 모두 끝나고 국민의힘 후보가 그때 여러 가지 상황을 고려해 무소속 후보와 단일화를 통해 시너지를 발휘해야 집권이 용이하겠다고 생각할 수 있으리라 본다”며 “당에서 왈가왈부할 문제는 아니라고 생각한다”고 여운을 남겼다.한 권한대행 차출론에 민주당은 이해득실을 계산하고 나섰다. 민주당 의원들 사이에서는 “(한 권한대행 탄핵은) 2주면 충분하다”는 말까지 나온다.친이재명계 좌장으로 통하는 정성호 민주당 의원도 라디오에 출연해 “(한 권한대행을) 탄핵할 수밖에 없다”며 “정말 상상할 수 없는 그런 행태를 보여줬다. 더 이상 어떻게 용납하겠느냐”고 했다.정 의원은 특히 “일각에는 헌법 84조 해석과 관련해 대통령에 대한 기소가 아닌 재판은 진행할 수 있다는 판단을 끌어내기 위해 보수 성향 재판관을 투입하려 한다고 의심하는 사람들이 있다”며 “한 권한대행이 윤 전 대통령과 함께 헌재를 통한 쿠데타를 일으키려고 하는 게 아닌가”라고 덧붙였다.한 권한대행이 등판하더라도 정치적 돌파력 부재가 금방 드러날 것이라는 시선도 있다. 과거 반기문 전 유엔 사무총장이나 고건 전 국무총리, 황교안 전 국무총리 등이 그랬다는 경험적 사고다.반면 민주당 일각에선 “3년 전에도 ‘윤나땡(윤석열이 나오면 땡큐)’을 외치다가 졌다”며 새 변수를 만들어선 안 된다는 주장도 나온다.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>김명환 외 2명</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/22540</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>정치적 이슈와 관련된 기사로 건강 정보와 관련성이 없어 활용이 불가합니다.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>힐스테이트에 '1인 전용 명상공간'</t>
+          <t>제주 4·3 사건, 세계기록유산 등재</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/2025041162931</t>
+          <t>https://www.mk.co.kr/article/11289348</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118145?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474997?sid=103</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4549,49 +4637,49 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>현대건설, 수원 호매실 첫 도입"심리적 안정 효과 높여준다"현대건설이 힐스테이트 입주민의 정신 건강과 정서적 안정감을 고려한 아파트 전용 명상 공간 ‘H 카밍부스’를 국내 처음으로 공동주택에 도입한다.현대건설은 경기 수원 권선구 ‘힐스테이트 호매실’에 H 카밍부스를 처음 적용한다고 11일 밝혔다. 기존 입주 단지 업그레이드뿐만 아니라 입주민의 일상까지 배려하는 차별화된 주거 서비스를 확대할 계획이라고 설명했다.1인 전용 명상 공간인 H 카밍부스는 아파트 단지 내에서 입주민이 자유롭게 이용할 수 있는 ‘멘털 힐링 특화 시설’이다. 복잡한 일상에서 벗어나 정서적 안정을 찾을 수 있도록 설계됐다.이 공간은 심리적 몰입을 돕는 차분한 색채의 인테리어 자재, 낮은 조도의 조명, 차음(소음차단) 구조를 적용해 심리 안정 효과를 높여준다. 대표 명상 플랫폼 ‘마보’와 협업해 명상 초보자도 쉽게 활용할 수 있도록 영상 기반 명상 콘텐츠를 제공한다. 사용자는 부스 내에서 마음 챙김, 호흡법, 수면 습관 등 다양한 프로그램을 선택해 이용할 수 있다. 현대건설은 마보가 제시하는 디지털 웰빙 솔루션을 H 카밍부스에 적용해 입주민의 주거 만족도를 높일 계획이다.현대건설은 힐스테이트 호매실에 인공지능(AI) 기반 헬스케어 공간 ‘H 헬시플레저’를 함께 적용했다. 닥터엑솔·마이베네핏과 협업한 이 시스템은 GX룸에 설치돼 체형 분석 및 관절가동범위(ROM), 체력 측정을 통한 개인 맞춤형 운동 솔루션 등의 서비스를 제공한다. AI 모션인식 기술이 적용돼 혼자서도 코칭에 따라 운동할 수 있다.</t>
+          <t>산림녹화 기록물도 함께 올라한국 20건 보유 기록문화 강국제주 4·3에 대한 기록물이 유네스코 세계기록유산으로 최종 등재됐다. 4·3은 지난해 노벨문학상을 받은 소설가 한강의 최근작 '작별하지 않는다' 배경이 된 사건이다.국가유산청은 지난 10일 오후 11시(현지시간) 프랑스 파리에서 열린 제221차 유네스코 집행이사회가 '제주4·3기록물'과 '산림녹화기록물'을 유네스코 세계기록유산(UNESCO Memory of the World)으로 등재하기로 최종 결정했다고 11일 밝혔다.제주4·3기록물은 수많은 민간인 학살에 대한 피해자 진술, 진상규명과 화해 과정에 대한 기록이다. 세계사적으로 인권의 중요성을 알려주고, 제주도민들의 화해와 상생 정신을 통해 아픈 과거사를 해결하는 새로운 길을 제시한다는 점에서 의미가 있다.6·25전쟁 후 황폐화된 국토에 민관이 협력해 성공적인 국가 재건을 이뤄낸 산림녹화기념물도 이날 함께 세계기록유산으로 등재됐다.이번 등재로 우리나라는 총 20건의 유네스코 세계기록유산을 보유하게 돼 기록문화 강국으로서 위상을 높일 수 있을 것으로 기대된다.한국은 1997년 훈민정음을 시작으로 조선왕조실록(1997), 직지심체요절(2001), 승정원일기(2001), 조선왕조의궤(2007), 고려대장경판 및 제경판(2007), 동의보감(2009), 일성록(2011), 5·18 관련 기록물(2011), 난중일기(2013), 새마을운동기록물(2013), 한국의 유교책판(2015), KBS 특별생방송 '이산가족을 찾습니다'(2015), 조선왕실 어보와 어책(2017), 국채보상운동기록물(2017), 조선통신사기록물(2017), 4·19혁명기록물(2023), 동학농민혁명기록물(2023), 산림녹화기록물(2025), 제주4·3기록물(2025)을 보유하게 됐다.[이향휘 선임기자]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>심은지 기자</t>
+          <t>이향휘 기자</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/26005</t>
+          <t>https://media.naver.com/journalist/009/21766</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>현대건설의 H 카밍부스는 입주민의 정신 건강과 정서적 안정을 위한 명상 공간을 제공하여 건강 관리의 중요성을 강조합니다.</t>
+          <t>유네스코 세계기록유산 등재 관련 내용으로 건강 정보와 관련성이 낮아 활용 불가</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>"개헌 필요하다" 67%…"尹 파면 동의" TK서도 57%[중앙일보 여론조사]</t>
+          <t>패배 몰랐던 정치 엘리트 이혼·낙선·아들 마약 시련</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327821</t>
+          <t>https://www.mk.co.kr/article/11289297</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433482?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474953?sid=102</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4606,22 +4694,22 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>개헌에 찬성하는 여론이 70%에 육박하고, 개헌을 할 경우 4년 중임 대통령제로 권력 구조를 바꿔야 한다는 여론이 큰 것으로 나타났다.중앙일보가 한국갤럽에 의뢰해 지난 8~9일 실시한 여론조사에서 개헌 필요성을 물은 결과 ‘필요하다’는 응답은 67%로 집계됐다. ‘필요하지 않다’는 21%였다. 연령대로 보면 50대, 60대, 70세 이상에서의 찬성 비율이 각각 71%, 71%, 68%로 40대 이하에 비해 개헌 찬성 여론이 강했다. 허진재 한국갤럽 여론수석은 “개헌의 필요성에 대한 국민적 공감대가 형성돼 있다고 평가할 수 있다”고 말했다.지지 정당별로는 국민의힘 지지층의 70%가 찬성해 더불어민주당 지지층(66%)보다 찬성 비율이 높았다. 이는 지난 1월 22~23일 YTN·엠브레인퍼블릭 조사에서 민주당 지지층(54%)의 찬성 비율이 국민의힘 지지층(30%)보다 높았던 것과 대조적이다. 이재명 전 민주당 대표가 공직선거법 2심 재판에서 무죄를 선고받고, 윤석열 전 대통령이 파면된 뒤로 각 정당 지지층의 개헌 관련 선호도가 달라진 셈이다. 허진재 수석은 “이대로 대선 분위기가 흘러가면 이재명 전 대표가 5년 동안 대통령을 할 가능성이 커지면서 개헌으로 판을 흔들기 싫은 민주당 지지층과 판을 흔들고 싶은 국민의힘 지지층이 상황이 뒤바뀐 것으로 보인다”고 분석했다.정근영 디자이너선호하는 권력 구조는 현행 대통령 중심제가 41%로 가장 높았다. 대통령이 외치를 맡고 국무총리가 내치를 맡는 분권형 대통령제는 24%, 국회 다수당이 행정부를 구성하는 의원내각제는 19%로 나타났다. 장승진 국민대 정치외교학과 교수는 “대통령 중심제가 한국인에게 가장 익숙한 제도고, 87년 민주화 운동의 가장 큰 성과가 대통령 직선제여서 지지 여론이 더 높은 것으로 보인다”며 “의원내각제는 익숙하지 않은 데다가 국회에 대한 불신 때문에 지지도가 낮다”고 설명했다.대통령 임기는 4년씩 두 번 할 수 있는 4년 중임제(62%)가 현행 5년 단임제(33%)보다 선호도가 높았다.정근영 디자이너개헌을 위한 국민투표 시기는 6·3 대선 때 실시(34%)와 내년 6월 지방선거 때 실시(34%)의 응답 비율이 같았다. 2028년 4월 총선 때 함께 해야한다는 의견은 22%였다. 눈에 띄는 점은 지지 정당별 차이였다. 민주당 지지층은 ‘이번 대선 때’가 25%, ‘지방선거 때’가 40%로 조사됐고, 국민의힘 지지층은 ‘이번 대선 때’가 40%, ‘지방선거 때’가 25%로 집계됐다. 국민의힘 지지층이 상대적으로 빠른 개헌을 원하는 셈이다.윤 전 대통령 파면 결정에 ‘동의한다’는 응답은 73%로 ‘동의하지 않는다’(24%)는 응답의 세 배였다. 특히 ‘매우 동의한다’가 60%에 달했다. 보수세가 강한 대구·경북에서도 ‘동의한다’가 57%로 더 많았고, 70세 이상에서도 50%였다. 다만 국민의힘 지지층에선 ‘동의한다’가 34%로 ‘동의하지 않는다’(63%)보다 적었다.장윤진 한국갤럽 여론분석실 부장은 “높은 연령대에서도 ‘동의한다’가 절반 나온 것을 보면 윤 전 대통령 파면에 대한 정당성은 확보된 것으로 보인다”며 “대선 국면으로 전환이 빨리 된 것”이라고 평가했다.신재민 기자◇여론조사 어떻게 진행했나이번 조사는 중앙일보가 한국갤럽에 의뢰해 4월 8일~9일 전국의 만 18세 이상 남녀 1004명을 대상으로 휴대전화(가상번호) 면접 조사 방식으로 진행했다. 응답률은 14.5%(6915명 중 1004명)이며 3월 행정안전부 주민등록 인구 기준으로 성별·연령별·지역별 가중값을 부여했고, 표본오차는 95% 신뢰 수준에서 최대 ±3.1%포인트다. 자세한 내용은 중앙선거여론조사심의위원회 홈페이지(www.nesdc.go.kr) 참조.</t>
+          <t>마약퇴치 전도사로 새 인생 돌아보면 지금이 가장 행복Dinner with MK 남경필 전 경기도지사남경필 마약예방치유단체 '은구' 대표가 단골집으로 꼽은 서울 청담동 레스토랑 시고로에서 매일경제와 인터뷰하고 있다.  한주형 기자매일경제와의 맛있는 인터뷰 '디너위드MK'의 두 번째 주인공은 유력 정치인에서 마약퇴치 전도사로 변신한 남경필 전 경기도지사, 현 마약예방치유단체 '은구(NGU)' 대표다. 그는 33세 젊은 나이에 국회의원 배지를 처음 달고 5선 의원, 국회 외교통상통일위원장, 경기도지사까지 꿰차며 정치인으로서 승승장구했다. 하지만 6년 전 정계은퇴를 선언한 후 지금은 기업가이자 사회활동가로 진로를 완전히 틀었다. 매경이 지난달 말 그를 만나 인생 항로를 바꾼 이유와 앞으로의 계획을 들어봤다.1995년 5월, 중간고사를 마친 예일대 대학원생 남경필은 학교 앞 피자집 '셀리스'를 찾았다. 셀리스에서 그가 주문한 음식은 얇게 썬 조갯살을 브로콜리 등 야채와 함께 올린 '클램(조개)피자'였다. 그로부터 30년이 지난 지금 남 대표가 꼽은 단골집은 서울 강남구 청담동에 위치한 양식 레스토랑 '시고로(SIGOLO)'다. MBA 유학 시절 예일대가 위치한 미국 동북부 뉴헤이븐의 대표 음식 '클램피자'는 그의 입맛을 완전히 사로잡았다. 한국에 돌아와서도 담백하고 신선한 그 맛을 잊지 못했는데, 6년 전 찾아낸 곳이 바로 이곳이다."뉴헤이븐은 19세기 말 이탈리아 사람들이 미국으로 이주를 시작해 뉴욕에 정착하지 못하고 좀 더 북쪽으로 올라가다가 정착한 곳이에요. 뉴헤이븐에서 리틀 이탈리아라고 불리는 거리에는 맛있는 피자집이 즐비해 있죠. 시고로는 그 맛을 제대로 구현했어요. 예일대 한국 동문 모임도 이곳에서 종종 갖습니다."클램피자 이 외에도 식탁에는 클램차우더(조개 크림 스프), 대구볼 튀김, 부라타 샐러드, 타코, 파에야가 순서대로 올라왔다.30·40대 한창 시절 남경필은 '정치 금수저'라고 불릴 만큼 남들이 부러워할 만한 화려한 정치 인생을 살았다."남경필 하면 떠오르는 수식어가 오렌지족인데요. 당시 세간의 평가에 어떤 느낌이었나요?"(기자) "오렌지까지는 아니고 '낑깡(금귤)' 정도인데 좀 과장됐죠. 부모님 덕에 많은 걸 가졌고 평탄하게 살았으니 틀린 말은 아니라고 생각했어요. 다만 중요한 건 금수저냐, 흙수저냐가 아닙니다. 그 수저를 가지고 혼자 퍼먹을 거냐, 아니면 나눌 거냐가 핵심이죠. 흙수저로 시작해 성공해도 자기만 먹는 사람들도 많잖아요."정치인 시절 줄곧 보수 진영에 몸담은 남경필은 개혁 보수의 상징과도 같았던 소장파 '남원정(남경필·원희룡·정병국)'의 일원이었다. 19대 국회 때는 새누리당에서 경제민주화실천모임을 이끌기도 했다.꽃길만 걸을 것 같았던 그의 인생은 50대에 접어들면서 꼬이기 시작했다. 2014년 아내와 이혼했고, 장남은 마약에 손을 댔다. 2018년 지방선거에선 경기도지사 재선에 도전했으나 실패했다. 잇단 시련 속에 2019년 정계 은퇴를 선택했다.남경필 은구 대표가 옥스퍼드대에서 '마약위기와 회복력'에 대해 강연하고 있다.  은구"최근 10년 사이 낙선, 이혼, 아들 마약까지 고통스러운 일들을 줄줄이 겪었어요. 하지만 돌이켜보면 예전보다 지금이 훨씬 더 행복합니다." 그는 고난을 겪으면서 스스로의 '회복탄력성(Resilience)'을 확인하고, 더욱 키울 수 있었다고 했다. 회복탄력성이란 예상치 못한 위기나 역경을 겪고도 원래 상태로 빠르게 돌아오는 능력을 말한다.올해 1월 영국 옥스퍼드대에서 가진 강연의 주제도 '한국 사회의 증가하는 마약 위기: 도전과 회복력'이었다. 그는 강연에서 실패의 경험과 가족을 향한 사랑에서 깨달은 회복탄력성의 중요성을 강조했다. "이제 어떤 고난이 찾아온다고 해도 두렵지 않아요. 아들의 마약 문제를 풀어가는 과정에서 신앙도 더욱 깊어졌습니다."장남은 2년 전 또다시 마약에 손을 댔다. 남 대표가 예루살렘과 요르단 성지순례를 위해 집을 비웠던 짧은 기간이었다. "요르단에서 아들의 마약 소식을 접하고 하나님을 원망했습니다. 절망하던 순간 하나님의 소리가 들렸어요. 저의 아들 문제는 이제 당신한테 맡기라고 하시더군요. 대신 저는 마약으로 고통받는 다른 사람들을 돌보라고요."이후로 마음이 편해졌다. 그리고 마약 퇴치 운동을 시작했다. 그가 설립한 마약예방치유단체 '은구(NGU)'는 '네버 기브 업(Never Give Up)'의 약자다. '은혜를 구한다'는 뜻도 담고 있다. 예방과 치료 지원 두 가지 활동이 핵심이다. 2년 전 마약 투약 사실을 폭로하며 세상을 떠들썩하게 했던 전두환 전 대통령의 손자 전우원 씨도 남 대표를 만난 이후 마약을 끊었다.2년6월형을 받고 복역 중인 남 대표의 장남은 올해 11월 출소할 예정이다. 아들이 수감된 이후 그는 하루 30분씩 아들과 영상으로 대화를 나눈다. 아들과 매우 가까워졌고 가족의 결속력은 더 단단해졌다. "사랑으로 가정이 화목해지니까 요즘은 집이 정말 천국 같아요. 매일 저녁 일을 마치고 집에 가는 것이 너무나 기대됩니다."남 대표가 요즘 빠져 있는 일은 마약과 자살 예방 유튜브 채널을 만드는 것이다. 채널명은 '65년생 남경필'로 정했다. 이르면 5월 채널을 오픈할 예정이다. 밤 시간대 직접 라이브 방송도 생각하고 있다. 목표 구독자 수가 얼마냐고 묻자 "1000만명"이라는 통 큰 답이 돌아왔다. 인구 1300만명이 넘는 경기도지사를 지낸 정치인다운 대답이다.일단 그가 현실적으로 세운 1차 구독자 목표는 100만명이다. 남 대표는 발 벗고 도와주는 지인들이 옆에 있기에 충분히 가능성이 있다고 자신했다. 은구에는 남 대표를 비롯해 차인표·이성미·범키 등 연예인, 곽재선 KG그룹 회장·이만득 삼천리그룹 회장 등 기업인, 이정미 전 헌법재판관·박병대 전 대법관 등 법조인까지 각계각층 인사들이 참여하고 있다.남경필 전 경기도지사는 자율주행 스타트업 '포니링크' 대표이사로도 활약하고 있다.  포니링크남 대표는 사회활동뿐만 아니라 자율주행 스타트업인 '포니링크' 대표이사로도 활동하고 있다. 그는 "제가 '바퀴 집안(버스 운수 기업)' 출신이라 원래부터 자동차에 관심이 많았다"면서 "경기도지사 시절에도 전국에서 자율주행 시범 사업에 가장 앞장섰다"고 밝혔다. 이어 자율주행이 고도화되면 장애인과 고령자 등 사회적 약자들의 삶의 질이 개선되고, 교통사고로 사람들이 죽는 일도 사라질 것이라고 말했다.올해 환갑을 맞은 그는 "은퇴를 뜻하는 리타이어(retire)가 타이어를 다시 갈아뀌고 다시 달린다는 뜻"이라며 "앞으로도 10년간은 사업가로서, 사회활동가로서 활발히 일할 생각"이라고 말했다.그는 젊은 시절부터 동안(童顔)이라는 얘길 많이 들었다고 했다. 지금도 환갑이라고 하기엔 너무 젊어 보였다. 건강의 비결을 묻자 "나만의 모닝 루틴이 있다"며 소개했다. "아침에 일어나면 물 500㎖를 끓인 다음 찬물 250㎖를 섞어요. 따뜻한 물을 30분간 마시면서 성경을 읽거나 명상을 합니다. 그러고 나면 영혼이 풍요로워지고 몸에 땀이 잘 납니다. 곧바로 스트레칭과 근육 운동을 1시간 정도 합니다. 하루 단 5분이라도 자기 내면을 들여다보세요. 그러면 밑바닥에 있는 욕망과 공포가 보이고 하나씩 풀어나갈 수 있습니다.""정치에 미련은 없습니까?" 기자가 마지막 질문을 던졌다. "저는 어떤 일이든 대화와 협력이 중요하다고 생각합니다. 그래서 경기도지사 시절 야당과 연정 실험을 했어요. 문재인 전 대통령이 대선 후보 시절 대통령이 되면 연정을 하고 싶다면서 두 번이나 저를 찾아왔었죠. 하지만 실제 대통령이 되고 난 후에는 적폐청산이란 이름으로 야당을 적대시했고, 한국 정치의 분열 양상은 더욱 심해졌어요. 이런 상황에서 향후 10~20년간 화합의 정치는 불가능하다고 봤습니다. 제가 할 수 있는 일이 더 이상 없겠다는 판단에 정치를 그만뒀죠. 지금의 상황들을 보면서 제가 결정을 정말 잘했다는 생각이 듭니다."남경필이 선택한 클램피자는…조개·가리비에 레몬 넣어 상큼클램피자는 조개·가리비 등 해산물과 브로콜리·애호박·레몬을 넣어 상큼하면서 자극적이지 않은 맛이 특징이다. 이탈리아 피자에 비해 치즈량이 적고 도우가 얇다. 미국 동부 바닷가에 인접한 뉴헤이븐의 지역적 특성 때문에 조개가 주원료로 활용됐다.남경필 대표는 6년 단골집인 서울 강남구 청담동 '시고로' 에서 꼭 맛봐야할 3가지 음식으로 클램피자, 파에야, 갈치파스타를 꼽았다. 이경호 시고로 오너 셰프는 "이탈리아뿐만 아니라 멕시코·스페인·프랑스 등 다양한 나라들의 투박하면서도 따뜻한 느낌의 시골 요리가 우리 식당의 콘셉트"라고 설명했다.남경필 은구 대표△1965년 서울 출생 △경복고, 연세대 사회복지학과, 예일대 경영학 석사 △15·16·17·18·19대 국회의원 △국회 외교통상통일위원장 △34대 경기도지사 △은구(NGU) 대표 △포니링크 대표[최재원 시니어팀장]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>윤성민 기자</t>
+          <t>최재원 기자</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/025/70806</t>
+          <t>https://media.naver.com/journalist/009/72651</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>개헌과 정치적 여론에 관한 기사로 건강 관련 정보가 없습니다.</t>
+          <t>기사는 마약 예방과 사회 활동에 관한 내용으로, 건강 관리나 보험 상담에 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4633,7 +4721,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>‘김지민♥’김준호, 6kg 감량한 비결은? “위고비”</t>
+          <t>‘소년 살인범’ 다룬 드라마, 전 세계 1위 석권</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4643,12 +4731,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288689</t>
+          <t>https://www.mk.co.kr/article/11289387</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474615</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005475026?sid=103</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4661,31 +4749,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>넷플릭스 드라마 ‘소년의 시간’전 세계 60개국서 4주째 1위동급생 살인혐의 받는 제이미체포·구금 이후의 이야기 다뤄‘한컷 촬영’ 원테이크 기법에탄탄한 사회주제 집약해 호응동급생 살해 혐의로 체포된 제이미(가운데)의 이야기를 다룬 드라마 ‘소년의 시간’. [넷플릭스]“좋아, 제이미 밀러. 현재 시각 오전 6시 15분…. 널 살인 혐의로 체포한다.” 제이미 나이는 13살, 막 잠에서 깬 소년은 특수부대가 얼굴에 들이대는 총구에 기겁해 침대에 앉은 채로 오줌을 지린다.주근깨 투성이에 앳된, 친구를 한번 때려본 적도 없어 보이는 유약한 아들이 난데없이 ‘살인자’로 지목되자 부모는 비명을 지르며 저항한다. 그러나 소년은 연행되고, 아빠 에디 밀러도 경찰서로 간다. 변호사는 말한다. “제이미, 넌 이렇게만 말하면 돼. ‘노 코멘트(No Comment)’.”넷플릭스 ‘소년의 시간’ 제1화 첫 장면이다. ‘동급생 살인 혐의’로 긴급체포된 한 소년 제이미 이야기를 다룬 이 드라마가 지금 전 세계를 강타했다. 11일 온라인동영상서비스(OTT) 통계 사이트 플릭스패트롤에 따르면 ‘소년의 시간’은 4주째 60~70개국에서 1위를 석권 중이다.도대체 저 우울해 보이는 드라마엔 어떤 ‘마력’이 있기에 전 세계가 이토록 열광하는 걸까.‘소년의 시간’은 각 화가 51~65분, 총 4부작으로 짧은 드라마다. 그런데 놀랍게도 매 화를 모두 ‘원테이크’로 찍었다. 원테이크(one take) 촬영기법이란 하나의 신을 단 한 번의 컷으로 편집 없이, 즉 인물의 동선과 이동에 걸리는 시간을 사전에 철저하게 계산한 뒤 행동, 대사, 호흡을 ‘한 컷’으로 담는 카메라워크를 뜻한다. 제이미 자택에서 시작된 체포부터 경찰서로 이동하는 도로, 경찰서 내부의 접견실과 검문실, 신체검사실, 유치장까지 인물의 동선이 전부 ‘한 컷’으로 담겼다.우리의 실제 삶처럼, 편집되지 않은 ‘날것’ 그대로의 영상인 셈이다.원테이크로 찍힌 인물들의 상황을 보고 있노라면 그야말로 멀미가 날 지경이다. 원테이크 촬영기법은 영화 ‘1917’, tvN 시리즈 ‘몸값’ 등에서도 과거 실현된 바 있지만 ‘소년의 시간’은 좀 더 일상적인 공간을 무대 삼았다는 점이 특징이다. 또 법률에 의거해 만인이 동의하는 규칙에 따라 체포되고, 검거되고, 조사받는 과정이 생생하게 그려져 사건의 당사자가 돼버린 느낌을 준다.‘피의자’ 제이미는 동급생 소녀 케이티를 죽인 혐의를 받고 있다. 제이미는 전날 저녁 8시 반에 외출했고 파란색 로고를 새긴 한정판 나이키 운동화를 신었다. 그게 바로 어제의 일이다. 케이티는 밤 10시 넘어 주차장에서 칼에 찔려 사망했는데 제이미의 동선과 일치한다. 제이미는 케이티와 친한 사이도 아니었다. 제이미는 정말 케이티를 찌른 걸까. 정말로 죽인 거라면 도대체 왜 찌른 걸까. 또 피가 묻었을 소년의 옷가지와 나이키 운동화는 어디에 있을까.‘소년의 시간’의 또 다른 매력은 각 화의 중심인물을 바꿈으로써 사건을 입체화한다는 점이다.제1화는 체포되는 밀러의 관점에, 제2화는 밀러의 살해를 증명하려는 형사 베스컴의 시선으로 사건이 전개된다면, 제3화는 밀러와 마주 앉은 심리학자 브라이오니의 관점으로 카메라가 옮겨간다. 제4화는 경찰서와 감옥 바깥으로부터 벗어나, 일상을 살아가는 아빠 에디 밀러를 조명한다. 최고의 장면은 제3화다. 제이미와 브라이오니는 차분하고 친근하게 대화를 열지만 도저히 좁힐 수 없는 상대의 심연을 열어버린다. 소년과 심리학자의 1시간에 가까운 대화 역시 원테이크로 찍혔다.‘소년의 시간’은 소년 범죄를 다루지만 소년 범죄만을 다룬 작품은 결코 아니다.영미권 청소년 집단의 인셀(Incel) 문화(비자발적 순결주의자의 약자로, 성인이 돼서도 연애나 결혼을 할 수 없으리라고 단정하며 따돌리는 문화), 폭력적 성향의 가부장적 전이, 변기수리공인 아빠 밀러가 느끼는 수치심과 공동체적 혐오, 부성애와 죄책감 등 주제가 집약적이다. 라이오넬 슈라이버 소설을 원작 삼은 영화 ‘케빈에 대하여’, 김혜수 주연의 드라마 ‘소년심판’, 그리고 ‘비공식 천만 영화’로 널리 알려진 영화 ‘박화영’을 떠올리게 하는 측면도 있다.외신에 따르면 ‘소년의 시간’은 현재 시즌2가 논의 중이다. 넷플릭스는 제이미 역을 맡은 14살 소년 배우 오웬 쿠퍼의 오디션 영상까지 공개하며 ‘소년의 시간’ 흥행몰이 중이다. 오디션 전까지는 배우로 활동한 적이 없는 소년 배우 오웬 쿠퍼는 데뷔작으로 글로벌 라이징 스타로 떠올랐다.동급생 살해 혐의로 체포된 제이미(가운데)의 이야기를 다룬 드라마 ‘소년의 시간’. 오른쪽은 아빠 밀러. [넷플릭스]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>김유태 기자</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/22785</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>드라마 '소년의 시간'에 대한 기사로 건강 정보와 관련이 없습니다.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>김준호 위고비로 6kg 감량…“식욕·수면욕 다 떨어진다”</t>
+          <t>[장은수의 책과 미래] 역사 속 도서관, 도서관 속 역사</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250411/131397225/2</t>
+          <t>https://www.mk.co.kr/article/11289293</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627677?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474950?sid=110</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4700,22 +4808,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>개그맨 김준호. 사진=김준호 유튜브 채널 ‘준호지민’ 캡쳐개그우먼 김지민과 결혼을 앞둔 개그맨 김준호가 위고비를 통해 6kg을 감량했다고 밝혔다.10일 김준호의 유튜브 채널에는 “웨딩드레스 피팅 하는 날”이라는 제목의 영상이 올라왔다.영상 속 김준호는 “결혼 준비하면서 살을 많이 뺐다 하더라”라는 제작진의 질문에 “고비고비 위고비. 지금이 고비다. 위고비를 계속해야 할지”라며 위고비로 체중 감량에 성공했다고 밝혔다.김준호는 “83kg에서 77kg까지 뺐다. 이제 유지를 해야 한다. 운동 계속해야 한다”라고 다짐했다. 이를 들은 김지민은 “살 계속 빼지 말라”며 “너무 예민해진다. 요즘 대하기 되게 힘들다. 옛날에는 되게 뭐만 해도 긍정적인 사람이었는데 부정적인 사람으로 변했다”며 김준호의 다이어트를 만류했다.이에 김준호는 “요새 먹는 것, 자는 것이 잘 안된다. 수면욕, 식욕이 다 떨어지더라”라고 부작용을 토로했다.개그맨 김준호. 사진=김준호 유튜브 채널 ‘준호지민’ 캡쳐최근 유튜버 빠니보틀 또한 위고비를 통해 70kg 대에서 64kg까지 약 10kg을 감량했다고 밝힌 바 있다.그는 “전성기 때 몸무게는 62kg이었다”라며 “내가 그걸(위고비) 맞아서 살을 뺐다고 하면 사람들은 뒷광고 하냐고 욕을 하는데 좀 억울하다. 밥을 남기면 ‘위고비 맞아서 그렇다’고 설명했는데 왜 자꾸 얘기하냐고 하더라”고 억울함을 토로하기도 했다.한편, 위고비는 덴마크 제약사 노보노디스크가 개발한 비만 치료제다. 위고비의 주성분은 글루카곤 유사 펩타이드-1(GLP-1)이라는 호르몬을 모방한 세마글루타이드다.GLP-1은 인슐린 분비를 촉진하고 글루카곤의 분비를 억제해 포만감을 느끼게 한다. GLP-1을 모방한 세마글루타이드는 뇌를 속여 포만감을 일으키고 음식물 섭취량을 줄이는 기능을 한다.해외에서는 테슬라 CEO 일론 머스크와 모델이자 사업가인 킴 카다시안이 위고비를 통해 체중 감량에 성공했다고 밝히기도 했다.</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>김승현 기자</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/020/81749</t>
-        </is>
-      </c>
+          <t>오늘은 '도서관의 날'이다. 2021년 도서관법이 개정되면서, 2023년부터 매년 4월 12일을 '도서관의 날'로 지정하고, 일주일을 '도서관 주간'으로 지정했다. 오늘부터 전국 도서관에서 독자들을 초대해서 온갖 행사가 열린다. 작가들이 찾고, 책 관련 전시회가 개최되고, 독서 모임과 세미나가 열리는 것이다.백창민의 '이토록 역사적인 도서관'(한겨레출판 펴냄)은 우리나라 도서관 서른 곳을 소개하는 책이다. '도서관 덕후'를 자부하는 저자답게 국회도서관, 정독도서관, 무등도서관 등 전국 각지의 도서관을 일일이 방문하고, 관련 역사 자료를 찾아 보태고 정리하는 방식으로 쓰였기에 현장감이 돋보인다. 소개된 도서관 각각의 역사도 흥미롭지만, 그 도서관을 무대로 펼쳐진 을사늑약, 부마항쟁, 5·18 광주민주화운동 등 우리 역사의 주요 사건을 함께 접할 수 있도록 한 입체적 접근이 특징이다. 저자의 말대로, '역사 속 도서관'의 이야기이면서 '도서관 속 역사'의 이야기인 셈이다.겹눈으로 세상을 읽도록 만드는 것이 책이다. 마르셀 프루스트의 말처럼 책은 "그 책이 없다면 스스로 보지 못했을 것을 볼 수 있도록 하는 광학기구"이다. 책은 이면의 세계를 보여주고, 그로써 사회를 고쳐 읽게 하며, 나를 다시 쓰게 만든다.그런 책이 가득 담긴 도서관 역시 겹눈의 존재여야 한다. 단지 책을 보관하고 빌려주는 행정 공간을 넘어서 시민과 함께 공동체의 문제를 끌어안고 인간의 미래를 고민하는 역동적 공간이어야 하는 것이다. 그 출발점은 이 책에서 보이듯 도서관이 시대 흐름에서 비켜난 표백된 순수 공간이 아니라, 역사의 씨줄과 지역의 날줄이 교차하면서 발전해 온 치열한 현장임을 확인하는 일일 것이다.역사를 비켜간 도서관은 어디에도 없다. 1905년 을사늑약을 체결했던 장소가 도서관이었다. 친일파 박제순은 대한제국 황실도서관인 덕수궁 수옥헌에서 일본 공사 하야시 곤스케를 만나 국권을 넘겼다. 부마항쟁은 부산대 중앙도서관에서 시작되었고, 무등도서관은 5·18 항쟁 때 계엄군 총격으로 시민군이 사망했던 자리에 세워졌다. '잊지 않기 위해서'다. 1979년 완공된 사직동 어린이도서관 건물 한쪽은 독재정권 사수를 위해서 암약하던 비밀경찰 '사직동팀'이 사용하면서 폭력과 고문을 일삼았다.이처럼 도서관은 영광의 장소이자 치욕의 공간이며, 민주화의 성지이자 독재의 현장이다. 우리가 어떻게 대하느냐에 따라 도서관도 달라진다. 도서관의 날이다. 각자 동네 도서관을 찾아서 사서들과 함께 도서관에 새겨진 공동체의 역사를 확인해 보면 좋겠다.[장은수 편집문화실험실 대표]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>개그맨 김준호가 위고비로 체중 감량에 성공했으나 부작용을 호소하며 다이어트 중단을 고려 중이다.</t>
+          <t>이 기사는 도서관의 역사와 역할에 관한 내용으로 건강 관리와 보험 니즈와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4727,7 +4827,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>“한국을 알려야 한다”...대한해협 건너편, 고국사랑 진심이었던 그 사...</t>
+          <t>한강 ‘작별하지 않는다’ 배경....제주4.3기록물, 유네스코 세계기록유...</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4737,12 +4837,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288627</t>
+          <t>https://www.mk.co.kr/article/11288672</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474567?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474603?sid=103</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4757,22 +4857,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>오사카 엑스포서 재일동포 거목 故이희건 기려15세때 日 건너가 사업 성공신한은행 설립 등 한일 가교1970년 오사카 엑스포 당시韓 참가할 수 있게 모금 주도도쿄올림픽 경비 전액지원도온갖 핍박에도 늘 고국 사랑고 이희건 전 신한금융 명예회장오는 13일 일본 오사카에서 개막하는 ‘오사카·간사이 만국박람회(오사카 엑스포)’ 한국관에는 특별한 전시물이 있다. 한국관 전시실은 20분 정도 체험할 수 있는 3개 공간으로 구성됐는데, 마지막 공간에서 출구로 나오면 ‘재일동포 지원 기념 월’을 마주할 수 있다.한국관 관계자는 “체험 공간도 중요하지만 이를 가능하게 한 것이 이분들의 차별과 억압 속에 빛난 고국 사랑이었다는 점을 강조하기 위해 제일 마지막 장소에 이를 배치했다”고 말했다.기념비에는 한국 경제 산업 발전과 양국 관계에 기여한 재일동포의 역할과 공헌에 관한 내용이 한국어·일본어·영어로 나란히 소개돼 있다. 모든 내용의 중심에는 2011년 작고한 이희건 전 신한금융 명예회장이 있다.오사카 엑스포는 1970년에도 열렸다. 당시 우리 국력 수준을 고려할 때 엑스포 참가는 엄두도 못 낼 상황이었다. 올해 엑스포에 159곳이 참가한 반면 당시 엑스포는78곳이 전부였다.어려운 경제 상황에서도 한국관 설립이 가능했던 것은 재일동포 덕분이다. 이들은 한국을 세계에 알려야 한다는 일념하에서 후원회를 결성하고 한국관 건설에 필요한 비용의 절반을 기부했다.당시 기부액은 2억2000만엔, 현재 기준으로 환산하면 500억원 이상의 가치가 있는 금액이다. 재일동포의 후원으로 건축가 김수근이 설계한 15개 열주가 늘어선 한국관은 당시 엑스포에서 화제가 된 건물 중 하나로 꼽힌다.이를 진두지휘한 것이 당시 오사카 재일동포의 중심이자 ‘보스’로 불리던 이희건 전 회장이다. 어려운 가정의 차남으로 태어나 15세에 일본으로 건너간 그는 수완을 발휘해 건실한 사업체를 일궈냈다.하지만 주변의 재일동포가 일본에서 은행을 이용하기 어려워 사업이 힘들다는 점을 느끼고 금융업에 뛰어들어 1956년 오사카흥은을 설립했다.오사카흥은은 재일동포 사업의 마중물이 돼줬고 오사카 지역 내 한인 사회는 크게 성장할 수 있었다. 이후 이 전 회장은 고국에서도 금융업을 통해 기여할 수 있는 방법을 계속해서 찾았고, 이는 1982년 신한은행 설립으로 이어진다.연설이 청산유수 같고 성격이 괄괄해 남들을 리드해왔던 이 전 회장은 1964년 도쿄올림픽 때에도, 1988년 서울올림픽 때에도 고국 지원의 중심에 있었다. 도쿄올림픽 때는 한일 국교 정상화 전인데도 불구하고 일본 정부의 차가운 눈길을 피해 올림픽에 참가한 한국 선수들의 모든 경비를 책임졌다.서울올림픽 개최를 위해 조직한 후원회 회장도 당연히 이 전 회장의 몫이었다. 당시에는 ‘고국에 경사가 났다’며 기쁨의 눈물을 훔치면서 쌈짓돈을 기부한 재일동포가 10만명에 달했다.이들의 기부액은 총 100억엔, 당시 환율로는 540억원에 달한다. 서울 올림픽공원에 세워진 대부분의 건물이 재일동포 기부금으로 지어졌을 정도다.1970년 오사카 엑스포 이후 55년 만에 다시 엑스포가 열린다. 이 전 회장이 설립한 한일교류재단은 이번에도 한국관 건립에 3억원을 쾌척했다. 고국의 경제력을 감안하면 적은 금액일 수도 있지만 그들의 고국 사랑은 결코 중단되지 않은 것이다.1992년 시작한 한국 제품 사기 캠페인인 ‘바이 코리안 운동’. 가운데가 이희건 전 신한금융 명예회장 [신한금융]최근 일본에 한식 붐이 크게 불고 있는데 그 시작을 1992년 이 전 회장이 시작한 ‘바이 코리안 운동’에서 찾는 사람들이 많다. 일본 현지에서 한국산 제품 사기 운동을 벌였고, 이것이 1990년대 중반부터 일본에 불어닥친 한국 김치·라면 붐으로 이어졌다는 것이다.진창수 주오사카총영사는 “도쿄의 대사관과 오사카총영사관 등 일본 내 주요 공관 대부분이 재일동포가 억압과 차별 속에서 힘들게 번 돈으로 지어졌다”며 “다음달 열리는 엑스포 한국의 날에 이들에 대한 감사의 의미를 담은 행사를 준비하고 있다”고 말했다.</t>
+          <t>한국, 훈민정음·동의보감 등 이어 20번째파리 유네스코 집행이사회서, ‘산림녹화기록물’도 함께 등재형무소에서 온 엽서지난해 노벨문학상을 받은 소설가 한강의 최근작인 ‘작별하지 않는다’의 배경이 된 제주 4.3에 대한 기록물이 유네스코 세계기록유산으로 최종 등재됐다.국가유산청은 “10일 오후 11시경(현지 시간) 프랑스 파리에서 열린 제221차 유네스코 집행이사회는 ‘제주 4.3기록물’ ‘산림녹화기록물’을 유네스코 세계기록유산(UNESCO Memory of the World)으로 등재하기로 최종 결정했다”고 11일 발표했다.‘제주4·3기록물’은 제주 4.3으로 인한 수많은 민간인 학살에 대한 피해자 진술, 진상규명과 화해의 과정에 대한 기록이다. 세계사적으로 인권의 중요성을 알려주고, 제주도민들의 화해와 상생 정신을 통해 아픈 과거사를 해결하는 새로운 길을 제시한다는 점에서 의미가 있다.이와 함께 6.25 전쟁 후 황폐화된 국토에 민관이 협력해 성공적인 국가 재건을 이뤄낸 ‘산림녹화기념물’도 이날 함께 세계기록유산으로 등재됐다. 이 자료는 세계의 다른 개발도상국이 참고할 수 있는 모범 사례이자 기후변화 대응, 사막화 방지 등 국제적 이슈에 대한 본보기가 된다는 평가를 받았다.이번 등재로 우리나라는 총 20건의 유네스코 세계기록유산을 보유하게 돼 기록문화 강국으로의 위상을 높일 수 있을 것으로 기대된다.한국은 1997년 훈민정음을 시작으로 조선왕조실록(1997), 직지심체요절(2001), 승정원일기(2001), 조선왕조의궤(2007), 고려대장경판 및 제경판(2007), 동의보감(2009), 일성록(2011), 5·18 관련 기록물(2011), 난중일기(2013), 새마을운동기록물(2013), 한국의 유교책판(2015), KBS특별생방송 ‘이산가족을 찾습니다’(2015), 조선왕실 어보와 어책(2017), 국채보상운동기록물(2017), 조선통신사기록물(2017), 4.19혁명기록물(2023), 동학농민혁명기록물(2023), 산림녹화기록물(2025), 제주4·3기록물(2025)을 보유하게 됐다.특별법 서명 문서와 만년필진상조사보고서제주도의회 4.3 피해보고서1975년 국민식수기간 특별우표1970년대 산림청 포스터</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>이승훈 기자</t>
+          <t>이향휘 기자</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/21780</t>
+          <t>https://media.naver.com/journalist/009/21766</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>이 기사는 재일동포 이희건 전 신한금융 명예회장의 업적과 한국과 일본 간의 교류에 대한 내용입니다.</t>
+          <t>유네스코 세계기록유산 등재 관련 기사로 건강 정보와 무관합니다.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4784,7 +4884,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>‘트럼프 깜짝통화’로 존재감 키운 한덕수, 보수 대선후보 ‘히든카드...</t>
+          <t>이재명 ‘경제 멘토’…정책총괄 이한주 [V메이커스]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4794,12 +4894,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288642</t>
+          <t>https://www.mk.co.kr/article/11289154</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474579?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005475034?sid=100</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4814,22 +4914,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>‘韓대행 출마설’ 왜 나오나트럼프, 통화서 “출마할거냐”40년 관료 경제 전문성 강점尹파면후 행보에 보수층 주목시간 빠듯해 경선 참여 힘들듯무소속 출마후 단일화 가능성민주당 “한덕수 나오면 땡큐”한덕수 대통령 권한대행 국무총리(왼쪽)가 10일 정부서울청사에서 정인교 통상교섭본부장(영상 왼쪽), 조현동 주미대사와 미국 관세 조치 대응을 위한 영상 회의를 하고 있다. [사진 제공 = 총리실]보수 진영에서 ‘한덕수 차출론’이 일파만파 번지고 있다.윤석열 전 대통령 파면으로 6월 3일 조기 대선을 치르게 되자 보수 진영에는 패배감이 자욱했다. 국민의힘에 압도적 지지를 받는 후보도 없었다.그러자 시선은 국정 수습 과정에서 안정감을 보여준 한덕수 대통령 권한대행 국무총리에게 빠르게 쏠리고 있다.한 권한대행은 과연 ‘기울어진 운동장’을 평평하게 만들 히든 카드가 될 수 있을까.국민의힘 내부에 잠복해 있던 한덕수 차출론이 수면 위로 급부상한 데는 두 가지 계기가 있었다.한 권한대행이 마은혁 헌법재판관을 임명하면서 보수 성향의 이완규 법제처장·함상훈 서울고법 부장판사를 ‘깜짝 지명’하는 강수를 둔 것이 첫 번째다. 보수 진영에선 한 권한대행의 결단력을 다시 보게 됐다.이어 도널드 트럼프 미국 대통령과 전화 통화를 하며 관세전쟁의 해결사 역할을 할 가능성을 기대하게 만들었다. 10일에는 트럼프 대통령이 통화에서 한 권한대행에게 출마 의사를 물었다는 뒷얘기가 전해졌다. 한 권한대행이 “결정된 것은 없다”며 즉답을 피했다는 소식에 출마 가능성을 열었다는 해석이 쏟아졌다.정치권에선 이 같은 행보가 준비된 것이란 분석도 내놓고 있다. 지난해 12월 27일 국회의 탄핵소추로 인해 직무가 정지된 후 3개월간 숙고를 거쳐 어떤 ‘결심’에 다다른 것 아니냐는 것이다.한 권한대행의 행보는 더불어민주당에 쏠릴 시선을 분산시키고 보수 진영의 열패감을 희석하는 데 이미 도움이 되고 있다는 분석도 나온다. ‘힘’ 있는 모습을 보이며 국정 수습에도 탄력이 붙고 있다는 평가 역시 나온다.국민의힘 내부 의견은 갈린다. 이날 국민의힘 호남지역 당협위원장들이 출마 촉구 선언문을 냈고, 의원들도 연판장을 돌린다는 소문이 돌았다.국민의힘 A의원은 “그는 총리 두 번에다 주미대사를 지낸 외교·통상 전문가”라며 “호남 출신이기도 해서 확장성을 보유한 검증된 후보”라고 높이 평가했다.중진인 B의원은 “국정 경험이 풍부한 데다 범죄 혐의와도 완전히 무관한 사람은 한덕수 총리”라면서 “이재명을 상대로 충분히 승산이 있는 카드”라고 했다. 최소 10여 명의 의원이 한 권한대행 출마를 지지하고 있는 것으로 파악된다.물론 윤 전 대통령 파면으로 국정 책임자 위치에 있는 한 권한대행이 돌연 차기 대권에 도전하는 것은 쉽지 않다는 주장도 있다. 당내 인사를 후보로 세워 민주당과 1대1 구도를 만드는 것이 옳다는 얘기다.한 권한대행은 최근까지 국민의힘 지도부는 물론 주변에도 출마 의사를 명시적으로 밝힌 적은 없다. 다만 그가 출마 가능성을 완전히 닫은 것도 아니라는 말이 계속 흘러나온다.당장 국민의힘 경선에 나오려면 이달 14~15일 후보 등록을 해야 한다. 일단 한 권한대행이 직을 버리고 경선에 출마할 가능성은 낮다는 분석이다.김문수 전 고용노동부 장관은 지난 7일 사표를 냈다. 황우여 국민의힘 선거관리위원장은 이날 “(한 권한대행이) 뜻이 있다면 속히 들어오는 게 맞는다”고 했다.10일 오전 서울 종로구 정부서울청사에서 열린 국정현안관계장관회의 한덕수 대통령 권한대행 겸 국무총리의 모습 [사진 = 대통려실사진기자단]다만 국민의힘 후보가 결정되는 과정에서 보수 진영 전체로 판을 확대해 ‘국민 경선’의 기회가 다시 만들어진다면 얘기가 달라진다.한 권한대행이 선거 30일 전인 5월 4일 이전에만 사퇴하면 대선에 출마할 수 있다. 국민의힘 최종 후보가 정해지고도 이재명 전 민주당 대표와 ‘박빙’ 상황을 만들지 못하면 한 권한대행이 무소속으로 등판하고, 이후 보수 진영에서 단일화 과정을 만들 수 있다는 시나리오다.이양수 국민의힘 사무총장은 “경선이 모두 끝나고 국민의힘 후보가 그때 여러 가지 상황을 고려해 무소속 후보와 단일화를 통해 시너지를 발휘해야 집권이 용이하겠다고 생각할 수 있으리라 본다”며 “당에서 왈가왈부할 문제는 아니라고 생각한다”고 여운을 남겼다.한 권한대행 차출론에 민주당은 이해득실을 계산하고 나섰다. 민주당 의원들 사이에서는 “(한 권한대행 탄핵은) 2주면 충분하다”는 말까지 나온다.친이재명계 좌장으로 통하는 정성호 민주당 의원도 라디오에 출연해 “(한 권한대행을) 탄핵할 수밖에 없다”며 “정말 상상할 수 없는 그런 행태를 보여줬다. 더 이상 어떻게 용납하겠느냐”고 했다.정 의원은 특히 “일각에는 헌법 84조 해석과 관련해 대통령에 대한 기소가 아닌 재판은 진행할 수 있다는 판단을 끌어내기 위해 보수 성향 재판관을 투입하려 한다고 의심하는 사람들이 있다”며 “한 권한대행이 윤 전 대통령과 함께 헌재를 통한 쿠데타를 일으키려고 하는 게 아닌가”라고 덧붙였다.한 권한대행이 등판하더라도 정치적 돌파력 부재가 금방 드러날 것이라는 시선도 있다. 과거 반기문 전 유엔 사무총장이나 고건 전 국무총리, 황교안 전 국무총리 등이 그랬다는 경험적 사고다.반면 민주당 일각에선 “3년 전에도 ‘윤나땡(윤석열이 나오면 땡큐)’을 외치다가 졌다”며 새 변수를 만들어선 안 된다는 주장도 나온다.</t>
+          <t>이한주 민주연구원장 [V메이커스-3]대선 본선부터 李캠프 본격 등판교수 출신으로 李와 30여년지기李스타덤 띄운 성남 모라토리엄3대 무상복지 등 대표정책 구상이한주 민주연구원장이한주 민주연구원 원장은 ‘이재명의 경제 멘토’로 꼽힌다. 이재명 더불어민주당 전 대표와 30여년지기로 철학을 깊이 공유하고 있다. 이 원장은 대선 본선에서 정책 총괄 역할로 캠프에 본격적으로 합류할 전망이다.이 원장은 경복고와 서울대 생물학과를 졸업했다. 이후 서울대에서 경제학 석박사 학위를 취득하고 경원대(현 가천대) 경제학과 교수로 부임했다. 1985년 경원대에서 강사를 하던 시절 제자였던 송광영씨의 분신 투쟁에 충격을 받아 유학을 포기하고 성남 지역 시민사회운동에 깊이 관여하게 됐다.이 전 대표와의 인연도 이쯤 시작됐다. 1986년 성남 지역 시민단체 토론회에서 사법고시 준비생이던 이재명을 처음 만났다. 이후 사법시험에 합격한 이 전 대표가 학생운동을 하던 이 원장의 제자들을 무료 변론해 주고, 이 원장도 이 대표에게 여러 조언을 해주면서 인연을 이어갔다.이 전 대표가 2010년 성남시장에 취임하자마자 시행한 모라토리움 선언과 이재명표 3대 무상복지로 일컬어지는 무상교복·청년배당·산후조리 지원 등이 이 원장의 작품이다.특히 2010년 전국을 떠들썩하게 한 성남시 모라토리엄 선언은 초선 시장 이재명의 행정력과 정치력을 드러내며 그를 전국적 인물로 떠오르게 한 사건이다. 모라토리엄으로 절감한 재정을 복지에 재투자하는 이 구조는 이 전 대표의 정책적 트레이드마크인 ‘증세 없는 복지’와 ‘기본소득’ 구상의 토대가 됐다.이 전 대표가 경기도지사에 당선된 후에도 공동 인수위원장을 맡아 도정 청사진을 그렸고, 도 싱크탱크인 경기연구원 원장을 맡았다.이 전 대표는 중앙정치인으로 올라선 이후에도 이 원장에게 수시로 조언을 구했다고 한다. 2021년에는 대선캠프에서 정책위원장을 맡아 이 대표의 정책 멘토 역할을 했다.2024년 4월 21일에 민주당의 싱크탱크인 민주연구원 원장에 임명됐다. 이 전 대표가 직전에 치러진 4·10 총선에서 압승을 거둔 뒤 당의 싱크탱크인 민주연구원을 이 원장에게 맡긴 것은 대선을 겨냥한 장기 포석이라는 당 안팎의 분석이 나왔다. 캐스팅 보트를 쥔 중도층 공략을 강화하겠단 의도라는 해석이다.이 원장은 의원직을 맡지 않고 있고 학계 출신인 만큼 당내 복잡한 이해관계에서 비교적 자유로운 위치에 있다는 평가다. 이 때문에 이 대표가 중립적인 정책 창구로 이 원장을 중용하고 있다는 분석도 나온다.당내에서는 이 원장에 대해 “차분한 학자 스타일”이라는 평가가 나온다. 이 원장과 자주 교류하는 한 민주당 의원은 “이 원장은 민주당 정책의 큰 그림을 그리는 역할을 하고 있고, 대선 본선에서부터 캠프에서 공약과 정책과 관련해 주요 역할을 공식적으로 맡을 것으로 보인다”고 말했다.일각에서는 이 전 대표가 만약 정권 교체에 성공할 경우, 이 원장의 거취는 국정 운영의 핵심 축으로 연결될 수 있다는 관측도 조심스레 제기된다. 하지만 이 원장은 주요 직책을 고사할 수도 있어 보인다. 이 원장은 사석에서 “만약 이 전 대표가 대통령이 된다고 해도 정부에서 일하지 않고 적십자회장이나 아프리카 작은 나라에서 대사 정도 역할을 하며 봉사하고 싶다”고 말하기도 한 것으로 알려졌다.■ 이한주 민주연구원장 프로필출생 = 1956년 서울학력 = 서울대학교 생물학 학사, 경제학 석·박사경력 = 가천대학교 경제학과 교수, 경기연구원 원장, 이재명 열린캠프 정책위원장, 민주연구원 원장V메이커스 [매일경제]지난해 총선 당시 매일경제신문은 온라인 연재물 ‘금배지 원정대’를 선보여 많은 관심을 받았습니다. 6·3 대선을 앞두고 대통령을 만드는 사람들을 집중 분석하는 ‘V메이커스’를 새롭게 시작합니다. V는 VIP(대통령)·Victory(승리)·Vision(비전) 등을 뜻합니다. 대통령만큼 중요한 파워 엘리트들에 대한 검증 역할도 하겠습니다. 연재물은 앞으로 매경 홈페이지와 주요 포털에서 보실 수 있습니다.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>김명환 외 2명</t>
+          <t>홍혜진 기자</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/22540</t>
+          <t>https://media.naver.com/journalist/009/58817</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>한덕수 국무총리의 대선 출마설과 관련된 정치 기사로 건강 정보와 관련이 없다.</t>
+          <t>이 기사는 정치 및 인물 중심의 내용으로, 건강 관련 정보가 부족하여 활용이 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4841,22 +4941,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>제주 4·3 사건, 세계기록유산 등재</t>
+          <t>左배재·右이화… 청년 이끌고 근대의 문 열었다</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289348</t>
+          <t>https://www.chosun.com/culture-life/relion-academia/2025/04/11/B5VDPPKWERBCPLOHVZ3BXBLXPE/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474997?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898888?sid=103</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4871,24 +4971,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>산림녹화 기록물도 함께 올라한국 20건 보유 기록문화 강국제주 4·3에 대한 기록물이 유네스코 세계기록유산으로 최종 등재됐다. 4·3은 지난해 노벨문학상을 받은 소설가 한강의 최근작 '작별하지 않는다' 배경이 된 사건이다.국가유산청은 지난 10일 오후 11시(현지시간) 프랑스 파리에서 열린 제221차 유네스코 집행이사회가 '제주4·3기록물'과 '산림녹화기록물'을 유네스코 세계기록유산(UNESCO Memory of the World)으로 등재하기로 최종 결정했다고 11일 밝혔다.제주4·3기록물은 수많은 민간인 학살에 대한 피해자 진술, 진상규명과 화해 과정에 대한 기록이다. 세계사적으로 인권의 중요성을 알려주고, 제주도민들의 화해와 상생 정신을 통해 아픈 과거사를 해결하는 새로운 길을 제시한다는 점에서 의미가 있다.6·25전쟁 후 황폐화된 국토에 민관이 협력해 성공적인 국가 재건을 이뤄낸 산림녹화기념물도 이날 함께 세계기록유산으로 등재됐다.이번 등재로 우리나라는 총 20건의 유네스코 세계기록유산을 보유하게 돼 기록문화 강국으로서 위상을 높일 수 있을 것으로 기대된다.한국은 1997년 훈민정음을 시작으로 조선왕조실록(1997), 직지심체요절(2001), 승정원일기(2001), 조선왕조의궤(2007), 고려대장경판 및 제경판(2007), 동의보감(2009), 일성록(2011), 5·18 관련 기록물(2011), 난중일기(2013), 새마을운동기록물(2013), 한국의 유교책판(2015), KBS 특별생방송 '이산가족을 찾습니다'(2015), 조선왕실 어보와 어책(2017), 국채보상운동기록물(2017), 조선통신사기록물(2017), 4·19혁명기록물(2023), 동학농민혁명기록물(2023), 산림녹화기록물(2025), 제주4·3기록물(2025)을 보유하게 됐다.[이향휘 선임기자]</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>이향휘 기자</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/009/21766</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>제주 4·3 사건과 산림녹화 기록물이 유네스코 세계기록유산에 등재되었다.</t>
-        </is>
-      </c>
+          <t>[개신교 선교 140주년… 한국의 100년 교회를 가다] [2] 아펜젤러와 정동제일교회1897년 완공된 정동제일교회 벧엘예배당 앞을 시민들이 산책하고 있다. 벧엘예배당은 한국 최초의 서양식 예배당으로 파이프오르간과 서양식 결혼식 등 근대 문명을 실제로 체험하는 공간의 역할을 했다. /박성원 기자“오늘 죽음의 철창을 산산히 깨뜨리시고 부활하신 주께서 이 나라 백성들을 얽어맨 결박을 끊으시고, 그들에게 하나님의 자녀가 누리는 자유와 빛을 허락해 주시옵소서!”1885년 4월 5일 조선에 도착한 헨리 아펜젤러(1858~1902) 선교사는 이런 기도를 올렸다. 마침 이날이 부활절이라는 점이 그에게 특별한 소명으로 다가왔던 것일까. 미국 북감리교 선교사로 파송된 아펜젤러는 1902년 선박 사고로 세상을 떠날 때까지 17년간 이 땅에 하나님의 자유와 빛을 선물하기 위해 자신을 돌보지 않았다. 입국 당시 키 179㎝, 체중 91㎏으로 기골이 장대한 청년이었던 그는 15년 만인 1900년엔 체중이 무려 30㎏이나 줄고 머리는 희고 허리는 굽어 가까운 친구들조차 못 알아볼 정도였다고 한다.장로교의 언더우드가 그랬듯이 아펜젤러의 모든 발걸음은 한국 감리교의 새 길을 개척하는 것이었다. 1885년 10월 13일 서울 정동 그의 집에서 첫 성찬식을 올리면서 정동제일교회를 창립했다. 한국 감리교 ‘어머니 교회’가 탄생한 것. 이후 감리교 첫 세례식(1887. 7.), 첫 여성 세례식(1887. 10.), 첫 여성·남성 주일학교 시작(1888), 첫 구역회(계삭회) 조직(1889) 등 하나하나가 모두 최초였다. 1885년 11월 출생한 딸 앨리스는 ‘한국에서 태어난 첫 서양 아기’였다.정동제일교회 벧엘예배당. 바로 옆의 초가집과 비교해볼 때 당시 시민들이 느꼈을 문화적 충격을 짐작할 수 있다. /정동제일교회◇左배재·右이화교육은 아펜젤러 선교 사역의 기둥이었다. 1885년 8월 3일 영어를 배우러 학생 2명이 그를 찾아온 것이 배재학당의 시작이었다. 서구 열강과 잇따라 수교하던 조선엔 영어 수요가 넘쳤고, 영어와 신문물에 목말랐던 학생들이 몰렸다. 1887년 2월 고종에게서 ‘배재(培材)’라는 교명을 하사받은 아펜젤러는 ‘크고자 하거든 남을 섬기라’라는 마태복음 구절로 교훈(校訓)을 삼았다. 1887년 9월 벽돌 단층 건물로 서양식 교사(校舍)를 지은 아펜젤러는 “이 학교를 조선 복음화의 원동력으로 삼으려 한다”고 일기에 적었고 실제로 그렇게 됐다.교회를 중심으로 왼쪽엔 배재학당, 같은 감리교 선교사인 메리 스크랜턴(1832~1909) 여사가 설립한 이화학당은 오른쪽에 자리 잡아 좌(左)배재, 우(右)이화 구도가 만들어졌다. 교회에 출석한 두 학당의 남녀 학생들은 정동제일교회를 중심으로 한국의 청년 문화를 태동시켰다.벧엘예배당에 1918년 최초로 파이프오르간이 설치된 후 여성 신자들이 기념촬영했다. /정동제일교회◇근대 문명 체험의 장, 벧엘예배당1897년 12월 완공된 벧엘예배당은 한국 최초의 서양식 예배당이라는 의미를 넘어선다. 명동성당보다 1년 앞서 건축된 예배당은 서구 신문물을 실제로 체험할 수 있는 현장이었다. 서양식 예배당에 대한 세상의 관심은 매우 뜨거워 1897년 5월 9일 지붕만 올린 상태로 방석을 깔고 첫 예배를 올렸을 정도였다. 1918년에는 한국 최초로 파이프오르간이 설치돼 장안의 명물이 됐다. 벧엘예배당은 또한 김우영·나혜석 커플 등 명사들의 신식 결혼식 장소로도 유명해졌다.최초 500명을 수용할 수 있는 규모로 지어진 예배당은 여러 차례 증축을 거쳐 800명까지 예배를 드릴 수 있도록 넓어졌고 지금도 사용되고 있다.◇안방 진출정동제일교회는 초기부터 여성 문제에 깊은 관심을 보였다. 아펜젤러는 1887년 10월 16일 ‘최씨 부인’에게 세례를 준 후 “우리 감리교가 안방에까지 진출했다(inroad into Ang Pang)”며 기뻐했다. 이후 교회 내에서 여성들의 역할이 확대되면서 조선 사회의 폐습 근절에 대한 목소리도 커졌다. 1920년대 교회 여성회는 금주·금연 운동을 펼치며 ‘전국 술값 다 합하여/곳곳마다 학교 세워/자녀 수양 늘 시키면/동서 문명 잘 빛내리’라는 가사가 등장하는 ‘금주가’도 보급했다. 교회는 1916년에는 남녀 좌석을 가르던 가림막까지 철거하면서 남녀 구분을 없애는 데 앞장섰다.벧엘예배당이 완공됐을 당시 정동제일교회 주변 약도. 교회 왼쪽엔 배재학당, 오른쪽엔 이화학당이 자리하고 주변에 외교 공간이 들어선 모습이다. /정동제일교회◇토론 문화의 산실벧엘예배당이 완공된 1897년 12월 말 교회에서는 기념 토론회가 잇따라 열렸다. 12월 31일의 토론회 주제는 ‘여성 교육이 가(可)하냐’. 남성 연사들의 찬반 토론이 이어지던 중 청중석의 여성회(조이스회) 회원이 일어나 일갈했다. “하나님이 이 세계 인생을 내실 때 남녀의 권리를 같게 하셨다. 남녀가 동등한 교육, 동등한 권리를 가져 인생에 대한 사업을 각기 하는 것이 당연하다.” 이 에피소드는 120년 전 토론회 풍경이라고는 믿기지 않을 정도로 혁신적이다.토론 문화는 정동제일교회와 배재학당, 배재학당 청년 조직인 협성회의 전통이었다. 서재필, 윤치호, 이승만, 주시경 등이 네트워크의 주역이었고 아펜젤러가 든든한 후원자였다. 갑신정변(1884) 후 미국으로 망명했던 서재필은 1895년 귀국 후 아펜젤러의 사택에 머물며 독립협회를 결성하고 ‘독립신문’을 발간했으며 배재학당에서 강연했다. 독립문 기공식에선 아펜젤러가 기도하는 등 기독교 의식으로 진행됐다. 1898년 서재필이 다시 추방되자 독립신문 발행은 아펜젤러가 맡기도 했다.◇3·1운동 요람…일제 탄압으로 교인 절반 줄어아펜젤러는 1902년 목포에서 열리는 성경 번역 회의에 참석하기 위해 가던 중 군산 어청도 앞바다에서 선박 충돌 사고로 순직했다. 그러나 그가 뿌린 독립 정신의 씨앗은 정동제일교회를 바탕으로 자라났다. 1919년 3·1운동 당시 정동제일교회는 중심에 있었다. 이 교회 이필주 담임목사가 민족 대표 33인 중 감리교 대표로 참여한 것을 비롯해 숱한 독립운동가를 배출한 것. 1920년 9월 옥중에서 순국한 유관순 열사의 시신을 수습해 10월 14일 장례를 올린 곳도 정동제일교회였다. 독립운동에 앞장선 대가는 참혹했다. 일제의 탄압으로 1917년 2283명이었던 교인은 3·1운동 이듬해인 1920년에는 1119명으로 급감했을 정도다. 정동제일교회는 매년 3·1절 무렵 주일학교 어린이들과 함께 국립현충원을 방문하여 교회 선배들의 넋을 기리는 전통을 가지고 있다.아펜젤러 순직 후 정동제일교회 교인들은 추모의 뜻을 담아 종(鐘)을 만들고 ‘경세종(警世鐘)’이란 이름을 붙였다. ‘세상을 깨운다’는 뜻이다. 경세종은 지금도 벧엘예배당 종탑에서 매년 12월 31일 자정 송구영신 예배 때마다 울리며 세상을 깨우고 있다.감리교와 장로교… 교파 구분하지 않고 힘 합친 선교사들“지난주 일요일, 이달 11일에 우리는 기도와 간증 모임에서 성찬식을 거행했습니다. 이것이 개신교에서 거행한 조선 최초 성찬식이었습니다. 장로교의 언더우드 목사와 제가 떡과 포도주를 나눠주었는데 참석한 사람은 11명이었습니다.”아펜젤러 선교사. /정동제일교회아펜젤러는 1885년 10월 13일 보고서에서 이렇게 적었다. 지금은 개신교 교단이 여러 교파로 갈라져 있지만 초기 선교사들은 감리교, 장로교 구분 없이 모든 사역을 함께했다. 경쟁하지 않고 선교 지역 구분을 합의했으며 성경 번역도 공동으로 했다. 중요한 역사적 현장엔 아펜젤러와 언더우드가 늘 함께했다. 조선 복음화라는 대원칙 앞에서 서로 양보하고 협력한 결과이다. 오늘날 교회 일치 운동(에큐메니컬)의 원조인 셈이다.두 선교사가 세운 정동제일교회와 새문안교회는 지금도 서로 교류하면서 우정을 이어가고 있다. 지난달 30일 두 교회가 공동 주최한 ‘한국 선교 140주년 기념 심포지엄’에서 천영태 정동제일교회 담임목사는 “기쁨과 슬픔을 함께한 두 교단 선교사들 사이에는 진정한 ‘성령의 하나 됨’이 존재했다”며 “이는 감리교회와 장로교회뿐 아니라 모든 교역자와 선교적 사명을 감당하는 이들이 오늘날에도 구하고 이뤄야 할 모습”이라고 말했다.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>False</t>
@@ -4898,7 +4986,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>18대1 …'한국의 마스터스' 티켓 잡아라</t>
+          <t>“이 계절 아우터 하나만 산다면 ‘이것’”…봄여름 필수 아이템 윈드...</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4908,12 +4996,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289250</t>
+          <t>https://www.mk.co.kr/article/11289171</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://m.sports.naver.com/golf/article/009/0005474921</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474870?sid=103</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4926,31 +5014,51 @@
           <t>운동</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>데일리부터 아웃도어까지 폭넓게 활용하는 간절기 상품스포츠·러닝 트렌드 타고 ‘윈드 브레이커’ 수요 증가리복, 작년 완판 인기 아이템, 컬러와 사이즈 리뉴얼 출시리복 ‘일립스 컬렉션일교차가 심한 봄여름 시즌, 겉옷으로 무엇을 입어야 할지 모를 때 가장 쉽게 손이 가는 것이 있다. 바로 바람막이, 요즘 말로는 ‘윈드브레이커’다.특히 러닝 열풍과 함께 ‘러닝 바람막이’에 대한 소비자 관심도 꾸준히 늘고 있어 운동과 일상 모두를 아우를 수 있는 실용적인 데일리 아이템으로 주목받고 있다.이에 여러 패션 브랜드들은 앞다퉈 윈드브레이커를 출시하며 간절기 필수 상품 홍보에 열을 올리는 중이다.11일 LF의 글로벌 스포츠 브랜드 리복(Reebok)이 봄여름 시즌을 겨냥한 신규 윈드브레이커 라인업 ‘일립스 컬렉션’을 출시했다고 밝혔다.‘RUN with YOUTH’라는 테마 아래, ‘싱그러운 봄, 더욱 가볍고 자유롭게 날아오르다’라는 메시지를 담은 이번 컬렉션은 봄의 싱그러움을 담은 산뜻한 컬러감이 돋보이는 ‘일립스 윈드 브레이커 셋업’을 중심으로 구성했다.리복 ‘일립스 컬렉션‘일립스 윈드 브레이커 셋업’은 작년 봄여름 시즌 여성 전용 제품으로 출시되자마자 전 사이즈 품절을 기록하며 뜨거운 호응을 모았던 제품이다. 이에 리복은 남녀 공용 유니섹스 사이즈를 추가하고 컬러 라인업을 확대해 새롭게 리뉴얼했다.또한 반팔 아노락, 피스테(반팔/긴팔), 티셔츠, 파라슈트 스커트 등 다양한 아이템으로 구성된 ‘일립스 컬렉션’으로 확장되어 스타일링 선택의 폭을 넓혔다.특히 기존보다 더욱 가볍고 얇은 나일론 와샤 가공 원단을 사용해 일교차가 큰 봄 날씨부터 초여름까지 쾌적하게 착용할 수 있으며, 일상과 아웃도어를 아우르는 데일리 아이템으로 활용도가 높다.프로-스펙스 스포츠 자켓스포츠 브랜드 프로-스펙스도 야외 활동이 증가하는 봄을 맞아 기능성과 스타일을 동시에 갖춘 ‘봄 스포츠 자켓’ 코디를 제안했다.프로-스펙스 스포츠 자켓 2종은 방풍, 발수 기능을 더해 일교차가 큰 봄 날씨에도 쾌적한 착용감을 선사하며, 간결하고 세련된 디자인으로 봄 나들이부터 스포츠, 아웃도어 활동 등 다양한 상황에서 활용하기 좋다.남성용 ‘후디드 하이브리드 자켓’은 우븐 소재와 트리코트 소재가 혼합된 하이브리드 원단을 사용한 것이 특징이다. 쌀쌀한 봄 바람을 막아줄 수 있는 방풍 기능과 함께 발수, 자외선 차단 기능까지 갖췄다.여성용인 ‘홑겹 후디드 세미크롭 자켓’ 역시 방풍과 발수 기능을 갖춘 원단을 사용했다. 등판에는 통기성을 극대화한 벤틸레이션 구조로 땀과 열을 효율적으로 배출할 수 있어 일상부터 다양한 야외 활동에서 착용하기 좋다. 남성용과 여성용 모두 가격은 149,000원이다.프로-스펙스 스포츠 자켓프로-스펙스 관계자는 “바깥 활동이 증가하는 봄을 맞아 스포츠와 일상의 경계 없이 다양한 상황에서 활용하기 좋은 바람막이 자켓을 선보이게 됐다”이라며 “날씨가 변덕스러운 봄철, 체온 유지를 도와줄 가벼운 아우터를 찾고 있다면 프로-스펙스의 스포츠 자켓이 좋은 선택이 될 것”이라고 말했다.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>김효혜 기자</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/23343</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>이 기사는 패션 및 제품 홍보에 중점을 두고 있어 건강 관리나 보험 필요성과 직접적인 관련이 없습니다.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>패배 몰랐던 정치 엘리트 이혼·낙선·아들 마약 시련</t>
+          <t>[한삼희의 환경칼럼] ‘진화 헬기가 산불 확산’ 주장까지 등장하다니</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289297</t>
+          <t>https://www.chosun.com/opinion/specialist_column/2025/04/11/R25XXFD5D5DFZH6ZBLTA5GFXXA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474953?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898853?sid=103</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4965,24 +5073,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>마약퇴치 전도사로 새 인생 돌아보면 지금이 가장 행복Dinner with MK 남경필 전 경기도지사남경필 마약예방치유단체 '은구' 대표가 단골집으로 꼽은 서울 청담동 레스토랑 시고로에서 매일경제와 인터뷰하고 있다.  한주형 기자매일경제와의 맛있는 인터뷰 '디너위드MK'의 두 번째 주인공은 유력 정치인에서 마약퇴치 전도사로 변신한 남경필 전 경기도지사, 현 마약예방치유단체 '은구(NGU)' 대표다. 그는 33세 젊은 나이에 국회의원 배지를 처음 달고 5선 의원, 국회 외교통상통일위원장, 경기도지사까지 꿰차며 정치인으로서 승승장구했다. 하지만 6년 전 정계은퇴를 선언한 후 지금은 기업가이자 사회활동가로 진로를 완전히 틀었다. 매경이 지난달 말 그를 만나 인생 항로를 바꾼 이유와 앞으로의 계획을 들어봤다.1995년 5월, 중간고사를 마친 예일대 대학원생 남경필은 학교 앞 피자집 '셀리스'를 찾았다. 셀리스에서 그가 주문한 음식은 얇게 썬 조갯살을 브로콜리 등 야채와 함께 올린 '클램(조개)피자'였다. 그로부터 30년이 지난 지금 남 대표가 꼽은 단골집은 서울 강남구 청담동에 위치한 양식 레스토랑 '시고로(SIGOLO)'다. MBA 유학 시절 예일대가 위치한 미국 동북부 뉴헤이븐의 대표 음식 '클램피자'는 그의 입맛을 완전히 사로잡았다. 한국에 돌아와서도 담백하고 신선한 그 맛을 잊지 못했는데, 6년 전 찾아낸 곳이 바로 이곳이다."뉴헤이븐은 19세기 말 이탈리아 사람들이 미국으로 이주를 시작해 뉴욕에 정착하지 못하고 좀 더 북쪽으로 올라가다가 정착한 곳이에요. 뉴헤이븐에서 리틀 이탈리아라고 불리는 거리에는 맛있는 피자집이 즐비해 있죠. 시고로는 그 맛을 제대로 구현했어요. 예일대 한국 동문 모임도 이곳에서 종종 갖습니다."클램피자 이 외에도 식탁에는 클램차우더(조개 크림 스프), 대구볼 튀김, 부라타 샐러드, 타코, 파에야가 순서대로 올라왔다.30·40대 한창 시절 남경필은 '정치 금수저'라고 불릴 만큼 남들이 부러워할 만한 화려한 정치 인생을 살았다."남경필 하면 떠오르는 수식어가 오렌지족인데요. 당시 세간의 평가에 어떤 느낌이었나요?"(기자) "오렌지까지는 아니고 '낑깡(금귤)' 정도인데 좀 과장됐죠. 부모님 덕에 많은 걸 가졌고 평탄하게 살았으니 틀린 말은 아니라고 생각했어요. 다만 중요한 건 금수저냐, 흙수저냐가 아닙니다. 그 수저를 가지고 혼자 퍼먹을 거냐, 아니면 나눌 거냐가 핵심이죠. 흙수저로 시작해 성공해도 자기만 먹는 사람들도 많잖아요."정치인 시절 줄곧 보수 진영에 몸담은 남경필은 개혁 보수의 상징과도 같았던 소장파 '남원정(남경필·원희룡·정병국)'의 일원이었다. 19대 국회 때는 새누리당에서 경제민주화실천모임을 이끌기도 했다.꽃길만 걸을 것 같았던 그의 인생은 50대에 접어들면서 꼬이기 시작했다. 2014년 아내와 이혼했고, 장남은 마약에 손을 댔다. 2018년 지방선거에선 경기도지사 재선에 도전했으나 실패했다. 잇단 시련 속에 2019년 정계 은퇴를 선택했다.남경필 은구 대표가 옥스퍼드대에서 '마약위기와 회복력'에 대해 강연하고 있다.  은구"최근 10년 사이 낙선, 이혼, 아들 마약까지 고통스러운 일들을 줄줄이 겪었어요. 하지만 돌이켜보면 예전보다 지금이 훨씬 더 행복합니다." 그는 고난을 겪으면서 스스로의 '회복탄력성(Resilience)'을 확인하고, 더욱 키울 수 있었다고 했다. 회복탄력성이란 예상치 못한 위기나 역경을 겪고도 원래 상태로 빠르게 돌아오는 능력을 말한다.올해 1월 영국 옥스퍼드대에서 가진 강연의 주제도 '한국 사회의 증가하는 마약 위기: 도전과 회복력'이었다. 그는 강연에서 실패의 경험과 가족을 향한 사랑에서 깨달은 회복탄력성의 중요성을 강조했다. "이제 어떤 고난이 찾아온다고 해도 두렵지 않아요. 아들의 마약 문제를 풀어가는 과정에서 신앙도 더욱 깊어졌습니다."장남은 2년 전 또다시 마약에 손을 댔다. 남 대표가 예루살렘과 요르단 성지순례를 위해 집을 비웠던 짧은 기간이었다. "요르단에서 아들의 마약 소식을 접하고 하나님을 원망했습니다. 절망하던 순간 하나님의 소리가 들렸어요. 저의 아들 문제는 이제 당신한테 맡기라고 하시더군요. 대신 저는 마약으로 고통받는 다른 사람들을 돌보라고요."이후로 마음이 편해졌다. 그리고 마약 퇴치 운동을 시작했다. 그가 설립한 마약예방치유단체 '은구(NGU)'는 '네버 기브 업(Never Give Up)'의 약자다. '은혜를 구한다'는 뜻도 담고 있다. 예방과 치료 지원 두 가지 활동이 핵심이다. 2년 전 마약 투약 사실을 폭로하며 세상을 떠들썩하게 했던 전두환 전 대통령의 손자 전우원 씨도 남 대표를 만난 이후 마약을 끊었다.2년6월형을 받고 복역 중인 남 대표의 장남은 올해 11월 출소할 예정이다. 아들이 수감된 이후 그는 하루 30분씩 아들과 영상으로 대화를 나눈다. 아들과 매우 가까워졌고 가족의 결속력은 더 단단해졌다. "사랑으로 가정이 화목해지니까 요즘은 집이 정말 천국 같아요. 매일 저녁 일을 마치고 집에 가는 것이 너무나 기대됩니다."남 대표가 요즘 빠져 있는 일은 마약과 자살 예방 유튜브 채널을 만드는 것이다. 채널명은 '65년생 남경필'로 정했다. 이르면 5월 채널을 오픈할 예정이다. 밤 시간대 직접 라이브 방송도 생각하고 있다. 목표 구독자 수가 얼마냐고 묻자 "1000만명"이라는 통 큰 답이 돌아왔다. 인구 1300만명이 넘는 경기도지사를 지낸 정치인다운 대답이다.일단 그가 현실적으로 세운 1차 구독자 목표는 100만명이다. 남 대표는 발 벗고 도와주는 지인들이 옆에 있기에 충분히 가능성이 있다고 자신했다. 은구에는 남 대표를 비롯해 차인표·이성미·범키 등 연예인, 곽재선 KG그룹 회장·이만득 삼천리그룹 회장 등 기업인, 이정미 전 헌법재판관·박병대 전 대법관 등 법조인까지 각계각층 인사들이 참여하고 있다.남경필 전 경기도지사는 자율주행 스타트업 '포니링크' 대표이사로도 활약하고 있다.  포니링크남 대표는 사회활동뿐만 아니라 자율주행 스타트업인 '포니링크' 대표이사로도 활동하고 있다. 그는 "제가 '바퀴 집안(버스 운수 기업)' 출신이라 원래부터 자동차에 관심이 많았다"면서 "경기도지사 시절에도 전국에서 자율주행 시범 사업에 가장 앞장섰다"고 밝혔다. 이어 자율주행이 고도화되면 장애인과 고령자 등 사회적 약자들의 삶의 질이 개선되고, 교통사고로 사람들이 죽는 일도 사라질 것이라고 말했다.올해 환갑을 맞은 그는 "은퇴를 뜻하는 리타이어(retire)가 타이어를 다시 갈아뀌고 다시 달린다는 뜻"이라며 "앞으로도 10년간은 사업가로서, 사회활동가로서 활발히 일할 생각"이라고 말했다.그는 젊은 시절부터 동안(童顔)이라는 얘길 많이 들었다고 했다. 지금도 환갑이라고 하기엔 너무 젊어 보였다. 건강의 비결을 묻자 "나만의 모닝 루틴이 있다"며 소개했다. "아침에 일어나면 물 500㎖를 끓인 다음 찬물 250㎖를 섞어요. 따뜻한 물을 30분간 마시면서 성경을 읽거나 명상을 합니다. 그러고 나면 영혼이 풍요로워지고 몸에 땀이 잘 납니다. 곧바로 스트레칭과 근육 운동을 1시간 정도 합니다. 하루 단 5분이라도 자기 내면을 들여다보세요. 그러면 밑바닥에 있는 욕망과 공포가 보이고 하나씩 풀어나갈 수 있습니다.""정치에 미련은 없습니까?" 기자가 마지막 질문을 던졌다. "저는 어떤 일이든 대화와 협력이 중요하다고 생각합니다. 그래서 경기도지사 시절 야당과 연정 실험을 했어요. 문재인 전 대통령이 대선 후보 시절 대통령이 되면 연정을 하고 싶다면서 두 번이나 저를 찾아왔었죠. 하지만 실제 대통령이 되고 난 후에는 적폐청산이란 이름으로 야당을 적대시했고, 한국 정치의 분열 양상은 더욱 심해졌어요. 이런 상황에서 향후 10~20년간 화합의 정치는 불가능하다고 봤습니다. 제가 할 수 있는 일이 더 이상 없겠다는 판단에 정치를 그만뒀죠. 지금의 상황들을 보면서 제가 결정을 정말 잘했다는 생각이 듭니다."남경필이 선택한 클램피자는…조개·가리비에 레몬 넣어 상큼클램피자는 조개·가리비 등 해산물과 브로콜리·애호박·레몬을 넣어 상큼하면서 자극적이지 않은 맛이 특징이다. 이탈리아 피자에 비해 치즈량이 적고 도우가 얇다. 미국 동부 바닷가에 인접한 뉴헤이븐의 지역적 특성 때문에 조개가 주원료로 활용됐다.남경필 대표는 6년 단골집인 서울 강남구 청담동 '시고로' 에서 꼭 맛봐야할 3가지 음식으로 클램피자, 파에야, 갈치파스타를 꼽았다. 이경호 시고로 오너 셰프는 "이탈리아뿐만 아니라 멕시코·스페인·프랑스 등 다양한 나라들의 투박하면서도 따뜻한 느낌의 시골 요리가 우리 식당의 콘셉트"라고 설명했다.남경필 은구 대표△1965년 서울 출생 △경복고, 연세대 사회복지학과, 예일대 경영학 석사 △15·16·17·18·19대 국회의원 △국회 외교통상통일위원장 △34대 경기도지사 △은구(NGU) 대표 △포니링크 대표[최재원 시니어팀장]</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>최재원 기자</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/009/72651</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>남경필 전 경기도지사가 마약퇴치 전도사로 변신해 사회활동에 전념하며 새로운 인생을 살고 있다.</t>
-        </is>
-      </c>
+          <t>임도가 바람 통로 돼 산불 번진다는 주장 나오더니 이젠 ‘헬기 바람 책임론’까지숲 가꾸기 산불 조장론 두고도 몇 년째 계속되는 논쟁… 검증 안 된 주장 자제 필요큰 산불이 나면 산림청에선 으레 임도를 더 많이 만들고, 숲 가꾸기를 열심히 하고, 성능 좋은 헬기를 더 갖춰야 산불 피해를 줄일 수 있다고 해왔다. 그런데 이게 다 틀린 말이라는 주장이 몇 년 전부터 제기됐다. 사실과 완전히 거꾸로이거나 조직 이기주의성 과장이라는 것이다.논란이 표면화한 것은 2023년 3월 합천·하동 산불이 계기였다. 산림청은 임도가 있는 합천의 3월 8일 산불 때는 고성능 진화차가 밤새 임도를 누비며 물을 뿜어 헬기를 동원하지 못했어도 진화율을 82%로 끌어올릴 수 있었다고 했다. 반면 3월 11일 하동 산불은 임도가 없어 밤사이 진화 진척률이 17%에 불과했다는 것이다. 그런데 그해 4월 환경운동연합의 창녕·김해양산·진주 등 경남 지역 조직들과 경남시민환경연구소 등이 기자회견을 갖고 “임도를 갖췄고 숲 가꾸기로 하층 식생을 제거한 합천에선 산불이 나무 꼭대기까지 태우며 162ha 피해를 냈고, 임도가 없고 숲에 손을 대지 않은 하동에선 91ha 타다가 스스로 꺼졌다”고 주장했다.환경 단체들은 숲 가꾸기 사업이 산불에 취약한 소나무는 남기고 불에 강한 참나무류를 베어버리는 방식이어서 산불을 촉진시킨다는 주장이다. 소나무가 휘발성 오일 성분을 갖고 있어 불에 잘 탄다는 점은 산림청도 인정한다. 그에 반해 활엽수의 두꺼운 껍질 코르크층은 발화 온도가 높아 산불에 견디는 힘이 강하다. 환경 단체들은 더 나아가 키 작은 잡목, 덤불, 활엽수 낙엽으로 빽빽한 숲에선 바람 속도가 느려지고 바닥층이 젖어 있어 산불 확산을 늦춘다고 주장했다. 주로 부산대 홍석환 교수와 기후재난연구소 최병성 대표 등이 뒷받침하고 있는 논리다. 홍 교수는 2023년 10월 국회의 산림청 국정감사 때 당시 윤미향 의원 측 참고인으로 나와 같은 취지의 주장을 폈다.반면 산림청은 숲에 쌓인 마른 나뭇가지와 낙엽, 덤불 등은 산불 연료 역할을 하기 때문에 이것들을 걷어내는 솎아주기가 필요하다는 입장이다. 실제 미국·유럽 등은 기계적 솎아주기에서 더 나아가 일부러 하층 식생을 태워 소진시키는 ‘처방적 산불(prescribed burn)’까지 동원하고 있다. 산림청은 2023년 숲 가꾸기를 하지 않은 하동 산불 피해가 합천 산불보다 작았던 것은 하동에 때마침 내린 비 덕분이었을 뿐이라고 했다. 지난달 21일 시작된 산청 구곡산 산불이 30일 주불이 잡힌 이후로도 수시로 재발화했던 것도 활엽수림의 두꺼운 낙엽층 밑에 숨은 잔불 때문이라는 것이다.임도 문제도 견해가 완전히 정반대다. 홍 교수, 최 대표 등은 도로 부지로 벌목한 곳의 풍속이 숲속보다 20배 빨랐다는 독일 연구 결과가 있다며 임도가 바람 통로 역할을 해 산불을 더 번지게 한다는 논리다. 윤미향 전 의원도 홍 교수에게 가세해 ‘선진국 대비 한국은 임도가 부족하다’는 산림청 자료는 통계 왜곡이라고 했다. 일본·미국·오스트리아 등은 임도뿐만 아니라 산림 내 지방도와 사유 도로까지 합친 계산인데 그걸 국내 순수 임도 통계와 비교했다는 것이다. 이번 산불 이후 지난 3일엔 MBC도 임도 확충에 의문을 제기하는 보도를 했다. 노컷뉴스, 한겨레21, 오마이뉴스 등도 매년 3000억원을 쓰는 숲 가꾸기, 2000억원 이상 드는 임도 건설이 산불 확산을 조장하고 있다는 내용의 인터뷰와 기획 보도를 하고 있다. 홍 교수는 최근 인터뷰에선 진화 헬기가 물을 뿌릴 때 만드는 강한 하강풍이 불붙은 낙엽을 흩뜨려 산불 확산을 부채질한다는 뜻밖의 주장까지 하고 나섰다. 어쩌다 그런 경우가 있을 수도 있겠지만 극히 예외적 상황을 일반화시켜 헬기 무용론까지 들고나오는 것은 해도 너무 한다는 느낌이다. 산불과 사투를 벌이는 진화 대원들에 대한 발길질 아닌가.비주류의 소수 의견에서 새 발상, 새 관점을 얻는 경우도 없지는 않을 것이다. 산림청은 내화수림 조성 등 소나무 숲의 산불 취약성을 극복하는 방안을 연구해야 한다. 숲 가꾸기도 수종 균형 등 부분까지 신경 써야 할 것이다. 임도 밀도, 숲 가꾸기 효과 논란이 몇 년째 되풀이되는 것은 이해하기 어렵다. 산림청이 인터넷 검색 자료에만 의존하지 말고 각국 실상을 정확히 조사해 논란에 확실한 매듭을 지어야 한다.환경 단체나 전문가들은 정책을 비판할 때는 충분히 검증된 자료로 신뢰성 있는 주장을 펴야 한다. 튀는 논리는 주목은 받겠지만 정책 혼선과 시간, 재정의 낭비를 초래할 수 있다. 우리 사회엔 공적 권위에 대한 불신이 여전하고, 사회운동 단체와 일부 언론 등엔 저항 문화적 분위기도 있다. 임도, 숲 가꾸기 같은 실무 논쟁이 자칫 진영 대립 비슷하게 번져갈 우려는 없는지도 걱정이다. 임도 무용론, 숲 가꾸기 유해론 정도의 주장을 내세우려면 관련 학계에서 학술적 인정을 받은 다음에 해도 늦지 않을 것이다.매일 조선일보에 실린 칼럼 5개가 담긴 뉴스레터를 받아보세요. 세상에 대한 통찰을 얻을 수 있습니다.'5분 칼럼' 구독하기(https://page.stibee.com/subscriptions/91170)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>False</t>
@@ -4992,22 +5088,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>‘소년 살인범’ 다룬 드라마, 전 세계 1위 석권</t>
+          <t>소방관 7.2% “외상후 스트레스 장애 경험”…전년보다 늘어</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289387</t>
+          <t>https://www.donga.com/news/Society/article/all/20250411/131395141/2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005475026?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627614?sid=102</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5017,54 +5113,54 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>넷플릭스 드라마 ‘소년의 시간’전 세계 60개국서 4주째 1위동급생 살인혐의 받는 제이미체포·구금 이후의 이야기 다뤄‘한컷 촬영’ 원테이크 기법에탄탄한 사회주제 집약해 호응동급생 살해 혐의로 체포된 제이미(가운데)의 이야기를 다룬 드라마 ‘소년의 시간’. [넷플릭스]“좋아, 제이미 밀러. 현재 시각 오전 6시 15분…. 널 살인 혐의로 체포한다.” 제이미 나이는 13살, 막 잠에서 깬 소년은 특수부대가 얼굴에 들이대는 총구에 기겁해 침대에 앉은 채로 오줌을 지린다.주근깨 투성이에 앳된, 친구를 한번 때려본 적도 없어 보이는 유약한 아들이 난데없이 ‘살인자’로 지목되자 부모는 비명을 지르며 저항한다. 그러나 소년은 연행되고, 아빠 에디 밀러도 경찰서로 간다. 변호사는 말한다. “제이미, 넌 이렇게만 말하면 돼. ‘노 코멘트(No Comment)’.”넷플릭스 ‘소년의 시간’ 제1화 첫 장면이다. ‘동급생 살인 혐의’로 긴급체포된 한 소년 제이미 이야기를 다룬 이 드라마가 지금 전 세계를 강타했다. 11일 온라인동영상서비스(OTT) 통계 사이트 플릭스패트롤에 따르면 ‘소년의 시간’은 4주째 60~70개국에서 1위를 석권 중이다.도대체 저 우울해 보이는 드라마엔 어떤 ‘마력’이 있기에 전 세계가 이토록 열광하는 걸까.‘소년의 시간’은 각 화가 51~65분, 총 4부작으로 짧은 드라마다. 그런데 놀랍게도 매 화를 모두 ‘원테이크’로 찍었다. 원테이크(one take) 촬영기법이란 하나의 신을 단 한 번의 컷으로 편집 없이, 즉 인물의 동선과 이동에 걸리는 시간을 사전에 철저하게 계산한 뒤 행동, 대사, 호흡을 ‘한 컷’으로 담는 카메라워크를 뜻한다. 제이미 자택에서 시작된 체포부터 경찰서로 이동하는 도로, 경찰서 내부의 접견실과 검문실, 신체검사실, 유치장까지 인물의 동선이 전부 ‘한 컷’으로 담겼다.우리의 실제 삶처럼, 편집되지 않은 ‘날것’ 그대로의 영상인 셈이다.원테이크로 찍힌 인물들의 상황을 보고 있노라면 그야말로 멀미가 날 지경이다. 원테이크 촬영기법은 영화 ‘1917’, tvN 시리즈 ‘몸값’ 등에서도 과거 실현된 바 있지만 ‘소년의 시간’은 좀 더 일상적인 공간을 무대 삼았다는 점이 특징이다. 또 법률에 의거해 만인이 동의하는 규칙에 따라 체포되고, 검거되고, 조사받는 과정이 생생하게 그려져 사건의 당사자가 돼버린 느낌을 준다.‘피의자’ 제이미는 동급생 소녀 케이티를 죽인 혐의를 받고 있다. 제이미는 전날 저녁 8시 반에 외출했고 파란색 로고를 새긴 한정판 나이키 운동화를 신었다. 그게 바로 어제의 일이다. 케이티는 밤 10시 넘어 주차장에서 칼에 찔려 사망했는데 제이미의 동선과 일치한다. 제이미는 케이티와 친한 사이도 아니었다. 제이미는 정말 케이티를 찌른 걸까. 정말로 죽인 거라면 도대체 왜 찌른 걸까. 또 피가 묻었을 소년의 옷가지와 나이키 운동화는 어디에 있을까.‘소년의 시간’의 또 다른 매력은 각 화의 중심인물을 바꿈으로써 사건을 입체화한다는 점이다.제1화는 체포되는 밀러의 관점에, 제2화는 밀러의 살해를 증명하려는 형사 베스컴의 시선으로 사건이 전개된다면, 제3화는 밀러와 마주 앉은 심리학자 브라이오니의 관점으로 카메라가 옮겨간다. 제4화는 경찰서와 감옥 바깥으로부터 벗어나, 일상을 살아가는 아빠 에디 밀러를 조명한다. 최고의 장면은 제3화다. 제이미와 브라이오니는 차분하고 친근하게 대화를 열지만 도저히 좁힐 수 없는 상대의 심연을 열어버린다. 소년과 심리학자의 1시간에 가까운 대화 역시 원테이크로 찍혔다.‘소년의 시간’은 소년 범죄를 다루지만 소년 범죄만을 다룬 작품은 결코 아니다.영미권 청소년 집단의 인셀(Incel) 문화(비자발적 순결주의자의 약자로, 성인이 돼서도 연애나 결혼을 할 수 없으리라고 단정하며 따돌리는 문화), 폭력적 성향의 가부장적 전이, 변기수리공인 아빠 밀러가 느끼는 수치심과 공동체적 혐오, 부성애와 죄책감 등 주제가 집약적이다. 라이오넬 슈라이버 소설을 원작 삼은 영화 ‘케빈에 대하여’, 김혜수 주연의 드라마 ‘소년심판’, 그리고 ‘비공식 천만 영화’로 널리 알려진 영화 ‘박화영’을 떠올리게 하는 측면도 있다.외신에 따르면 ‘소년의 시간’은 현재 시즌2가 논의 중이다. 넷플릭스는 제이미 역을 맡은 14살 소년 배우 오웬 쿠퍼의 오디션 영상까지 공개하며 ‘소년의 시간’ 흥행몰이 중이다. 오디션 전까지는 배우로 활동한 적이 없는 소년 배우 오웬 쿠퍼는 데뷔작으로 글로벌 라이징 스타로 떠올랐다.동급생 살해 혐의로 체포된 제이미(가운데)의 이야기를 다룬 드라마 ‘소년의 시간’. 오른쪽은 아빠 밀러. [넷플릭스]</t>
+          <t>게티이미지뱅크지난해 우울, 자살 위험, 외상 후 스트레스 장애(PTSD)를 겪은 소방공무원의 비율이 전년도보다 높아진 것으로 나타났다.8일 국회 행정안전위원회 소속 양부남 더불어민주당 의원실이 소방청으로부터 제출받은 ‘2023~2024년 소방공무원 마음건강 설문조사’에 따르면, PTSD를 경험한 소방공무원은 전체 응답자 6만1087명 가운데 4375명(7.2%)으로 집계됐다. 이는 2023년(6.5%)보다 0.5%P 증가한 수치다.우울감을 느낀 응답자는 3937명(6.5%), 자살 위험이 있는 응답자는 3141명(5.2%)으로, 각각 0.2%P, 0.3%P 상승한 것으로 드러났다.문제성 음주는 전년 대비 0.1%P 늘어나 6.7%로 나타났다.지난 1년간 외상 사건에 12회 이상 노출된 소방공무원의 비율은 13.5%, 15회 이상은 10.5%였다. 두 지표 모두 2023년보다 0.2%P 하락했다.정신건강 관련 수치는 악화했지만, 회복 탄력성 점수는 10점 만점에 평균 5.4점으로 전년과 동일한 수준을 유지했다. 회복 탄력성은 스트레스나 충격 상황을 이겨내는 심리적 능력을 의미한다.소방공무원의 ‘기질적 용서’는 평균 90.5점(126점 만점)으로 나타났다. 기질적 용서는 부정적인 일이 발생했을 때 상황을 잘 받아들이고 용서하는 것이다. 세부 항목별로는 자기 용서 31.2점, 상황 용서 29점, 타인 용서 30.3점으로 나타났다.소방청은 심리적 어려움을 겪는 소방공무원을 위한 다양한 사업을 운영하고 있다. 그러나 정신건강 문제를 겪는 소방공무원의 비율은 줄어들지 않고 있어 실질적인 지원이 부족하다는 지적이 이어지고 있다.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>김유태 기자</t>
+          <t>김수연 기자</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/22785</t>
+          <t>https://media.naver.com/journalist/020/81556</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>넷플릭스 드라마 '소년의 시간'은 원테이크 기법과 사회적 주제를 통해 전 세계적으로 인기를 끌고 있다.</t>
+          <t>소방공무원의 정신건강 문제 증가, 스트레스 관리와 예방적 지원의 필요성이 강조됩니다.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[장은수의 책과 미래] 역사 속 도서관, 도서관 속 역사</t>
+          <t>‘트럼프 오락가락 관세쇼’에 수출 기업들 ‘갈팡질팡’</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289293</t>
+          <t>https://www.donga.com/news/Economy/article/all/20250410/131391749/2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474950?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627599?sid=101</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5074,19 +5170,27 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>오늘은 '도서관의 날'이다. 2021년 도서관법이 개정되면서, 2023년부터 매년 4월 12일을 '도서관의 날'로 지정하고, 일주일을 '도서관 주간'으로 지정했다. 오늘부터 전국 도서관에서 독자들을 초대해서 온갖 행사가 열린다. 작가들이 찾고, 책 관련 전시회가 개최되고, 독서 모임과 세미나가 열리는 것이다.백창민의 '이토록 역사적인 도서관'(한겨레출판 펴냄)은 우리나라 도서관 서른 곳을 소개하는 책이다. '도서관 덕후'를 자부하는 저자답게 국회도서관, 정독도서관, 무등도서관 등 전국 각지의 도서관을 일일이 방문하고, 관련 역사 자료를 찾아 보태고 정리하는 방식으로 쓰였기에 현장감이 돋보인다. 소개된 도서관 각각의 역사도 흥미롭지만, 그 도서관을 무대로 펼쳐진 을사늑약, 부마항쟁, 5·18 광주민주화운동 등 우리 역사의 주요 사건을 함께 접할 수 있도록 한 입체적 접근이 특징이다. 저자의 말대로, '역사 속 도서관'의 이야기이면서 '도서관 속 역사'의 이야기인 셈이다.겹눈으로 세상을 읽도록 만드는 것이 책이다. 마르셀 프루스트의 말처럼 책은 "그 책이 없다면 스스로 보지 못했을 것을 볼 수 있도록 하는 광학기구"이다. 책은 이면의 세계를 보여주고, 그로써 사회를 고쳐 읽게 하며, 나를 다시 쓰게 만든다.그런 책이 가득 담긴 도서관 역시 겹눈의 존재여야 한다. 단지 책을 보관하고 빌려주는 행정 공간을 넘어서 시민과 함께 공동체의 문제를 끌어안고 인간의 미래를 고민하는 역동적 공간이어야 하는 것이다. 그 출발점은 이 책에서 보이듯 도서관이 시대 흐름에서 비켜난 표백된 순수 공간이 아니라, 역사의 씨줄과 지역의 날줄이 교차하면서 발전해 온 치열한 현장임을 확인하는 일일 것이다.역사를 비켜간 도서관은 어디에도 없다. 1905년 을사늑약을 체결했던 장소가 도서관이었다. 친일파 박제순은 대한제국 황실도서관인 덕수궁 수옥헌에서 일본 공사 하야시 곤스케를 만나 국권을 넘겼다. 부마항쟁은 부산대 중앙도서관에서 시작되었고, 무등도서관은 5·18 항쟁 때 계엄군 총격으로 시민군이 사망했던 자리에 세워졌다. '잊지 않기 위해서'다. 1979년 완공된 사직동 어린이도서관 건물 한쪽은 독재정권 사수를 위해서 암약하던 비밀경찰 '사직동팀'이 사용하면서 폭력과 고문을 일삼았다.이처럼 도서관은 영광의 장소이자 치욕의 공간이며, 민주화의 성지이자 독재의 현장이다. 우리가 어떻게 대하느냐에 따라 도서관도 달라진다. 도서관의 날이다. 각자 동네 도서관을 찾아서 사서들과 함께 도서관에 새겨진 공동체의 역사를 확인해 보면 좋겠다.[장은수 편집문화실험실 대표]</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+          <t>관세정책 ‘손바닥 뒤집기’ 스트레스“선적 취소했다 부랴부랴 재개전례없는 불확실성에 혼란 가중관세협상 끝날때까지 관망이 최선”한국 기업들이 도널드 트럼프 미국 대통령의 ‘입’ 때문에 두통을 앓고 있다. 미국이 수입품에 과중한 관세를 부여한다고 하다가 며칠 뒤 번복하는 일이 반복되고 있기 때문이다. 한국에서 수출하는 물품은 물론이고 전 세계 생산망까지 동시에 적용되는 문제인 만큼 일부 기업에선 “트럼프 대통령의 ‘관세쇼’에 전례 없는 불확실성에 직면했다”는 불만이 나오고 있다.● ‘트럼프 스트레스’ 겪는 한국 기업들트럼프 행정부가 9일(현지 시간) 70여 국가에 대한 상호관세 부여를 90일간 유예하겠다고 발표하자 기업들 사이에선 “어느 장단에 맞춰야 할지 모르겠다”는 반응이 나왔다. 상호관세 46%가 책정됐던 베트남에 공장이 있는 한 제조업체 관계자는 “현 상황에서 공급망을 조정하거나 새로운 투자를 결정하기 어렵다”며 “미국의 관세 널뛰기가 정리돼야 글로벌 경영 전략을 짤 수 있는 실정”이라고 말했다.다른 국가도 마찬가지다. 이용민 한태상공회의소 회장은 “상호관세가 부과되니 태국 램차방 항구에서 미국으로 출항하는 선적이 대거 취소됐다가 다시 관세 유예로 선적이 재개되는 등 혼란 상황이 계속되고 있다”며 “태국 내 한국 기업 주재원들은 본사와 밤낮으로 연락을 주고받는 비상 경영 체제”라고 전했다.한국 기업들이 ‘트럼프 스트레스’를 받는 게 이번이 처음은 아니다. 미국이 올 2월 멕시코와 캐나다에 대해 25% 관세 부과를 하겠다고 했던 게 대표적이다. 당시 관세가 현실화하자 미국-멕시코-캐나다 무역협정(USMCA)의 무관세 혜택을 누리던 멕시코 소재 500여 한국 기업들은 대책 마련에 분주했다. 삼성전자와 LG전자는 미국 공장에서의 생산을 늘리는 방안을 검토했다. 하지만 실제론 관세 부과가 연기되면서 생산 전략을 또 수정했다.반대로 2일 미국 행정부가 베트남(46%), 태국(36%) 등에 상호관세를 부과하겠다고 밝혔을 때는 해당 지역에 진출한 한국 업체들이 멕시코나 한국에서 생산을 증대하는 방안을 검토했다.부품 업체 관계자는 “관세가 요동치다 보니 고객사와 계약을 할 때 납품 가격을 얼마로 써내야 할지 애매한 상황”이라고 말했다. 가전 업계 관계자는 “동남아에 고율 관세가 부과되면 멕시코 공장 생산량을 늘릴 수도 있는데, 자꾸 상황이 바뀌니 현재로선 상황을 주시하는 것 외에 다른 방도가 없다”고 말했다.● “협상 통해 불확실성 제거해야”관세가 요동치면서 미국 내 혼란도 가중되고 있다. 영국 파이낸셜타임스에 따르면 미국발 무역 전쟁이 심화되면서 글로벌 자동차 제조업체들이 수천 대의 차량을 미국 항구에 대기시키거나 일시적으로 선적을 중단하고 있다. 아우디, 재규어 랜드로버 등의 브랜드는 4월 미국 선적을 중단하거나 최소화했다.미국 수입업체들도 자동차와 철강에 품목별 개별관세 25%가 부과되고, 일부 국가는 상호관세가 유예되는 등 관세 관련 변화가 너무 많아 계산에 골머리를 앓고 있다. 월스트리트저널은 “수입업체에 관세를 계산하고 납부하기 위한 인프라가 구축되어 있지 않은 경우가 많다”고 지적했다.한국 기업들은 상호관세가 유예된 90일 동안 우리 정부가 미국과의 협상을 통해 불확실성을 없애길 기대하고 있다. 트럼프 행정부는 한국의 주요 수출 품목인 반도체와 의약품 등의 품목관세를 예고한 상태다. 총투자비 440억 달러(약 62조 원)에 이르는 미국 알래스카 액화천연가스(LNG) 개발의 한국 기업 참여도 요구하고 있다.이경묵 서울대 경영대 교수는 “기업들은 장기적 관점에서 경영 계획을 짜야 하는데 지금은 불확실성이 굉장히 높은 상황”이라며 “관세가 유예된 90일간 정부에서 협상을 잘해 주길 바라는 것이 최선”이라고 말했다.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>한재희 외 2명</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/020/78472</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>도서관의 역사와 역할을 조명하는 기사로 건강 정보와는 관련이 없습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없으며, 기업의 관세 정책 변화로 인한 경영 혼란을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5098,22 +5202,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>한강 ‘작별하지 않는다’ 배경....제주4.3기록물, 유네스코 세계기록유...</t>
+          <t>韓 증시의 '패러다임 시프트'…'이 지표' 쓰면 알짜 종목 보인다 [이시은...</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288672</t>
+          <t>https://www.hankyung.com/article/202504116131i</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474603?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118115?sid=101</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5123,27 +5227,27 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>한국, 훈민정음·동의보감 등 이어 20번째파리 유네스코 집행이사회서, ‘산림녹화기록물’도 함께 등재형무소에서 온 엽서지난해 노벨문학상을 받은 소설가 한강의 최근작인 ‘작별하지 않는다’의 배경이 된 제주 4.3에 대한 기록물이 유네스코 세계기록유산으로 최종 등재됐다.국가유산청은 “10일 오후 11시경(현지 시간) 프랑스 파리에서 열린 제221차 유네스코 집행이사회는 ‘제주 4.3기록물’ ‘산림녹화기록물’을 유네스코 세계기록유산(UNESCO Memory of the World)으로 등재하기로 최종 결정했다”고 11일 발표했다.‘제주4·3기록물’은 제주 4.3으로 인한 수많은 민간인 학살에 대한 피해자 진술, 진상규명과 화해의 과정에 대한 기록이다. 세계사적으로 인권의 중요성을 알려주고, 제주도민들의 화해와 상생 정신을 통해 아픈 과거사를 해결하는 새로운 길을 제시한다는 점에서 의미가 있다.이와 함께 6.25 전쟁 후 황폐화된 국토에 민관이 협력해 성공적인 국가 재건을 이뤄낸 ‘산림녹화기념물’도 이날 함께 세계기록유산으로 등재됐다. 이 자료는 세계의 다른 개발도상국이 참고할 수 있는 모범 사례이자 기후변화 대응, 사막화 방지 등 국제적 이슈에 대한 본보기가 된다는 평가를 받았다.이번 등재로 우리나라는 총 20건의 유네스코 세계기록유산을 보유하게 돼 기록문화 강국으로의 위상을 높일 수 있을 것으로 기대된다.한국은 1997년 훈민정음을 시작으로 조선왕조실록(1997), 직지심체요절(2001), 승정원일기(2001), 조선왕조의궤(2007), 고려대장경판 및 제경판(2007), 동의보감(2009), 일성록(2011), 5·18 관련 기록물(2011), 난중일기(2013), 새마을운동기록물(2013), 한국의 유교책판(2015), KBS특별생방송 ‘이산가족을 찾습니다’(2015), 조선왕실 어보와 어책(2017), 국채보상운동기록물(2017), 조선통신사기록물(2017), 4.19혁명기록물(2023), 동학농민혁명기록물(2023), 산림녹화기록물(2025), 제주4·3기록물(2025)을 보유하게 됐다.특별법 서명 문서와 만년필진상조사보고서제주도의회 4.3 피해보고서1975년 국민식수기간 특별우표1970년대 산림청 포스터</t>
+          <t>투자고수를 찾아서 &lt;45&gt;김홍범 유경PSG운용 CIO韓 증시, 조달에서 환원으로EPS 증가할 은행株 주목지난달 31일 공매도 재개'페어 트레이딩' 전개 양상한화에어로·현대로템 잠재력가치주와 성장주 균형도 강조"스트레스 없는 투자 해야"※한경 마켓PRO 텔레그램을 구독하시면 프리미엄 투자 콘텐츠를 보다 편리하게 볼 수 있습니다. 텔레그램에서 ‘마켓PRO’를 검색하면 가입할 수 있습니다.김홍범 유경PSG자산운용 최고투자책임자(CIO). /사진=이시은 기자“한국에선 주당순이익(EPS) 따져가며 투자할 일이 없었죠. 하지만 올해부턴 ‘패러다임’이 바뀔 것입니다.”김홍범 유경PSG자산운용 최고투자책임자(CIO·사진)는 지난 2일 한국경제신문과의 인터뷰에서 “국내 증시가 주주에게 돈을 돌려주는 시장으로 진화할 것”이라며 “상장 주식 수가 줄어들 은행주에 다시 주목할 때”라고 강조했다. 2007년 모건스탠리에서 경력을 시작한 그는 안다자산운용, 그로쓰힐자산운용 등을 거친 18년 차 베테랑 펀드 매니저다. 운용 펀드는 2015년부터 현재까지 벤치마크 대비 3.31~20.45% 초과 수익률을 꾸준히 올렸다.상법 개정은 시작일 뿐…은행株 EPS 뛴다그간 EPS가 그에게 주요 투자 지표가 되지 못했던 이유는 국내 증시가 주주 환원보단 자금 조달에 치우쳐져 있어서다. 유경PSG자산운용이 분석한 2010년부터 2023년까지 유가증권시장과 코스닥시장의 조달 자본 총액 대비 주주환원 합산의 차액은 항상 2012년과 2016년 유가증권시장 수치를 빼고 모두 양수였다. 대부분 연도에서 주주에게 돈을 받아 가는 경우가 더 많았다는 뜻이다. 김 CIO가 “국내 증시는 유상증자로 주식이 늘기만 하니 EPS를 활용할 이유가 없었다”고 말한 배경이다. 하지만 EPS는 올해부터 그의 주요 투자 지표로 떠올랐다.EPS는 기업의 순이익을 총주식 수로 나눈 값이다. 회사가 돈을 잘 벌면 수치가 뛰지만, 주식을 없애도 값이 커진다. 때문에 자사주 매입·소각이 활발한 미국에선 EPS 증감률이 주요 투자 지표로 쓰인다. 김 CIO는 “상법 개정안 논의가 본격화한 만큼 은행주의 EPS 동향을 주목해야 한다”고 짚었다. 개정안은 일단 거부권에 가로막힌 상태지만, 실제 통과 여부와 상관없이 주주환원 자체의 시장 의식이 달라졌다는 점이 중요하다고 했다. 이 가운데 뚜렷한 대주주가 없는 은행주는 주주환원을 지체할 이유가 없는 업권이라는 평가다. 특히 KB금융, 신한지주 등은 주주환원 체력의 기준인 보통주자본비율(CET1)이 높으면서도 EPS가 전년 대비 늘어날 대표주로 꼽힌다.공매도 이겨낼 우량 방산株들김홍범 유경PSG자산운용 최고투자책임자(CIO). /사진=이시은 기자공매도의 주요 타깃으로 언급됐던 방산주도 다시 들여다볼 업종이라고 했다. 김 CIO는 “최근 재개된 공매도는 업종 내 종목의 우열을 가려 매수(롱) 포지션과 매도(쇼트) 포지션을 나누는 ‘페어 트레이딩’ 양상을 보인다”며 “한화에어로스페이스, 현대로템 등은 군비를 증강하고 있는 유럽·중동의 수주 실적을 바탕으로 매수 포지션이 몰릴 수 있는 상장사들”이라고 말했다. 중국 인공지능(AI) 업체 딥시크의 오픈소스 공개로 수혜를 입을 네이버, 해외 진출을 본격화한 SOOP도 주가 잠재력이 충분하다는 설명이다. 특히 SOOP은 기존 해외 사업을 담당하던 최영우 최고전략책임자(CSO)가 대표에 오른 점을 기대 요소로 꼽았다.그는 “가치주와 성장주의 균형을 유지하라”고도 조언했다. 김 CIO는 “최근 증시에선 미 중앙은행(Fed)에서 경기 관련 말이 한마디만 나와도 다음날 시장이 한 치 앞을 내다볼 수 없는 변동성에 휘말린다”며 “애초에 시장 예측이 가능하다는 생각 자체를 버리고 포트폴리오를 고르게 나눠야 한다”고 말했다. 자신의 포트폴리오에서 가치주를 2~3종목, 성장주를 2~3종목 선별해 담아 최소 6개월을 두고 투자하라는 설명이다. “스트레스 없는 포트폴리오를 만들어야 한다”고도 말했다. 그는 “신규 게임 출시의 성공 여부, 신약의 미 식품의약국(FDA) 승인 등 한 가지 포인트만 보고 투자하는 습관은 장기적으로 성공하기 힘들다”며 “적어도 두 가지 이상의 주가 상승 이벤트가 잠재한 종목에 투자해야 한다”고 강조했다.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>이향휘 기자</t>
+          <t>이시은 기자</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/21766</t>
+          <t>https://media.naver.com/journalist/015/75278</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>제주 4.3 기록물과 산림녹화기록물이 유네스코 세계기록유산에 등재됐다.</t>
+          <t>이 기사는 투자 전략과 금융 시장에 관한 내용으로, 건강 관리와 보험 상담에 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5155,22 +5259,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>이재명 ‘경제 멘토’…정책총괄 이한주 [V메이커스]</t>
+          <t>10대 노린 디지털성범죄… 6년새 26배로 피해 급증</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289154</t>
+          <t>https://www.donga.com/news/Society/article/all/20250410/131394061/2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005475034?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627515?sid=102</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5180,27 +5284,27 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>이한주 민주연구원장 [V메이커스-3]대선 본선부터 李캠프 본격 등판교수 출신으로 李와 30여년지기李스타덤 띄운 성남 모라토리엄3대 무상복지 등 대표정책 구상이한주 민주연구원장이한주 민주연구원 원장은 ‘이재명의 경제 멘토’로 꼽힌다. 이재명 더불어민주당 전 대표와 30여년지기로 철학을 깊이 공유하고 있다. 이 원장은 대선 본선에서 정책 총괄 역할로 캠프에 본격적으로 합류할 전망이다.이 원장은 경복고와 서울대 생물학과를 졸업했다. 이후 서울대에서 경제학 석박사 학위를 취득하고 경원대(현 가천대) 경제학과 교수로 부임했다. 1985년 경원대에서 강사를 하던 시절 제자였던 송광영씨의 분신 투쟁에 충격을 받아 유학을 포기하고 성남 지역 시민사회운동에 깊이 관여하게 됐다.이 전 대표와의 인연도 이쯤 시작됐다. 1986년 성남 지역 시민단체 토론회에서 사법고시 준비생이던 이재명을 처음 만났다. 이후 사법시험에 합격한 이 전 대표가 학생운동을 하던 이 원장의 제자들을 무료 변론해 주고, 이 원장도 이 대표에게 여러 조언을 해주면서 인연을 이어갔다.이 전 대표가 2010년 성남시장에 취임하자마자 시행한 모라토리움 선언과 이재명표 3대 무상복지로 일컬어지는 무상교복·청년배당·산후조리 지원 등이 이 원장의 작품이다.특히 2010년 전국을 떠들썩하게 한 성남시 모라토리엄 선언은 초선 시장 이재명의 행정력과 정치력을 드러내며 그를 전국적 인물로 떠오르게 한 사건이다. 모라토리엄으로 절감한 재정을 복지에 재투자하는 이 구조는 이 전 대표의 정책적 트레이드마크인 ‘증세 없는 복지’와 ‘기본소득’ 구상의 토대가 됐다.이 전 대표가 경기도지사에 당선된 후에도 공동 인수위원장을 맡아 도정 청사진을 그렸고, 도 싱크탱크인 경기연구원 원장을 맡았다.이 전 대표는 중앙정치인으로 올라선 이후에도 이 원장에게 수시로 조언을 구했다고 한다. 2021년에는 대선캠프에서 정책위원장을 맡아 이 대표의 정책 멘토 역할을 했다.2024년 4월 21일에 민주당의 싱크탱크인 민주연구원 원장에 임명됐다. 이 전 대표가 직전에 치러진 4·10 총선에서 압승을 거둔 뒤 당의 싱크탱크인 민주연구원을 이 원장에게 맡긴 것은 대선을 겨냥한 장기 포석이라는 당 안팎의 분석이 나왔다. 캐스팅 보트를 쥔 중도층 공략을 강화하겠단 의도라는 해석이다.이 원장은 의원직을 맡지 않고 있고 학계 출신인 만큼 당내 복잡한 이해관계에서 비교적 자유로운 위치에 있다는 평가다. 이 때문에 이 대표가 중립적인 정책 창구로 이 원장을 중용하고 있다는 분석도 나온다.당내에서는 이 원장에 대해 “차분한 학자 스타일”이라는 평가가 나온다. 이 원장과 자주 교류하는 한 민주당 의원은 “이 원장은 민주당 정책의 큰 그림을 그리는 역할을 하고 있고, 대선 본선에서부터 캠프에서 공약과 정책과 관련해 주요 역할을 공식적으로 맡을 것으로 보인다”고 말했다.일각에서는 이 전 대표가 만약 정권 교체에 성공할 경우, 이 원장의 거취는 국정 운영의 핵심 축으로 연결될 수 있다는 관측도 조심스레 제기된다. 하지만 이 원장은 주요 직책을 고사할 수도 있어 보인다. 이 원장은 사석에서 “만약 이 전 대표가 대통령이 된다고 해도 정부에서 일하지 않고 적십자회장이나 아프리카 작은 나라에서 대사 정도 역할을 하며 봉사하고 싶다”고 말하기도 한 것으로 알려졌다.■ 이한주 민주연구원장 프로필출생 = 1956년 서울학력 = 서울대학교 생물학 학사, 경제학 석·박사경력 = 가천대학교 경제학과 교수, 경기연구원 원장, 이재명 열린캠프 정책위원장, 민주연구원 원장V메이커스 [매일경제]지난해 총선 당시 매일경제신문은 온라인 연재물 ‘금배지 원정대’를 선보여 많은 관심을 받았습니다. 6·3 대선을 앞두고 대통령을 만드는 사람들을 집중 분석하는 ‘V메이커스’를 새롭게 시작합니다. V는 VIP(대통령)·Victory(승리)·Vision(비전) 등을 뜻합니다. 대통령만큼 중요한 파워 엘리트들에 대한 검증 역할도 하겠습니다. 연재물은 앞으로 매경 홈페이지와 주요 포털에서 보실 수 있습니다.</t>
+          <t>19세이하 피해자 111명→2874명지원센터 집계… 실제는 더 많을듯10대 디지털 성범죄 피해자가 최근 6년 새 26배로 급증한 것으로 나타났다. 전체 디지털 성범죄 피해자 중 10대의 증가세가 가장 가파르다. 성 가치관이 채 확립되지 않은 10대를 디지털 성범죄에서 보호하기 위한 대책이 필요하다는 지적이 나온다.여성가족부가 10일 내놓은 ‘2024 디지털 성범죄 피해자 지원 보고서’에 따르면 10대 피해자(19세 이하)는 2018년 111명에서 지난해 2874명으로 25.9배로 늘었다. 전 연령대 가운데 증가 폭이 가장 크다. 같은 기간 20대와 30대 피해자는 각각 20.9배, 12.2배로 증가했다.여가부 산하 디지털 성범죄 피해자 지원센터에서 상담, 피해물 삭제 등을 지원한 피해자를 기준으로 집계한 통계라 실제 피해자는 이보다 더 많을 것으로 추산된다. 현재 수사기관에서 디지털 성범죄 피해자를 따로 집계하고 있지 않아 이 통계가 피해자 규모를 가늠할 수 있는 유일한 통계로 평가된다.지난해 전체 디지털 성범죄 피해자 수는 1만305명으로, 전년(8983명) 대비 14.7% 증가했다. 이 중 여성이 72.1%였다. 디지털 성범죄 피해자 수가 1만 명을 넘은 건 관련 통계가 집계된 2018년 이후 처음이다. 연령대별로는 20대(50.9%)가 가장 많았고 이어 10대(27.9%), 30대(12.9%) 등의 순이었다.김미순 한국여성인권진흥원 센터장은 “어릴 때부터 스마트폰과 소셜네트워크서비스(SNS) 사용에 익숙한 ‘디지털 네이티브’ 세대에서 피해가 집중적으로 발생하고 있다”며 특히 “딥페이크 등 성적 불쾌감을 유발하는 합성 이미지나 영상과 관련된 피해가 뚜렷하게 증가하고 있다”고 밝혔다. 김 센터장은 “기술이 계속 발전하면서 앞으로 디지털 성범죄 피해가 더 늘어날 것으로 우려된다”고 말했다.“부모에 혼날까봐 신고 못해”… 10대 ‘딥페이크 피해’ 순식간 확산전체 피해자 92%가 1020세대“알리고 싶지 않아요”… 수사 지연“일종의 놀이 취급, 삽시간에 퍼져”10대 성 관념 정립 안돼 후유증 심각… “적극적 피해 지원 대책 필요” 지적“최근 애플리케이션(앱) 등을 이용해 친구나 교사 사진을 합성하는 게 10대 사이에서 일종의 ‘놀이 문화’처럼 여겨지고 있습니다. 10대가 딥페이크(허위 영상물) 제작 업체에 의뢰해 이미지를 만들고 유포하는 사례도 증가하고 있어요.”박성혜 디지털 성범죄 피해자 지원센터 삭제지원팀장은 10대 피해자가 급증한 원인 중 하나로 디지털 기술을 이용한 합성·편집 피해 확산을 꼽았다. 디지털 성범죄는 피해물이 불특정 다수에게 순식간에 퍼질 수 있기 때문에 피해자를 빨리 보호하는 게 무엇보다 중요하다.특히 10대 피해자는 정서적 후유증이 심각할 수 있어 세심한 배려가 필요하다. 하지만 10대 피해자는 신고를 꺼리는 성향이 있다. 보다 적극적인 피해자 지원 체계가 필요하다는 목소리가 높다.● 10대 파고든 딥페이크 피해디지털 성범죄 피해 유형은 불법 촬영, 합성·편집, 유포 등으로 나뉜다. 지난해 센터에 접수된 디지털 성범죄 피해 유형 가운데 합성·편집 피해가 가장 큰 증가세를 보였다. 합성·편집 피해는 딥페이크 등 성적 불쾌감을 일으킬 수 있는 사진이나 영상을 합성하거나 편집하는 행위를 뜻한다.지난해 합성·편집 유형 피해는 1384건으로 전년(423건) 대비 3.3배로 늘었다. 같은 기간 불법 촬영 피해는 1.4배로 늘어 그 뒤를 이었다. 합성·편집 유형 피해는 10대 46.3%, 20대 46.4%였다. 전체 피해자 10명 중 9명 이상이 10, 20대였다.디지털 기술이 발달하면서 새로운 형태의 합성·편집 피해도 늘고 있다. 5, 6년 전에는 사진에 음란한 내용의 자막을 입히는 단순한 수준이었다면, 최근에는 생성형 인공지능(AI)을 활용해 성적인 사진을 제작해 유포하는 방식이 등장했다.디지털 성범죄는 강간, 강제추행 등 물리적 성범죄와 달리 피해자가 유포 등 피해 상황을 정확하게 파악하기 어렵다. 메신저 등에서 언제 어떻게 퍼지는지 피해자가 파악하는 건 사실상 불가능하다. 온라인에서 불특정 다수에게 원치 않는 모습이 퍼지는 것은 그 자체로 큰 공포와 수치심, 불안을 유발한다. 특히 10대는 성 관념이 충분히 확립되지 않아 정신적 피해가 크고 후유증이 오래 남는다.서울시여성가족재단이 2019년 진행한 연구에 따르면 아동·청소년 디지털 성범죄 피해자가 정신적 스트레스를 호소하는 비율이 전 연령대 중 가장 높았다. 15∼19세는 피해 후유증으로 ‘심리적 불안과 모멸감’을 가장 많이 꼽았다. 20대와 30대는 각각 ‘가해자에 대한 분노’와 ‘개인 정보 유출로 인한 불안’을 가장 많은 후유증으로 들었다.● “부모한테 혼날까 봐 신고 망설여”10대 피해자에게 빠른 수사와 신속한 보호는 매우 중요하다. 하지만 피해자 지원 기관에 따르면 10대 피해자 대부분은 “부모에게 혼날까 봐 무서워서 신고하지 못하겠다”며 신고 자체를 꺼린다. 현행 경찰 수사 규칙에 따르면 미성년자 피해자의 경우 수사가 시작되면 보호자에게 그 사실을 통보하게 돼 있다. 부모가 아는 걸 수치스러워해 망설이다가 더 큰 피해를 당하는 것이다.여성가족부 디지털 성범죄 지역 특화 상담소의 한 상담사는 “10대 피해자가 상담사에게 ‘부모님이 알면 큰일 나니 선생님이 제 보호자라고 거짓말하면 안 되겠냐’고 부탁하는 사례도 있다”고 전했다. 현장에서는 피해자가 신고를 망설일 때 피해자를 설득하거나 마음이 바뀔 때까지 기다릴 수밖에 없다.피해자가 부모에게 수사 상황이 통지되는 것을 원하지 않으면 디지털 성범죄 피해자 지원 기관 등 제3자에게 통지하고 적절한 법률적 도움을 받을 수 있도록 하자는 제안도 나온다. 여가부 관계자는 “범죄 수사 규칙 개정 필요성에 공감한다”며 “친권자의 알 권리와 10대 피해자의 신고 활성화 사이에서 균형을 찾을 수 있는 방법을 경찰청과 함께 고민하겠다”고 말했다.※ 성폭력 디지털성범죄 가정폭력 교제폭력 스토킹 등으로 전문가 도움이 필요하면 여성긴급전화 1366에 전화하세요. 365일 24시간 상담 및 긴급보호를 받을 수 있습니다.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>홍혜진 기자</t>
+          <t>김소영 기자</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/58817</t>
+          <t>https://media.naver.com/journalist/020/73744</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>이한주 민주연구원장은 이재명 전 대표의 경제 멘토로, 대선 캠프에서 정책 총괄 역할을 맡을 예정이다.</t>
+          <t>디지털 성범죄 피해 증가에 대한 기사로, 건강 관리와 보험 필요성에 직접적 연관성이 부족합니다.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5212,22 +5316,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>左배재·右이화… 청년 이끌고 근대의 문 열었다</t>
+          <t>"동의 없이 이런걸 붙이냐" 尹 사저 시끌…"어서오시라" 환영도</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/culture-life/relion-academia/2025/04/11/B5VDPPKWERBCPLOHVZ3BXBLXPE/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.joongang.co.kr/article/25327929</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898888?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433577?sid=102</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5237,19 +5341,27 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[개신교 선교 140주년… 한국의 100년 교회를 가다] [2] 아펜젤러와 정동제일교회1897년 완공된 정동제일교회 벧엘예배당 앞을 시민들이 산책하고 있다. 벧엘예배당은 한국 최초의 서양식 예배당으로 파이프오르간과 서양식 결혼식 등 근대 문명을 실제로 체험하는 공간의 역할을 했다. /박성원 기자“오늘 죽음의 철창을 산산히 깨뜨리시고 부활하신 주께서 이 나라 백성들을 얽어맨 결박을 끊으시고, 그들에게 하나님의 자녀가 누리는 자유와 빛을 허락해 주시옵소서!”1885년 4월 5일 조선에 도착한 헨리 아펜젤러(1858~1902) 선교사는 이런 기도를 올렸다. 마침 이날이 부활절이라는 점이 그에게 특별한 소명으로 다가왔던 것일까. 미국 북감리교 선교사로 파송된 아펜젤러는 1902년 선박 사고로 세상을 떠날 때까지 17년간 이 땅에 하나님의 자유와 빛을 선물하기 위해 자신을 돌보지 않았다. 입국 당시 키 179㎝, 체중 91㎏으로 기골이 장대한 청년이었던 그는 15년 만인 1900년엔 체중이 무려 30㎏이나 줄고 머리는 희고 허리는 굽어 가까운 친구들조차 못 알아볼 정도였다고 한다.장로교의 언더우드가 그랬듯이 아펜젤러의 모든 발걸음은 한국 감리교의 새 길을 개척하는 것이었다. 1885년 10월 13일 서울 정동 그의 집에서 첫 성찬식을 올리면서 정동제일교회를 창립했다. 한국 감리교 ‘어머니 교회’가 탄생한 것. 이후 감리교 첫 세례식(1887. 7.), 첫 여성 세례식(1887. 10.), 첫 여성·남성 주일학교 시작(1888), 첫 구역회(계삭회) 조직(1889) 등 하나하나가 모두 최초였다. 1885년 11월 출생한 딸 앨리스는 ‘한국에서 태어난 첫 서양 아기’였다.정동제일교회 벧엘예배당. 바로 옆의 초가집과 비교해볼 때 당시 시민들이 느꼈을 문화적 충격을 짐작할 수 있다. /정동제일교회◇左배재·右이화교육은 아펜젤러 선교 사역의 기둥이었다. 1885년 8월 3일 영어를 배우러 학생 2명이 그를 찾아온 것이 배재학당의 시작이었다. 서구 열강과 잇따라 수교하던 조선엔 영어 수요가 넘쳤고, 영어와 신문물에 목말랐던 학생들이 몰렸다. 1887년 2월 고종에게서 ‘배재(培材)’라는 교명을 하사받은 아펜젤러는 ‘크고자 하거든 남을 섬기라’라는 마태복음 구절로 교훈(校訓)을 삼았다. 1887년 9월 벽돌 단층 건물로 서양식 교사(校舍)를 지은 아펜젤러는 “이 학교를 조선 복음화의 원동력으로 삼으려 한다”고 일기에 적었고 실제로 그렇게 됐다.교회를 중심으로 왼쪽엔 배재학당, 같은 감리교 선교사인 메리 스크랜턴(1832~1909) 여사가 설립한 이화학당은 오른쪽에 자리 잡아 좌(左)배재, 우(右)이화 구도가 만들어졌다. 교회에 출석한 두 학당의 남녀 학생들은 정동제일교회를 중심으로 한국의 청년 문화를 태동시켰다.벧엘예배당에 1918년 최초로 파이프오르간이 설치된 후 여성 신자들이 기념촬영했다. /정동제일교회◇근대 문명 체험의 장, 벧엘예배당1897년 12월 완공된 벧엘예배당은 한국 최초의 서양식 예배당이라는 의미를 넘어선다. 명동성당보다 1년 앞서 건축된 예배당은 서구 신문물을 실제로 체험할 수 있는 현장이었다. 서양식 예배당에 대한 세상의 관심은 매우 뜨거워 1897년 5월 9일 지붕만 올린 상태로 방석을 깔고 첫 예배를 올렸을 정도였다. 1918년에는 한국 최초로 파이프오르간이 설치돼 장안의 명물이 됐다. 벧엘예배당은 또한 김우영·나혜석 커플 등 명사들의 신식 결혼식 장소로도 유명해졌다.최초 500명을 수용할 수 있는 규모로 지어진 예배당은 여러 차례 증축을 거쳐 800명까지 예배를 드릴 수 있도록 넓어졌고 지금도 사용되고 있다.◇안방 진출정동제일교회는 초기부터 여성 문제에 깊은 관심을 보였다. 아펜젤러는 1887년 10월 16일 ‘최씨 부인’에게 세례를 준 후 “우리 감리교가 안방에까지 진출했다(inroad into Ang Pang)”며 기뻐했다. 이후 교회 내에서 여성들의 역할이 확대되면서 조선 사회의 폐습 근절에 대한 목소리도 커졌다. 1920년대 교회 여성회는 금주·금연 운동을 펼치며 ‘전국 술값 다 합하여/곳곳마다 학교 세워/자녀 수양 늘 시키면/동서 문명 잘 빛내리’라는 가사가 등장하는 ‘금주가’도 보급했다. 교회는 1916년에는 남녀 좌석을 가르던 가림막까지 철거하면서 남녀 구분을 없애는 데 앞장섰다.벧엘예배당이 완공됐을 당시 정동제일교회 주변 약도. 교회 왼쪽엔 배재학당, 오른쪽엔 이화학당이 자리하고 주변에 외교 공간이 들어선 모습이다. /정동제일교회◇토론 문화의 산실벧엘예배당이 완공된 1897년 12월 말 교회에서는 기념 토론회가 잇따라 열렸다. 12월 31일의 토론회 주제는 ‘여성 교육이 가(可)하냐’. 남성 연사들의 찬반 토론이 이어지던 중 청중석의 여성회(조이스회) 회원이 일어나 일갈했다. “하나님이 이 세계 인생을 내실 때 남녀의 권리를 같게 하셨다. 남녀가 동등한 교육, 동등한 권리를 가져 인생에 대한 사업을 각기 하는 것이 당연하다.” 이 에피소드는 120년 전 토론회 풍경이라고는 믿기지 않을 정도로 혁신적이다.토론 문화는 정동제일교회와 배재학당, 배재학당 청년 조직인 협성회의 전통이었다. 서재필, 윤치호, 이승만, 주시경 등이 네트워크의 주역이었고 아펜젤러가 든든한 후원자였다. 갑신정변(1884) 후 미국으로 망명했던 서재필은 1895년 귀국 후 아펜젤러의 사택에 머물며 독립협회를 결성하고 ‘독립신문’을 발간했으며 배재학당에서 강연했다. 독립문 기공식에선 아펜젤러가 기도하는 등 기독교 의식으로 진행됐다. 1898년 서재필이 다시 추방되자 독립신문 발행은 아펜젤러가 맡기도 했다.◇3·1운동 요람…일제 탄압으로 교인 절반 줄어아펜젤러는 1902년 목포에서 열리는 성경 번역 회의에 참석하기 위해 가던 중 군산 어청도 앞바다에서 선박 충돌 사고로 순직했다. 그러나 그가 뿌린 독립 정신의 씨앗은 정동제일교회를 바탕으로 자라났다. 1919년 3·1운동 당시 정동제일교회는 중심에 있었다. 이 교회 이필주 담임목사가 민족 대표 33인 중 감리교 대표로 참여한 것을 비롯해 숱한 독립운동가를 배출한 것. 1920년 9월 옥중에서 순국한 유관순 열사의 시신을 수습해 10월 14일 장례를 올린 곳도 정동제일교회였다. 독립운동에 앞장선 대가는 참혹했다. 일제의 탄압으로 1917년 2283명이었던 교인은 3·1운동 이듬해인 1920년에는 1119명으로 급감했을 정도다. 정동제일교회는 매년 3·1절 무렵 주일학교 어린이들과 함께 국립현충원을 방문하여 교회 선배들의 넋을 기리는 전통을 가지고 있다.아펜젤러 순직 후 정동제일교회 교인들은 추모의 뜻을 담아 종(鐘)을 만들고 ‘경세종(警世鐘)’이란 이름을 붙였다. ‘세상을 깨운다’는 뜻이다. 경세종은 지금도 벧엘예배당 종탑에서 매년 12월 31일 자정 송구영신 예배 때마다 울리며 세상을 깨우고 있다.감리교와 장로교… 교파 구분하지 않고 힘 합친 선교사들“지난주 일요일, 이달 11일에 우리는 기도와 간증 모임에서 성찬식을 거행했습니다. 이것이 개신교에서 거행한 조선 최초 성찬식이었습니다. 장로교의 언더우드 목사와 제가 떡과 포도주를 나눠주었는데 참석한 사람은 11명이었습니다.”아펜젤러 선교사. /정동제일교회아펜젤러는 1885년 10월 13일 보고서에서 이렇게 적었다. 지금은 개신교 교단이 여러 교파로 갈라져 있지만 초기 선교사들은 감리교, 장로교 구분 없이 모든 사역을 함께했다. 경쟁하지 않고 선교 지역 구분을 합의했으며 성경 번역도 공동으로 했다. 중요한 역사적 현장엔 아펜젤러와 언더우드가 늘 함께했다. 조선 복음화라는 대원칙 앞에서 서로 양보하고 협력한 결과이다. 오늘날 교회 일치 운동(에큐메니컬)의 원조인 셈이다.두 선교사가 세운 정동제일교회와 새문안교회는 지금도 서로 교류하면서 우정을 이어가고 있다. 지난달 30일 두 교회가 공동 주최한 ‘한국 선교 140주년 기념 심포지엄’에서 천영태 정동제일교회 담임목사는 “기쁨과 슬픔을 함께한 두 교단 선교사들 사이에는 진정한 ‘성령의 하나 됨’이 존재했다”며 “이는 감리교회와 장로교회뿐 아니라 모든 교역자와 선교적 사명을 감당하는 이들이 오늘날에도 구하고 이뤄야 할 모습”이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+          <t>윤석열 전 대통령이 서울 용산구 한남동의 대통령 관저에서 퇴거하는 11일, 사저인 서울 서초구의 아크로비스타에서는 오전부터 한바탕 소란이 있었다. 1층 현관 부근에 대통령의 상징인 봉황 문양과 함께 "대통령 내외분 수고하셨습니다"라는 동대표 일동 명의의 현수막이 붙자 일부 주민이 "왜 주민 동의 없이 이런 것을 붙이느냐"고 관리사무소에 항의한 것이다.관리사무소는 "동대표들이 개인적으로 붙인 것이라 막을 수 없었다. 재물손괴로 고발당할 수 있어 뗄 수도 없다"고 했고 주민들은 "동대표들 개인 명의로 붙이라고 해라"라고 항의했다. 한 주민은 "외부인이 보기에 아크로비스타 757세대가 전부 윤 전 대통령을 환영하는 것으로 보이지 않겠느냐"고 우려했다.윤석열 전 대통령이 서울 용산구 한남동의 대통령 관저를 떠나는 11일 사저인 서울 서초구 아크로비스타의 1층에 ″대통령 내외분 수고하셨습니다″란 동대표 일동 명의의 현수막이 붙어있다. 김성진 기자.이날 오전에 만난 적지 않은 아크로비스타 주민들은 윤 전 대통령이 이웃으로 돌아오는 데 대한 걱정을 숨기지 않았다. 윤 전 대통령이 2022년 5월 취임 후 6개월가량 아크로비스타에서 출퇴근할 때의 불편을 다시 겪어야 한다는 것이다. 윤 전 대통령 부부의 외부 활동에 따라 주민 동선이 통제되고, 경호 차량이 지나갈 때 통신이 끊기고, 총·폭발물탐지기를 소지하거나 군견을 대동한 경호원들이 아크로비스타 일대를 순찰하는 등의 밀착 경호가 이뤄질 수 있다. 파면에도 윤 전 대통령은 최대 10년간 대통령 경호처의 경호를 받을 수 있다.실제로 이날 오전부터 윤 전 대통령의 재입주를 앞두고 경호처 직원으로 보이는 검은 정장 차림의 남성들이 4~5명씩 몰려다니는 등 아크로비스타의 분위기는 어수선했다. 오전 9시쯤 공항 보안검색대에서 볼 수 있는 엑스레이 스캐너가 건물 1층에 배치되는 모습이 포착되기도 했다. 한 주민은 놀이터 일대에 정장 차림 남성들이 모인 것을 보고 "낯설다. 또 시작이다. 아이들이 무서워하지 않겠나"라고 우려했다.집회에 따른 소란 걱정도 컸다. 이날 서초경찰서에 따르면 아크로비스타 일대에는 윤 전 대통령의 지지·규탄 집회가 매일 9건씩 한 달간 신고돼 있다. 아크로비스타에 10여년 거주했다는 40대 남성 A씨는 "당시 아내가 임신 중이라 절대적 안정을 취해야 했는데 평일·주말 가리지 않고 집 밖에서 집회를 하니 스트레스가 매우 컸다. 소음측정기를 구매할 생각마저 할 정도"라며 "이곳은 공동주택인데 제아무리 전직 대통령이라도 이웃들에 이런 피해를 줘도 되느냐. 따로 주택을 구해야 하지 않겠나"라 말했다.윤석열 전 대통령이 서울 서초구의 사저로 이전하는 11일 서울 용산구 한남동 대통령 관저 앞에서 촛불행동이 윤 전 대통령과 김건희 여사를 규탄하는 집회를 열고 있다. 김창용 기자.윤 전 대통령을 환영한다는 입주민도 있었다. 한 70대 남성 주민은 "취임 초기에 이곳에서 출퇴근하실 때도 큰 불편함은 없었다"며 "윤 전 대통령 고생하셨다. 환영한다"고 말했다.━관저 앞 지지·규탄 시위대 재격돌윤 전 대통령은 이날 오후 5시에 대통령 관저에서 퇴거한다. 2022년 11월 7일에 입주한 후 886일, 헌법재판소가 대통령직에서 파면한 지 일주일 만이다. 윤 전 대통령을 지지, 규탄하는 시위대가 한남동 대통령 관저, 사저인 아크로비스타 일대에 재집결했다. 지지자 측은 이날 오후 3시부터 관저 일대에서 '윤 전 대통령 응원' 집회를 한다. 이날 만난 지지자 한 명은 "절대 탄핵에 승복할 수 없다"며 "사기 탄핵"이라고 말했다. 윤 전 대통령은 경호차량을 타고 사저로 향하기 전, 차에서 내려 지지자들에게 인사할지 검토 중이라고 전해졌다.윤 전 대통령 탄핵의 찬성 집회를 열어왔던 촛불행동은 오전 11시에 윤 전 대통령과 김건희 여사의 구속을 촉구하는 집회를 열었다. 촛불행동은 성명서에서 "윤건희(윤석열·김건희) 구속 선봉대를 발족한다"며 "윤 전 대통령, 김건희 여사가 구속될 때까지 사저 앞 1인 시위, 촛불집회, 행진 등 투쟁할 것"이라고 말했다.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>김창용 기자</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/025/81356</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>이 기사는 한국 개신교 선교 역사와 정동제일교회의 역할을 다루며, 건강 정보와는 관련이 없습니다.</t>
+          <t>이 기사는 정치 및 사회적 이슈에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5261,22 +5373,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>권은비 "코피 터지고 죽을 수 있겠다 생각도"…아찔한 경험, 어디길래</t>
+          <t>“그놈의 전화에 미친 시어머니…다들 이런가요?” 3년 차 새댁이 전한...</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/202504115258H</t>
+          <t>https://www.mk.co.kr/article/11288777</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/015/0005117982</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474655?sid=102</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5286,34 +5398,46 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>운동</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>스트레스</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>기사의 이해를 돕기 위한 이미지. [사진 출처 = 챗GPT]며느리에게 잦은 안부 전화를 요구하는 시어머니 때문에 고민이라는 사연이 전해졌다.지난 9일 온라인 커뮤니티 네이트판에는 ‘그놈의 전화에 미친 시어머니. 다들 이런가요?’라는 제목의 게시글이 올라왔다.글쓴이 A씨는 “결혼한 지 3년 된 나름 신혼인 여자다. 결혼이라는 것.. 정말 쉽지 않다는 건 알고 있었지만 그럭저럭 헤쳐 나가는 중인데 그놈의 전화 문제가 해결이 되지 않는다”며 운을 뗐다.이어 “저희 집 효자는 결혼 전부터 매일 전화를 하는 아주 사이 좋은 집안 자식이다.(아들 셋) 삭막한 우리 집보다는 항상 사이좋고 다정한 효자네 가족이 부러웠다. 그래서 매일 전화하는 것, 좋다고 생각한다” 며 시댁을 설명했다.A씨는 “그런데 그놈의 며느리가 직접 거는 전화에 매달리는 어머님 때문에 전화의 전자만 들어도 스트레스 쌓인다”고 고민을 토로했다.남편이 통화할 시에 옆에서 잘 지내시냐, 식사하셨냐 등 인사하는 편이지만, 맞벌이라 집에 같이 없을 때가 더 많아 항상 받지는 못한다고도 덧붙였다.그런데 시어머니가 A씨를 만날 때마다 “너는 전화 한 통이 없더라”고 해서 그 때마다 무슨 말인지 영문을 모르겠다고 했다.지난 9일 온라인 커뮤니티 ‘네이트판’에 올라온 게시글. [사진 출처 = 네이트판]A씨는 다른 사람들도 시댁에 직접 전화하는지 물으며 “맞벌이에, 집안일에. 육아까지. 게다가 집안일도 안가르쳐 보내신 덕에 효자 키우기까지. 진이 빠져서 전화는커녕 제 지인들과 연락도 단절된 지 오래인데. 그놈의 전화타령 지긋지긋합니다”고 심경을 전했다.이어 “3년째 무시하고 있는데 해결방안을 모르겠다”며 누리꾼들에게 조언을 구했다.A씨 집안은 “사위 번호는 알지만 먼저 전화하신 적 없다”고도 말하며 글을 마무리했다.이를 본 누리꾼들은 댓글 창에서 “나도 시모 전화벨 소리가 머리 감을 때 환청으로 들릴 정도였다. 부재중 16회 찍힌 적도 있었다” “절대 전화하지 마라” “나도 아기 낳고 힘들어 죽겠는데 하루 세 통씩 전화 온다” 등 글쓴이와 유사한 경험담을 공유했다.</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>가족 간의 전화 문제로 인한 스트레스에 관한 개인적인 사연으로 건강 정보와 관련이 적습니다.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>“이 계절 아우터 하나만 산다면 ‘이것’”…봄여름 필수 아이템 윈드...</t>
+          <t>“남초딩 혐오” SNS글 파문 초등교사, 계약 종료 조치</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289171</t>
+          <t>https://www.donga.com/news/Society/article/all/20250411/131396218/2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474870?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627646?sid=102</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5323,27 +5447,27 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>데일리부터 아웃도어까지 폭넓게 활용하는 간절기 상품스포츠·러닝 트렌드 타고 ‘윈드 브레이커’ 수요 증가리복, 작년 완판 인기 아이템, 컬러와 사이즈 리뉴얼 출시리복 ‘일립스 컬렉션일교차가 심한 봄여름 시즌, 겉옷으로 무엇을 입어야 할지 모를 때 가장 쉽게 손이 가는 것이 있다. 바로 바람막이, 요즘 말로는 ‘윈드브레이커’다.특히 러닝 열풍과 함께 ‘러닝 바람막이’에 대한 소비자 관심도 꾸준히 늘고 있어 운동과 일상 모두를 아우를 수 있는 실용적인 데일리 아이템으로 주목받고 있다.이에 여러 패션 브랜드들은 앞다퉈 윈드브레이커를 출시하며 간절기 필수 상품 홍보에 열을 올리는 중이다.11일 LF의 글로벌 스포츠 브랜드 리복(Reebok)이 봄여름 시즌을 겨냥한 신규 윈드브레이커 라인업 ‘일립스 컬렉션’을 출시했다고 밝혔다.‘RUN with YOUTH’라는 테마 아래, ‘싱그러운 봄, 더욱 가볍고 자유롭게 날아오르다’라는 메시지를 담은 이번 컬렉션은 봄의 싱그러움을 담은 산뜻한 컬러감이 돋보이는 ‘일립스 윈드 브레이커 셋업’을 중심으로 구성했다.리복 ‘일립스 컬렉션‘일립스 윈드 브레이커 셋업’은 작년 봄여름 시즌 여성 전용 제품으로 출시되자마자 전 사이즈 품절을 기록하며 뜨거운 호응을 모았던 제품이다. 이에 리복은 남녀 공용 유니섹스 사이즈를 추가하고 컬러 라인업을 확대해 새롭게 리뉴얼했다.또한 반팔 아노락, 피스테(반팔/긴팔), 티셔츠, 파라슈트 스커트 등 다양한 아이템으로 구성된 ‘일립스 컬렉션’으로 확장되어 스타일링 선택의 폭을 넓혔다.특히 기존보다 더욱 가볍고 얇은 나일론 와샤 가공 원단을 사용해 일교차가 큰 봄 날씨부터 초여름까지 쾌적하게 착용할 수 있으며, 일상과 아웃도어를 아우르는 데일리 아이템으로 활용도가 높다.프로-스펙스 스포츠 자켓스포츠 브랜드 프로-스펙스도 야외 활동이 증가하는 봄을 맞아 기능성과 스타일을 동시에 갖춘 ‘봄 스포츠 자켓’ 코디를 제안했다.프로-스펙스 스포츠 자켓 2종은 방풍, 발수 기능을 더해 일교차가 큰 봄 날씨에도 쾌적한 착용감을 선사하며, 간결하고 세련된 디자인으로 봄 나들이부터 스포츠, 아웃도어 활동 등 다양한 상황에서 활용하기 좋다.남성용 ‘후디드 하이브리드 자켓’은 우븐 소재와 트리코트 소재가 혼합된 하이브리드 원단을 사용한 것이 특징이다. 쌀쌀한 봄 바람을 막아줄 수 있는 방풍 기능과 함께 발수, 자외선 차단 기능까지 갖췄다.여성용인 ‘홑겹 후디드 세미크롭 자켓’ 역시 방풍과 발수 기능을 갖춘 원단을 사용했다. 등판에는 통기성을 극대화한 벤틸레이션 구조로 땀과 열을 효율적으로 배출할 수 있어 일상부터 다양한 야외 활동에서 착용하기 좋다. 남성용과 여성용 모두 가격은 149,000원이다.프로-스펙스 스포츠 자켓프로-스펙스 관계자는 “바깥 활동이 증가하는 봄을 맞아 스포츠와 일상의 경계 없이 다양한 상황에서 활용하기 좋은 바람막이 자켓을 선보이게 됐다”이라며 “날씨가 변덕스러운 봄철, 체온 유지를 도와줄 가벼운 아우터를 찾고 있다면 프로-스펙스의 스포츠 자켓이 좋은 선택이 될 것”이라고 말했다.</t>
+          <t>뉴스1강원도 원주의 한 초등학교 담임교사가 SNS에 남자 초등학생을 혐오·비하하는 글을 올린 사실이 확인돼 당국이 계약을 종료한 것으로 전해졌다.강원도교육청은 논란이 된 원주의 초등 교사 A 씨에 대해 업무 배제 조치했다고 지난 9일 밝혔다.뉴스1에 따르면 A 씨는 지난해 SNS에 “남초딩들 보면 혐오스럽다. 악취, 소음, 먼지, 스트레스 결혼해서 아들 생기면 낙태해야겠다는 생각이”라는 글을 올렸다.이후 A 씨는 원주 소재 초등학교의 계약제 교원으로 담임을 맡게 됐다. 당시 이 학급의 원래 담임교사는 출산으로 한 달간 휴직한 상태였다.그러나 A 씨가 올렸던 글이 빠르게 퍼져나갔고, 학부모의 민원이 국민신문고에 접수됐다.학교 측은 논란을 인지한 뒤 A 씨를 아이들과 분리 조치하고 업무에서 배제한 뒤 계약을 종료했다.강원도교육청 관계자는 “해당 사건을 알게 된 후 학교 측이 곧장 조치를 취했다”며 “이런 일이 없도록 더욱 신경 쓰겠다”고 밝혔다.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>김효혜 기자</t>
+          <t>박태근 기자</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/23343</t>
+          <t>https://media.naver.com/journalist/020/78665</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>리복과 프로-스펙스의 윈드브레이커와 스포츠 자켓 출시 소식으로, 건강 정보와 관련이 적습니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5355,7 +5479,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[한삼희의 환경칼럼] ‘진화 헬기가 산불 확산’ 주장까지 등장하다니</t>
+          <t>경북도, 6월까지 ‘산불 피해 주민 마음 회복 프로그램’ 운영</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5365,12 +5489,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/opinion/specialist_column/2025/04/11/R25XXFD5D5DFZH6ZBLTA5GFXXA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.chosun.com/national/regional/2025/04/11/AQWBYKUTI5DADLBORNEJIUDZUM/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898853?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898961?sid=102</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5380,46 +5504,54 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>임도가 바람 통로 돼 산불 번진다는 주장 나오더니 이젠 ‘헬기 바람 책임론’까지숲 가꾸기 산불 조장론 두고도 몇 년째 계속되는 논쟁… 검증 안 된 주장 자제 필요큰 산불이 나면 산림청에선 으레 임도를 더 많이 만들고, 숲 가꾸기를 열심히 하고, 성능 좋은 헬기를 더 갖춰야 산불 피해를 줄일 수 있다고 해왔다. 그런데 이게 다 틀린 말이라는 주장이 몇 년 전부터 제기됐다. 사실과 완전히 거꾸로이거나 조직 이기주의성 과장이라는 것이다.논란이 표면화한 것은 2023년 3월 합천·하동 산불이 계기였다. 산림청은 임도가 있는 합천의 3월 8일 산불 때는 고성능 진화차가 밤새 임도를 누비며 물을 뿜어 헬기를 동원하지 못했어도 진화율을 82%로 끌어올릴 수 있었다고 했다. 반면 3월 11일 하동 산불은 임도가 없어 밤사이 진화 진척률이 17%에 불과했다는 것이다. 그런데 그해 4월 환경운동연합의 창녕·김해양산·진주 등 경남 지역 조직들과 경남시민환경연구소 등이 기자회견을 갖고 “임도를 갖췄고 숲 가꾸기로 하층 식생을 제거한 합천에선 산불이 나무 꼭대기까지 태우며 162ha 피해를 냈고, 임도가 없고 숲에 손을 대지 않은 하동에선 91ha 타다가 스스로 꺼졌다”고 주장했다.환경 단체들은 숲 가꾸기 사업이 산불에 취약한 소나무는 남기고 불에 강한 참나무류를 베어버리는 방식이어서 산불을 촉진시킨다는 주장이다. 소나무가 휘발성 오일 성분을 갖고 있어 불에 잘 탄다는 점은 산림청도 인정한다. 그에 반해 활엽수의 두꺼운 껍질 코르크층은 발화 온도가 높아 산불에 견디는 힘이 강하다. 환경 단체들은 더 나아가 키 작은 잡목, 덤불, 활엽수 낙엽으로 빽빽한 숲에선 바람 속도가 느려지고 바닥층이 젖어 있어 산불 확산을 늦춘다고 주장했다. 주로 부산대 홍석환 교수와 기후재난연구소 최병성 대표 등이 뒷받침하고 있는 논리다. 홍 교수는 2023년 10월 국회의 산림청 국정감사 때 당시 윤미향 의원 측 참고인으로 나와 같은 취지의 주장을 폈다.반면 산림청은 숲에 쌓인 마른 나뭇가지와 낙엽, 덤불 등은 산불 연료 역할을 하기 때문에 이것들을 걷어내는 솎아주기가 필요하다는 입장이다. 실제 미국·유럽 등은 기계적 솎아주기에서 더 나아가 일부러 하층 식생을 태워 소진시키는 ‘처방적 산불(prescribed burn)’까지 동원하고 있다. 산림청은 2023년 숲 가꾸기를 하지 않은 하동 산불 피해가 합천 산불보다 작았던 것은 하동에 때마침 내린 비 덕분이었을 뿐이라고 했다. 지난달 21일 시작된 산청 구곡산 산불이 30일 주불이 잡힌 이후로도 수시로 재발화했던 것도 활엽수림의 두꺼운 낙엽층 밑에 숨은 잔불 때문이라는 것이다.임도 문제도 견해가 완전히 정반대다. 홍 교수, 최 대표 등은 도로 부지로 벌목한 곳의 풍속이 숲속보다 20배 빨랐다는 독일 연구 결과가 있다며 임도가 바람 통로 역할을 해 산불을 더 번지게 한다는 논리다. 윤미향 전 의원도 홍 교수에게 가세해 ‘선진국 대비 한국은 임도가 부족하다’는 산림청 자료는 통계 왜곡이라고 했다. 일본·미국·오스트리아 등은 임도뿐만 아니라 산림 내 지방도와 사유 도로까지 합친 계산인데 그걸 국내 순수 임도 통계와 비교했다는 것이다. 이번 산불 이후 지난 3일엔 MBC도 임도 확충에 의문을 제기하는 보도를 했다. 노컷뉴스, 한겨레21, 오마이뉴스 등도 매년 3000억원을 쓰는 숲 가꾸기, 2000억원 이상 드는 임도 건설이 산불 확산을 조장하고 있다는 내용의 인터뷰와 기획 보도를 하고 있다. 홍 교수는 최근 인터뷰에선 진화 헬기가 물을 뿌릴 때 만드는 강한 하강풍이 불붙은 낙엽을 흩뜨려 산불 확산을 부채질한다는 뜻밖의 주장까지 하고 나섰다. 어쩌다 그런 경우가 있을 수도 있겠지만 극히 예외적 상황을 일반화시켜 헬기 무용론까지 들고나오는 것은 해도 너무 한다는 느낌이다. 산불과 사투를 벌이는 진화 대원들에 대한 발길질 아닌가.비주류의 소수 의견에서 새 발상, 새 관점을 얻는 경우도 없지는 않을 것이다. 산림청은 내화수림 조성 등 소나무 숲의 산불 취약성을 극복하는 방안을 연구해야 한다. 숲 가꾸기도 수종 균형 등 부분까지 신경 써야 할 것이다. 임도 밀도, 숲 가꾸기 효과 논란이 몇 년째 되풀이되는 것은 이해하기 어렵다. 산림청이 인터넷 검색 자료에만 의존하지 말고 각국 실상을 정확히 조사해 논란에 확실한 매듭을 지어야 한다.환경 단체나 전문가들은 정책을 비판할 때는 충분히 검증된 자료로 신뢰성 있는 주장을 펴야 한다. 튀는 논리는 주목은 받겠지만 정책 혼선과 시간, 재정의 낭비를 초래할 수 있다. 우리 사회엔 공적 권위에 대한 불신이 여전하고, 사회운동 단체와 일부 언론 등엔 저항 문화적 분위기도 있다. 임도, 숲 가꾸기 같은 실무 논쟁이 자칫 진영 대립 비슷하게 번져갈 우려는 없는지도 걱정이다. 임도 무용론, 숲 가꾸기 유해론 정도의 주장을 내세우려면 관련 학계에서 학술적 인정을 받은 다음에 해도 늦지 않을 것이다.매일 조선일보에 실린 칼럼 5개가 담긴 뉴스레터를 받아보세요. 세상에 대한 통찰을 얻을 수 있습니다.'5분 칼럼' 구독하기(https://page.stibee.com/subscriptions/91170)</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+          <t>경북도는 ‘산불피해 주민 마음 회복 프로그램’을 운영한다고 11일 밝혔다. 사진은 경북 영주 국립산림치유원에서 휴식을 취하고 있는 시민들의 모습./국립산림치유원경북도는 국립산림치유원과 함께 ‘산불 피해 주민 마음 회복 프로그램’을 운영한다고 11일 밝혔다.산불로 심리적 충격과 일상 붕괴를 겪은 피해 주민이 마음의 안정을 되찾고 다시 일상으로 복귀할 수 있도록 돕기 위한 프로그램이다. 산불 피해 주민과 그 가족이라면 누구나 시·군 단체 신청을 통해 무료로 참여할 수 있다. 영주시 봉현면 국립산림치유원에서 1박 2일 숙박형 프로그램으로 오는 6월까지 진행할 계획이다.경북도에 따르면, 숲의 소리, 자연의 향기, 편안한 움직임이 어우러진 이 활동은 불안, 불면, 외상 후 스트레스(PTSD) 증상 해소에 실질적인 효과가 있다고 한다.조현애 경북도 산림자원국장은 “산불이 남긴 상처는 외상뿐 아니라 마음 깊은 곳까지 이어지는 만큼 피해 주민들에게 작지만 의미 있는 위로가 되고, 치유와 회복의 출발점이 될 수 있길 바란다”며 “이번 프로그램을 시작으로, 산불 등 재난 발생 이후 주민 심리 회복을 돕기 위한 공공 치유 서비스를 지속적으로 확대해 나갈 계획”이라고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>노인호 기자</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/023/81021</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>임도와 숲 가꾸기가 산불 확산에 미치는 영향에 대한 논쟁이 지속되고 있다.</t>
+          <t>산불 피해 주민 대상 심리 회복 프로그램이 PTSD 증상 해소에 효과적이며 건강 관리의 중요성을 강조합니다.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[오늘의 운세] 4월 12일 토요일 (음력 3월 15일 辛亥)</t>
+          <t>신간 다이제스트</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/national_general/2025/04/11/XNJB4Z2O2JFHVJ2762ZHH2YJGE/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.mk.co.kr/article/11289265</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003899020?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474934?sid=103</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5429,46 +5561,46 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>스트레스</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>36년생 사사로운 감정이 오해 부르기 십상. 48년생 오늘만큼은 기다림과 설렘 즐겨라. 60년생 승산 없는 싸움은 피하는 게 상책. 72년생 정신세계 안 가꾸는 삶은 척박. 84년생 낙상수 있으니 발걸음 무겁게. 96년생 다름은 인정하고 조화와 균형감 갖도록.37년생 일 잘하는 농부에겐 몹쓸 땅 없다. 49년생 눈 뜨고 코 베이는 세상 정신 똑바로 차리도록. 61년생 힘센 황소가 여물도 많이 먹는 법. 73년생 대접받고프면 먼저 대접. 85년생 가다 막히면 원인은 자신에게 찾아야. 97년생 때 못 만난 천리마는 소금 수레 끈다.38년생 감정이 이성보다 한 걸음 빨리 움직인다. 50년생 바닷가 개 호랑이 무서운 줄 모른다. 62년생 문제는 유력자에게 부탁해봐도 좋을 듯. 74년생 대인 관계에 자기중심적 사고는 버려야. 86년생 말에 따듯한 온도 느껴지도록. 98년생 누구도 대신 못 해주는 게 인생.27년생 말로 낸 상처는 말이 치료약. 39년생 잘나갈 때 숨은 복병을 조심. 51년생 곪은 상처는 결국 터지고 만다. 63년생 실리도 좋지만 명분 생각하라. 75년생 운동으로 기분 전환하라. 87년생 막혔던 장애물 사라질 듯. 99년생 구설수 있으니 언쟁을 경계.28년생 사또 덕분에 나팔 분다. 40년생 자신 있어도 과욕은 금물. 52년생 투자나 계약은 다음 기회에. 64년생 자중하며 사태를 관망할 시기. 76년생 사람들의 평판은 두려워할 것 없다. 88년생 콩이든 팥이든 아무 참견 마라. 00년생 부모와 가족에게 해답 있다.29년생 갈팡질팡하지 말고 본업에만 몰두. 41년생 질환 있다면 동쪽 의사에게. 53년생 주변인과의 관계에 정성이 필요. 65년생 높은 가지 부러지기 쉬운 법. 77년생 변수가 생겨도 밀고 가라. 89년생 자식을 키워봐야 부모 심정 안다. 01년생 적당한 위기의식은 삶의 활력.30년생 모든 재산을 한 배에 싣지 마라. 42년생 길흉이 교차하니 매사를 조심. 54년생 남쪽으로는 고개도 돌리지 마라. 66년생 활동 영역이 넓어지는 시기. 78년생 옆집 처녀 믿다가 장가 못 간다. 90년생 지난 일에 집착하지 마라. 02년생 돌아가는 길이 지름길.31년생 비약적인 발전이 기대된다. 43년생 아랫사람에게 불만 있어도 참아라. 55년생 주도적 역할을 해야 할 때. 67년생 한 박자 늦췄다 시작해도 좋을 듯. 79년생 소띠와의 거래는 백해무익. 91년생 감정을 누르고 이성을 깨워라. 03년생 변화에 능동적으로 대비하도록.32년생 손 안 대고 코 풀 순 없다. 44년생 끈기와 집념이 성공 비결. 56년생 내일은 오늘 이미 시작되었다. 68년생 무엇보다 충분한 휴식이 제일 필요. 80년생 3대 부자 없고 3대 가난 없다. 92년생 급히 먹는 밥 체하기 마련. 04년생 물 흐르듯 순리대로 진행하라.33년생 생각대로 하려는 생각을 버려라. 45년생 하늘 높아 머리 숙이는 게 아니다. 57년생 관념과 틀에 갇히면 본질 놓친다. 69년생 눈높이 낮추고 작은 것에도 만족하라. 81년생 부지런한 범재 게으른 천재보다 낫다. 93년생 용기 내 가도 힘겨운 길, 자신감 갖도록.34년생 관용과 포용은 인격 높인다. 46년생 집안 답답해도 외출 삼가라. 58년생 특별한 근심걱정 없이 무사 평안한 하루 될 듯. 70년생 손 갈 곳 많아 힘은 들겠지만 즐겁게 하도록. 82년생 숨이 턱까지 찰 때 10초만 더 버텨라. 94년생 남모른 선행이 큰 보답 가져온다.35년생 솔개도 천 년 묵으면 꿩 잡는다. 47년생 재물 운이 하강 곡선 그리는 시기. 59년생 타고나기보단 만들어가는 게 더 값지다. 71년생 뜻하고 소망한 걸 얻을 수 있을 듯. 83년생 선입견 갖고 대처하면 후회막급. 95년생 상대방 의견이 맞지 않아도 따르는 게 상책.한소평 금오산방 강주</t>
+          <t>사람 김영하의 내밀한 이야기단 한 번의 삶김영하 지음, 1만6800원소설가 김영하의 사적이고 내밀한 에세이다. 돌아가신 부모님을 생각하며 한 번뿐인 삶에 연민과 애정 어린 시선을 보낸다. 열네 편의 이야기에 진솔한 가족사와 직접 경험한 인생의 순간을 아우르는 깊은 사유와 통찰이 있다. 우리는 얼마나 서로를, 그리고 자신을 모르고 살아가는가. 담담히 풀어낸 솔직한 경험과 고민을 통해 독자들이 자신의 삶을 되돌아보게 만든다. 복복서가 펴냄.혼란의 대한민국, 어디로 가야하나한국이란 무엇인가김영민 지음, 1만8800원지난해 12월 3일 한밤중에 단행된 대통령의 불법 계엄령 이후 한국 사회를 휩쓸었던 정신적 공황을 짚는다. 저자인 김영민 서울대 교수는 대한민국을 이해해온 방식 자체를 처음부터 되묻고 새로운 서사의 가능성을 이야기한다. 우리 공동체에 대한 정체성과 방향성을 다시 물어야 할 때라는 주장이다. 홍익인간부터 계엄의 밤까지 역사의 흐름 속에서 한국을 돌아본다. 어크로스 펴냄.'맞춤법 빌런' 되지 않으려면말실수가 두려운 사람을 위한우리말 사용법이경우 지음, 1만8000원누구나 한 번쯤은 소리 나는 대로 썼을 뿐인데 맞춤법을 틀리거나, 느낌은 알겠는데 알맞은 단어가 생각나지 않거나, 마음을 써서 말했는데 오히려 오해를 산 경험이 있다. 한 끗 차이 때문에 헷갈리는 단어부터 상황과 상대에 맞춰 적절하게 사용해야 하는 표현들, 차마 지적하기 어려운 맞춤법까지 모두 담겨 있는 책이다. 유노북스 펴냄.탐사보도로 파헤친 그림자 권력소리 없는 쿠데타클레어 프로보스트·매트 켄나드 지음윤종은 옮김, 2만5000원오늘날 전 세계 거대 기업들은 새로운 제국으로 급부상하고 있다. 런던 탐사보도센터 회원인 저자들이 수많은 자료를 뒤지고 전 세계 25개국을 돌아다니며 현장 목소리를 듣고 취재한 결과물이다. 초국적 기업들이 어떻게 대중의 눈에 띄지 않게 민주주의의 근간을 뒤흔드는 '소리 없는 쿠데타'를 일으키는지 생생하게 파헤친다. 소소의책 펴냄.몸도 마음도 병드는 불공정불평등은 어떻게 몸을 갉아먹는가알린 T 제로니머스 지음방진이 옮김, 3만1000원불공정한 사회가 주는 스트레스가 노화를 촉진해 건강과 수명에 어떻게 심대한 영향을 미치는지 보여준다. 저자는 평생 공공보건학자로 연구를 해오며 부정의한 사회가 개인 건강을 서서히 무너뜨린다는 사실을 입증했다. 차별과 불평등이 만연한 사회의 사다리 맨 밑에 있는 사람들이 더 많이 아프고 더 일찍 죽고 있었다. 돌베개 펴냄.상실마저 따뜻하게 표현한 시인마중도 배웅도 없이박준 지음, 1만2000원'당신의 이름을 지어다가 며칠은 먹었다'로 존재감을 보여준 박준 시인의 세 번째 시집이자 7년 만의 신작이다. 그리움과 상실마저 아릿한 아름다움으로 그려내는 미덕을 고스란히 계승하면서도 한층 깊어진 성찰과 더욱 섬세해진 시어로 전작을 뛰어넘는 완성도를 보여준다. 살면서 놓친 것들을 어루만지는 손길이 따뜻하다. 창비 펴냄.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>주어진 내용은 개인의 운세에 대한 조언으로, 건강 관련 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>불공정한 사회가 주는 스트레스는 노화를 촉진하고 건강과 수명에 부정적 영향을 미친다.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>소방관 7.2% “외상후 스트레스 장애 경험”…전년보다 늘어</t>
+          <t>미국 자산 폭락의 날…해외 투자 이탈? "절망↔불확실성 바꾼 것" [김현...</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250411/131395141/2</t>
+          <t>https://www.hankyung.com/article/202504114547i</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627614?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005117889?sid=104</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5483,34 +5615,34 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>게티이미지뱅크지난해 우울, 자살 위험, 외상 후 스트레스 장애(PTSD)를 겪은 소방공무원의 비율이 전년도보다 높아진 것으로 나타났다.8일 국회 행정안전위원회 소속 양부남 더불어민주당 의원실이 소방청으로부터 제출받은 ‘2023~2024년 소방공무원 마음건강 설문조사’에 따르면, PTSD를 경험한 소방공무원은 전체 응답자 6만1087명 가운데 4375명(7.2%)으로 집계됐다. 이는 2023년(6.5%)보다 0.5%P 증가한 수치다.우울감을 느낀 응답자는 3937명(6.5%), 자살 위험이 있는 응답자는 3141명(5.2%)으로, 각각 0.2%P, 0.3%P 상승한 것으로 드러났다.문제성 음주는 전년 대비 0.1%P 늘어나 6.7%로 나타났다.지난 1년간 외상 사건에 12회 이상 노출된 소방공무원의 비율은 13.5%, 15회 이상은 10.5%였다. 두 지표 모두 2023년보다 0.2%P 하락했다.정신건강 관련 수치는 악화했지만, 회복 탄력성 점수는 10점 만점에 평균 5.4점으로 전년과 동일한 수준을 유지했다. 회복 탄력성은 스트레스나 충격 상황을 이겨내는 심리적 능력을 의미한다.소방공무원의 ‘기질적 용서’는 평균 90.5점(126점 만점)으로 나타났다. 기질적 용서는 부정적인 일이 발생했을 때 상황을 잘 받아들이고 용서하는 것이다. 세부 항목별로는 자기 용서 31.2점, 상황 용서 29점, 타인 용서 30.3점으로 나타났다.소방청은 심리적 어려움을 겪는 소방공무원을 위한 다양한 사업을 운영하고 있다. 그러나 정신건강 문제를 겪는 소방공무원의 비율은 줄어들지 않고 있어 실질적인 지원이 부족하다는 지적이 이어지고 있다.</t>
+          <t>이 기사는 국내 최대 해외 투자정보 플랫폼한경 글로벌마켓에 게재된 기사입니다.90일 관세 유예로 인한 흥분은 하루밖에 지속하지 않았습니다. 파이퍼샌들러의 마이클 칸트로위츠 전략가는 "최악의 시나리오는 사라졌다"라고 했지만 그네상스매크로의 닐 두타 이코노미스트는 "누구도 '모든게  깨끗해졌다'라고 할 수 있는 상황이 아니다"라고 밝혔습니다. 르네상스매크로처럼 많은 이코노미스트는 여전히 경기 침체 가능성을 보고 있습니다. '트럼프 풋'이 확인됐다고는 하지만, 그런 풋이 발동되려면 오랫동안 안전 자산으로 여겨져 온 미국 국채 시장이 무질서하게 흔들려야 할 것입니다.1.  "두 건의 관세 협상, 거의 마무리"125% 관세를 얻어맞은 중국 정부는 미국 여행 자제령을 내리고 할리우드 영화 수입 카드를 내밀었습니다. 그동안 중국 내에서 언급되어온 6대 대응 조치(미국산 농산물 관세 대폭 인상, 가금육 수입 금지, 애플 등에 대한 지식재산권 조사, 미국 영화 수입 축소·금지 등) 중의 하나입니다.유럽에서는 유럽연합(EU) 집행위원회가 15일부터 시행하려던 보복관세 부과 방침을 90일간 보류하기로 했습니다. 미국의 철강·알루미늄 관세에 따른 것이었는데요. 트럼프 대통령의 상호관세 유예 발표가 나오자 시행 결정을 번복한 것입니다. 우르줄라 폰 데어 라이엔 집행위원장은 "협상에 기회를 주고 싶다. 협상이 만족스럽지 않으면 관세가 부과될 것"이라고 말했습니다.백악관 국가경제위원회(NEC)의 케빈 해싯 위원장은 "현재 약 15개국과 협상하고 있다. 거의 완료 직전에 온 거래가 상당히 많다. 특히 두 개의 협정은 지난주에 거의 마무리됐다"라고 밝혔습니다. 그는 10% 보편관세가 장기적으로 유지될 것으로 예상한다고 말했습니다. "그보다 낮은 수준으로 가려면 뭔가 특별한 거래가 필요할 것"이라고 덧붙였습니다.스콧 베센트 재무장관도 "협상을 위한 프로세스가 구축됐다. 베트남과도 공식 상호관세 협상을 시작했다"라고 말했습니다.어제 트럼프의 유예 결정에 큰 영향력을 미친 사람은 누구일까요. 뉴욕타임스는 "베센트 장관은 지난 일요일 에어포스원에서 대통령과 직접 회동한 후 협상에 대한 권한을 더 많이 얻었다. 베센트와 JD 밴스 부통령은 중국을 고립시키면서도 다른 국가를 심하게 공격하지 않는 체계적 접근 방식을 권했다. 트럼프는 어제 아침 베센트, 하워드 러트닉 상무장관, 해싯 위원장을 만나 채권 시장에 대해 논의한 뒤 유예 결정을 내렸다"라고 보도했습니다. 워싱턴 포스트는 "피터 나바로 무역 고문, 제이미슨 그리어 USTR 대표 등은 상대적으로 덜 관여한 것으로 보인다"라고 전했습니다.2. 너무 좋았던 CPI아침에 나온 3월 소비자물가(CPI)는 예상을 훨씬 밑돌았습니다. 헤드라인 물가는 한 달 전보다 0.1% 내렸고요. 전년 대비로는 2.4% 올랐습니다. 예상(0.1%, 2.5%)보다 더 낮은 것입니다. 에너지 물가가 2.4% 떨어진 게 큰 영향을 미쳤습니다. 그중 휘발유 가격은 6.3%나 내렸고요.에너지와 식품을 제외한 근원 물가의 경우 전월 대비 0.1%, 1년 전에 비해선 2.8% 상승했는데요. 역시 월가 예상(0.3%, 3.0%)보다 상당히 낮았습니다. 소수점 둘째 자리까지 따지면 0.06%만 올랐습니다. 주거비가 0.2% 상승으로 둔화한 데다 항공료, 자동차보험, 중고차 물가가 마이너스로 떨어진 덕분입니다. 주거비 상승률은 2021년 인플레이션 급등 이후 가장 낮아졌습니다. 항공료는 2월 -4%에 이어 3월에도 -5.3% 하락했습니다. 항공 예약 감소를 뒷받침합니다. 레크리에이션 물가도 0.1% 내렸는데요. 이는 이례적 현상으로, 임의 지출이 감소하고 있음을 시사합니다.사실상 인플레이션 걱정이 사라진 것인데요. 평소라면 시장은 흥분했을 텐데요. 단기 금리가 약간 떨어지고 주가지수 선물도 하락 폭을 살짝 줄이긴 하지만 반응은 그리 크지 않았습니다.이유는 간단한데요. 3월부터 누적되기 시작한 관세 효과로 인해 앞으로 인플레이션 상승이 예상되기 때문입니다.  3월 중고차 가격이 전월 대비 0.7% 하락했지만, 4월 2일부터 자동차 관세 25%가 부과되고 있는 점을 고려하면 이런 상황은 지속하지 않을 것입니다.아폴로매니지먼트의 토스텐 슬록 이코노미스트는 "이번 데이터에는 '인플레이션 상향의 놀라움'이 없다. 하지만 관세가 계속해서 인상되고 있으며, 이런 관세는 향후 12개월 동안 인플레이션에 최대 1%포인트를 추가할 수 있다"라고 말했습니다.ING는 "보고서는 매우 고무적이다. 성장세가 계속 둔화할 경우 미 중앙은행(Fed)이 금리를 조정할 여지를 제공한다. 그렇지만 Fed는 관세로 인한 물가 상승과 공급망 차질을 경계할 것이며, 악화하는 성장 전망과 인플레이션 둔화 전망을 고려할 때, 올해 서너 차례 금리 인하가 적절해 보인다"라고 밝혔습니다.찰스슈왑의 쿠퍼 하워드 채권 전략가는 "CPI는 예상보다 좋았다. 하지만, 관세 발표 이후의 혼란이 모두 반영되지 않은 과거의 데이터이다. 내일 아침 발표될 3월 생산자물가지수(PPI)는 도매 물가에 관한 것으로 관세가 영향을 미치기 시작했는지 초기 단서를 제공할 수 있다"라고 말했습니다. (내일 PPI와 함께 미시간대 4월 소비자심리지수도 나오는데요. 포함된 장기 인플레이션 기대가 핵심입니다)어쨌든 CPI는 긍정적이었습니다. 골드만삭스는 CPI를 기반으로 이달 말 발표될 근원 개인소비지출(PCE) 물가가 0.13% 올랐을 것으로 추정했습니다. 뱅크오브아메리카는 0.10~0.13% 수준으로 계산합니다.주간 실업급여 청구 건수는 22만 3000건으로 예상과 같았고요. 이전 주보다 4000건 늘었습니다. 아직 연방 정부의 해고와 지출 동결이 미치는 영향은 나타나지 않고 있습니다.3. "중국 관세 125%가 아니라 145%"뉴욕 증시의 주요 지수는 2% 안팎의 하락세로 거래를 시작했습니다. 전날 10%가량 오른 만큼 2% 수준의 내림세라면 나쁘지 않다는 관측들이 나왔습니다. 사실 어제 급반등에는 예상치 못한 트럼프 대통령의 피벗에 급하게 공매도를 메운 '숏커버링'이 상당히 작용한 것으로 분석됐습니다.증시 하락 폭이 커진 것은 오전 11시께였습니다. 언론들이 백악관을 인용해 중국에 대한 누적 관세율이 125%가 아니고, 145%라고 밝힌 게 보도되면서 내림세가 가속했습니다. 트럼프 대통령이 언급한 125%는 상호관세 수준만을 말한 것이며, 펜타닐 사태로 인해 이미 부과한 20% 관세율이 빠진 것이라는 설명입니다. 게다가 트럼프 대통령은 800달러 미만 소포에 부과되는 관세를 더 높였습니다. 이전에는 최소관세(de minimis)가 적용됐던 중국과 홍콩발 소포에 대해 5월 2일부터 소포 가치의 120%를 부과하기로 했는데요. 이는 4월 2일 발표된 30%보다 훨씬 높은 것입니다. 또 우편물당 수수료로 200달러까지 높이기로 했습니다.사실 어제 상호관세가 90일 유예됐지만 10% 보편관세는 발효됐고요. 캐나다와 멕시코에 대한 25% 관세(USMCA 적용 제품 제외)와 자동차, 철강 및 알루미늄에 대한 25% 관세는 부과되고 있습니다. 곧 의약품과 반도체, 목재 구리 등에 대한 관세도 발표될 것입니다.블룸버그이코노믹스에 따르면 중국에 대한 관세율이 더 높아졌고 보편관세 10%가 발효됐기 때문에, 60여 개국에 대한 상호관세가 90일간 유예됐어도 미국의 실효 관세율은 그다지 낮아지지 않았습니다. 특히 소비재에 대한 관세는 유예 전 8.9%에서 유예 후 9.6%로 더 높아졌습니다. 중국 관세 탓이죠.스트레티기스의 댄 클리프튼 정책 분석가는 "어제 관세 유예 발표가 있었고, 처음에는 관세가 크게 인하된 것으로 보였다. 그러나 실제로는 큰 인하가 아니었고, 상호관세 몇 개가 철회되는 대신 중국에 대한 관세가 훨씬 더 많이 추가된 것이었다. 이는 공급망에 더 많은 혼란을 일으킬 수 있다는 의미이다. 투자자들은 이미 그 영향을 계산하고 있다고 본다"라고 설명했습니다.월가 일부는 관세 유예 이후 경기 침체 가능성을 낮췄습니다. 골드만삭스는 65%에서 45%로, 메트라이프는 75%에서 60%로 하향 조정했습니다. 예측시장에서는 60~70% 확률이 50%대로 낮아졌습니다. 하지만 JP모건, 모건스탠리, 시티 등은 침체 예상을 유지하고 있습니다.뱅크오브아메리카는 "우리 계산으로는 4월 2일 발표 당시 예상한 20% 실효 관세율이 이제 23%가 되었지만, 이는 대부분 중국 관세율 인상에 따른 것이다. 그래서 실효 관세율의 범위는 23%보다 훨씬 낮아질 가능성이 크다. 심각한 스태그플레이션 위험이 줄어들 것이며, 경기 침체 위험도 상당히 감소했다. 하지만 불확실성은 여전히 기업에 부담으로 작용할 것으로 보이고, 이번 유예가 소비자에게 미치는 영향은 제한적일 것으로 예상한다. 실효 관세율이 15%가 된다면 인플레이션은 0.4~0.6%포인트 급등하여 3% 중반에 도달할 수 있고, 성장률은 1% 초반과 비슷한 수준으로 하락할 가능성이 크다"라고 밝혔습니다.JP모건은 엄청난 관세로 중국 상품이 수입되지 않는다면 미국의 실효 관세율은 12%가 될 것으로 봤습니다. 그래도 경기 침체 예측을 뒤집지 않았습니다. 마이크 페롤리 이코노미스트는 "무역 정책의 영향은 이전보다 다소 줄어들 것으로 예상되므로 경기 침체 가능성은 작아졌다. 그러나 올해 말에는 실질 경제 활동이 위축될 가능성이 여전히 크다고 생각한다"라고 설명했습니다. 취임 이후 관세 인상은 여전히 3000억 달러 규모의 세금 인상에 해당할 것이라는 겁니다. 페롤리는 "게다가 정책 환경은 기업들의 자본 지출 계획에 여전히 비우호적"이라고 지적했습니다. 또 "90일 유예로 인해 Fed도 더 오래 기다릴 수 있게 됐다"라면서 Fed의 다음 금리 시점을 기존 6월에서 9월로 늦췄습니다.4. 트럼프 "과도기 전환 비용 예상"주가는 시간이 갈수록 떨어졌습니다. 오후 12시 30분께 나스닥의 하락 폭은 7%를 넘기도 했습니다.오후 1시께 트럼프 대통령이 각료회의를 열고 카메라 앞에 섰습니다. 그는 관세에 대해 "과도기적 전환 비용(TRANSITION COST)과 문제가 있을 것으로 예상한다"라면서도 ”우리는 매우 좋은 상황에 있다고 생각한다. 결국, 매우 아름다운 일이 될 것”이라고 강조했습니다. 사실 월스트리트저널(WSJ)은 오늘 트럼프가 유예 결정을 내린 배경에 관한 기사에서 "트럼프 대통령이 참모들에게 '고통'을 감수할 의향이 있다고 말했다. 트럼프는 사석에서 자신의 무역 정책이 경기 침체(recession)를 유발할 수 있다는 점을 인정했지만, 불황(depression)을 초래하지 않도록 확실히 하고 싶다고 말했다"라고 보도했습니다.트럼프 대통령은 또 "첫 번째 협상의 타결이 매우 임박했다"라고 했고요. "합의에 이르지 못한다면 관세는 원래대로 돌아갈 것이다. (90일 유예 연장에 대해) 그때 어떤 일이 일어날지 지켜봐야 한다"라고 유예기간 연장에도 열려 있음을 시사했습니다. 또 "지금은 기업에 대한 면제를 고려하고 있지 않지만 그럴 수도 있다"라고 했습니다. 애플에 관한 이야기이겠죠. 중국에 대해선 "합의할 수 있기를 바란다. 어떤 일이 일어날지 지켜볼 것이다. 나는 시진핑 주석을 매우 존중한다. 양국 모두에게 매우 좋은 결과로 끝날 것으로 생각한다"라고 원론적으로 답했습니다.5.  30년물 경매 좋았는데…금리 급등 이유는?사실 정오께 시장이 흔들렸던 원인 중의 하나는 국채 30년물 경매(220억 달러)를 앞두고 걱정이 있었습니다. 최근 트럼프 대통령의 관세 위협으로 외국인 투자자들이 미국 자산을 팔고 있는 게 아니냐는 관측이 강해졌고, 그게 채권 시장이 흔들린 원인 중의 하나였죠. 그래서인지 뉴욕 채권 시장에서 30년물 수익률은 아침에는 살짝 내리다가 장중 오름세로 돌아섰습니다. 오후 1시 경매 결과 발표를 앞두고는 5bp가량 오른 4.84% 수준까지 올랐습니다.발표된 30년물 입찰 결과는 다행히 좋았습니다.  발행 금리는 4.813%로 결정됐는데요. 발행 당시의 시장금리(WI)인 4.839%보다 2.6bp나 낮게 형성됐습니다. 응찰률은 2.43배로 지난달 경매(2.37배)보다 높았고, 해외 투자자 수요를 나타내는 간접 수요가 61.9%로 역시 지난달(60.5%)보다 좋았습니다.경매 결과가 나온 뒤 채권 시장에서 금리는 하락세를 보였습니다. 그리고 증시도 회복되기 시작했습니다. 하지만 금리 내림세는 오래가지 못했습니다. 다시 금세 상승하기 시작했습니다. 오후 4시 22분께 30년물 수익률은 6.8bp 상승한 4.858%를 기록했습니다. 아침에 내림세를 보이던 10년물도 1.3bp 오른 4.409%에 거래됐습니다. 단기물인 2년물은 9.3bp 급락한 3.857%까지 내렸지만, 장기물들이 다 오름세를 보인 것입니다. 단기물의 경우 CPI 둔화 등으로 Fed에 대한 금리 인하 기대가 커지면서 하락세를 보였지만 장기물은 여전히 불안한 것입니다.웰스파고는 "채권 시장에는 여러 가지 불확실성이 작용하고 있다. 관세 가능성, 인플레이션 상승 가능성, 그리고 최근 며칠간 봐왔던 스트레스 상황과 포지션 청산(unwinds) 같은 변수들이다. 그래서 현재 수준에서 채권 수익률이 크게 더 낮아지긴 어려울 것으로 본다"라고 말했습니다.특히 장기물 수익률에 부정적 영향을 미친 뉴스들이 있었습니다.① 미 재무부가 발표한 3월 재정 수지가 엉망이었습니다. 3월 재정 적자는 1605억 달러에 달해 예상 1450억 달러를 넘었습니다. 2025 회계연도 들어 10월부터 3월까지 6개월 동안을 따지면요. 재정 수입은 2조 2600억 달러(지난해 2조 1800억 달러)로 집계됐는데요. 지출은 3조 5600억 달러(3조 2500억 달러)에 달해 6개월간 재정 적자가 1조3000억 달러(1조700억 달러)로 집계됐습니다. 간단히 말해 수입은 3% 증가했는데, 지출은 10% 늘어나면서 재정 적자가 22%나 커진 것입니다.② 하원에서 트럼프 감세안 등을 담은 예산결의안(budget reconciliation package)을 통과시켰습니다. 이 예산안은 '재정 적자를 더 늘릴 수 없다'라는 공화당 재정 매파의 반대에 부딪어 있었는데요. "하나의 크고 아름다운 법안"을 원하는 트럼프 대통령의 압박으로 공화당에서 2표만 이탈하면서 찬성 216표 대 반대 214표로 통과했습니다. 이 하원 결의안은 향후 10년간 최소 1조 5000억 달러의 지출 삭감과 4조 달러의 감세 계획을 담고 있습니다. 그러면 당연히 재정 적자가 늘어날 수밖에 없습니다. 아직 확정된 것은 아니지만요. 지난달 상원을 통과한 예산결의안과는 약간 다르므로 이를 조정하고 다시 통과시켜야 합니다. 상원의 안은 지출 삭감 규모가 40억 달러에 그치고 5조 달러 이상의 감세를 담고 있지요.③ 정부효율부(DOGE)의 예산 감축에 기대를 걸고 있는데요. 일론 머스크는 오늘 각료회의에서 "낭비와 사기 감소로 인해 2026 회계연도에 1500억 달러의 예산 절감을 예상한다"라고 밝혔습니다. 1조 달러, 2조 달러를 얘기하던 것과는 너무 큰 차이가 납니다.국채 금리가 상승하면서 달러는 큰 폭으로 하락했습니다. ICE 달러 인덱스는 1.75% 하락한 101.10을 기록했는데요. 하루 하락 폭으로는 2022년 이후 가장 큰 것입니다. 달러 대신 엔화, 스위스프랑 등이 크게 올랐고요. 또 다른 안전자산인 금 가격은 3.59% 폭등했습니다. 온스당 3190달러로 최고가 기록을 세웠습니다.금리와 달러가 흔들리면서 주가도 압박을 받았습니다. 하지만 장 막판 매수세가 유입되면서 S&amp;P500 지수는 3.46%, 나스닥은 4.31% 떨어졌고요. 다우 지수는 2.5% 내렸습니다.6. 미국 시장 엑소더스?미국 국채, 달러, 주식이 모두 급락한 것이죠. 외국인 투자자들이 미국 시장을 떠나고 있는 것일까요?유로팩닷컴의 피터 시프 전략가는 "미국 자산이 이렇게 대량 매도되는 건 처음 봤다. 달러, 채권, 주식이 모두 폭락하고 있다. 달러가 스위스 프랑 대비 하루 만에 3.5% 하락한 적이 언제였는지 기억도 나지 않는다. 미국이 세계 경제를 호령하던 시절이 이제 막 끝나갈 조짐"이라고 말했습니다. 래리 서머스 전 재무장관은 현재의 가격 움직임은 "세계 금융 시장에서 미국 자산에 대한 전반적인 반감을 시사한다. 우리는 세계 금융 시장에서 문제 있는 신흥 시장으로 취급받고 있다"라고 밝혔습니다.에버코어ISI의 크리슈나 구하 부회장은 "보기 드문, 흉하고 우려스러운 조합이 나타났다. 30년물 국채 입찰 결과가 꽤 괜찮았음에도 불구하고, 달러, 채권, 주식이 모두 하락하며 자산 시장 전반의 변동성과 스트레스가 다시 나타났다. ‘수익률 상승 + 통화 약세’는 신흥국 시장(EM)에서는 흔하다. 하지만 미국에서는 매우 이례적인 조합이다. 과거 30년 동안,  국채 30년물 금리가 10bp 이상 급등하면서 달러 인덱스(DXY)가 1.5% 이상 하락한 경우는 단 4차례뿐이었다. 특히 기축통화인 달러는 통상 시장 스트레스 상황에서는 강세를 보여왔다.통화 약세, 채권 약세, 주식 약세의 조합은 자본 유출(capital outflow)을 의미한다. 이는 헤지펀드의 디레버리징(레버리지 축소)과 맞물려 작동하고 있다. 흥미로운 점은 외환시장의 스왑금리 스프레드가 확대되지 않았는데, 글로벌 투자자들이 달러 확보가 아닌 달러 자산을 팔고 있다는 얘기다.이는 미국 예외주의(growth exceptionalism)가 사라지고 있으며, 불안정한 미국의 정책 결정, 미국이 구축한 국제 경제 및 안보 질서의 훼손, 성장 둔화와 트럼프의 감세 등으로 인해 기축통화로서 달러 매력도가 약화하고 있음을 반영한다. 여기에 마라라고 협정(Mar A Lago Accords)이나 채권 사용자 수수료(user fees) 등 불확실한 정책 언급도 시장에 부담을 주고 있다.미국은 값싼 글로벌 자본을 너무 당연시하고 있다. 하지만 많은 대외 적자라는 이면을 기억해야 한다. 미국은 영국이 아니지만, 2022년 리즈 트러스 사태와 유사한 장면이 떠오른다. 당시 a) 매수자 ‘보이콧’ b) '멍청이 위험 프리미엄(moron risk premium)'이라는 불명예 c) 금융 시장 내 불붙은 가속 효과가 한데 겹쳤다.오늘 가격 움직임은 일시적 경련(spasm)일 수 있다. 그러나 투자자들은 큰 그림에서 방향 전환(U턴)을 요구하고 있다. 예를 들어, 중국을 제외한 전면적 관세 철회, 혹은 중국과의 협상 재개(혹은 양자 모두) 등이다"라고 분석했습니다.7. 향후 증시 방향은?뉴욕 증시에서는 모든 업종이 약세를 나타낸 가운데 에너지 및 기술 업종의 낙폭이 컸습니다. 테슬라는 7.22% 급락했고, 엔비디아는 5.91% 떨어졌습니다. 애플(-4.23%), 메타(-6.74%), 아마존(-5.17%) 등 다른 빅테크도 큰 폭 하락했습니다. TSMC는 1분기 매출이 2022년 이후 가장 높은 42% 증가한 것으로 나왔는데도 4.8%나 폭락했습니다. 미국 관세가 부과되기 전 AI 서버와 스마트폰 칩 수요가 증가한 데 따른 것이란 관측이 나왔습니다. 국제유가가 다시 반락하면서 엑손모빌(-5.55%), 셰브런(-7.57%) 등도 급락세를 보였습니다.관세 유예 이후에도 변동성은 굉장히 큰 상황입니다. 시장에서는 낙관론과 비관론이 부딪치고 있습니다.스테이트스트리트의 리 페리지 거시전략가는 "정책 불확실성이 높아졌고, 이는 일부 투자와 지출을 억제할 수 있지만, 큰 폭의 경기 침체를 촉발하기에는 충분하지 않을 것이다. 경기 침체에 대한 논의는 매우 시기상조일 것"이라고 주장했습니다. 그는 국채의 급격한 매도에도 불구하고 2008년 세계 금융 위기나 2020년 팬데믹 초기와 달리 회사채 시장은 혼란에 빠지지 않았다고 지적했습니다. 그는 "기업들이 심각한 어려움에 빠지거나 그런 일은 없다"라고 말했습니다.하지만 세븐스리포트의 톰 에세이 설립자는 "관세 유예는 분명히 긍정적이며, 가장 큰 것은 트럼프 풋이 (적어도 현재로서는) S&amp;P500 지수가 4000대 중후반으로 하락할 가능성을 제거한다는 것이다. 하지만 이것으로 변동성이 사라지지는 않는다"라면서 네 가지를 지적했습니다.① 우리는 '절망'을 90일 더 지속하는 불확실성과 지속적 관세 위협, 그리고 정책적 혼란 가능성으로 맞바꿨을 뿐이다.② 경제 성장세는 여전히 둔화하고 있으며 정책 불확실성은 여전히 역풍으로 작용할 것이다.③ 인플레이션은 여전히 상승할 것이며, 10% 관세는 경제적으로 긍정적인 요소가 아니라 다른 방안보다는 나을 뿐이다.④ 스태그플레이션 위험은 감소했지만, 완전히 사라지지는 않았다.기술적으로는 어떨까요? 칼슨그룹에 따르면 1950년 이후 S&amp;P500 지수가 하루 5% 이상 오른 경우가 23회가 있는데요. 다음날, 그리고 일주일 뒤 수익률은 상당히 낮습니다. 단기적으로는 변동성이 크게 유지된다는 겁니다. 하지만 1년 뒤에는 상승확률이 91%에 달하고 평균 수익률이 26.9%에 달합니다.투자자들은 내일 시작되는 1분기 어닝시즌에 대해서도 불안한 눈빛을 보내고 있습니다. 오늘 아침 중고차 소매업체인 카맥스는 예상치를 밑도는 실적을 내놓은 뒤 불확실성을 이유로 재무 가이던스를 철회했습니다. 델타항공, 리바이스 등에 이은 것입니다.뱅크오브아메리카는 "기업들의 실적 가이던스가 상당히 악화되었다. 컨센서스를 넘는 가이던스와 미달하는 가이던스의 비율이 3개월 0.4로 떨어졌는데, 이는 2020년 4월 이후 가장 낮은 수준이고 역사적 평균인 1.0보다 훨씬 낮다"라고 밝혔습니다. 뱅크오브아메리카는 "기업들은 불확실성 속에서 실적 가이던스를 축소하는 경향이 있다"라고 이유를 설명했습니다.모건스탠리자산운용은 "관세 부과 여파는 소비자에게는 가격 상승 형태로, 기업에는 마진 하락의 형태로 나타날 수 있다. 거의 모든 시나리오에서 기업 수익성은 위험에 처할 가능성이 크다.  S&amp;P500 기업의 2025년 주당순이익(EPS) 추정치가 기존 270달러에서 255~260달러로 낮아질 것으로 예상한다. 이로 인해 이로 인해 지수는 5100~5900 사이의 범위에서 거래될 가능성이 크다"라고 분석했습니다.뉴욕=김현석 특파원 realist@hankyung.com</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>김수연 기자</t>
+          <t>김현석 기자</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/020/81556</t>
+          <t>https://media.naver.com/journalist/015/25162</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>소방공무원의 정신건강 악화는 건강관리 중요성을 인식시키며 보험 필요성을 느끼게 할 수 있습니다.</t>
+          <t>이 기사는 주로 경제 및 관세 관련 내용을 다루고 있어 건강 관리와 보험 상담에 직접적인 활용이 어렵습니다.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>‘트럼프 오락가락 관세쇼’에 수출 기업들 ‘갈팡질팡’</t>
+          <t>[민원제로] 1. “제가 그 유명한 진상 민원인입니다만…!”</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5520,12 +5652,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Economy/article/all/20250410/131391749/2</t>
+          <t>https://www.donga.com/news/It/article/all/20250411/131399215/1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627599?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627713?sid=105</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5540,22 +5672,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>관세정책 ‘손바닥 뒤집기’ 스트레스“선적 취소했다 부랴부랴 재개전례없는 불확실성에 혼란 가중관세협상 끝날때까지 관망이 최선”한국 기업들이 도널드 트럼프 미국 대통령의 ‘입’ 때문에 두통을 앓고 있다. 미국이 수입품에 과중한 관세를 부여한다고 하다가 며칠 뒤 번복하는 일이 반복되고 있기 때문이다. 한국에서 수출하는 물품은 물론이고 전 세계 생산망까지 동시에 적용되는 문제인 만큼 일부 기업에선 “트럼프 대통령의 ‘관세쇼’에 전례 없는 불확실성에 직면했다”는 불만이 나오고 있다.● ‘트럼프 스트레스’ 겪는 한국 기업들트럼프 행정부가 9일(현지 시간) 70여 국가에 대한 상호관세 부여를 90일간 유예하겠다고 발표하자 기업들 사이에선 “어느 장단에 맞춰야 할지 모르겠다”는 반응이 나왔다. 상호관세 46%가 책정됐던 베트남에 공장이 있는 한 제조업체 관계자는 “현 상황에서 공급망을 조정하거나 새로운 투자를 결정하기 어렵다”며 “미국의 관세 널뛰기가 정리돼야 글로벌 경영 전략을 짤 수 있는 실정”이라고 말했다.다른 국가도 마찬가지다. 이용민 한태상공회의소 회장은 “상호관세가 부과되니 태국 램차방 항구에서 미국으로 출항하는 선적이 대거 취소됐다가 다시 관세 유예로 선적이 재개되는 등 혼란 상황이 계속되고 있다”며 “태국 내 한국 기업 주재원들은 본사와 밤낮으로 연락을 주고받는 비상 경영 체제”라고 전했다.한국 기업들이 ‘트럼프 스트레스’를 받는 게 이번이 처음은 아니다. 미국이 올 2월 멕시코와 캐나다에 대해 25% 관세 부과를 하겠다고 했던 게 대표적이다. 당시 관세가 현실화하자 미국-멕시코-캐나다 무역협정(USMCA)의 무관세 혜택을 누리던 멕시코 소재 500여 한국 기업들은 대책 마련에 분주했다. 삼성전자와 LG전자는 미국 공장에서의 생산을 늘리는 방안을 검토했다. 하지만 실제론 관세 부과가 연기되면서 생산 전략을 또 수정했다.반대로 2일 미국 행정부가 베트남(46%), 태국(36%) 등에 상호관세를 부과하겠다고 밝혔을 때는 해당 지역에 진출한 한국 업체들이 멕시코나 한국에서 생산을 증대하는 방안을 검토했다.부품 업체 관계자는 “관세가 요동치다 보니 고객사와 계약을 할 때 납품 가격을 얼마로 써내야 할지 애매한 상황”이라고 말했다. 가전 업계 관계자는 “동남아에 고율 관세가 부과되면 멕시코 공장 생산량을 늘릴 수도 있는데, 자꾸 상황이 바뀌니 현재로선 상황을 주시하는 것 외에 다른 방도가 없다”고 말했다.● “협상 통해 불확실성 제거해야”관세가 요동치면서 미국 내 혼란도 가중되고 있다. 영국 파이낸셜타임스에 따르면 미국발 무역 전쟁이 심화되면서 글로벌 자동차 제조업체들이 수천 대의 차량을 미국 항구에 대기시키거나 일시적으로 선적을 중단하고 있다. 아우디, 재규어 랜드로버 등의 브랜드는 4월 미국 선적을 중단하거나 최소화했다.미국 수입업체들도 자동차와 철강에 품목별 개별관세 25%가 부과되고, 일부 국가는 상호관세가 유예되는 등 관세 관련 변화가 너무 많아 계산에 골머리를 앓고 있다. 월스트리트저널은 “수입업체에 관세를 계산하고 납부하기 위한 인프라가 구축되어 있지 않은 경우가 많다”고 지적했다.한국 기업들은 상호관세가 유예된 90일 동안 우리 정부가 미국과의 협상을 통해 불확실성을 없애길 기대하고 있다. 트럼프 행정부는 한국의 주요 수출 품목인 반도체와 의약품 등의 품목관세를 예고한 상태다. 총투자비 440억 달러(약 62조 원)에 이르는 미국 알래스카 액화천연가스(LNG) 개발의 한국 기업 참여도 요구하고 있다.이경묵 서울대 경영대 교수는 “기업들은 장기적 관점에서 경영 계획을 짜야 하는데 지금은 불확실성이 굉장히 높은 상황”이라며 “관세가 유예된 90일간 정부에서 협상을 잘해 주길 바라는 것이 최선”이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>한재희 외 2명</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/020/78472</t>
-        </is>
-      </c>
+          <t>공공기관이나 단체에 불만이나 건의, 개선 사항 등을 제기하는 행위를 ‘민원’이라 합니다. 오늘도 전국에서 수 많은 민원이 제기되고 또 처리되고 있습니다. 스타트업 분야 역시 마찬가지입니다. 스타트업 창업, 운영, 지원 등의 관련 민원이 전국의 거의 모든 지원기관에 다양하게 접수되고 있는데요. 이런 민원은 창업자 또는 민원 제기자 또는 고객의 성향과 감정이 그대로 반영되는 중요한 신호입니다. 이 신호를 어떻게 받아들이고 처리해야 할지 [민원제로] 기획연재를 통해 알아봅니다.연재순서1. 집요한 불만 제기 : “제가 그 유명한 진상 민원인입니다만…”2. 무차별적 난동 : “필요한 사람에게 도움을 줘야지!”3. 충성 고객과 극성 민원인은 같다4. 민원인 유형과 대응 실제5. 불만에 대한 첫 응대가 중요하다6. 핵심성과지표를 분명히 하라7. 고객의 자발적 참여를 도모하라8. 나도 누군가에겐 민원인이다스타트업 지원 업무를 하면서 다양한 민원인을 만났다. 대부분 스타트업 쪽에서 문제를 제기하는 경우다. 필자는 그 동안 ‘민원’의 ‘민’자도 모르고 살다가, 스타트업 지원 기관에 와서 멱살도 잡혀보고 황당한 협박도 당해봤다. 최근 들어 민원 처리와 관련해 불미스러운 일이 발생하며 사회 문제로 대두되면서, 필자가 경험한 민원 사례를 토대로 민원 제기자에게든 민원 처리자에게든 스트레스를 줄이는데 조금이나마 도움이 되고자 한다.어느 날 정부의 창업 지원 사업에서 탈락한 한 사람이 전화를 걸어와, 탈락한 이유를 모르겠다면서 강한 불만을 제기했다. 자신은 해당 분야의 전문가로서 자신이 탈락한 이유가 무엇인지 궁금하다는 것이었다. 사업 심사위원 정보를 막무가내로 알려달라고 했고, 그들의 심사 결과를 신뢰할 수 없다고도 했다. 그렇게 30분 동안 격양된 목소리로 불만을 토로했다.출처=픽사베이일단 이 ‘민원인’의 토로를 끝까지 잘 들었다. 매번 탈락해서 억울하겠다고 공감도 했다. 이 민원인이 제기한 내용을 어느 정도 파악한 후, 그가 제출한 사업계획서와 심사위원 평을 직접 확인하겠다고 응대했다. 그랬더니 다소 누그러진 말투로 감사하다고 했다.그런데 그가 갑자기 ‘제가 바로 그 유명한 진상 민원인입니다.’라고 밝혔다. 깜짝 놀랐다. 그는 타 기관 다른 사업에서 탈락한 적 있는데, 강한 의의 제기로 해당 기관을 거의 박살(?)냈다는 무용담을 전했다. 그런 ‘진상 민원인’ 다짜고짜 필자를 찾아오겠단다. 갑자기 소름이 돋았다. 그날 퇴근하는 내내 마음이 무거웠고, 잠도 오지 않았다.일단 필자는 이 민원인의 사업계획서에 대해 심사위원들이 남긴 심사평을 하나하나 자세히 확인했다. 심사평과 사업계획서를 비교하며, 심사위원별로 어떤 부분이 부족하다고 평가했는지 연상해 봤다. 또한 사업계획서에서 빈약한 부분과 보유 기술의 수준도 필자 나름대로 유추하며 다각도로 검토했다. 이내 그의 사업계획서에서 보강이 필요한 부분을 찾아냈다.본인 스스로 유명한 진상 민원인이라 소개한 그가 우리 기관을 방문하는 날, 정말 긴장됐다. 막상 얼굴을 보고 인사하자마자 식은땀이 흘렀다. 그래도 필자는 이미 사업계획서를 정밀하게 분석했기에, 두려움을 떨치고 일단 자신감 있는 태도와 말투로 응대했다. 필자는 이 민원인에게 최선을 다해 응대했다고 생각한다. 물론 필자가 보기에도, 그는 정부 지원 사업에 선정되기에는 부족함이 많은 듯했다. 그런 상황을 최대한 부드럽게 언급했다. 그리고 사업계획서를 이렇게 저렇게 바꿔보라고도 조언했다. 그의 사업이 선정될 가능성이 좀더 높은 다른 지원 사업 몇 가지도 추천했다. 결국 헤어지면서 그 진상 민원인은 연신 웃으면서 감사하다는 말을 전했다.필자는 그에게 네 가지 대응을 했다. 1) 민원인의 사업계획서와 심사평을 시간 내서 분석한 것이다. 2) 그와 대면했을 때 그의 말을 끊지 않고 최대한 귀 기울여 경청했다. 3) 그와 이야기를 나누면서 그에게 도움될 만한 정보를 최대한 많이 전달하려 노력했다. 마지막으로, 4) 이후에 사업 진행 시 어려움이 있으면 편하게 연락하라는 말도 잊지 않았다.그를 만나기 전까지 진상 민원인을 대하는 방법의 정답이 무엇인지 알지 못했다. 또한 그의 입맛에 맞게 대응할 수 있을지 확신할 수도 없었다. 다만 필자는 그를 막연히 달래려 하거나, 그렇다고 대충 적당히 대하려 하지도 않았다. 민원인 눈치를 보면서 탈락 사유의 정당성을 강조하려는 태도로 수습하려 하지 않았다. 민원인이 일부러 시간 내서 찾아온 상황이기에 내 시간 만큼 그의 시간도 소중하다고 여겼고, 필자와의 만남이 그에게 조금이라도 도움이 되길 기대하면서 그의 목소리를 경청했다.이런 진상 민원인이 아니더라도, 우리가 누군가와 진정한 소통을 하려면 어떤 부분에 신경 써야 할지 고민해보길 권한다. 자신이 맞이하는 상대 또는 고객의 유형을 떠올려 보고, 그들에게 무엇이 필요한지 깊이 생각해보자. 물론 그리 한다 해도 민원인의 불만은 수그러들지 않을 수 있다. 하지만 그가 필요로 하는 부분을 지속적으로 공부하고 새로운 방법을 모색하다 보면, 이 진상 민원인의 사례처럼 그가 함빡 웃는 상황을 맞이할 수 있으리라. 모든 것은 늘 처음이 힘들다. 막연하다고 여기지 말고 상대에게, 고객에게 다가가 (내가 아닌) 그를 중심으로 소통을 시작하자.글 / 김영준 ( 3dbiz@naver.com )서울창조경제혁신센터 혁신사업실 실장. 스타트업의 글로벌 스케일업, 대기업 연계 오픈이노베이션, R&amp;D 지원 등 다양한 스타트업 지원 사업을 맡고 있다. 국내 주요 대학이나 대기업, 여러 기관 등 대상으로 기술 트렌드, 글로벌 진출, 기업가정신 등의 주제로 100회 이상의 강연을 진행했다. 중소벤처기업부 장관상, 과학기술정보통신부 장관상 등 수상. 주요 저서로, [3D프린팅 스타트업], [하드웨어 스타트업], [가상현실을 말하다], [민원제로] 등이 있다.정리 / IT동아 이문규 (munch@itdonga.com)</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>트럼프 행정부의 변동적인 관세 정책으로 인해 한국 기업들이 경영 불확실성에 직면하고 있다.</t>
+          <t>기사 내용은 민원 처리와 스타트업 지원에 관한 것으로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5567,7 +5691,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[한경 오늘의 운세] 2025년 4월 11일 오늘의 띠별 운세</t>
+          <t>이유 있는 '한덕수 차출론'…민주당 재탄핵 '만지작' [이슬기의 정치 번...</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5577,12 +5701,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/202504037673O</t>
+          <t>https://www.hankyung.com/article/2025041161817</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005117862?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118274?sid=100</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5592,19 +5716,27 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>수면</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>한국경제 띠별 운세는 태어난 해를 기준으로 사주를 계산합니다.쥐띠48년생 마음이 편안해야 건강도 따라옵니다. 작은 스트레스라도 오늘은 가볍게 넘기는 여유가 필요합니다.60년생 과거를 돌아보며 반성할 부분은 반성하고, 이제는 새로운 시각으로 미래를 바라보세요.72년생 준비해 온 일이 예상보다 순조롭게 풀릴 수 있어요. 자신감을 가지고 나아가 보세요.84년생 갈등이 생길 수 있는 상황에서도 감정적인 대응은 피하세요. 침착함이 오늘의 무기입니다.96년생 작은 실수도 놓치지 말고 바로잡는 것이 신뢰를 높이는 지름길입니다. 꼼꼼함이 필요해요.소띠49년생 가족과의 소소한 시간이 큰 위로가 됩니다. 따뜻한 말 한마디가 분위기를 부드럽게 만들어줄 거예요.61년생 반복되는 일상에서 벗어나 새로운 것을 시도해보세요. 작은 변화가 큰 활력을 줍니다.73년생 현실적인 접근이 필요한 시점입니다. 이상보다는 실현 가능한 계획에 집중하는 것이 좋습니다.85년생 오늘은 조용히 자신의 일을 처리하는 것이 좋습니다. 눈에 띄는 행동은 불필요한 오해를 살 수 있어요.97년생 주변의 칭찬이나 평가에 지나치게 의식하지 말고, 스스로를 믿고 나아가는 자세가 필요해요.호랑이띠50년생 남을 위하기 전에 나의 컨디션부터 살피세요. 무리하지 말고 천천히 일상을 조율하세요.62년생 오랜 습관을 바꾸기에는 좋은 날입니다. 작지만 의미 있는 변화를 시도해보세요.74년생 사람들과의 대화 속에서 힌트를 얻을 수 있어요. 고민이 있다면 이야기해보세요.86년생 눈앞의 결과보다 과정에 충실하세요. 지금의 태도가 나중에 큰 차이를 만들어냅니다.98년생 낯선 환경이나 새로운 만남이 당신의 세계를 넓혀줄 수 있어요. 두려워하지 말고 다가가 보세요.토끼띠51년생 오랫동안 지지부진하던 일이 하나둘 정리되기 시작합니다. 여유를 가지고 흐름을 지켜보세요.63년생 감정이 앞서면 관계가 어긋날 수 있어요. 부드럽고 배려 깊은 대화가 필요한 날입니다.75년생 일이 계획대로 진행되지 않더라도 당황하지 마세요. 융통성 있는 대처가 도움이 됩니다.87년생 오늘은 내면의 목소리에 집중하세요. 외부 자극보다 자기 성찰이 더 중요한 날입니다.99년생 기대했던 것보다 결과가 약할 수 있어요. 실망하지 말고 다음 기회를 준비하세요.용띠52년생 답답하던 일이 조금씩 풀리기 시작합니다. 인내의 끝에서 좋은 소식이 찾아올 수 있어요.64년생 감정적으로 흔들릴 일이 생길 수 있으나, 침착함을 유지하면 무난하게 넘어갈 수 있습니다.76년생 오늘은 팀워크가 중요한 날입니다. 혼자 해결하기보다 협력 속에서 해답을 찾아보세요.88년생 자신의 실력을 발휘할 기회가 찾아옵니다. 지나치게 겸손하지 말고 자신감을 드러내세요.00년생 빠르게 결론을 내리기보다 충분한 고민이 필요한 날입니다. 한 번 더 생각한 뒤 움직이세요.뱀띠53년생 평소보다 예민해질 수 있는 날입니다. 감정적인 반응보다는 차분함이 필요합니다.65년생 주변의 변화에 민감하게 반응하기보다는 스스로의 중심을 지키는 데 집중해보세요.77년생 해야 할 일들이 몰릴 수 있으니 우선순위를 정해 차근차근 처리하는 게 좋습니다.89년생 감정이 격해질 수 있는 상황에서는 잠시 자리를 피해보는 것도 하나의 방법입니다.01년생 새로운 제안이나 기회가 찾아올 수 있어요. 열린 마음으로 받아들이는 것이 좋습니다.말띠54년생 몸 상태에 신경을 써야 합니다. 과로를 피하고 충분한 휴식을 통해 에너지를 회복하세요.66년생 진행 중인 일이 뜻대로 되지 않더라도 인내심을 가지고 밀고 나가는 것이 중요합니다.78년생 주변 사람들과의 관계에서 중심을 잘 잡아야 합니다. 휘둘리지 말고 본인의 원칙을 지켜보세요.90년생 실수는 누구에게나 있을 수 있습니다. 빨리 인정하고 수정하는 태도가 신뢰를 높입니다.02년생 오늘은 사람들과의 소통이 중요해요. 내 생각을 솔직하게 표현하면 오해를 줄일 수 있어요.양띠55년생 오래된 물건을 정리하면 마음도 한결 가벼워집니다. 정돈된 공간이 좋은 기운을 부릅니다.67년생 감정적 충돌을 피하려면 경청이 중요합니다. 오늘은 말을 줄이고 듣는 데 집중하세요.79년생 오늘은 지나친 걱정보다 작은 성취에 집중해보세요. 성실함이 결국 빛을 발하게 됩니다.91년생 주변의 기대가 부담이 될 수 있어요. 자신의 페이스를 지키며 여유를 찾는 것이 필요합니다.03년생 나를 믿고 밀어붙일 때입니다. 스스로에게 확신을 주는 말과 행동이 필요한 시점입니다.원숭이띠56년생 갑작스러운 상황 변화에 당황하지 말고 상황을 파악하는 데 집중하세요. 해결책이 보일 수 있어요.68년생 주변 사람의 조언이 의외로 큰 도움이 될 수 있어요. 열린 자세로 의견을 들어보세요.80년생 오늘은 감정보다는 논리가 앞서야 합니다. 감정에 휘둘리면 일 처리가 복잡해질 수 있어요.92년생 꾸준함이 성과를 만드는 날입니다. 눈에 띄지 않아도 계속하는 것이 중요해요.04년생 혼자 고민하지 말고 믿을 수 있는 사람에게 이야기해보세요. 함께 나누면 가벼워질 수 있어요.닭띠57년생 오늘은 말보다 행동이 중요합니다. 조용히 실행하는 자세가 사람들의 신뢰를 얻습니다.69년생 신경 쓰이는 일은 직접 확인해보는 것이 좋습니다. 소문보다 사실이 중요합니다.81년생 평소보다 감정이 예민해질 수 있어요. 일상 속에서 스트레스를 푸는 시간을 가져보세요.93년생 당신의 선택이 사람들에게 영향을 미칠 수 있습니다. 가벼운 결정도 신중하게 해보세요.05년생 친구와의 갈등은 마음을 터놓는 대화로 해결할 수 있어요. 솔직함이 답입니다.개띠46년생 오늘은 조용한 하루를 보내는 것이 좋습니다. 지나친 활동보다는 휴식이 필요한 시기입니다.58년생 타인의 기대에 너무 얽매이지 마세요. 당신의 페이스를 지키는 것이 더 중요합니다.70년생 현실적인 목표 설정이 필요한 날입니다. 욕심을 줄이면 효율은 더 올라갑니다.82년생 일에 대한 집중도가 높아지는 시기입니다. 성실하게 임하면 좋은 결과로 이어집니다.94년생 팀워크가 중요한 날입니다. 주변과 협력하면 혼자보다 더 좋은 결과를 만들 수 있어요.돼지띠47년생 무리한 일정을 피하고 마음의 여유를 갖는 것이 좋습니다. 오늘은 휴식이 필요해요.59년생 오래된 걱정을 내려놓을 때입니다. 지금의 상황에 집중하면 의외로 쉽게 해결됩니다.71년생 오늘은 생각보다 많은 아이디어가 떠오를 수 있어요. 메모하며 정리해두는 것이 좋습니다.83년생 동료의 실수도 따뜻하게 감싸는 여유가 필요합니다. 배려가 관계를 살립니다.95년생 변화를 두려워하지 마세요. 불편함 속에 성장의 씨앗이 숨어 있을 수 있습니다.한경닷컴 뉴스룸 open@hankyung.com</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+          <t>당 안팎에서 출마 촉구…'한덕수 차출론' 현실화'반이재명' 상징·경제통·호남 출신…대안으로 부상'재탄핵'이 정국 변수…사퇴 및 출마 명분 제공할 수도한덕수 대통령 권한대행 국무총리가 11일 서울 서대문구 국립대한민국임시정부기념관에서 열린 대한민국임시정부 수립 106주년 기념식에서 기념사를 위해 연단으로 향하고 있다. / 사진=연합뉴스국민의힘 내에서 '한덕수 대선 차출론'이 본격적으로 수면 위로 떠 올랐습니다. 당 밖에서 시작된 출마 요구는 이제 당 안으로 번지며 '현실 정치' 안으로 들어오는 모습입니다. '한덕수 출마'가 막연한 정치적 상상력의 영역이 아닌, 본격적인 정치 셈법의 주제로 떠오른 것입니다.11일 정치권에 따르면, 지난 며칠 사이 당 밖에선 한덕수 대통령 권한대행 국무총리에 대한 출마 촉구가 이어졌습니다. 전날 국민의힘 호남지역 원외 당협위원장들이 국회를 찾아 한 총리의 출마를 공개적으로 촉구한 데 이어, 이날은 대학생 단체인 신전국대학생대표자협회(신전대협)가 같은 요구를 하고 나섰습니다.이들은 "전북 출신의 한덕수는 그 자체가 '컨벤션'"이라며 "참여정부부터 지금에 이르러 진영논리에 매몰되지 않은 한 대행에게 대한민국의 위기 앞, 조용한 결단이 필요한 시기"라고 주장했습니다.당내에서도 한 총리가 공개적으로 거론되기 시작했습니다. 권성동 국민의힘 원내대표는 이날 국회에서 기자들과 만나 '한 대행 대선 출마가 적절하다고 보느냐'는 질문에 "좋다고 생각한다"고 밝혔습니다. 권 원내대표는 "경쟁력 있는 후보가 우리 당 경선에 많이 참여하는 것은 컨벤션 효과도 높이고, 국민으로부터 많은 관심을 받게 돼 나쁘지 않다"고 했습니다.박수영 의원도 전날 자신의 페이스북을 통해 "이 높은 경제 파고를 넘으려면 통상교섭본부장과 주미대사까지 역임한 한 총리가 최적"이라며 출마를 촉구했고, 김도읍 의원도 공개적으로 한 총리에게 경선 러브콜을 보내며 "지금처럼 통상과 경제 이슈가 핵심인 시기에, 한덕수 총리 같은 전문가가 필요하다"고 말했습니다.◇가능성 '0'인 줄 알았는데…"풍요 속 빈곤"에 결국 수면 위로사실 한 총리 차출설은 여의도에서 완전히 새로운 이야기는 아닙니다. "한덕수 총리가 10년만 젊었더라면..."이라는 말은 12·3 계엄 직후부터 당내 일각에서 나오기 시작했으니까요. 하지만 윤석열 전 대통령 탄핵 전까지만 하더라도 이는 현실성 없는 '정치적 상상력'의 영역으로 치부됐습니다.그러나 조기 대선 정국이 본격화하면서 상황은 급변한 것으로 보입니다. '한덕수 출마론'이 진지한 토론의 대상이 된 것입니다. '한덕수 차출론'이 힘을 얻는 배경엔 국민의힘 난맥상이 있습니다. 지금까지 출마 의사를 밝힌 후보자는 모두 10여명에 달하지만, '1강'으로 꼽히는 이재명 더불어민주당 대표를 대적할 만한 인물이 보이지 않고 있기 때문입니다. 한 국민의힘 관계자는 이들 후보군을 두고 "그야말로 풍요 속 빈곤 아니냐"고 평가하기도 했습니다.기존의 후보들이 '참신함이 없다'라거나, '경험이 없다'라거나 하는 뚜렷한 한계를 보이는 것과 비교하면, 한 총리는 여러 정치적·상징적 무기를 갖춘 인물로 평가됩니다. △민주당의 탄핵 대상이었던 만큼 '반이재명 전선'의 상징성을 지니고 있다는 점 △헌법재판소의 탄핵소추안 기각으로 복귀한 만큼 정당성 논란에서 자유롭다는 점 △호남 출신이라는 상징성이 있다는 점 △미·중 관세 전쟁의 위기 상황에서 경제통이라는 점 등이 강점으로 꼽힙니다.실제로 최근 여론조사에 '한덕수'가 등장하기도 했습니다. 한국갤럽이 지난 8~10일 전국 성인 남녀 1005명을 대상으로 실시한 여론조사(95％ 신뢰수준에 표본오차 ±3.1％포인트, 자세한 내용은 중앙선거여론조사심의위원회 홈페이지 참고)에서, 한 총리는 대선 후보 선호도 2%를 기록하며 처음 등장했습니다. 특히 국민의힘 지지층 내에서는 6%를 얻으며 오세훈 서울시장과 동률을 이뤘습니다.한 총리의 '대선 출마' 여부를 가를 가장 결정적인 변수는 민주당의 탄핵 재추진 여부가 될 것으로 보입니다. 대통령이 부재한 상황에서 국정을 책임지는 총리를 대상으로 또다시 탄핵이 추진된다면, 이는 곧 사퇴 명분이자 출마의 디딤돌이 될 수 있기 때문입니다. 정치권에서는 '민주당의 재탄핵이 오히려 한 총리를 대선판으로 떠미는 트리거가 될 수 있다'는 이야기도 나옵니다.한 국민의힘 관계자는 이와 관련 "어제까지는 현실성이 없다고 생각했는데, 가만히 생각해보니 맞아떨어지는 퍼즐들이 꽤 있더라"라며 "민주당이 어떤 정무적 판단을 내릴지에 달려 있다"고 말했습니다.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>이슬기 기자</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/015/79851</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>이 기사는 띠별 운세로 건강 관련 정보가 부족하여 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>정치적 논의와 대선 출마 관련 내용으로, 건강 정보와 관련이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5616,22 +5748,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>韓 증시의 '패러다임 시프트'…'이 지표' 쓰면 알짜 종목 보인다 [이시은...</t>
+          <t>뉴욕 허드슨강 추락 헬기 탑승자는 ‘지멘스 CEO’ 가족</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/202504116131i</t>
+          <t>https://www.donga.com/news/Inter/article/all/20250411/131397815/2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118115?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627702?sid=104</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5641,27 +5773,27 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>수면</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>투자고수를 찾아서 &lt;45&gt;김홍범 유경PSG운용 CIO韓 증시, 조달에서 환원으로EPS 증가할 은행株 주목지난달 31일 공매도 재개'페어 트레이딩' 전개 양상한화에어로·현대로템 잠재력가치주와 성장주 균형도 강조"스트레스 없는 투자 해야"※한경 마켓PRO 텔레그램을 구독하시면 프리미엄 투자 콘텐츠를 보다 편리하게 볼 수 있습니다. 텔레그램에서 ‘마켓PRO’를 검색하면 가입할 수 있습니다.김홍범 유경PSG자산운용 최고투자책임자(CIO). /사진=이시은 기자“한국에선 주당순이익(EPS) 따져가며 투자할 일이 없었죠. 하지만 올해부턴 ‘패러다임’이 바뀔 것입니다.”김홍범 유경PSG자산운용 최고투자책임자(CIO·사진)는 지난 2일 한국경제신문과의 인터뷰에서 “국내 증시가 주주에게 돈을 돌려주는 시장으로 진화할 것”이라며 “상장 주식 수가 줄어들 은행주에 다시 주목할 때”라고 강조했다. 2007년 모건스탠리에서 경력을 시작한 그는 안다자산운용, 그로쓰힐자산운용 등을 거친 18년 차 베테랑 펀드 매니저다. 운용 펀드는 2015년부터 현재까지 벤치마크 대비 3.31~20.45% 초과 수익률을 꾸준히 올렸다.상법 개정은 시작일 뿐…은행株 EPS 뛴다그간 EPS가 그에게 주요 투자 지표가 되지 못했던 이유는 국내 증시가 주주 환원보단 자금 조달에 치우쳐져 있어서다. 유경PSG자산운용이 분석한 2010년부터 2023년까지 유가증권시장과 코스닥시장의 조달 자본 총액 대비 주주환원 합산의 차액은 항상 2012년과 2016년 유가증권시장 수치를 빼고 모두 양수였다. 대부분 연도에서 주주에게 돈을 받아 가는 경우가 더 많았다는 뜻이다. 김 CIO가 “국내 증시는 유상증자로 주식이 늘기만 하니 EPS를 활용할 이유가 없었다”고 말한 배경이다. 하지만 EPS는 올해부터 그의 주요 투자 지표로 떠올랐다.EPS는 기업의 순이익을 총주식 수로 나눈 값이다. 회사가 돈을 잘 벌면 수치가 뛰지만, 주식을 없애도 값이 커진다. 때문에 자사주 매입·소각이 활발한 미국에선 EPS 증감률이 주요 투자 지표로 쓰인다. 김 CIO는 “상법 개정안 논의가 본격화한 만큼 은행주의 EPS 동향을 주목해야 한다”고 짚었다. 개정안은 일단 거부권에 가로막힌 상태지만, 실제 통과 여부와 상관없이 주주환원 자체의 시장 의식이 달라졌다는 점이 중요하다고 했다. 이 가운데 뚜렷한 대주주가 없는 은행주는 주주환원을 지체할 이유가 없는 업권이라는 평가다. 특히 KB금융, 신한지주 등은 주주환원 체력의 기준인 보통주자본비율(CET1)이 높으면서도 EPS가 전년 대비 늘어날 대표주로 꼽힌다.공매도 이겨낼 우량 방산株들김홍범 유경PSG자산운용 최고투자책임자(CIO). /사진=이시은 기자공매도의 주요 타깃으로 언급됐던 방산주도 다시 들여다볼 업종이라고 했다. 김 CIO는 “최근 재개된 공매도는 업종 내 종목의 우열을 가려 매수(롱) 포지션과 매도(쇼트) 포지션을 나누는 ‘페어 트레이딩’ 양상을 보인다”며 “한화에어로스페이스, 현대로템 등은 군비를 증강하고 있는 유럽·중동의 수주 실적을 바탕으로 매수 포지션이 몰릴 수 있는 상장사들”이라고 말했다. 중국 인공지능(AI) 업체 딥시크의 오픈소스 공개로 수혜를 입을 네이버, 해외 진출을 본격화한 SOOP도 주가 잠재력이 충분하다는 설명이다. 특히 SOOP은 기존 해외 사업을 담당하던 최영우 최고전략책임자(CSO)가 대표에 오른 점을 기대 요소로 꼽았다.그는 “가치주와 성장주의 균형을 유지하라”고도 조언했다. 김 CIO는 “최근 증시에선 미 중앙은행(Fed)에서 경기 관련 말이 한마디만 나와도 다음날 시장이 한 치 앞을 내다볼 수 없는 변동성에 휘말린다”며 “애초에 시장 예측이 가능하다는 생각 자체를 버리고 포트폴리오를 고르게 나눠야 한다”고 말했다. 자신의 포트폴리오에서 가치주를 2~3종목, 성장주를 2~3종목 선별해 담아 최소 6개월을 두고 투자하라는 설명이다. “스트레스 없는 포트폴리오를 만들어야 한다”고도 말했다. 그는 “신규 게임 출시의 성공 여부, 신약의 미 식품의약국(FDA) 승인 등 한 가지 포인트만 보고 투자하는 습관은 장기적으로 성공하기 힘들다”며 “적어도 두 가지 이상의 주가 상승 이벤트가 잠재한 종목에 투자해야 한다”고 강조했다.</t>
+          <t>4·5·11세 어린이 자녀 모두 사망탑승 전 일가족 밝게 웃으며 사진데일리메일/뉴욕헬리콥터투어LCC미국 뉴욕 허드슨강 ‘관광 헬리콥터 추락 사고’로 숨진 일가족(5명)의 신원이 확인됐다.11일 영국 데일리메일은 사망자 중에 세계적인 기술 기업  지멘스(Siemens)의 고위 임원과 그의 아내, 세 자녀가 포함돼 있었다고 보도했다. 헬기를 조종하던 36세 조종사도 함께 숨졌다.이 사고는 뉴욕 현지 시간으로 10일 오후 3시 15분경, 맨해튼 남부 끝자락에 있는 허드슨강 뉴저지 쪽에서 발생했다. 탑승자 전원인 6명이 숨졌다.사망한 일가족은 스페인 바르셀로나에서 이날 아침 일찍 관광을 위해 뉴욕에 도착했다. 사망자는 ‘아구스틴 에스코바르’와 아내 ‘메르세 캄프루비 몬탈’, 그리고 각각 4세, 5세, 11세인 세 자녀다.데일리메일/뉴욕헬리콥터투어LCC아내는 스페인 유명 인사의 손녀숨진 남편 에스코바르는 지멘스 모빌리티의 철도 인프라 부문 CEO이며, 스페인 지사 사장을 역임했다. 그는 1998년부터 2010년까지 스페인에서 에너지 부문을 중심으로 다양한 직책을 맡았다.  스페인 주재 독일 상공회의소 부회장도 역임했다.아내 메르세 역시 지멘스 에너지에서 글로벌 커머셜 관리자로 근무했다. 그는 바르셀로나 FC의 회장을 지낸 아우구스티 몬탈 갈로바르트의 증손녀이자, 카탈루냐 클럽의 감독을 맡았던 아우구스티 몬탈 코스타의 손녀이기도 하다.사고 직전, 이 가족이 헬리콥터 탑승 전 활주로에서 촬영한 사진이 공개되며 안타까움을 더하고 있다. 세 아이들은 탑승 전 밝게 웃는 모습으로 엄마 아빠와 꼭 안고 사진을 찍었다. 탑승 후에 헬기 안에서 찍은 사진도 공개됐다.“연료 부족해” 착륙 하려던 차에 사고사고 헬리콥터는 월스트리트 헬리포트에서 이륙해 자유의 여신상을 선회한 뒤 조지워싱턴 다리 방향으로 비행 중이었다. 이륙 후 약 16분 만에 헬기가 기체 손상과 함께 수면 위로 추락한 것으로 확인됐다.정확한 사고 원인은 아직 밝혀지지 않았지만, 이륙 직후 연료 부족 경고를 받은 조종사가 비상 착륙 요청을 했던 것으로 나타났다. 그러나 예정된 착륙 지점에 도달하지 못한 채 추락한 것으로 전해졌다.사고 헬기는 지역 관광 전문업체 ‘뉴욕 헬리콥터’의 벨206L-4 기종(N216MH)이다. 투어 헬기 소유주인 마이클 로스는 여행을 시작한지 몇 분 만에 항공기 연료가 바닥났다고 말했다.그는 “조종사가 착륙 중이며 연료가 필요하다고 전화했는데, 도착하는 데 약 3분이 걸릴 예정이었지만 20분이 지나도 도착하지 않았다”고 설명했다.“천둥 소리인 줄” 엄청난 폭음 뒤 추락사고 당시 뉴욕은 흐리고 바람이 부는 날씨였다.목격자들은 “헬리콥터가 두 동강 나며 급속히 추락했고, 엄청난 폭음이 들렸다”고 증언했다. 한 목격자는 “천둥 소리인 줄 알았는데, 10초 후에 헬리콥터가 떨어지는게 보였다. 그러고 나서 큰 물보라를 일으키며 물속으로 가라앉았다”고 설명했다.시신은 모두 인양됐지만, 기체 일부는 여전히 회수되지 않아 11일 추가 잠수 수색이 이어질 예정이다.뉴욕시 에릭 아담스 시장은 “희생자 가족들에게 깊은 애도를 전한다”며 “모든 구조 작업이 종료됐으며, 현재 원인 규명을 위한 조사가 진행 중”이라고 밝혔다.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>이시은 기자</t>
+          <t>박태근 기자</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/75278</t>
+          <t>https://media.naver.com/journalist/020/78665</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>한국 증시와 투자 전략에 관한 내용으로 건강 관련 정보가 없어 보험 상담에 활용하기 부적합합니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없어 고객과의 커뮤니케이션에 활용하기에 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5673,22 +5805,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>10대 노린 디지털성범죄… 6년새 26배로 피해 급증</t>
+          <t>대만서 발견된 턱 뼈 화석, 데니소바인으로 확인</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250410/131394061/2</t>
+          <t>https://www.chosun.com/economy/science/2025/04/11/ATOVHIT6Q5DDXIRX6W6OJ6S4BU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627515?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898995?sid=105</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5698,27 +5830,27 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>수면</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19세이하 피해자 111명→2874명지원센터 집계… 실제는 더 많을듯10대 디지털 성범죄 피해자가 최근 6년 새 26배로 급증한 것으로 나타났다. 전체 디지털 성범죄 피해자 중 10대의 증가세가 가장 가파르다. 성 가치관이 채 확립되지 않은 10대를 디지털 성범죄에서 보호하기 위한 대책이 필요하다는 지적이 나온다.여성가족부가 10일 내놓은 ‘2024 디지털 성범죄 피해자 지원 보고서’에 따르면 10대 피해자(19세 이하)는 2018년 111명에서 지난해 2874명으로 25.9배로 늘었다. 전 연령대 가운데 증가 폭이 가장 크다. 같은 기간 20대와 30대 피해자는 각각 20.9배, 12.2배로 증가했다.여가부 산하 디지털 성범죄 피해자 지원센터에서 상담, 피해물 삭제 등을 지원한 피해자를 기준으로 집계한 통계라 실제 피해자는 이보다 더 많을 것으로 추산된다. 현재 수사기관에서 디지털 성범죄 피해자를 따로 집계하고 있지 않아 이 통계가 피해자 규모를 가늠할 수 있는 유일한 통계로 평가된다.지난해 전체 디지털 성범죄 피해자 수는 1만305명으로, 전년(8983명) 대비 14.7% 증가했다. 이 중 여성이 72.1%였다. 디지털 성범죄 피해자 수가 1만 명을 넘은 건 관련 통계가 집계된 2018년 이후 처음이다. 연령대별로는 20대(50.9%)가 가장 많았고 이어 10대(27.9%), 30대(12.9%) 등의 순이었다.김미순 한국여성인권진흥원 센터장은 “어릴 때부터 스마트폰과 소셜네트워크서비스(SNS) 사용에 익숙한 ‘디지털 네이티브’ 세대에서 피해가 집중적으로 발생하고 있다”며 특히 “딥페이크 등 성적 불쾌감을 유발하는 합성 이미지나 영상과 관련된 피해가 뚜렷하게 증가하고 있다”고 밝혔다. 김 센터장은 “기술이 계속 발전하면서 앞으로 디지털 성범죄 피해가 더 늘어날 것으로 우려된다”고 말했다.“부모에 혼날까봐 신고 못해”… 10대 ‘딥페이크 피해’ 순식간 확산전체 피해자 92%가 1020세대“알리고 싶지 않아요”… 수사 지연“일종의 놀이 취급, 삽시간에 퍼져”10대 성 관념 정립 안돼 후유증 심각… “적극적 피해 지원 대책 필요” 지적“최근 애플리케이션(앱) 등을 이용해 친구나 교사 사진을 합성하는 게 10대 사이에서 일종의 ‘놀이 문화’처럼 여겨지고 있습니다. 10대가 딥페이크(허위 영상물) 제작 업체에 의뢰해 이미지를 만들고 유포하는 사례도 증가하고 있어요.”박성혜 디지털 성범죄 피해자 지원센터 삭제지원팀장은 10대 피해자가 급증한 원인 중 하나로 디지털 기술을 이용한 합성·편집 피해 확산을 꼽았다. 디지털 성범죄는 피해물이 불특정 다수에게 순식간에 퍼질 수 있기 때문에 피해자를 빨리 보호하는 게 무엇보다 중요하다.특히 10대 피해자는 정서적 후유증이 심각할 수 있어 세심한 배려가 필요하다. 하지만 10대 피해자는 신고를 꺼리는 성향이 있다. 보다 적극적인 피해자 지원 체계가 필요하다는 목소리가 높다.● 10대 파고든 딥페이크 피해디지털 성범죄 피해 유형은 불법 촬영, 합성·편집, 유포 등으로 나뉜다. 지난해 센터에 접수된 디지털 성범죄 피해 유형 가운데 합성·편집 피해가 가장 큰 증가세를 보였다. 합성·편집 피해는 딥페이크 등 성적 불쾌감을 일으킬 수 있는 사진이나 영상을 합성하거나 편집하는 행위를 뜻한다.지난해 합성·편집 유형 피해는 1384건으로 전년(423건) 대비 3.3배로 늘었다. 같은 기간 불법 촬영 피해는 1.4배로 늘어 그 뒤를 이었다. 합성·편집 유형 피해는 10대 46.3%, 20대 46.4%였다. 전체 피해자 10명 중 9명 이상이 10, 20대였다.디지털 기술이 발달하면서 새로운 형태의 합성·편집 피해도 늘고 있다. 5, 6년 전에는 사진에 음란한 내용의 자막을 입히는 단순한 수준이었다면, 최근에는 생성형 인공지능(AI)을 활용해 성적인 사진을 제작해 유포하는 방식이 등장했다.디지털 성범죄는 강간, 강제추행 등 물리적 성범죄와 달리 피해자가 유포 등 피해 상황을 정확하게 파악하기 어렵다. 메신저 등에서 언제 어떻게 퍼지는지 피해자가 파악하는 건 사실상 불가능하다. 온라인에서 불특정 다수에게 원치 않는 모습이 퍼지는 것은 그 자체로 큰 공포와 수치심, 불안을 유발한다. 특히 10대는 성 관념이 충분히 확립되지 않아 정신적 피해가 크고 후유증이 오래 남는다.서울시여성가족재단이 2019년 진행한 연구에 따르면 아동·청소년 디지털 성범죄 피해자가 정신적 스트레스를 호소하는 비율이 전 연령대 중 가장 높았다. 15∼19세는 피해 후유증으로 ‘심리적 불안과 모멸감’을 가장 많이 꼽았다. 20대와 30대는 각각 ‘가해자에 대한 분노’와 ‘개인 정보 유출로 인한 불안’을 가장 많은 후유증으로 들었다.● “부모한테 혼날까 봐 신고 망설여”10대 피해자에게 빠른 수사와 신속한 보호는 매우 중요하다. 하지만 피해자 지원 기관에 따르면 10대 피해자 대부분은 “부모에게 혼날까 봐 무서워서 신고하지 못하겠다”며 신고 자체를 꺼린다. 현행 경찰 수사 규칙에 따르면 미성년자 피해자의 경우 수사가 시작되면 보호자에게 그 사실을 통보하게 돼 있다. 부모가 아는 걸 수치스러워해 망설이다가 더 큰 피해를 당하는 것이다.여성가족부 디지털 성범죄 지역 특화 상담소의 한 상담사는 “10대 피해자가 상담사에게 ‘부모님이 알면 큰일 나니 선생님이 제 보호자라고 거짓말하면 안 되겠냐’고 부탁하는 사례도 있다”고 전했다. 현장에서는 피해자가 신고를 망설일 때 피해자를 설득하거나 마음이 바뀔 때까지 기다릴 수밖에 없다.피해자가 부모에게 수사 상황이 통지되는 것을 원하지 않으면 디지털 성범죄 피해자 지원 기관 등 제3자에게 통지하고 적절한 법률적 도움을 받을 수 있도록 하자는 제안도 나온다. 여가부 관계자는 “범죄 수사 규칙 개정 필요성에 공감한다”며 “친권자의 알 권리와 10대 피해자의 신고 활성화 사이에서 균형을 찾을 수 있는 방법을 경찰청과 함께 고민하겠다”고 말했다.※ 성폭력 디지털성범죄 가정폭력 교제폭력 스토킹 등으로 전문가 도움이 필요하면 여성긴급전화 1366에 전화하세요. 365일 24시간 상담 및 긴급보호를 받을 수 있습니다.</t>
+          <t>데니소바인의 것으로 확인된 턱뼈 화석 '펑후 1'의 모습과 발견 장소를 표시한 지도./Takumi Tsutaya대만에서 발견된 의문의 턱뼈 화석이 멸종한 인류의 조상 ‘데니소바인(Denisovan)’의 것으로 밝혀졌다. 데니소바인의 화석은 지금까지 추운 지방에서만 발견됐는데 이번 발견으로 이들이 다양한 기후대에서 생활했다는 사실이 확인된 것이다.일본 종합연구대학원대학(SOKENDAI) 츠타야 다쿠미 교수가 이끄는 국제 연구팀은 대만과 중국 사이 펑후해협에서 발견된 호미닌(사람족)의 아래턱뼈 화석(펑후 1)을 분석한 결과 데니소바인 특유의 단백질 변이체가 확인됐다고 10일 밝혔다. 이번 연구 결과는 과학 저널 사이언스(Science) 최신호에 게재됐다.이 화석은 2008년경 펑후해협에서 어업을 하던 낚시꾼에 의해 발견돼 대만의 한 개인 수집가의 손에 들어갔다가 타이중의 국립자연사박물관에 기증되면서 세상에 알려졌다. 학자들이 연구에 나선 것은 2015년부터다.연구팀은 먼저 연대 측정을 통해 펑후 1이 19만~13만년 전 또는 7만~1만년 전에 살았던 조상 인류의 것으로 추정했다. 화석이 발견된 곳은 홍적세(Pleistocene) 동안 수면이 낮아 아시아 본토의 일부였던 곳으로 확인됐다.다음으로는 화석에서 단백질을 추출해내 고대 생물의 유전적·생물학적 정보를 연구하는 기술인 ‘고대 단백질체 분석법’을 통해 펑후 1의 정보를 자세히 조사했다. 펑후 1에서는 아미노산 일부인 아미노산 잔기(amino acid residues)가 4241개 검출됐고, 이 중 2개는 데니소바인 남성 특유의 단백질 변이체로 확인됐다. 또 펑후 1을 형태학적으로 분석한 결과 큰 어금니가 있는 견고한 턱 구조와 독특한 치아 뿌리 구조가 앞서 티베트 고원 등에서 발견된 데니소바인 화석의 특징과 일치했다.데니소바인은 약 4만~3만 년 전에 멸종한 고대 인류의 한 집단으로, 2008년 러시아 알타이산맥의 데니소바 동굴에서 처음 유골이 발견되면서 이름을 갖게 됐다. 이들은 현생인류(호모 사피엔스)와 네안데르탈인의 가까운 친척이지만 DNA 분석 결과 네안데르탈인과 구별되는 독특한 유전적 특징을 가지고 있는 것으로 나타났다.펑후 1이 데니소바인으로 확인되면서 수수께끼 같은 데니소바인 계통에 대한 새로운 정보가 생겼다. 이전에도 데니소바인이 시베리아에서 티베트고원, 동남아시아, 호주 등 동아시아 전역에 분포한 것으로 추정되기는 했지만, 유전자 정보가 발견된 것은 지금까지 시베리아와 티베트고원의 화석뿐이었다. 연구팀은 “이번 발견은 데니소바인이 추운 시베리아뿐 아니라 습한 아열대 지역에 이르기까지 다양한 기후에 살았다는 것을 보여주는 증거”라고 했다.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>김소영 기자</t>
+          <t>김효인 기자</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/020/73744</t>
+          <t>https://media.naver.com/journalist/023/78421</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>디지털 성범죄 피해 증가와 10대 피해자 보호 필요성에 대한 기사로, 건강 정보와 관련성이 낮습니다.</t>
+          <t>이 기사는 멸종한 인류 조상에 대한 연구로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5730,7 +5862,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>"동의 없이 이런걸 붙이냐" 尹 사저 시끌…"어서오시라" 환영도</t>
+          <t>이재명 캠프 키워드는 ‘초계파’…윤호중 위원장, 강훈식 본부장</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5740,12 +5872,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327929</t>
+          <t>https://www.joongang.co.kr/article/25327968</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433577?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433616?sid=100</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5755,29 +5887,25 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>수면</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령이 서울 용산구 한남동의 대통령 관저에서 퇴거하는 11일, 사저인 서울 서초구의 아크로비스타에서는 오전부터 한바탕 소란이 있었다. 1층 현관 부근에 대통령의 상징인 봉황 문양과 함께 "대통령 내외분 수고하셨습니다"라는 동대표 일동 명의의 현수막이 붙자 일부 주민이 "왜 주민 동의 없이 이런 것을 붙이느냐"고 관리사무소에 항의한 것이다.관리사무소는 "동대표들이 개인적으로 붙인 것이라 막을 수 없었다. 재물손괴로 고발당할 수 있어 뗄 수도 없다"고 했고 주민들은 "동대표들 개인 명의로 붙이라고 해라"라고 항의했다. 한 주민은 "외부인이 보기에 아크로비스타 757세대가 전부 윤 전 대통령을 환영하는 것으로 보이지 않겠느냐"고 우려했다.윤석열 전 대통령이 서울 용산구 한남동의 대통령 관저를 떠나는 11일 사저인 서울 서초구 아크로비스타의 1층에 ″대통령 내외분 수고하셨습니다″란 동대표 일동 명의의 현수막이 붙어있다. 김성진 기자.이날 오전에 만난 적지 않은 아크로비스타 주민들은 윤 전 대통령이 이웃으로 돌아오는 데 대한 걱정을 숨기지 않았다. 윤 전 대통령이 2022년 5월 취임 후 6개월가량 아크로비스타에서 출퇴근할 때의 불편을 다시 겪어야 한다는 것이다. 윤 전 대통령 부부의 외부 활동에 따라 주민 동선이 통제되고, 경호 차량이 지나갈 때 통신이 끊기고, 총·폭발물탐지기를 소지하거나 군견을 대동한 경호원들이 아크로비스타 일대를 순찰하는 등의 밀착 경호가 이뤄질 수 있다. 파면에도 윤 전 대통령은 최대 10년간 대통령 경호처의 경호를 받을 수 있다.실제로 이날 오전부터 윤 전 대통령의 재입주를 앞두고 경호처 직원으로 보이는 검은 정장 차림의 남성들이 4~5명씩 몰려다니는 등 아크로비스타의 분위기는 어수선했다. 오전 9시쯤 공항 보안검색대에서 볼 수 있는 엑스레이 스캐너가 건물 1층에 배치되는 모습이 포착되기도 했다. 한 주민은 놀이터 일대에 정장 차림 남성들이 모인 것을 보고 "낯설다. 또 시작이다. 아이들이 무서워하지 않겠나"라고 우려했다.집회에 따른 소란 걱정도 컸다. 이날 서초경찰서에 따르면 아크로비스타 일대에는 윤 전 대통령의 지지·규탄 집회가 매일 9건씩 한 달간 신고돼 있다. 아크로비스타에 10여년 거주했다는 40대 남성 A씨는 "당시 아내가 임신 중이라 절대적 안정을 취해야 했는데 평일·주말 가리지 않고 집 밖에서 집회를 하니 스트레스가 매우 컸다. 소음측정기를 구매할 생각마저 할 정도"라며 "이곳은 공동주택인데 제아무리 전직 대통령이라도 이웃들에 이런 피해를 줘도 되느냐. 따로 주택을 구해야 하지 않겠나"라 말했다.윤석열 전 대통령이 서울 서초구의 사저로 이전하는 11일 서울 용산구 한남동 대통령 관저 앞에서 촛불행동이 윤 전 대통령과 김건희 여사를 규탄하는 집회를 열고 있다. 김창용 기자.윤 전 대통령을 환영한다는 입주민도 있었다. 한 70대 남성 주민은 "취임 초기에 이곳에서 출퇴근하실 때도 큰 불편함은 없었다"며 "윤 전 대통령 고생하셨다. 환영한다"고 말했다.━관저 앞 지지·규탄 시위대 재격돌윤 전 대통령은 이날 오후 5시에 대통령 관저에서 퇴거한다. 2022년 11월 7일에 입주한 후 886일, 헌법재판소가 대통령직에서 파면한 지 일주일 만이다. 윤 전 대통령을 지지, 규탄하는 시위대가 한남동 대통령 관저, 사저인 아크로비스타 일대에 재집결했다. 지지자 측은 이날 오후 3시부터 관저 일대에서 '윤 전 대통령 응원' 집회를 한다. 이날 만난 지지자 한 명은 "절대 탄핵에 승복할 수 없다"며 "사기 탄핵"이라고 말했다. 윤 전 대통령은 경호차량을 타고 사저로 향하기 전, 차에서 내려 지지자들에게 인사할지 검토 중이라고 전해졌다.윤 전 대통령 탄핵의 찬성 집회를 열어왔던 촛불행동은 오전 11시에 윤 전 대통령과 김건희 여사의 구속을 촉구하는 집회를 열었다. 촛불행동은 성명서에서 "윤건희(윤석열·김건희) 구속 선봉대를 발족한다"며 "윤 전 대통령, 김건희 여사가 구속될 때까지 사저 앞 1인 시위, 촛불집회, 행진 등 투쟁할 것"이라고 말했다.</t>
+          <t>이재명 전 더불어민주당 대표가 11일 서울 여의도 국회 소통관에서 집권 청사진 등을 소개하는 '비전 선포식 및 캠프 일정 발표'를 하고 있다.   왼쪽부터 이해식 비서실장, 강유정 대변인, 한병도 종합상황실장, 윤후덕 정책본부장, 강훈식 총괄본부장, 이재명 예비후보, 윤호중 선대위원장, 수어통역, 김영진 정무전략본부장, 박수현 공보단장. 연합뉴스이재명 전 더불어민주당 대표의 경선 캠프 구성 키워드는 ‘초(超)계파’였다. 그는 대선 출마 선언 이틀째인 11일 오전 국회에서 기자회견을 열고 “에너지를 결집해 새로운 세상, 새로운 나라를 만드는 것의 출발을 우리 경선 캠프가 시작한다”며 참여 의원 9명을 직접 소개했다.캠프 좌장 격인 선거대책위원장은 5선인 윤호중 의원이 맡았다. 윤 의원은 이해찬 당 대표 시절 사무총장을 지내 ‘이해찬계’로 분류된다. 이 전 대표는 “원내대표·정책위의장을 역임했고 오랜 당무 경험을 통해 누구보다 민주당을 잘 이끌어 왔다”고 설명했다. 당 대표 비서실장을 지내다 다시 후보 비서실장으로 임명된 이해식 의원 역시 ‘이해찬계’로 분류된다.전체 캠프를 지휘는 총괄본부장은 3선의 강훈식 의원이 맡았다. 계파색이 옅지만, 당 수석대변인과 전략기획위원장 등 당 요직을 두루 거쳤다. 지난 대선 때도 선거대책위원회 전략본부장을 맡았다. 이 대표는 “제 처가 동네 충청의 인물”이라고 소개했다.‘친문재인계’도 폭넓게 포진했다. 문재인 정부 청와대에서 정무수석과 국민소통수석을 거친 한병도(3선)·박수현(재선) 의원은 각각 종합상황실장과 공보단장을 맡았다. 제20대 대선 당시 선대위 정책본부장이었던 4선 윤후덕 의원은 이번에도 정책본부장직을 맡게 됐다. 캠프 핵심 관계자는 “계파보다는 실력으로, 대선 경험자 위주로 인선했다. 인력 풀을 넓게 쓰자는 취지”라고 설명했다.김주원 기자캠프 정무전략본부장엔 3선 김영진 의원이 임명됐다. 이 전 대표의 중앙대 후배로 2017년 대선 경선부터 곁을 지킨 최측근이지만, 지난해 민주당 당헌·당규 개정에 반대하는 등 쓴 소리도 서슴지 않아 ‘진짜 레드팀’이란 평가를 받는다.대변인은 강유정 의원(초선)이, 토론본부장은 이소영 의원(재선)이 맡았다. 지역별로 분류하면 수도권 6명, 충청 2명(강훈식·박수현), 전북 1명(한병도) 순이다. “충청 지역 의원들을 전진 배치해 중원 확장에도 신경 썼다”(캠프 관계자)는 평가가 나온다.이날 공개된 캠프는 2021년 대선 경선 당시 현역 50여명이 참여했던 것과 대조하면 ‘슬림 캠프’에 가까웠다. 대선까지 남은 기간이 50일 남짓인 점을 고려한 것으로 풀이된다. 당 관계자는 “인적 구성을 볼 때 경선 캠프 의원들이 대선 본선 선대위에서도 주축이 될 것”이라고 전망했다.이재명 전 대표가 11일 서울 여의도 국회 소통관에서 집권 청사진 등을 소개하는 '비전 선포식 및 캠프 일정 발표'를 하기 위해 이동하고 있다. 연합뉴스이 전 대표는 이날 “이제부터 진짜 대한민국” “지금은 이재명”이라는 두 가지 슬로건을 공개했다. “대한민국이 세계를 주도하는 시대를 개척하겠다”는 ‘K-이니셔티브’ 출마 비전도 재차 강조했다. 그는 “국가의 부는 결국 기업이 창출한다”면서도 “최근 경제 상황상 국가 단위의 관여와 지원, 투자 협력이 반드시 필요하다”고 말했다.윤석열 정부 비판도 이어갔다. 이 전 대표는 “우리 사회 모든 것을 지탱하던 민주주의가 윤석열 정부 3년 만에 최악의 위기를 맞았다”며 “여전히 헌법파괴세력, 내란세력이 준동하는 상태라고 본다”고 말했다. 한덕수 대통령 권한대행에 대해선 “지금 대통령 권한대행이 ‘내란 대행’이라고 불리지 않느냐”고 비판했다.정책 조직도 수면 위로 올라오고 있다. 대선용 싱크탱크인 ‘성장과 통합’이 16일 공식 출범 예정이다. 이외에도 당 싱크탱크인 민주연구원 산하 정책 소통 플랫폼 ‘모두의질문Q’와 당 최고위 산하 집권플랜본부, 이 전 대표가 공동의장을 맡은 민생경제연석회의 등도 물밑에서 정책·공약 작업을 벌이고 있다. 당 고위 관계자는 “경선 단계에선 각자 조용히 정책을 준비하다가 당 후보가 확정되면 자연스레 당 선대위로 모여드는 구조가 될 것”이라고 말했다.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>김창용 기자</t>
+          <t>김나한 기자</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/025/81356</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>윤석열 전 대통령의 사저 이전과 관련한 주민 반응 및 경호 문제를 다룬 기사입니다.</t>
-        </is>
-      </c>
+          <t>https://media.naver.com/journalist/025/79514</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>False</t>
@@ -5787,22 +5915,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>“그놈의 전화에 미친 시어머니…다들 이런가요?” 3년 차 새댁이 전한...</t>
+          <t>[사설] 한덕수 대행, 관리자냐 선수냐 빨리 입장 정해야</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288777</t>
+          <t>https://www.joongang.co.kr/article/25327795</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474655?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433457?sid=110</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5812,19 +5940,19 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>수면</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>기사의 이해를 돕기 위한 이미지. [사진 출처 = 챗GPT]며느리에게 잦은 안부 전화를 요구하는 시어머니 때문에 고민이라는 사연이 전해졌다.지난 9일 온라인 커뮤니티 네이트판에는 ‘그놈의 전화에 미친 시어머니. 다들 이런가요?’라는 제목의 게시글이 올라왔다.글쓴이 A씨는 “결혼한 지 3년 된 나름 신혼인 여자다. 결혼이라는 것.. 정말 쉽지 않다는 건 알고 있었지만 그럭저럭 헤쳐 나가는 중인데 그놈의 전화 문제가 해결이 되지 않는다”며 운을 뗐다.이어 “저희 집 효자는 결혼 전부터 매일 전화를 하는 아주 사이 좋은 집안 자식이다.(아들 셋) 삭막한 우리 집보다는 항상 사이좋고 다정한 효자네 가족이 부러웠다. 그래서 매일 전화하는 것, 좋다고 생각한다” 며 시댁을 설명했다.A씨는 “그런데 그놈의 며느리가 직접 거는 전화에 매달리는 어머님 때문에 전화의 전자만 들어도 스트레스 쌓인다”고 고민을 토로했다.남편이 통화할 시에 옆에서 잘 지내시냐, 식사하셨냐 등 인사하는 편이지만, 맞벌이라 집에 같이 없을 때가 더 많아 항상 받지는 못한다고도 덧붙였다.그런데 시어머니가 A씨를 만날 때마다 “너는 전화 한 통이 없더라”고 해서 그 때마다 무슨 말인지 영문을 모르겠다고 했다.지난 9일 온라인 커뮤니티 ‘네이트판’에 올라온 게시글. [사진 출처 = 네이트판]A씨는 다른 사람들도 시댁에 직접 전화하는지 물으며 “맞벌이에, 집안일에. 육아까지. 게다가 집안일도 안가르쳐 보내신 덕에 효자 키우기까지. 진이 빠져서 전화는커녕 제 지인들과 연락도 단절된 지 오래인데. 그놈의 전화타령 지긋지긋합니다”고 심경을 전했다.이어 “3년째 무시하고 있는데 해결방안을 모르겠다”며 누리꾼들에게 조언을 구했다.A씨 집안은 “사위 번호는 알지만 먼저 전화하신 적 없다”고도 말하며 글을 마무리했다.이를 본 누리꾼들은 댓글 창에서 “나도 시모 전화벨 소리가 머리 감을 때 환청으로 들릴 정도였다. 부재중 16회 찍힌 적도 있었다” “절대 전화하지 마라” “나도 아기 낳고 힘들어 죽겠는데 하루 세 통씩 전화 온다” 등 글쓴이와 유사한 경험담을 공유했다.</t>
+          <t>한덕수 대통령 권한대행 국무총리가 10일 서울 종로구 정부서울청사에서 열신 국정현안관계장관회의에서 발언을 하고 있다. 국무총리실 제공━정부 수반 출마설 자체가 대선 공정관리 흠집 소지━미국 대통령도 질문, 위기 속 어정쩡한 태도는 곤란대선 주자들의 출마 선언이 잇따르는 등 6·3 대선이 본격화하는 와중에 선거 관리를 책임지고 있는 한덕수 대통령 권한대행의 거취가 정치권의 쟁점으로 떠올랐다. 국민의힘 일각에서 한 대행이 차기 대선에 출마해야 한다는 목소리가 나오고 있다. 반면에 더불어민주당에서는 “출마는 어림도 없다”며 재탄핵 카드를 만지작거리는 중이다. 비상계엄 선포에 이은 윤석열 전 대통령 파면으로 국가 리더십 공백이 발생하고, 미국발 관세전쟁의 파도가 몰아치는 등 위기가 한창이다. 이런 때에 국정 안정을 책임져야 할 한 대행이 오히려 정치적 논란의 중심에 선 것은 바람직한 일이 아니다.한 대행 차출론은 당초 국민의힘 친윤계 인사 일부가 제기했었다. 그러다 이재명 전 민주당 대표에게 맞서 이길 만한 보수 쪽 대항마가 뚜렷하게 부각되지 않으면서 수면 위로 떠오르는 양상이다. 최근 국민의힘 상임고문과 지도부 오찬에서도 한 대행을 대선후보로 내세우자는 의견이 다수 나왔다고 한다. 어제는 한 대행이 국정 운영을 잘할 것 같은지, 아닌지에 대한 여론조사 결과까지 발표됐다. 얼마나 소문이 퍼졌는지 도널드 트럼프 미국 대통령까지 지난 8일 밤 통화에서 한 대행에게 대선에 나갈 것인지 직접 묻기도 했다. 한 대행 본인이 트럼프 대통령의 질문에 “여러 요구와 상황이 있어 고민 중이다. 결정한 것은 없다”는 취지로 즉답을 피했다는 소식이 전해지면서 출마설은 가라앉지 않고 있다.대선에 나갈지, 말지는 한 대행이 선택할 문제다. 하지만 그는 두 달도 채 안 남은 선거를 공정하게 관리해야 할 정부의 수장이다. 특정 정당의 후보 출마 가능성이 거론되는 것 자체가 선거 관리 공정성에 흠집을 낼 소지가 있다. 더욱이 한 대행은 최근 대통령 몫 헌법재판관 후보자 2명을 지명해 정치권에서 월권 논란을 일으켰다. 국회 선출 재판관 후보자 3명의 임명을 거부할 때는 “대통령의 고유 권한 행사를 자제하라는 것이 헌법정신”이라더니, 윤 전 대통령의 친구이자 내란 방조 혐의로 수사 받는 이완규 법제처장을 지명해 민주당의 반발을 불렀다. 한 대행의 이런 행보가 대선 차출설과 맞물리면서 정치적 의도를 의심받는 것도 무리는 아니다.지금은 중립적인 대선 관리와 대미 협상을 성공적으로 이끌기 위한 정부의 역할이 어느 때보다 중요한 시점이다. 미국발 관세전쟁의 태풍을 이겨내기 위해선 기업을 적극 지원하고 정치권의 초당적 협력을 이끌어내는 일이 절실하다. 정부 수반으로서 이런 과제를 수행할 책임이 있는 한 대행이 자신의 정치적 거취에 대해 어정쩡한 태도를 보이는 것은 국가 위기 극복이나 정국 안정에 도움이 되지 않는다. 한 대행은 대선 관리자를 할 것인지, 선수로 뛸 것인지 서둘러 입장을 정리하기 바란다.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>시어머니의 안부 전화 요구로 스트레스를 받는 며느리의 고민을 담은 사연입니다.</t>
+          <t>정치적 논란과 대선 출마설에 관한 내용으로 건강 관련 정보가 포함되어 있지 않습니다.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5836,52 +5964,52 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>“남초딩 혐오” SNS글 파문 초등교사, 계약 종료 조치</t>
+          <t>尹, 오늘 한남동 관저 떠난다…서울 곳곳 찬반 집회</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250411/131396218/2</t>
+          <t>https://www.hankyung.com/article/2025041148007</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627646?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005117908?sid=100</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>뉴스1강원도 원주의 한 초등학교 담임교사가 SNS에 남자 초등학생을 혐오·비하하는 글을 올린 사실이 확인돼 당국이 계약을 종료한 것으로 전해졌다.강원도교육청은 논란이 된 원주의 초등 교사 A 씨에 대해 업무 배제 조치했다고 지난 9일 밝혔다.뉴스1에 따르면 A 씨는 지난해 SNS에 “남초딩들 보면 혐오스럽다. 악취, 소음, 먼지, 스트레스 결혼해서 아들 생기면 낙태해야겠다는 생각이”라는 글을 올렸다.이후 A 씨는 원주 소재 초등학교의 계약제 교원으로 담임을 맡게 됐다. 당시 이 학급의 원래 담임교사는 출산으로 한 달간 휴직한 상태였다.그러나 A 씨가 올렸던 글이 빠르게 퍼져나갔고, 학부모의 민원이 국민신문고에 접수됐다.학교 측은 논란을 인지한 뒤 A 씨를 아이들과 분리 조치하고 업무에서 배제한 뒤 계약을 종료했다.강원도교육청 관계자는 “해당 사건을 알게 된 후 학교 측이 곧장 조치를 취했다”며 “이런 일이 없도록 더욱 신경 쓰겠다”고 밝혔다.</t>
+          <t>한남동 관저/사진=뉴스1윤석열 전 대통령이 한남동 관저를 떠나 서초동 사저로 거처를 옮기는 것으로 알려진 11일 서울 도심 곳곳에서 찬반 집회가 예고됐다.윤 전 대통령 측은 11일 오후 5시 관저를 떠나 사저로 이동한다고 밝혔다. 윤 전 대통령 측 관계자는 "대통령실 수석비서관 이상 참모들은 윤 전 대통령의 퇴거 시간에 맞춰 관저를 방문할 것"이라며 "별도의 메시지가 나올지, 차량에서 내려 인사를 할지 등은 정해진 바 없다"고 전날 밝혔다.대통령경호처는 약 40명 규모의 사저 경호팀 편성도 마친 것으로 알려졌다.이와 함께 한남동 관저와 서초동 사저 인근 곳곳에서 집회가 예고된 상황이다.이날 오전 관저 인근에서는 윤 전 대통령 지지자들이 모인 자유대한국민연대와 탄핵 찬성 집회를 이어온 촛불행동이 각각 500명, 2만명 규모(경찰 신고 기준)의 집회를 연다. 집회 인원 1만명을 신고한 보수 유튜버 신의한수 등은 오후 3시 관저 인근 볼보빌딩 앞에서 윤 전 대통령 응원 집회를 열고, 3000명을 신고한 국민주권당은 오후 4시 같은 장소에서 윤 전 대통령의 조속한 퇴거를 촉구한다.서초동 사저 아크로비스타 인근에서도 오전 11시 진보 유튜버 정치한잔 등이, 오후 3시께는 보수 유튜버 벨라도 등이 각각 50명, 5000명 규모 집회가 신고된 상태다. 일부 윤 전 대통령 지지자들은 한남 관저에서 서초동까지 '인간띠'를 만들겠다고 예고하기도 했다.관저 퇴거 시점인 오후 5시 이후부터 헌법재판소 인근에서도 집회가 예정됐다. 국민의힘비대위갤러리는 오후 6시 안국역 인근 노인복지센터 앞에서 '헌법재판소 국가 장례식 발인 집회'를 하고, 내란청산·사회대개혁 비상행동은 오후 7시 30분 경복궁 서십자각에서 '내란 종식 긴급행동'을 벌인다. 각각 200명과 1만명을 참가 인원으로 신고한 이들은 집회 후 도심을 행진할 계획이다.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>박태근 기자</t>
+          <t>김소연 기자</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/020/78665</t>
+          <t>https://media.naver.com/journalist/015/71569</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>SNS에 남자 초등학생 비하 글을 올린 교사가 업무에서 배제되고 계약이 종료된 사건.</t>
+          <t>기사 내용은 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5893,101 +6021,109 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>경북도, 6월까지 ‘산불 피해 주민 마음 회복 프로그램’ 운영</t>
+          <t>“운전대 놓으시면 50만원 줍니다”…이 동네, 보상금 5배 올렸더니 한...</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/regional/2025/04/11/AQWBYKUTI5DADLBORNEJIUDZUM/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.mk.co.kr/article/11288851</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898961?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474703?sid=102</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>경북도는 ‘산불피해 주민 마음 회복 프로그램’을 운영한다고 11일 밝혔다. 사진은 경북 영주 국립산림치유원에서 휴식을 취하고 있는 시민들의 모습./국립산림치유원경북도는 국립산림치유원과 함께 ‘산불 피해 주민 마음 회복 프로그램’을 운영한다고 11일 밝혔다.산불로 심리적 충격과 일상 붕괴를 겪은 피해 주민이 마음의 안정을 되찾고 다시 일상으로 복귀할 수 있도록 돕기 위한 프로그램이다. 산불 피해 주민과 그 가족이라면 누구나 시·군 단체 신청을 통해 무료로 참여할 수 있다. 영주시 봉현면 국립산림치유원에서 1박 2일 숙박형 프로그램으로 오는 6월까지 진행할 계획이다.경북도에 따르면, 숲의 소리, 자연의 향기, 편안한 움직임이 어우러진 이 활동은 불안, 불면, 외상 후 스트레스(PTSD) 증상 해소에 실질적인 효과가 있다고 한다.조현애 경북도 산림자원국장은 “산불이 남긴 상처는 외상뿐 아니라 마음 깊은 곳까지 이어지는 만큼 피해 주민들에게 작지만 의미 있는 위로가 되고, 치유와 회복의 출발점이 될 수 있길 바란다”며 “이번 프로그램을 시작으로, 산불 등 재난 발생 이후 주민 심리 회복을 돕기 위한 공공 치유 서비스를 지속적으로 확대해 나갈 계획”이라고 밝혔다.</t>
+          <t>울산 울주군 운전면허 반납 보상 확대한 달 만에 작년 1년간 반납 실적 초과추경 통해 재원 확보 7월 중 2차 보상운전면허 자진 반납 챗지피티 생성 이미지전국적으로 고령 운전자 운전면허증 반납 실적이 저조한 가운데 울산 울주군이 반납 보상금을 5배 늘리자 자진 반납이 급증한 것으로 나타났다.울산 울주군은 지난달부터 고령 운전자 운전면허증 자진 반납 지원 사업 시행한 결과 410건이 반납돼 사업 시행 한 달 만에 지난해 1년간 반납 실적 358건을 초과했다고 11일 밝혔다.울주군은 고령 운전자 교통사고 예방을 위해 올해부터 운전면허증 반납 인센티브를 기존 10만원에서 50만원으로 확대했다. 65세 이상 군민이 운전면허증을 반납하면 온누리상품권 40만원과 울산시가 주는 10만원 상당의 교통카드를 지급한다.지역 일각에서는 ‘보상금을 더 준다고 해서 자진 반납이 늘겠냐’고 우려도 제기됐으나 사업 초기 성과는 좋은 편이다. 군은 읍면별 배부한 온누리상품권(1개당 40만원) 450개 중 91.1%가 소진돼 추경을 통해 온누리상품권 추가 확보에 나섰다.연령별로는 70세 이상 운전면허 반납자가 78%로 가장 많았다. 군은 최근 70대 이상 고령 운전자가 운전하는 차량에서 교통사고가 빈번하게 발생하는 상황에서 교통사고 발생을 예방하고 보행자 안전 확보에 도움이 될 것으로 기대했다.울주군은 온누리상품권 구매 재원이 확보되면 오는 7월 2차 보상에 나설 계획이다. 또 울산시에 교통카드 추가 배부를 요청했다.울주군 관계자는 “고령층 이동 편의를 고려해 오는 9월부터 65세 이상 노인을 대상으로 시내버스 요금 지원 사업을 추진하는 등 교통 약자의 교통 격차 해소와 편리한 이동권 보장에 힘쓸 것”이라고 말했다.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>노인호 기자</t>
+          <t>서대현 기자</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/023/81021</t>
+          <t>https://media.naver.com/journalist/009/23007</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>산불 피해 주민을 위한 심리 회복 프로그램은 스트레스 해소에 도움을 주며 건강 관리의 중요성을 강조합니다.</t>
+          <t>고령 운전자의 면허 반납 인센티브 확대가 교통사고 예방에 기여하고 있음.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>신간 다이제스트</t>
+          <t>‘5억원대 뇌물 수수’ 윤우진 前세무서장 징역 12년 구형</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289265</t>
+          <t>https://www.chosun.com/national/court_law/2025/04/11/KXOS3C4WYRB3PHUM4UTJ2NNKXA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474934?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003899016?sid=102</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>사람 김영하의 내밀한 이야기단 한 번의 삶김영하 지음, 1만6800원소설가 김영하의 사적이고 내밀한 에세이다. 돌아가신 부모님을 생각하며 한 번뿐인 삶에 연민과 애정 어린 시선을 보낸다. 열네 편의 이야기에 진솔한 가족사와 직접 경험한 인생의 순간을 아우르는 깊은 사유와 통찰이 있다. 우리는 얼마나 서로를, 그리고 자신을 모르고 살아가는가. 담담히 풀어낸 솔직한 경험과 고민을 통해 독자들이 자신의 삶을 되돌아보게 만든다. 복복서가 펴냄.혼란의 대한민국, 어디로 가야하나한국이란 무엇인가김영민 지음, 1만8800원지난해 12월 3일 한밤중에 단행된 대통령의 불법 계엄령 이후 한국 사회를 휩쓸었던 정신적 공황을 짚는다. 저자인 김영민 서울대 교수는 대한민국을 이해해온 방식 자체를 처음부터 되묻고 새로운 서사의 가능성을 이야기한다. 우리 공동체에 대한 정체성과 방향성을 다시 물어야 할 때라는 주장이다. 홍익인간부터 계엄의 밤까지 역사의 흐름 속에서 한국을 돌아본다. 어크로스 펴냄.'맞춤법 빌런' 되지 않으려면말실수가 두려운 사람을 위한우리말 사용법이경우 지음, 1만8000원누구나 한 번쯤은 소리 나는 대로 썼을 뿐인데 맞춤법을 틀리거나, 느낌은 알겠는데 알맞은 단어가 생각나지 않거나, 마음을 써서 말했는데 오히려 오해를 산 경험이 있다. 한 끗 차이 때문에 헷갈리는 단어부터 상황과 상대에 맞춰 적절하게 사용해야 하는 표현들, 차마 지적하기 어려운 맞춤법까지 모두 담겨 있는 책이다. 유노북스 펴냄.탐사보도로 파헤친 그림자 권력소리 없는 쿠데타클레어 프로보스트·매트 켄나드 지음윤종은 옮김, 2만5000원오늘날 전 세계 거대 기업들은 새로운 제국으로 급부상하고 있다. 런던 탐사보도센터 회원인 저자들이 수많은 자료를 뒤지고 전 세계 25개국을 돌아다니며 현장 목소리를 듣고 취재한 결과물이다. 초국적 기업들이 어떻게 대중의 눈에 띄지 않게 민주주의의 근간을 뒤흔드는 '소리 없는 쿠데타'를 일으키는지 생생하게 파헤친다. 소소의책 펴냄.몸도 마음도 병드는 불공정불평등은 어떻게 몸을 갉아먹는가알린 T 제로니머스 지음방진이 옮김, 3만1000원불공정한 사회가 주는 스트레스가 노화를 촉진해 건강과 수명에 어떻게 심대한 영향을 미치는지 보여준다. 저자는 평생 공공보건학자로 연구를 해오며 부정의한 사회가 개인 건강을 서서히 무너뜨린다는 사실을 입증했다. 차별과 불평등이 만연한 사회의 사다리 맨 밑에 있는 사람들이 더 많이 아프고 더 일찍 죽고 있었다. 돌베개 펴냄.상실마저 따뜻하게 표현한 시인마중도 배웅도 없이박준 지음, 1만2000원'당신의 이름을 지어다가 며칠은 먹었다'로 존재감을 보여준 박준 시인의 세 번째 시집이자 7년 만의 신작이다. 그리움과 상실마저 아릿한 아름다움으로 그려내는 미덕을 고스란히 계승하면서도 한층 깊어진 성찰과 더욱 섬세해진 시어로 전작을 뛰어넘는 완성도를 보여준다. 살면서 놓친 것들을 어루만지는 손길이 따뜻하다. 창비 펴냄.</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+          <t>2022년 12월 인허가 로비 명목으로 수억 원을 수수한 혐의로 재판에 넘겨진 윤우진 전 용산세무서장이 서울 서초구 서울중앙지방법원에서 열린 특수범죄 가중처벌 등에 관한 법률위반(뇌물) 혐의에 대한 공판에 출석하고 있다./뉴스1세무조사 무마 대가로 5억원대 뇌물을 받은 혐의로 재판에 넘겨진 윤우진(70) 전 서울 용산세무서장에게 검찰이 징역 12년을 구형했다. 재판부는 오는 6월 20일 1심 판결을 선고할 예정이다.11일 서울중앙지법 형사27부(재판장 우인성)는 특정범죄 가중처벌 등에 관한 법률 위반(뇌물) 등 혐의로 기소된 윤 전 서장의 결심공판을 진행했다. 이날 검찰은 최종 의견에서 “피고인은 수사와 공판 단계에서 범행을 부인하고 있고 금품수수 액수와 기간이 상당해 사안이 중대하다”며 “징역 12년과 벌금 20억원, 추징금 5억3000여만원을 선고해달라”라고 재판부에 요청했다.반면 윤 전 서장 측은 “무리한 장기간 수사로 이미 공소시효가 지났다”며 면소 판결을 받아야 한다고 주장했다. 윤 전 서장의 변호인은 또 “피고인은 59년생 70세 노인으로 재판 과정에서 중압감을 이기지 못하고 공황 증세 등 건강 상태가 악화됐다”며 이를 참작해 형량을 정해달라고 요청했다.윤 전 서장은 이날 법정에 출석했지만 건강 상태를 이유로 직접 최후 진술에 나서진 않았다. 공판이 진행되는 동안 엎드려 있는 등 어지러움을 호소한 윤 전 서장은 공판을 마친 뒤 구급대원의 부축을 받아 곧바로 병원으로 이송됐다.윤 전 서장은 2004년~2012년 세무 업무시 편의 제공 명목으로 세무사와 육류 수입업자로부터 2억 원을 챙긴 혐의로 2021년 12월 기소됐다. 검찰은 이듬해 5월 공소장을 변경해 뇌물 3억2900만원을 추가했다.한편 윤 전 서장은 세무공무원 인맥을 활용해 세금을 줄여주겠다며 뒷돈을 챙긴 혐의(변호사법 위반)로도 재판을 받고 있다. 2023년 10월 1심 재판부는 윤 전 서장에게 징역 10개월을 선고했다. 현재 해당 사건은 2심 재판이 진행 중이다.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>김나영 기자</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/023/79466</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>불공정한 사회가 건강에 미치는 부정적 영향을 다룬 책 소개로, 직접적인 건강 정보는 부족합니다.</t>
+          <t>이 기사는 뇌물 수수 혐의로 재판 중인 전 세무서장에 관한 내용으로 건강 관련 정보가 아닙니다.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -5999,7 +6135,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>미국 자산 폭락의 날…해외 투자 이탈? "절망↔불확실성 바꾼 것" [김현...</t>
+          <t>"AI 속도 따라잡을 '새로운 몸'…창의적 컴퓨터가 미래 가른다"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6009,44 +6145,40 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/202504114547i</t>
+          <t>https://www.hankyung.com/article/2025041164371</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005117889?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118201?sid=105</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>이 기사는 국내 최대 해외 투자정보 플랫폼한경 글로벌마켓에 게재된 기사입니다.90일 관세 유예로 인한 흥분은 하루밖에 지속하지 않았습니다. 파이퍼샌들러의 마이클 칸트로위츠 전략가는 "최악의 시나리오는 사라졌다"라고 했지만 그네상스매크로의 닐 두타 이코노미스트는 "누구도 '모든게  깨끗해졌다'라고 할 수 있는 상황이 아니다"라고 밝혔습니다. 르네상스매크로처럼 많은 이코노미스트는 여전히 경기 침체 가능성을 보고 있습니다. '트럼프 풋'이 확인됐다고는 하지만, 그런 풋이 발동되려면 오랫동안 안전 자산으로 여겨져 온 미국 국채 시장이 무질서하게 흔들려야 할 것입니다.1.  "두 건의 관세 협상, 거의 마무리"125% 관세를 얻어맞은 중국 정부는 미국 여행 자제령을 내리고 할리우드 영화 수입 카드를 내밀었습니다. 그동안 중국 내에서 언급되어온 6대 대응 조치(미국산 농산물 관세 대폭 인상, 가금육 수입 금지, 애플 등에 대한 지식재산권 조사, 미국 영화 수입 축소·금지 등) 중의 하나입니다.유럽에서는 유럽연합(EU) 집행위원회가 15일부터 시행하려던 보복관세 부과 방침을 90일간 보류하기로 했습니다. 미국의 철강·알루미늄 관세에 따른 것이었는데요. 트럼프 대통령의 상호관세 유예 발표가 나오자 시행 결정을 번복한 것입니다. 우르줄라 폰 데어 라이엔 집행위원장은 "협상에 기회를 주고 싶다. 협상이 만족스럽지 않으면 관세가 부과될 것"이라고 말했습니다.백악관 국가경제위원회(NEC)의 케빈 해싯 위원장은 "현재 약 15개국과 협상하고 있다. 거의 완료 직전에 온 거래가 상당히 많다. 특히 두 개의 협정은 지난주에 거의 마무리됐다"라고 밝혔습니다. 그는 10% 보편관세가 장기적으로 유지될 것으로 예상한다고 말했습니다. "그보다 낮은 수준으로 가려면 뭔가 특별한 거래가 필요할 것"이라고 덧붙였습니다.스콧 베센트 재무장관도 "협상을 위한 프로세스가 구축됐다. 베트남과도 공식 상호관세 협상을 시작했다"라고 말했습니다.어제 트럼프의 유예 결정에 큰 영향력을 미친 사람은 누구일까요. 뉴욕타임스는 "베센트 장관은 지난 일요일 에어포스원에서 대통령과 직접 회동한 후 협상에 대한 권한을 더 많이 얻었다. 베센트와 JD 밴스 부통령은 중국을 고립시키면서도 다른 국가를 심하게 공격하지 않는 체계적 접근 방식을 권했다. 트럼프는 어제 아침 베센트, 하워드 러트닉 상무장관, 해싯 위원장을 만나 채권 시장에 대해 논의한 뒤 유예 결정을 내렸다"라고 보도했습니다. 워싱턴 포스트는 "피터 나바로 무역 고문, 제이미슨 그리어 USTR 대표 등은 상대적으로 덜 관여한 것으로 보인다"라고 전했습니다.2. 너무 좋았던 CPI아침에 나온 3월 소비자물가(CPI)는 예상을 훨씬 밑돌았습니다. 헤드라인 물가는 한 달 전보다 0.1% 내렸고요. 전년 대비로는 2.4% 올랐습니다. 예상(0.1%, 2.5%)보다 더 낮은 것입니다. 에너지 물가가 2.4% 떨어진 게 큰 영향을 미쳤습니다. 그중 휘발유 가격은 6.3%나 내렸고요.에너지와 식품을 제외한 근원 물가의 경우 전월 대비 0.1%, 1년 전에 비해선 2.8% 상승했는데요. 역시 월가 예상(0.3%, 3.0%)보다 상당히 낮았습니다. 소수점 둘째 자리까지 따지면 0.06%만 올랐습니다. 주거비가 0.2% 상승으로 둔화한 데다 항공료, 자동차보험, 중고차 물가가 마이너스로 떨어진 덕분입니다. 주거비 상승률은 2021년 인플레이션 급등 이후 가장 낮아졌습니다. 항공료는 2월 -4%에 이어 3월에도 -5.3% 하락했습니다. 항공 예약 감소를 뒷받침합니다. 레크리에이션 물가도 0.1% 내렸는데요. 이는 이례적 현상으로, 임의 지출이 감소하고 있음을 시사합니다.사실상 인플레이션 걱정이 사라진 것인데요. 평소라면 시장은 흥분했을 텐데요. 단기 금리가 약간 떨어지고 주가지수 선물도 하락 폭을 살짝 줄이긴 하지만 반응은 그리 크지 않았습니다.이유는 간단한데요. 3월부터 누적되기 시작한 관세 효과로 인해 앞으로 인플레이션 상승이 예상되기 때문입니다.  3월 중고차 가격이 전월 대비 0.7% 하락했지만, 4월 2일부터 자동차 관세 25%가 부과되고 있는 점을 고려하면 이런 상황은 지속하지 않을 것입니다.아폴로매니지먼트의 토스텐 슬록 이코노미스트는 "이번 데이터에는 '인플레이션 상향의 놀라움'이 없다. 하지만 관세가 계속해서 인상되고 있으며, 이런 관세는 향후 12개월 동안 인플레이션에 최대 1%포인트를 추가할 수 있다"라고 말했습니다.ING는 "보고서는 매우 고무적이다. 성장세가 계속 둔화할 경우 미 중앙은행(Fed)이 금리를 조정할 여지를 제공한다. 그렇지만 Fed는 관세로 인한 물가 상승과 공급망 차질을 경계할 것이며, 악화하는 성장 전망과 인플레이션 둔화 전망을 고려할 때, 올해 서너 차례 금리 인하가 적절해 보인다"라고 밝혔습니다.찰스슈왑의 쿠퍼 하워드 채권 전략가는 "CPI는 예상보다 좋았다. 하지만, 관세 발표 이후의 혼란이 모두 반영되지 않은 과거의 데이터이다. 내일 아침 발표될 3월 생산자물가지수(PPI)는 도매 물가에 관한 것으로 관세가 영향을 미치기 시작했는지 초기 단서를 제공할 수 있다"라고 말했습니다. (내일 PPI와 함께 미시간대 4월 소비자심리지수도 나오는데요. 포함된 장기 인플레이션 기대가 핵심입니다)어쨌든 CPI는 긍정적이었습니다. 골드만삭스는 CPI를 기반으로 이달 말 발표될 근원 개인소비지출(PCE) 물가가 0.13% 올랐을 것으로 추정했습니다. 뱅크오브아메리카는 0.10~0.13% 수준으로 계산합니다.주간 실업급여 청구 건수는 22만 3000건으로 예상과 같았고요. 이전 주보다 4000건 늘었습니다. 아직 연방 정부의 해고와 지출 동결이 미치는 영향은 나타나지 않고 있습니다.3. "중국 관세 125%가 아니라 145%"뉴욕 증시의 주요 지수는 2% 안팎의 하락세로 거래를 시작했습니다. 전날 10%가량 오른 만큼 2% 수준의 내림세라면 나쁘지 않다는 관측들이 나왔습니다. 사실 어제 급반등에는 예상치 못한 트럼프 대통령의 피벗에 급하게 공매도를 메운 '숏커버링'이 상당히 작용한 것으로 분석됐습니다.증시 하락 폭이 커진 것은 오전 11시께였습니다. 언론들이 백악관을 인용해 중국에 대한 누적 관세율이 125%가 아니고, 145%라고 밝힌 게 보도되면서 내림세가 가속했습니다. 트럼프 대통령이 언급한 125%는 상호관세 수준만을 말한 것이며, 펜타닐 사태로 인해 이미 부과한 20% 관세율이 빠진 것이라는 설명입니다. 게다가 트럼프 대통령은 800달러 미만 소포에 부과되는 관세를 더 높였습니다. 이전에는 최소관세(de minimis)가 적용됐던 중국과 홍콩발 소포에 대해 5월 2일부터 소포 가치의 120%를 부과하기로 했는데요. 이는 4월 2일 발표된 30%보다 훨씬 높은 것입니다. 또 우편물당 수수료로 200달러까지 높이기로 했습니다.사실 어제 상호관세가 90일 유예됐지만 10% 보편관세는 발효됐고요. 캐나다와 멕시코에 대한 25% 관세(USMCA 적용 제품 제외)와 자동차, 철강 및 알루미늄에 대한 25% 관세는 부과되고 있습니다. 곧 의약품과 반도체, 목재 구리 등에 대한 관세도 발표될 것입니다.블룸버그이코노믹스에 따르면 중국에 대한 관세율이 더 높아졌고 보편관세 10%가 발효됐기 때문에, 60여 개국에 대한 상호관세가 90일간 유예됐어도 미국의 실효 관세율은 그다지 낮아지지 않았습니다. 특히 소비재에 대한 관세는 유예 전 8.9%에서 유예 후 9.6%로 더 높아졌습니다. 중국 관세 탓이죠.스트레티기스의 댄 클리프튼 정책 분석가는 "어제 관세 유예 발표가 있었고, 처음에는 관세가 크게 인하된 것으로 보였다. 그러나 실제로는 큰 인하가 아니었고, 상호관세 몇 개가 철회되는 대신 중국에 대한 관세가 훨씬 더 많이 추가된 것이었다. 이는 공급망에 더 많은 혼란을 일으킬 수 있다는 의미이다. 투자자들은 이미 그 영향을 계산하고 있다고 본다"라고 설명했습니다.월가 일부는 관세 유예 이후 경기 침체 가능성을 낮췄습니다. 골드만삭스는 65%에서 45%로, 메트라이프는 75%에서 60%로 하향 조정했습니다. 예측시장에서는 60~70% 확률이 50%대로 낮아졌습니다. 하지만 JP모건, 모건스탠리, 시티 등은 침체 예상을 유지하고 있습니다.뱅크오브아메리카는 "우리 계산으로는 4월 2일 발표 당시 예상한 20% 실효 관세율이 이제 23%가 되었지만, 이는 대부분 중국 관세율 인상에 따른 것이다. 그래서 실효 관세율의 범위는 23%보다 훨씬 낮아질 가능성이 크다. 심각한 스태그플레이션 위험이 줄어들 것이며, 경기 침체 위험도 상당히 감소했다. 하지만 불확실성은 여전히 기업에 부담으로 작용할 것으로 보이고, 이번 유예가 소비자에게 미치는 영향은 제한적일 것으로 예상한다. 실효 관세율이 15%가 된다면 인플레이션은 0.4~0.6%포인트 급등하여 3% 중반에 도달할 수 있고, 성장률은 1% 초반과 비슷한 수준으로 하락할 가능성이 크다"라고 밝혔습니다.JP모건은 엄청난 관세로 중국 상품이 수입되지 않는다면 미국의 실효 관세율은 12%가 될 것으로 봤습니다. 그래도 경기 침체 예측을 뒤집지 않았습니다. 마이크 페롤리 이코노미스트는 "무역 정책의 영향은 이전보다 다소 줄어들 것으로 예상되므로 경기 침체 가능성은 작아졌다. 그러나 올해 말에는 실질 경제 활동이 위축될 가능성이 여전히 크다고 생각한다"라고 설명했습니다. 취임 이후 관세 인상은 여전히 3000억 달러 규모의 세금 인상에 해당할 것이라는 겁니다. 페롤리는 "게다가 정책 환경은 기업들의 자본 지출 계획에 여전히 비우호적"이라고 지적했습니다. 또 "90일 유예로 인해 Fed도 더 오래 기다릴 수 있게 됐다"라면서 Fed의 다음 금리 시점을 기존 6월에서 9월로 늦췄습니다.4. 트럼프 "과도기 전환 비용 예상"주가는 시간이 갈수록 떨어졌습니다. 오후 12시 30분께 나스닥의 하락 폭은 7%를 넘기도 했습니다.오후 1시께 트럼프 대통령이 각료회의를 열고 카메라 앞에 섰습니다. 그는 관세에 대해 "과도기적 전환 비용(TRANSITION COST)과 문제가 있을 것으로 예상한다"라면서도 ”우리는 매우 좋은 상황에 있다고 생각한다. 결국, 매우 아름다운 일이 될 것”이라고 강조했습니다. 사실 월스트리트저널(WSJ)은 오늘 트럼프가 유예 결정을 내린 배경에 관한 기사에서 "트럼프 대통령이 참모들에게 '고통'을 감수할 의향이 있다고 말했다. 트럼프는 사석에서 자신의 무역 정책이 경기 침체(recession)를 유발할 수 있다는 점을 인정했지만, 불황(depression)을 초래하지 않도록 확실히 하고 싶다고 말했다"라고 보도했습니다.트럼프 대통령은 또 "첫 번째 협상의 타결이 매우 임박했다"라고 했고요. "합의에 이르지 못한다면 관세는 원래대로 돌아갈 것이다. (90일 유예 연장에 대해) 그때 어떤 일이 일어날지 지켜봐야 한다"라고 유예기간 연장에도 열려 있음을 시사했습니다. 또 "지금은 기업에 대한 면제를 고려하고 있지 않지만 그럴 수도 있다"라고 했습니다. 애플에 관한 이야기이겠죠. 중국에 대해선 "합의할 수 있기를 바란다. 어떤 일이 일어날지 지켜볼 것이다. 나는 시진핑 주석을 매우 존중한다. 양국 모두에게 매우 좋은 결과로 끝날 것으로 생각한다"라고 원론적으로 답했습니다.5.  30년물 경매 좋았는데…금리 급등 이유는?사실 정오께 시장이 흔들렸던 원인 중의 하나는 국채 30년물 경매(220억 달러)를 앞두고 걱정이 있었습니다. 최근 트럼프 대통령의 관세 위협으로 외국인 투자자들이 미국 자산을 팔고 있는 게 아니냐는 관측이 강해졌고, 그게 채권 시장이 흔들린 원인 중의 하나였죠. 그래서인지 뉴욕 채권 시장에서 30년물 수익률은 아침에는 살짝 내리다가 장중 오름세로 돌아섰습니다. 오후 1시 경매 결과 발표를 앞두고는 5bp가량 오른 4.84% 수준까지 올랐습니다.발표된 30년물 입찰 결과는 다행히 좋았습니다.  발행 금리는 4.813%로 결정됐는데요. 발행 당시의 시장금리(WI)인 4.839%보다 2.6bp나 낮게 형성됐습니다. 응찰률은 2.43배로 지난달 경매(2.37배)보다 높았고, 해외 투자자 수요를 나타내는 간접 수요가 61.9%로 역시 지난달(60.5%)보다 좋았습니다.경매 결과가 나온 뒤 채권 시장에서 금리는 하락세를 보였습니다. 그리고 증시도 회복되기 시작했습니다. 하지만 금리 내림세는 오래가지 못했습니다. 다시 금세 상승하기 시작했습니다. 오후 4시 22분께 30년물 수익률은 6.8bp 상승한 4.858%를 기록했습니다. 아침에 내림세를 보이던 10년물도 1.3bp 오른 4.409%에 거래됐습니다. 단기물인 2년물은 9.3bp 급락한 3.857%까지 내렸지만, 장기물들이 다 오름세를 보인 것입니다. 단기물의 경우 CPI 둔화 등으로 Fed에 대한 금리 인하 기대가 커지면서 하락세를 보였지만 장기물은 여전히 불안한 것입니다.웰스파고는 "채권 시장에는 여러 가지 불확실성이 작용하고 있다. 관세 가능성, 인플레이션 상승 가능성, 그리고 최근 며칠간 봐왔던 스트레스 상황과 포지션 청산(unwinds) 같은 변수들이다. 그래서 현재 수준에서 채권 수익률이 크게 더 낮아지긴 어려울 것으로 본다"라고 말했습니다.특히 장기물 수익률에 부정적 영향을 미친 뉴스들이 있었습니다.① 미 재무부가 발표한 3월 재정 수지가 엉망이었습니다. 3월 재정 적자는 1605억 달러에 달해 예상 1450억 달러를 넘었습니다. 2025 회계연도 들어 10월부터 3월까지 6개월 동안을 따지면요. 재정 수입은 2조 2600억 달러(지난해 2조 1800억 달러)로 집계됐는데요. 지출은 3조 5600억 달러(3조 2500억 달러)에 달해 6개월간 재정 적자가 1조3000억 달러(1조700억 달러)로 집계됐습니다. 간단히 말해 수입은 3% 증가했는데, 지출은 10% 늘어나면서 재정 적자가 22%나 커진 것입니다.② 하원에서 트럼프 감세안 등을 담은 예산결의안(budget reconciliation package)을 통과시켰습니다. 이 예산안은 '재정 적자를 더 늘릴 수 없다'라는 공화당 재정 매파의 반대에 부딪어 있었는데요. "하나의 크고 아름다운 법안"을 원하는 트럼프 대통령의 압박으로 공화당에서 2표만 이탈하면서 찬성 216표 대 반대 214표로 통과했습니다. 이 하원 결의안은 향후 10년간 최소 1조 5000억 달러의 지출 삭감과 4조 달러의 감세 계획을 담고 있습니다. 그러면 당연히 재정 적자가 늘어날 수밖에 없습니다. 아직 확정된 것은 아니지만요. 지난달 상원을 통과한 예산결의안과는 약간 다르므로 이를 조정하고 다시 통과시켜야 합니다. 상원의 안은 지출 삭감 규모가 40억 달러에 그치고 5조 달러 이상의 감세를 담고 있지요.③ 정부효율부(DOGE)의 예산 감축에 기대를 걸고 있는데요. 일론 머스크는 오늘 각료회의에서 "낭비와 사기 감소로 인해 2026 회계연도에 1500억 달러의 예산 절감을 예상한다"라고 밝혔습니다. 1조 달러, 2조 달러를 얘기하던 것과는 너무 큰 차이가 납니다.국채 금리가 상승하면서 달러는 큰 폭으로 하락했습니다. ICE 달러 인덱스는 1.75% 하락한 101.10을 기록했는데요. 하루 하락 폭으로는 2022년 이후 가장 큰 것입니다. 달러 대신 엔화, 스위스프랑 등이 크게 올랐고요. 또 다른 안전자산인 금 가격은 3.59% 폭등했습니다. 온스당 3190달러로 최고가 기록을 세웠습니다.금리와 달러가 흔들리면서 주가도 압박을 받았습니다. 하지만 장 막판 매수세가 유입되면서 S&amp;P500 지수는 3.46%, 나스닥은 4.31% 떨어졌고요. 다우 지수는 2.5% 내렸습니다.6. 미국 시장 엑소더스?미국 국채, 달러, 주식이 모두 급락한 것이죠. 외국인 투자자들이 미국 시장을 떠나고 있는 것일까요?유로팩닷컴의 피터 시프 전략가는 "미국 자산이 이렇게 대량 매도되는 건 처음 봤다. 달러, 채권, 주식이 모두 폭락하고 있다. 달러가 스위스 프랑 대비 하루 만에 3.5% 하락한 적이 언제였는지 기억도 나지 않는다. 미국이 세계 경제를 호령하던 시절이 이제 막 끝나갈 조짐"이라고 말했습니다. 래리 서머스 전 재무장관은 현재의 가격 움직임은 "세계 금융 시장에서 미국 자산에 대한 전반적인 반감을 시사한다. 우리는 세계 금융 시장에서 문제 있는 신흥 시장으로 취급받고 있다"라고 밝혔습니다.에버코어ISI의 크리슈나 구하 부회장은 "보기 드문, 흉하고 우려스러운 조합이 나타났다. 30년물 국채 입찰 결과가 꽤 괜찮았음에도 불구하고, 달러, 채권, 주식이 모두 하락하며 자산 시장 전반의 변동성과 스트레스가 다시 나타났다. ‘수익률 상승 + 통화 약세’는 신흥국 시장(EM)에서는 흔하다. 하지만 미국에서는 매우 이례적인 조합이다. 과거 30년 동안,  국채 30년물 금리가 10bp 이상 급등하면서 달러 인덱스(DXY)가 1.5% 이상 하락한 경우는 단 4차례뿐이었다. 특히 기축통화인 달러는 통상 시장 스트레스 상황에서는 강세를 보여왔다.통화 약세, 채권 약세, 주식 약세의 조합은 자본 유출(capital outflow)을 의미한다. 이는 헤지펀드의 디레버리징(레버리지 축소)과 맞물려 작동하고 있다. 흥미로운 점은 외환시장의 스왑금리 스프레드가 확대되지 않았는데, 글로벌 투자자들이 달러 확보가 아닌 달러 자산을 팔고 있다는 얘기다.이는 미국 예외주의(growth exceptionalism)가 사라지고 있으며, 불안정한 미국의 정책 결정, 미국이 구축한 국제 경제 및 안보 질서의 훼손, 성장 둔화와 트럼프의 감세 등으로 인해 기축통화로서 달러 매력도가 약화하고 있음을 반영한다. 여기에 마라라고 협정(Mar A Lago Accords)이나 채권 사용자 수수료(user fees) 등 불확실한 정책 언급도 시장에 부담을 주고 있다.미국은 값싼 글로벌 자본을 너무 당연시하고 있다. 하지만 많은 대외 적자라는 이면을 기억해야 한다. 미국은 영국이 아니지만, 2022년 리즈 트러스 사태와 유사한 장면이 떠오른다. 당시 a) 매수자 ‘보이콧’ b) '멍청이 위험 프리미엄(moron risk premium)'이라는 불명예 c) 금융 시장 내 불붙은 가속 효과가 한데 겹쳤다.오늘 가격 움직임은 일시적 경련(spasm)일 수 있다. 그러나 투자자들은 큰 그림에서 방향 전환(U턴)을 요구하고 있다. 예를 들어, 중국을 제외한 전면적 관세 철회, 혹은 중국과의 협상 재개(혹은 양자 모두) 등이다"라고 분석했습니다.7. 향후 증시 방향은?뉴욕 증시에서는 모든 업종이 약세를 나타낸 가운데 에너지 및 기술 업종의 낙폭이 컸습니다. 테슬라는 7.22% 급락했고, 엔비디아는 5.91% 떨어졌습니다. 애플(-4.23%), 메타(-6.74%), 아마존(-5.17%) 등 다른 빅테크도 큰 폭 하락했습니다. TSMC는 1분기 매출이 2022년 이후 가장 높은 42% 증가한 것으로 나왔는데도 4.8%나 폭락했습니다. 미국 관세가 부과되기 전 AI 서버와 스마트폰 칩 수요가 증가한 데 따른 것이란 관측이 나왔습니다. 국제유가가 다시 반락하면서 엑손모빌(-5.55%), 셰브런(-7.57%) 등도 급락세를 보였습니다.관세 유예 이후에도 변동성은 굉장히 큰 상황입니다. 시장에서는 낙관론과 비관론이 부딪치고 있습니다.스테이트스트리트의 리 페리지 거시전략가는 "정책 불확실성이 높아졌고, 이는 일부 투자와 지출을 억제할 수 있지만, 큰 폭의 경기 침체를 촉발하기에는 충분하지 않을 것이다. 경기 침체에 대한 논의는 매우 시기상조일 것"이라고 주장했습니다. 그는 국채의 급격한 매도에도 불구하고 2008년 세계 금융 위기나 2020년 팬데믹 초기와 달리 회사채 시장은 혼란에 빠지지 않았다고 지적했습니다. 그는 "기업들이 심각한 어려움에 빠지거나 그런 일은 없다"라고 말했습니다.하지만 세븐스리포트의 톰 에세이 설립자는 "관세 유예는 분명히 긍정적이며, 가장 큰 것은 트럼프 풋이 (적어도 현재로서는) S&amp;P500 지수가 4000대 중후반으로 하락할 가능성을 제거한다는 것이다. 하지만 이것으로 변동성이 사라지지는 않는다"라면서 네 가지를 지적했습니다.① 우리는 '절망'을 90일 더 지속하는 불확실성과 지속적 관세 위협, 그리고 정책적 혼란 가능성으로 맞바꿨을 뿐이다.② 경제 성장세는 여전히 둔화하고 있으며 정책 불확실성은 여전히 역풍으로 작용할 것이다.③ 인플레이션은 여전히 상승할 것이며, 10% 관세는 경제적으로 긍정적인 요소가 아니라 다른 방안보다는 나을 뿐이다.④ 스태그플레이션 위험은 감소했지만, 완전히 사라지지는 않았다.기술적으로는 어떨까요? 칼슨그룹에 따르면 1950년 이후 S&amp;P500 지수가 하루 5% 이상 오른 경우가 23회가 있는데요. 다음날, 그리고 일주일 뒤 수익률은 상당히 낮습니다. 단기적으로는 변동성이 크게 유지된다는 겁니다. 하지만 1년 뒤에는 상승확률이 91%에 달하고 평균 수익률이 26.9%에 달합니다.투자자들은 내일 시작되는 1분기 어닝시즌에 대해서도 불안한 눈빛을 보내고 있습니다. 오늘 아침 중고차 소매업체인 카맥스는 예상치를 밑도는 실적을 내놓은 뒤 불확실성을 이유로 재무 가이던스를 철회했습니다. 델타항공, 리바이스 등에 이은 것입니다.뱅크오브아메리카는 "기업들의 실적 가이던스가 상당히 악화되었다. 컨센서스를 넘는 가이던스와 미달하는 가이던스의 비율이 3개월 0.4로 떨어졌는데, 이는 2020년 4월 이후 가장 낮은 수준이고 역사적 평균인 1.0보다 훨씬 낮다"라고 밝혔습니다. 뱅크오브아메리카는 "기업들은 불확실성 속에서 실적 가이던스를 축소하는 경향이 있다"라고 이유를 설명했습니다.모건스탠리자산운용은 "관세 부과 여파는 소비자에게는 가격 상승 형태로, 기업에는 마진 하락의 형태로 나타날 수 있다. 거의 모든 시나리오에서 기업 수익성은 위험에 처할 가능성이 크다.  S&amp;P500 기업의 2025년 주당순이익(EPS) 추정치가 기존 270달러에서 255~260달러로 낮아질 것으로 예상한다. 이로 인해 이로 인해 지수는 5100~5900 사이의 범위에서 거래될 가능성이 크다"라고 분석했습니다.뉴욕=김현석 특파원 realist@hankyung.com</t>
+          <t>K퓨처테크 현장을 가다(3) 서울대 컴퓨터연구소AI가 두뇌라면 컴퓨터는 '몸'지금은 몸이 두뇌 속도 못따라가연산 속도·전력 효율 개선 필요韓·美·中·日 등 글로벌 선진국창의적 컴퓨터 아키텍처 경쟁컴퓨터硏, 새로운 모델 개발 주력중요한 정보에 집중 '어텐션 연산'인간과 상호작용 돕는 '휴먼 AI'서울대 컴퓨터연구소 패러덱스 설비 공간에서 서진욱 서울대 컴퓨터연구소장이 로봇 손과 악수하고 있다. 이곳에서는 인간의 움직임을 여러 대의 카메라로 촬영해 동작을 모사하는 인공지능(AI) 모델을 개발하고 이를 로봇으로 재현하는 기술을 연구한다.   /이솔 기자인공지능(AI)이 두뇌라면 컴퓨터는 AI를 담은 물리적 실체다. 서진욱 서울대 컴퓨터연구소 소장은 11일 “미래의 컴퓨터는 스스로 사고하고 인간과 소통하는 ‘기계 이상의 존재’가 될 것”이라고 말했다. 두뇌의 속도에 따라 몸도 날렵해질 것이란 얘기다. 한국을 비롯해 미국, 중국, 유럽, 일본 등 주요 국가는 ‘창의적인 컴퓨터’를 누가 먼저 내놓느냐는 아키텍처 경쟁에 돌입했다. 인간의 두뇌처럼 적은 전력만으로도 중요한 정보에만 집중함으로써 효율을 높이는 ‘어텐션(attention·집중) 연산’을 비롯해 인간 행동을 모사해 로봇의 움직임을 만들어내는 ‘인간-물체 상호작용(HOI) 모델링’ 등이 주요 경쟁 영역이다. 서 소장을 비롯해 연구소의 핵심인 이재욱, 주한별, 원정담 서울대 컴퓨터공학과 교수는 “컴퓨터가 인류 난제에 도전하고 이를 다양한 영역으로 확장시킬 것”이라고 입을 모았다.◇인간의 두뇌 닮아가는 컴퓨터서 소장은 “생성형 AI 시대에서 나타난 가장 큰 문제는 기존 컴퓨터로는 초대규모 데이터를 처리하는 것이 점점 어려워지고 있다는 점”이라고 말했다. 몸이 두뇌 속도를 못 따라간다는 것이다. 전력을 너무 많이 소모하는 것도 해결해야 할 과제 중 하나다. 이를 위해 서울대 컴퓨터연구소는 AI 연산을 가속화하고 저전력·고효율·고확장 컴퓨팅 환경을 구축하기 위한 새로운 컴퓨터 아키텍처 개발에 주력하고 있다.예컨대 하드웨어(HW)와 소프트웨어(SW)가 최적의 성능을 낼 수 있도록 함께 설계하는 ‘협조 최적화’(co-design)가 대표적인 기술로 꼽힌다. 현재까지의 설계 방식은 ‘따로국밥’ 식이다. HW 엔지니어는 빠르고 안정적인 회로와 장치를 설계하는 데만 주력하고, SW 개발자는 그 위에서 돌아가는 프로그램을 별도로 개발한다. 하지만 AI에 최적화된 컴퓨터를 만들려면 이에 특화된 전용 회로를 설계해야 하고, SW도 AI 모델 구조를 HW가 더 잘 처리할 수 있도록 최적화해야 한다.서 소장은 “일반 컴퓨터가 평범한 자동차라면 서울대가 연구 중인 AI 연산 특화 컴퓨터는 레이싱카처럼 특정 작업을 훨씬 빠르고 효율적으로 수행하는 것이 목표”라고 설명했다.주요 연구로는 어텐션 연산을 빠르게 처리하는 전용 하드웨어 가속기 개발이 꼽힌다. 수조 개의 파라미터(매개변수)를 갖는 어텐션 연산은 딥러닝과 자연어 처리(NLP), 이미지 처리와 같은 AI 분야에서 핵심 역할을 한다. 어텐션 연산은 AI 모델이 데이터 중에서 어디에 집중할지, 무엇이 중요한지를 찾아내고 이에 집중하게 만든다. 책을 읽을 때 중요한 부분에 빨간펜으로 표시해가며 반복해 읽고 이해하는 것에 비유할 수 있다.이재욱 교수는 “어텐션 연산에 최적화된 칩으로 가속기를 만들었고, 측정 결과 연산량과 전력 소비를 기존 컴퓨팅의 절반 수준으로 줄이면서도 정확도를 유지했다”고 말했다. 어텐션 연산은 AI 연구와 개발에서 핵심적인 기술로 자리 잡는 추세다. 구글의 BERT, 마이크로소프트의 터닝 NLG, 페이스북의 RoBERTa, 삼성전자의 스마트폰 음성 인식 기술이 어텐션 연산의 대표 사례다.◇주목받는 로봇 학습 컴퓨팅서울대 컴퓨터연구소가 주목한 또 다른 차세대 연구는 ‘휴먼 AI’다. 서 소장은 “이 연구에는 컴퓨터 비전, 머신러닝, 3차원(3D) 모델링 등이 유기적으로 융합된다”며 “인간의 외형, 동작, 의류, 의사소통, 물체와의 상호작용을 AI가 정밀하게 이해하고 사실적으로 재현할 수 있을 것”이라고 설명했다. 주한별 교수는 연구소 내 연구시설인 ‘패러덱스(pardex)’에서 인간의 움직임을 여러 대의 카메라로 촬영해 인간 동작을 모사하는 AI 모델을 개발하고 이를 로봇으로 재현하는 기술을 연구하고 있다.이 과정에서 강조되는 기술이 HOI 모델링이다. 주 교수는 “HOI 모델링과 70대 이상의 카메라를 활용한 멀티센서 기반 3D 데이터 수집 시스템을 통해 고품질 학습 데이터를 확보하고 있다”며 “AI의 표현력과 적응력을 끌어올릴 것”이라고 말했다. HOI 모델링이 고도화되면 스마트 가전과 홈 오토메이션 분야에서 획기적인 변화가 일어날 것으로 예상된다.HOI 모델링이 적용된 AI는 사람의 동작을 보다 정교하게 이해해 스마트홈 기기가 사용자 행동을 예측하고 자동으로 작동할 수 있다. 사용자가 컵을 집으면 AI가 이를 감지해 정수기에서 물을 채우거나 요리를 시작하면 오븐을 적절한 온도로 설정하는 식이다. 로보틱스 및 스마트 제조 분야, 자율주행과 스마트 모빌리티 등 산업 현장에도 다양하게 적용할 수 있다. 주 교수는 “HOI 모델링을 적용한 협업 로봇은 작업자가 어떤 도구를 사용하려 하는지 인식하고 필요한 도구를 전달하거나 작업의 다음 단계를 예측해 준비한다”고 예를 들었다.◇수백 개 전신 근육도 디지털로 구현인간의 행동을 모방하는 ‘로봇 학습’은 휴머노이드 완성을 위한 필수 기술로 꼽힌다. 불과 몇 년 전까지만 해도 로봇 행동 모델은 코딩에 의존해 왔다. 정해진 대본에 따라 움직이는 배우에 비유할 수 있다. 하지만 인간처럼 미세한 움직임을 로봇으로 구현하려면 아주 사소한 행동 하나라도 구현할 수 있어야 하는데 이를 위해선 로봇이 스스로 행동을 배우도록 하는 것이 핵심이다.주 교수는 “로봇 학습은 동작 모사를 넘어 사람의 복잡한 신체 움직임과 물체를 다루는 방식까지 정밀하게 학습한다”며 “AI 기반 로봇이 실제 환경에서 사람의 역할을 대체하거나 보조할 능력을 갖추도록 하는 데 집중하고 있다”고 했다. 로봇이 인간이 처한 상황과 대화의 맥락까지 이해할 수 있다는 뜻이다. 향후 노동, 의료, 재난 대응, 노인 돌봄 등의 분야에서 큰 사회적 파급력을 가질 것으로 기대된다.근골격 디지털 트윈 모델링 및 시뮬레이션 기술도 컴퓨터연구소가 주목하는 차세대 연구 분야다. 정밀 의료와 헬스케어 분야에 특화된 기술로 인간 신체를 디지털 트윈으로 구현하는 것이 목표다.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>김현석 기자</t>
+          <t>강경주 기자</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/25162</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>이 기사는 관세 정책과 경제 상황에 대한 내용으로, 건강 관련 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
-        </is>
-      </c>
+          <t>https://media.naver.com/journalist/015/68986</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>False</t>
@@ -6056,44 +6188,52 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[민원제로] 1. “제가 그 유명한 진상 민원인입니다만…!”</t>
+          <t>아가, 영양제 챙겨먹었지는 이제 옛말...한국인 건기식 사랑 빠르게 식...</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/It/article/all/20250411/131399215/1</t>
+          <t>https://www.mk.co.kr/article/11289470</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627713?sid=105</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005475060?sid=103</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>스트레스</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>공공기관이나 단체에 불만이나 건의, 개선 사항 등을 제기하는 행위를 ‘민원’이라 합니다. 오늘도 전국에서 수 많은 민원이 제기되고 또 처리되고 있습니다. 스타트업 분야 역시 마찬가지입니다. 스타트업 창업, 운영, 지원 등의 관련 민원이 전국의 거의 모든 지원기관에 다양하게 접수되고 있는데요. 이런 민원은 창업자 또는 민원 제기자 또는 고객의 성향과 감정이 그대로 반영되는 중요한 신호입니다. 이 신호를 어떻게 받아들이고 처리해야 할지 [민원제로] 기획연재를 통해 알아봅니다.연재순서1. 집요한 불만 제기 : “제가 그 유명한 진상 민원인입니다만…”2. 무차별적 난동 : “필요한 사람에게 도움을 줘야지!”3. 충성 고객과 극성 민원인은 같다4. 민원인 유형과 대응 실제5. 불만에 대한 첫 응대가 중요하다6. 핵심성과지표를 분명히 하라7. 고객의 자발적 참여를 도모하라8. 나도 누군가에겐 민원인이다스타트업 지원 업무를 하면서 다양한 민원인을 만났다. 대부분 스타트업 쪽에서 문제를 제기하는 경우다. 필자는 그 동안 ‘민원’의 ‘민’자도 모르고 살다가, 스타트업 지원 기관에 와서 멱살도 잡혀보고 황당한 협박도 당해봤다. 최근 들어 민원 처리와 관련해 불미스러운 일이 발생하며 사회 문제로 대두되면서, 필자가 경험한 민원 사례를 토대로 민원 제기자에게든 민원 처리자에게든 스트레스를 줄이는데 조금이나마 도움이 되고자 한다.어느 날 정부의 창업 지원 사업에서 탈락한 한 사람이 전화를 걸어와, 탈락한 이유를 모르겠다면서 강한 불만을 제기했다. 자신은 해당 분야의 전문가로서 자신이 탈락한 이유가 무엇인지 궁금하다는 것이었다. 사업 심사위원 정보를 막무가내로 알려달라고 했고, 그들의 심사 결과를 신뢰할 수 없다고도 했다. 그렇게 30분 동안 격양된 목소리로 불만을 토로했다.출처=픽사베이일단 이 ‘민원인’의 토로를 끝까지 잘 들었다. 매번 탈락해서 억울하겠다고 공감도 했다. 이 민원인이 제기한 내용을 어느 정도 파악한 후, 그가 제출한 사업계획서와 심사위원 평을 직접 확인하겠다고 응대했다. 그랬더니 다소 누그러진 말투로 감사하다고 했다.그런데 그가 갑자기 ‘제가 바로 그 유명한 진상 민원인입니다.’라고 밝혔다. 깜짝 놀랐다. 그는 타 기관 다른 사업에서 탈락한 적 있는데, 강한 의의 제기로 해당 기관을 거의 박살(?)냈다는 무용담을 전했다. 그런 ‘진상 민원인’ 다짜고짜 필자를 찾아오겠단다. 갑자기 소름이 돋았다. 그날 퇴근하는 내내 마음이 무거웠고, 잠도 오지 않았다.일단 필자는 이 민원인의 사업계획서에 대해 심사위원들이 남긴 심사평을 하나하나 자세히 확인했다. 심사평과 사업계획서를 비교하며, 심사위원별로 어떤 부분이 부족하다고 평가했는지 연상해 봤다. 또한 사업계획서에서 빈약한 부분과 보유 기술의 수준도 필자 나름대로 유추하며 다각도로 검토했다. 이내 그의 사업계획서에서 보강이 필요한 부분을 찾아냈다.본인 스스로 유명한 진상 민원인이라 소개한 그가 우리 기관을 방문하는 날, 정말 긴장됐다. 막상 얼굴을 보고 인사하자마자 식은땀이 흘렀다. 그래도 필자는 이미 사업계획서를 정밀하게 분석했기에, 두려움을 떨치고 일단 자신감 있는 태도와 말투로 응대했다. 필자는 이 민원인에게 최선을 다해 응대했다고 생각한다. 물론 필자가 보기에도, 그는 정부 지원 사업에 선정되기에는 부족함이 많은 듯했다. 그런 상황을 최대한 부드럽게 언급했다. 그리고 사업계획서를 이렇게 저렇게 바꿔보라고도 조언했다. 그의 사업이 선정될 가능성이 좀더 높은 다른 지원 사업 몇 가지도 추천했다. 결국 헤어지면서 그 진상 민원인은 연신 웃으면서 감사하다는 말을 전했다.필자는 그에게 네 가지 대응을 했다. 1) 민원인의 사업계획서와 심사평을 시간 내서 분석한 것이다. 2) 그와 대면했을 때 그의 말을 끊지 않고 최대한 귀 기울여 경청했다. 3) 그와 이야기를 나누면서 그에게 도움될 만한 정보를 최대한 많이 전달하려 노력했다. 마지막으로, 4) 이후에 사업 진행 시 어려움이 있으면 편하게 연락하라는 말도 잊지 않았다.그를 만나기 전까지 진상 민원인을 대하는 방법의 정답이 무엇인지 알지 못했다. 또한 그의 입맛에 맞게 대응할 수 있을지 확신할 수도 없었다. 다만 필자는 그를 막연히 달래려 하거나, 그렇다고 대충 적당히 대하려 하지도 않았다. 민원인 눈치를 보면서 탈락 사유의 정당성을 강조하려는 태도로 수습하려 하지 않았다. 민원인이 일부러 시간 내서 찾아온 상황이기에 내 시간 만큼 그의 시간도 소중하다고 여겼고, 필자와의 만남이 그에게 조금이라도 도움이 되길 기대하면서 그의 목소리를 경청했다.이런 진상 민원인이 아니더라도, 우리가 누군가와 진정한 소통을 하려면 어떤 부분에 신경 써야 할지 고민해보길 권한다. 자신이 맞이하는 상대 또는 고객의 유형을 떠올려 보고, 그들에게 무엇이 필요한지 깊이 생각해보자. 물론 그리 한다 해도 민원인의 불만은 수그러들지 않을 수 있다. 하지만 그가 필요로 하는 부분을 지속적으로 공부하고 새로운 방법을 모색하다 보면, 이 진상 민원인의 사례처럼 그가 함빡 웃는 상황을 맞이할 수 있으리라. 모든 것은 늘 처음이 힘들다. 막연하다고 여기지 말고 상대에게, 고객에게 다가가 (내가 아닌) 그를 중심으로 소통을 시작하자.글 / 김영준 ( 3dbiz@naver.com )서울창조경제혁신센터 혁신사업실 실장. 스타트업의 글로벌 스케일업, 대기업 연계 오픈이노베이션, R&amp;D 지원 등 다양한 스타트업 지원 사업을 맡고 있다. 국내 주요 대학이나 대기업, 여러 기관 등 대상으로 기술 트렌드, 글로벌 진출, 기업가정신 등의 주제로 100회 이상의 강연을 진행했다. 중소벤처기업부 장관상, 과학기술정보통신부 장관상 등 수상. 주요 저서로, [3D프린팅 스타트업], [하드웨어 스타트업], [가상현실을 말하다], [민원제로] 등이 있다.정리 / IT동아 이문규 (munch@itdonga.com)</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+          <t>서울 중구 명동 CU 편의점에서 방문객들이 건강기능식품을 살펴보고 있다. 2025.3.12 [사진 = 연합뉴스]40대 직장인 윤 모씨는 최근 가족들이 복용하는 영양제를 확 줄였다. 치솟는 물가에 지출 줄일 곳을 찾다 보니 가장 먼저 눈에 띈 것이 건강기능식품이었다. 윤씨는 “온 가족이 몇 년간 매일 먹어온 비타민C와 오메가3를 빼고, 남편 챙겨 주던 비타민B 영양제와 홍삼도 끊기로 했다”면서 “부모님께 보내드리는 종합비타민과 연골 영양제는 차마 줄일 수 없어서, 딸이랑 먹던 콜라겐을 중단했다”고 말했다.한국인의 유난한 ‘건기식 사랑’이 식어가고 있다. 이 시장 큰손인 3050 여성들이 지갑을 닫고 있다. 온 가족 영양제를 구매하고, 명절이나 어버이날 선물로 건기식을 찾는 핵심 고객층이다. 고령층도 주요 고객인데, 건기식 시장이 온라인 위주인 데다 노인 맞춤형 제품군이 많지 않아 좀처럼 수요가 늘지 않는다. 건강에 관심이 많은 젊은층은 ‘해외 직구’로 눈을 돌렸고, 단백질 보충제 등 특정 제품군에만 몰린다.지난해 건기식 시장 규모는 6조440억원으로 2019년 4조8936억원 대비 23.5% 증가했다. 하지만 최근 성장률을 보면 2021년 10%에서 2022년 8.1%, 2023년 -0.1%, 2024년 -1.6%로 꺾였다.제약바이오 업계는 물론 식품, 화장품 기업들까지 뛰어들며 내수 시장이 빠르게 포화한 점도 발목을 잡았다. 건기식은 사실상 진입 장벽이 없는 데다 즉각적인 매출 창출도 용이하다. 한 제약업계 관계자는 “의약품은 몇 년 단위로 효능과 안전성을 재입증해야 하고 개발에 시간과 비용이 많이 소요된다”며 “반면 건기식은 다른 상품군 대비 마진율이 높고, 고객들이 꾸준히 복용하는 경우가 많아 여전히 매력적인 시장”이라고 전했다.매년 600곳씩 사업자가 늘고 있지만, 아직도 많은 기업이 시장 진출을 준비 중이다. 최근 압타바이오, 박셀바이오, 신신제약 등이 정관 변경을 통해 건기식을 사업목적에 추가했다. 이미 건기식 브랜드를 다수 보유한 신신제약은 제조·판매 등으로 건기식 사업을 확대한다는 구상이다.KT&amp;G 산하 KGC인삼공사의 정관장을 비롯해 CJ제일제당의 CJ웰케어, hy의 야쿠르트 및 쉼, 농심 라이필, 빙그레 tft 등도 건기식을 내놓고 있다. LG생활건강과 아모레퍼시픽 등 뷰티 업체들도 홍삼 브랜드는 기본으로 갖추고 있을 정도다.삼양식품은 지난해 10월 말 오너 3세인 전병우 상무가 주도한 신사업으로 식물성 헬스케어 브랜드 잭앤펄스를 선보였다. 불닭볶음면 의존도를 낮추기 위한 전략으로, 건기식과 간편식, 단백질 음료 등을 선보였다.주얼리 기업 제이에스티나는 지난달 건기식·건강보조식품 개발·제조·판매업을 정관에 추가했다. 지난해 영업손실 26억원을 기록하는 등 실적 부진을 겪자 사업 다각화에 나선 것이다.무한 경쟁은 한동안 이어질 전망이다. 한 식품업계 관계자는 “제약부터 식품, 화장품까지 건기식에 도전하고 있는데 아직 절대 강자는 없는 상황”이라며 “우리가 팔 수 있는 공간이 있으면 어디든 들어가는 게 맞다고 본다”고 말했다.제약업계도 건기식 사업을 강화하며 시장 수성에 나섰다. 한독은 최근 건기식 사업 부문을 분할해 신설회사를 설립하기로 결의했다. 신설법인을 통해 건기식 사업의 전문성을 강화해 시장을 넓힌다는 계획이다.휴온스그룹도 건기식사업부를 오는 5월 자회사인 휴온스푸디언스에 흡수 합병시키기로 했다. 기존에 휴온스와 휴온스푸디언스로 분리됐던 건기식 사업을 휴온스푸디언스로 합치는 사업구조 개편으로 전문성과 경쟁력을 끌어올린다는 구상이다. 국내 대표 바이오기업인 셀트리온 역시 건기식 사업 진출을 저울질하고 있다. 올해 초 서정진 셀트리온 회장은 “투자 대상으로 인삼과 홍삼 등 건기식을 눈여겨보고 있다”고 밝힌 바 있다.국내 시장이 포화된 단적인 증거는 ‘건기식의 황제’로 군림했던 홍삼 매출이 몇 년째 감소하고 있다는 점이다. 정관장을 보유한 KT&amp;G의 건강기능식품 사업부문은 지난해 매출액이 전년 대비 6.6% 감소한 1조3016억원, 영업이익은 17.7% 줄어든 964억원을 기록했다.정관장은 국내 수요 감소를 해외 확장으로 메우려는 분위기다. 지난해 정관장의 미국 아마존 매출은 전년 대비 27% 늘었다. 미국 코스트코 매출도 9% 상승했다. 중국은 더 성장세가 가파르다. 티몰·징둥닷컴 등 온라인 플랫폼과 프리미엄 마트 올레, 창고형 마트 샘스클럽 등에도 입점해 있다. 정관장의 일반의약품 채널 매출 및 온라인 플랫폼 매출은 지난해 60% 넘게 성장했다. 정관장이 일본 드러그스토어에서 올린 매출액은 전년 대비 21%, 코스트코는 58% 상승했다.CJ웰케어 역시 미국 아마존에 진출하는 등 해외 진출에 노력을 기울였다. 하지만 지금은 아마존에서 빠지고, 동남아시아 온라인몰 위주로 운영하는 등 해외 시장 확대에 난항을 겪고 있다. 지난해 CJ웰케어 매출은 700억원 전후이며 영업손실이 62억원으로, 3년 연속 적자다.제약업계를 중심으로 개별인정형 원료를 통해 시장의 돌파구를 찾으려는 움직임도 활발하다. 개별인정형 원료는 건기식 공전에 등재되지 않은 신규 개발 원료로, 식품의약품안전처가 개별적으로 기능성을 인정한다. 개별인정형 원료로 인정받으면 6년간 해당 원료의 제조·판매권을 독점할 수 있다.개별인정형 건기식의 신규 등재 건수는 2018~2021년 연간 20건 수준에서 2022~2024년엔 연간 40건으로 올라섰다. 치열한 경쟁 속에서 제품의 차별화를 도모하기 위한 수단이자 새로운 건기식으로 소비자 수요를 잡기 위한 노력이라는 평가다.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>김지희 기자</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/79674</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>스타트업 지원 민원 사례를 통해 민원 처리의 중요성과 대응 방법을 다룬 기사입니다.</t>
+          <t>기사는 건강기능식품 시장의 포화 상태와 기업들의 사업 확장 노력에 관한 내용으로 건강 관리와 직접적 연관이 적습니다.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6105,52 +6245,52 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>이유 있는 '한덕수 차출론'…민주당 재탄핵 '만지작' [이슬기의 정치 번...</t>
+          <t>오늘 오후 5시 이사하는 尹…관저·사저 인근서 잇단 집회 예고</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/2025041161817</t>
+          <t>https://www.joongang.co.kr/article/25327850</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118274?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433511?sid=102</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>수면</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>당 안팎에서 출마 촉구…'한덕수 차출론' 현실화'반이재명' 상징·경제통·호남 출신…대안으로 부상'재탄핵'이 정국 변수…사퇴 및 출마 명분 제공할 수도한덕수 대통령 권한대행 국무총리가 11일 서울 서대문구 국립대한민국임시정부기념관에서 열린 대한민국임시정부 수립 106주년 기념식에서 기념사를 위해 연단으로 향하고 있다. / 사진=연합뉴스국민의힘 내에서 '한덕수 대선 차출론'이 본격적으로 수면 위로 떠 올랐습니다. 당 밖에서 시작된 출마 요구는 이제 당 안으로 번지며 '현실 정치' 안으로 들어오는 모습입니다. '한덕수 출마'가 막연한 정치적 상상력의 영역이 아닌, 본격적인 정치 셈법의 주제로 떠오른 것입니다.11일 정치권에 따르면, 지난 며칠 사이 당 밖에선 한덕수 대통령 권한대행 국무총리에 대한 출마 촉구가 이어졌습니다. 전날 국민의힘 호남지역 원외 당협위원장들이 국회를 찾아 한 총리의 출마를 공개적으로 촉구한 데 이어, 이날은 대학생 단체인 신전국대학생대표자협회(신전대협)가 같은 요구를 하고 나섰습니다.이들은 "전북 출신의 한덕수는 그 자체가 '컨벤션'"이라며 "참여정부부터 지금에 이르러 진영논리에 매몰되지 않은 한 대행에게 대한민국의 위기 앞, 조용한 결단이 필요한 시기"라고 주장했습니다.당내에서도 한 총리가 공개적으로 거론되기 시작했습니다. 권성동 국민의힘 원내대표는 이날 국회에서 기자들과 만나 '한 대행 대선 출마가 적절하다고 보느냐'는 질문에 "좋다고 생각한다"고 밝혔습니다. 권 원내대표는 "경쟁력 있는 후보가 우리 당 경선에 많이 참여하는 것은 컨벤션 효과도 높이고, 국민으로부터 많은 관심을 받게 돼 나쁘지 않다"고 했습니다.박수영 의원도 전날 자신의 페이스북을 통해 "이 높은 경제 파고를 넘으려면 통상교섭본부장과 주미대사까지 역임한 한 총리가 최적"이라며 출마를 촉구했고, 김도읍 의원도 공개적으로 한 총리에게 경선 러브콜을 보내며 "지금처럼 통상과 경제 이슈가 핵심인 시기에, 한덕수 총리 같은 전문가가 필요하다"고 말했습니다.◇가능성 '0'인 줄 알았는데…"풍요 속 빈곤"에 결국 수면 위로사실 한 총리 차출설은 여의도에서 완전히 새로운 이야기는 아닙니다. "한덕수 총리가 10년만 젊었더라면..."이라는 말은 12·3 계엄 직후부터 당내 일각에서 나오기 시작했으니까요. 하지만 윤석열 전 대통령 탄핵 전까지만 하더라도 이는 현실성 없는 '정치적 상상력'의 영역으로 치부됐습니다.그러나 조기 대선 정국이 본격화하면서 상황은 급변한 것으로 보입니다. '한덕수 출마론'이 진지한 토론의 대상이 된 것입니다. '한덕수 차출론'이 힘을 얻는 배경엔 국민의힘 난맥상이 있습니다. 지금까지 출마 의사를 밝힌 후보자는 모두 10여명에 달하지만, '1강'으로 꼽히는 이재명 더불어민주당 대표를 대적할 만한 인물이 보이지 않고 있기 때문입니다. 한 국민의힘 관계자는 이들 후보군을 두고 "그야말로 풍요 속 빈곤 아니냐"고 평가하기도 했습니다.기존의 후보들이 '참신함이 없다'라거나, '경험이 없다'라거나 하는 뚜렷한 한계를 보이는 것과 비교하면, 한 총리는 여러 정치적·상징적 무기를 갖춘 인물로 평가됩니다. △민주당의 탄핵 대상이었던 만큼 '반이재명 전선'의 상징성을 지니고 있다는 점 △헌법재판소의 탄핵소추안 기각으로 복귀한 만큼 정당성 논란에서 자유롭다는 점 △호남 출신이라는 상징성이 있다는 점 △미·중 관세 전쟁의 위기 상황에서 경제통이라는 점 등이 강점으로 꼽힙니다.실제로 최근 여론조사에 '한덕수'가 등장하기도 했습니다. 한국갤럽이 지난 8~10일 전국 성인 남녀 1005명을 대상으로 실시한 여론조사(95％ 신뢰수준에 표본오차 ±3.1％포인트, 자세한 내용은 중앙선거여론조사심의위원회 홈페이지 참고)에서, 한 총리는 대선 후보 선호도 2%를 기록하며 처음 등장했습니다. 특히 국민의힘 지지층 내에서는 6%를 얻으며 오세훈 서울시장과 동률을 이뤘습니다.한 총리의 '대선 출마' 여부를 가를 가장 결정적인 변수는 민주당의 탄핵 재추진 여부가 될 것으로 보입니다. 대통령이 부재한 상황에서 국정을 책임지는 총리를 대상으로 또다시 탄핵이 추진된다면, 이는 곧 사퇴 명분이자 출마의 디딤돌이 될 수 있기 때문입니다. 정치권에서는 '민주당의 재탄핵이 오히려 한 총리를 대선판으로 떠미는 트리거가 될 수 있다'는 이야기도 나옵니다.한 국민의힘 관계자는 이와 관련 "어제까지는 현실성이 없다고 생각했는데, 가만히 생각해보니 맞아떨어지는 퍼즐들이 꽤 있더라"라며 "민주당이 어떤 정무적 판단을 내릴지에 달려 있다"고 말했습니다.</t>
+          <t>윤석열 전 대통령(왼쪽)이 지난 8일 오후 서울 용산구 한남동 관저에서 산책하고 있다. 김종호 기자윤석열 전 대통령이 파면된 지 일주일 만인 11일 서울 한남동 관저에서 나와 서초동 사저로 거처를 옮긴다. 윤 전 대통령 지지자와 반대 단체들은 관저와 사저 인근에서 찬반 집회를 열 계획이다.시민단체 촛불행동은 이날 오전 서울 용산구 한남동 관저 인근 볼보빌딩 앞에서 2만명 규모(경찰 신고 기준)의 윤 전 대통령 구속 촉구 집회를 연다. 국민주권당도 오후 4시 같은 장소에서 집회를 열고 윤 전 대통령의 조속한 퇴거를 촉구한다.윤 전 대통령 지지자들도 관저 인근으로 모인다. 자유대한국민연대는 이날 오전, 보수 유튜버 신의한수 등은 오후 3시 볼보빌딩 앞에서 윤 전 대통령 응원 집회를 열겠다고 신고했다.사저인 서초구 서초동 아크로비스타 인근에서도 집회가 예고됐다. 오전 11시 진보 유튜버 정치한잔 등이, 오후 3시쯤에는 보수 유튜버 벨라도 등이 각각 50명, 5000명 규모의 집회를 신고했다. 일부 윤 전 대통령 지지자들은 한남동 관저에서 서초동까지 '인간띠'를 만들겠다고 예고하기도 했다.집회는 관저 퇴거 시점인 오후 5시 이후부터 헌법재판소 인근으로 옮겨간다.국민의힘비대위갤러리는 오후 6시 안국역 인근 노인복지센터 앞에서 '헌법재판소 국가 장례식 발인 집회'를 하고, 내란청산·사회대개혁 비상행동은 오후 7시 30분 경복궁 서십자각에서 '내란 종식 긴급행동'을 벌인다. 각각 200명과 1만명을 참가 인원으로 신고한 이들은 집회 후 도심을 행진할 계획이다.윤 전 대통령은 이날 오후 5시 한남동 관저를 떠나 서초동 사저로 이주한다. 그가 관저 또는 사저 앞에서 지지자들에게 인사를 할 가능성도 있다.대통령경호처는 약 40명 규모의 사저 경호팀 편성을 마친 것으로 알려졌다. 윤 전 대통령은 '대통령 등의 경호에 관한 법률'에 따라 앞으로 최대 10년까지 대통령경호처의 경호를 받을 수 있다.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>이슬기 기자</t>
+          <t>정혜정 기자</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/79851</t>
+          <t>https://media.naver.com/journalist/025/73060</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>정치적 출마와 관련된 기사로 건강 정보와 관련성이 없습니다.</t>
+          <t>이 기사는 정치적 집회와 윤 전 대통령의 거처 이동에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6162,52 +6302,44 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>뉴욕 허드슨강 추락 헬기 탑승자는 ‘지멘스 CEO’ 가족</t>
+          <t>[광화문·뷰] 어느 79세 청년의 죽음</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Inter/article/all/20250411/131397815/2</t>
+          <t>https://www.chosun.com/opinion/2025/04/11/L4QMNKUTIVHADO7WXWGZQDNIMA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627702?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898851?sid=110</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>수면</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4·5·11세 어린이 자녀 모두 사망탑승 전 일가족 밝게 웃으며 사진데일리메일/뉴욕헬리콥터투어LCC미국 뉴욕 허드슨강 ‘관광 헬리콥터 추락 사고’로 숨진 일가족(5명)의 신원이 확인됐다.11일 영국 데일리메일은 사망자 중에 세계적인 기술 기업  지멘스(Siemens)의 고위 임원과 그의 아내, 세 자녀가 포함돼 있었다고 보도했다. 헬기를 조종하던 36세 조종사도 함께 숨졌다.이 사고는 뉴욕 현지 시간으로 10일 오후 3시 15분경, 맨해튼 남부 끝자락에 있는 허드슨강 뉴저지 쪽에서 발생했다. 탑승자 전원인 6명이 숨졌다.사망한 일가족은 스페인 바르셀로나에서 이날 아침 일찍 관광을 위해 뉴욕에 도착했다. 사망자는 ‘아구스틴 에스코바르’와 아내 ‘메르세 캄프루비 몬탈’, 그리고 각각 4세, 5세, 11세인 세 자녀다.데일리메일/뉴욕헬리콥터투어LCC아내는 스페인 유명 인사의 손녀숨진 남편 에스코바르는 지멘스 모빌리티의 철도 인프라 부문 CEO이며, 스페인 지사 사장을 역임했다. 그는 1998년부터 2010년까지 스페인에서 에너지 부문을 중심으로 다양한 직책을 맡았다.  스페인 주재 독일 상공회의소 부회장도 역임했다.아내 메르세 역시 지멘스 에너지에서 글로벌 커머셜 관리자로 근무했다. 그는 바르셀로나 FC의 회장을 지낸 아우구스티 몬탈 갈로바르트의 증손녀이자, 카탈루냐 클럽의 감독을 맡았던 아우구스티 몬탈 코스타의 손녀이기도 하다.사고 직전, 이 가족이 헬리콥터 탑승 전 활주로에서 촬영한 사진이 공개되며 안타까움을 더하고 있다. 세 아이들은 탑승 전 밝게 웃는 모습으로 엄마 아빠와 꼭 안고 사진을 찍었다. 탑승 후에 헬기 안에서 찍은 사진도 공개됐다.“연료 부족해” 착륙 하려던 차에 사고사고 헬리콥터는 월스트리트 헬리포트에서 이륙해 자유의 여신상을 선회한 뒤 조지워싱턴 다리 방향으로 비행 중이었다. 이륙 후 약 16분 만에 헬기가 기체 손상과 함께 수면 위로 추락한 것으로 확인됐다.정확한 사고 원인은 아직 밝혀지지 않았지만, 이륙 직후 연료 부족 경고를 받은 조종사가 비상 착륙 요청을 했던 것으로 나타났다. 그러나 예정된 착륙 지점에 도달하지 못한 채 추락한 것으로 전해졌다.사고 헬기는 지역 관광 전문업체 ‘뉴욕 헬리콥터’의 벨206L-4 기종(N216MH)이다. 투어 헬기 소유주인 마이클 로스는 여행을 시작한지 몇 분 만에 항공기 연료가 바닥났다고 말했다.그는 “조종사가 착륙 중이며 연료가 필요하다고 전화했는데, 도착하는 데 약 3분이 걸릴 예정이었지만 20분이 지나도 도착하지 않았다”고 설명했다.“천둥 소리인 줄” 엄청난 폭음 뒤 추락사고 당시 뉴욕은 흐리고 바람이 부는 날씨였다.목격자들은 “헬리콥터가 두 동강 나며 급속히 추락했고, 엄청난 폭음이 들렸다”고 증언했다. 한 목격자는 “천둥 소리인 줄 알았는데, 10초 후에 헬리콥터가 떨어지는게 보였다. 그러고 나서 큰 물보라를 일으키며 물속으로 가라앉았다”고 설명했다.시신은 모두 인양됐지만, 기체 일부는 여전히 회수되지 않아 11일 추가 잠수 수색이 이어질 예정이다.뉴욕시 에릭 아담스 시장은 “희생자 가족들에게 깊은 애도를 전한다”며 “모든 구조 작업이 종료됐으며, 현재 원인 규명을 위한 조사가 진행 중”이라고 밝혔다.</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>박태근 기자</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/020/78665</t>
-        </is>
-      </c>
+          <t>시위 함성에 묻힌 분신 사건성공한 사업가는 왜?공동체와 미래에 대한 걱정순정한 마음은 폄하 말아야대통령 탄핵 찬반 시위가 한창이던 지난 3월 7일 정오, 덕수궁 근처 서울도시건축전시관 노천 옥상에서 79세 남성이 분신을 했다. 기사에는 그 남성이 “윤석열 대통령 만세”라고 적힌 유인물을 뿌렸다고 쓰여 있었고, 악플이 어마어마했다. 그는 12일 후 사망했다.지하철에서 정치 유튜브를 크게 틀어놓는 그런 어르신이었을까. 대체 왜. 수소문 끝에 그의 동창 세 분을 만났다. 우리 사회 엘리트들이었다. 그들이 서로 ‘팩트체크’ 해가며 이야기를 들려줬다.1946년생 K씨는 함흥에서 월남한 기독교 가정에서 자랐다. 경복고에는 남들보다 한 해 늦게 입학, 말썽쟁이들에게 밥 사주고 타이르던 형 같은 동급생이었다. 연세대 졸업 후 교사를 하다 제조업체를 차려 성공했다. 경기도 부천의 작은 교회 시무 장로로 은퇴할 때까지 목사와 함께 교회를 일으켰고, 서초동 자택 근처 작은 교회를 다니면서도 비슷했다. 기부와 봉사, 배려의 일화가 계속 나왔다. 지난 3일 K는 무신론자인 친구에게 전화를 했다. “내 소망은 네가 교회에 나가는 것”이라며 책을 보냈다. 제목이 ‘예수’였다.지난 3월 6일 밤, 그는 자기 마음을 적었다. “저는 젊어서 진보였습니다. 김대중씨를 좋아했고, 노무현 대통령에게 한 표 찍었습니다. 그런데 나이가 들면서 미선이, 효순이 미군 탱크에 의한 교통사고와 광우병 사건, 세월호 사건을 보면서 의심이 들기 시작했습니다. 뒤에 숨은 종북 세력들의 음모가 엄청났습니다. 이제는 좌우의 문제가 아니고 옳고 그름의 문제인 것입니다….” 글은 종북 세력 확산과 자유민주주의·신앙의 자유에 대한 걱정으로 이어졌다. 선관위에 대한 불만을 적었지만, 부정선거론을 맹신하지도 않았다.7일 아침, K는 영정으로 쓸 사진을 액자에 넣어 책상에 올려두고 집을 나섰다. 배낭에는 문서 서른 장과 시너가 담긴 페트병 두 개가 들어 있었다. 오전 11시 59분, 그는 라이터를 켰다.말수가 적고, 주장이 많지 않던 그는 ‘윤석열 대통령 탄핵 반대’ 시위에는 꼬박꼬박 나갔다. 한 동창이 이유를 물었다. “(민주주의를 지키자는) 저 소리가 듣고 싶어서 그래.”정치적 주장에 목숨을 걸어서는 안 된다. 하지만 어떤 사람들은 그런다. 70, 80년대 대학생들이 그랬다. 그들에게는 민주 투사, 열사 호칭이 붙었다. 70여 년 모범 시민으로 산 남성은 기사 속 익명으로 남을 뿐이다. 그의 주장이 기득권에 대한 저항이 아니라 우파적이고, 그가 청년이 아니고 노인이기 때문이다.헌재는 그의 바람과는 다른 결론을 내놨다. 정치 공학을 아는 이들은 “보수가 깔끔하게 윤석열을 버렸으면 대선이 조금 더 유리해졌을 것”이라고, 시간을 끈 것은 ‘낭비’라고 지적한다. 동의하지 않는다. 거리의 주장 때문에 탄핵으로 가는 길에 많은 ‘논쟁’이 일어났다. 영장 청구권, 수사권, 헌재 심판의 절차적 정당성을 두고 갑론을박했다. 민주주의는 ‘절차의 전쟁’이라는 걸 알게 됐다. 그래서 한덕수, 이상민, 박성재가 돌아오고, 이재명 2심은 무죄가 나고, 윤석열은 돌아오지 못하는 결과를 그 많은 대중이 수용할 수 있었다.여유로운 노년을 보내기에 부족함이 없던 K가 왜 꼭 그랬어야 하는지 아직도 친구들은 정확히 이해하지 못한다. “며칠 전 새벽 기도를 갔다가 부름을 받은 것 같다” “괴물 같은 한국 정치에 휩쓸리고 말았다” “윤석열이 아니라 민주주의와 종교를 지키려는 자발적 순교였다.”분신 직전, K는 단톡방 몇 군데에 메시지를 보냈다. “사랑합니다.” “사랑해요.” 79세 K에게는 미래를, 공동체를 생각하는 청년의 마음, 그게 있었다. 그의 영혼이 안식처에 이르렀길 빈다.정치적인 이유로 극단적인 선택을 하기 전, K씨가 떠올린 건 사랑하는 이들이었다. /K씨 지인 제공</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>뉴욕 헬리콥터 추락 사고로 숨진 일가족의 안타까운 사연과 사고 원인 조사 중임을 보도.</t>
+          <t>정치적 사건과 관련된 기사로 건강 관리 및 보험 상담에 활용하기 적절하지 않습니다.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6219,54 +6351,50 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>대만서 발견된 턱 뼈 화석, 데니소바인으로 확인</t>
+          <t>천안시 “인구 늘리기 정책에 1.5조 투입”</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/economy/science/2025/04/11/ATOVHIT6Q5DDXIRX6W6OJ6S4BU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.donga.com/news/Society/article/all/20250410/131391852/2</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898995?sid=105</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627578?sid=102</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>수면</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>데니소바인의 것으로 확인된 턱뼈 화석 '펑후 1'의 모습과 발견 장소를 표시한 지도./Takumi Tsutaya대만에서 발견된 의문의 턱뼈 화석이 멸종한 인류의 조상 ‘데니소바인(Denisovan)’의 것으로 밝혀졌다. 데니소바인의 화석은 지금까지 추운 지방에서만 발견됐는데 이번 발견으로 이들이 다양한 기후대에서 생활했다는 사실이 확인된 것이다.일본 종합연구대학원대학(SOKENDAI) 츠타야 다쿠미 교수가 이끄는 국제 연구팀은 대만과 중국 사이 펑후해협에서 발견된 호미닌(사람족)의 아래턱뼈 화석(펑후 1)을 분석한 결과 데니소바인 특유의 단백질 변이체가 확인됐다고 10일 밝혔다. 이번 연구 결과는 과학 저널 사이언스(Science) 최신호에 게재됐다.이 화석은 2008년경 펑후해협에서 어업을 하던 낚시꾼에 의해 발견돼 대만의 한 개인 수집가의 손에 들어갔다가 타이중의 국립자연사박물관에 기증되면서 세상에 알려졌다. 학자들이 연구에 나선 것은 2015년부터다.연구팀은 먼저 연대 측정을 통해 펑후 1이 19만~13만년 전 또는 7만~1만년 전에 살았던 조상 인류의 것으로 추정했다. 화석이 발견된 곳은 홍적세(Pleistocene) 동안 수면이 낮아 아시아 본토의 일부였던 곳으로 확인됐다.다음으로는 화석에서 단백질을 추출해내 고대 생물의 유전적·생물학적 정보를 연구하는 기술인 ‘고대 단백질체 분석법’을 통해 펑후 1의 정보를 자세히 조사했다. 펑후 1에서는 아미노산 일부인 아미노산 잔기(amino acid residues)가 4241개 검출됐고, 이 중 2개는 데니소바인 남성 특유의 단백질 변이체로 확인됐다. 또 펑후 1을 형태학적으로 분석한 결과 큰 어금니가 있는 견고한 턱 구조와 독특한 치아 뿌리 구조가 앞서 티베트 고원 등에서 발견된 데니소바인 화석의 특징과 일치했다.데니소바인은 약 4만~3만 년 전에 멸종한 고대 인류의 한 집단으로, 2008년 러시아 알타이산맥의 데니소바 동굴에서 처음 유골이 발견되면서 이름을 갖게 됐다. 이들은 현생인류(호모 사피엔스)와 네안데르탈인의 가까운 친척이지만 DNA 분석 결과 네안데르탈인과 구별되는 독특한 유전적 특징을 가지고 있는 것으로 나타났다.펑후 1이 데니소바인으로 확인되면서 수수께끼 같은 데니소바인 계통에 대한 새로운 정보가 생겼다. 이전에도 데니소바인이 시베리아에서 티베트고원, 동남아시아, 호주 등 동아시아 전역에 분포한 것으로 추정되기는 했지만, 유전자 정보가 발견된 것은 지금까지 시베리아와 티베트고원의 화석뿐이었다. 연구팀은 “이번 발견은 데니소바인이 추운 시베리아뿐 아니라 습한 아열대 지역에 이르기까지 다양한 기후에 살았다는 것을 보여주는 증거”라고 했다.</t>
+          <t>저출생-고령화 대응 인구정책 추진… 육아휴직 장려금 등 실질적 지원AI컴퓨팅센터 유치해 일자리 창출… 어르신 고용 늘려 소득 보장 강화충남 천안시는 2월 28일 시청 중회의실에서 김석필 부시장을 주재로 인구정책자문위원회를 개최하며 저출생·고령화 등 인구구조 변화에 대응하는 정책을 논의했다. 천안시 제공충남 천안시가 저출생과 고령화로 인한 인구구조 변화에 대응하기 위해 생애주기 전반을 아우르는 정책을 추진한다. 출생과 양육 기반을 확대하고, 미래 산업 육성을 통해 일자리를 만들어 인구 유입을 유도하겠다는 구상이다.시는 인구 70만 명과 생활 인구 200만 명 시대를 위해 187개 사업에 1조4953억 원을 투입한다고 10일 밝혔다. 시는 올해 초 ‘2025 인구정책 시행계획’을 마련해 인구 증가를 위한 협의체인 인구구조변화대응단을 신설하고 인구영향평가제를 시범 도입하는 등 지역 특색에 맞는 신규 사업 발굴에 집중하고 있다. 출생부터 양육까지의 지원체계 마련과 노인과 여성, 취약계층을 위한 맞춤형 돌봄 생태계 구축에 나서겠다는 계획이다.먼저 국비와 도비를 포함한 3198억 원의 예산을 출산 및 양육 환경 개선에 투입한다. 주요 정책은 아빠 육아휴직 장려금 지원, 출생축하금 지급, 충남 최초 임산부 교통비 지원, 산후조리원 비용 지원, 네 자녀 이상 가구 대상 양육바우처 등이다. 또 연령·혼인 여부 등과 관계없이 모든 20∼49세 남녀에게 필수 가임력 검사비를 지원하고, 이른둥이 외래 본인부담금도 경감하는 등 실질적인 출산 장려 환경 조성에 나섰다.보육 인프라 확충을 위해선 올해 다함께돌봄센터 7곳을 신규 설치해 총 15곳으로 확대할 예정이다. 365일 24시간 풀케어 어린이집도 기존 4곳에서 2곳을 추가 설치해 운영한다.고령세대를 위한 다양한 정책도 병행한다. 올해 노인 일자리 사업에 총 220억2500만 원의 예산을 편성하고 4833명이 참여할 수 있도록 사업을 확대한다. 이를 통해 노인의 사회 참여 기회와 소득 보장을 동시에 강화하겠다는 계획이다. 돌봄이 필요한 어르신을 위해 ‘천안시 통합돌봄센터’를 개소했으며, 올해부터 경로당 난방비를 200만 원, 양곡 지원을 12포대로 늘리기로 했다.양질의 일자리를 제공할 고부가가치 산업 유치와 육성 등을 통한 청년인구 유입에도 중점을 둔다. 국내를 대표하는 스마트도시로 부상하기 위해 ‘국가 AI컴퓨팅센터 구축 공모사업’ 유치에 도전한다. 국가 AI컴퓨팅센터는 인공지능(AI) 서비스와 모델 개발 등을 지원하기 위한 첨단 반도체가 집적된 인프라 시설이다. 공모 선정 시 국내외 AI 분야 기업들이 대거 천안으로 모일 수 있다.시 관계자는 “생애 전 주기를 아우르는 촘촘한 정책과 각종 돌봄 정책을 마련해 시민 삶의 질을 높여 나가겠다”며 “일자리 창출, 주거 안정, 교통 개선, 돌봄 서비스 강화 등 핵심 분야의 부족한 부분을 보완하는 등 종합적인 인구정책을 추진하겠다”고 말했다.지난해 시 합계출산율은 0.77명으로 전국 평균 0.75명을 웃돌았다. 누적 출생아 수는 3507명으로 전국 기초자치단체 중 10위를 달성했다. 1월 기준 총인구는 69만7544명이다.</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>김효인 기자</t>
+          <t>이정훈 기자</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/023/78421</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>데니소바인의 턱뼈 화석 발견이 다양한 기후에서의 생존을 시사하지만 건강 정보와 직접적인 연관성은 없음.</t>
-        </is>
-      </c>
+          <t>https://media.naver.com/journalist/020/79984</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>False</t>
@@ -6276,52 +6404,52 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>이재명 캠프 키워드는 ‘초계파’…윤호중 위원장, 강훈식 본부장</t>
+          <t>“산불 재앙 겪고 난 지금이 임도 건설 골든 타임… 놓치면 또 당한다”</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327968</t>
+          <t>https://www.chosun.com/national/national_general/2025/04/11/XGNZAOMAJJFOLMUMMKO3C37IN4/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433616?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898915?sid=102</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>수면</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>이재명 전 더불어민주당 대표가 11일 서울 여의도 국회 소통관에서 집권 청사진 등을 소개하는 '비전 선포식 및 캠프 일정 발표'를 하고 있다.   왼쪽부터 이해식 비서실장, 강유정 대변인, 한병도 종합상황실장, 윤후덕 정책본부장, 강훈식 총괄본부장, 이재명 예비후보, 윤호중 선대위원장, 수어통역, 김영진 정무전략본부장, 박수현 공보단장. 연합뉴스이재명 전 더불어민주당 대표의 경선 캠프 구성 키워드는 ‘초(超)계파’였다. 그는 대선 출마 선언 이틀째인 11일 오전 국회에서 기자회견을 열고 “에너지를 결집해 새로운 세상, 새로운 나라를 만드는 것의 출발을 우리 경선 캠프가 시작한다”며 참여 의원 9명을 직접 소개했다.캠프 좌장 격인 선거대책위원장은 5선인 윤호중 의원이 맡았다. 윤 의원은 이해찬 당 대표 시절 사무총장을 지내 ‘이해찬계’로 분류된다. 이 전 대표는 “원내대표·정책위의장을 역임했고 오랜 당무 경험을 통해 누구보다 민주당을 잘 이끌어 왔다”고 설명했다. 당 대표 비서실장을 지내다 다시 후보 비서실장으로 임명된 이해식 의원 역시 ‘이해찬계’로 분류된다.전체 캠프를 지휘는 총괄본부장은 3선의 강훈식 의원이 맡았다. 계파색이 옅지만, 당 수석대변인과 전략기획위원장 등 당 요직을 두루 거쳤다. 지난 대선 때도 선거대책위원회 전략본부장을 맡았다. 이 대표는 “제 처가 동네 충청의 인물”이라고 소개했다.‘친문재인계’도 폭넓게 포진했다. 문재인 정부 청와대에서 정무수석과 국민소통수석을 거친 한병도(3선)·박수현(재선) 의원은 각각 종합상황실장과 공보단장을 맡았다. 제20대 대선 당시 선대위 정책본부장이었던 4선 윤후덕 의원은 이번에도 정책본부장직을 맡게 됐다. 캠프 핵심 관계자는 “계파보다는 실력으로, 대선 경험자 위주로 인선했다. 인력 풀을 넓게 쓰자는 취지”라고 설명했다.김주원 기자캠프 정무전략본부장엔 3선 김영진 의원이 임명됐다. 이 전 대표의 중앙대 후배로 2017년 대선 경선부터 곁을 지킨 최측근이지만, 지난해 민주당 당헌·당규 개정에 반대하는 등 쓴 소리도 서슴지 않아 ‘진짜 레드팀’이란 평가를 받는다.대변인은 강유정 의원(초선)이, 토론본부장은 이소영 의원(재선)이 맡았다. 지역별로 분류하면 수도권 6명, 충청 2명(강훈식·박수현), 전북 1명(한병도) 순이다. “충청 지역 의원들을 전진 배치해 중원 확장에도 신경 썼다”(캠프 관계자)는 평가가 나온다.이날 공개된 캠프는 2021년 대선 경선 당시 현역 50여명이 참여했던 것과 대조하면 ‘슬림 캠프’에 가까웠다. 대선까지 남은 기간이 50일 남짓인 점을 고려한 것으로 풀이된다. 당 관계자는 “인적 구성을 볼 때 경선 캠프 의원들이 대선 본선 선대위에서도 주축이 될 것”이라고 전망했다.이재명 전 대표가 11일 서울 여의도 국회 소통관에서 집권 청사진 등을 소개하는 '비전 선포식 및 캠프 일정 발표'를 하기 위해 이동하고 있다. 연합뉴스이 전 대표는 이날 “이제부터 진짜 대한민국” “지금은 이재명”이라는 두 가지 슬로건을 공개했다. “대한민국이 세계를 주도하는 시대를 개척하겠다”는 ‘K-이니셔티브’ 출마 비전도 재차 강조했다. 그는 “국가의 부는 결국 기업이 창출한다”면서도 “최근 경제 상황상 국가 단위의 관여와 지원, 투자 협력이 반드시 필요하다”고 말했다.윤석열 정부 비판도 이어갔다. 이 전 대표는 “우리 사회 모든 것을 지탱하던 민주주의가 윤석열 정부 3년 만에 최악의 위기를 맞았다”며 “여전히 헌법파괴세력, 내란세력이 준동하는 상태라고 본다”고 말했다. 한덕수 대통령 권한대행에 대해선 “지금 대통령 권한대행이 ‘내란 대행’이라고 불리지 않느냐”고 비판했다.정책 조직도 수면 위로 올라오고 있다. 대선용 싱크탱크인 ‘성장과 통합’이 16일 공식 출범 예정이다. 이외에도 당 싱크탱크인 민주연구원 산하 정책 소통 플랫폼 ‘모두의질문Q’와 당 최고위 산하 집권플랜본부, 이 전 대표가 공동의장을 맡은 민생경제연석회의 등도 물밑에서 정책·공약 작업을 벌이고 있다. 당 고위 관계자는 “경선 단계에선 각자 조용히 정책을 준비하다가 당 후보가 확정되면 자연스레 당 선대위로 모여드는 구조가 될 것”이라고 말했다.</t>
+          <t>산림 전문가 4인이 말하는 예방 대책지난달 25일 경북 안동시 임하면에서 산불이 번지는 모습. 불길이 타올라 밤하늘이 벌겋게 보인다. 지난달 22일 경북 의성에서 시작된 산불은 이날 태풍급 강풍을 타고 안동, 청송, 영양, 영덕으로 확산됐다. /연합뉴스지난달 경북 의성, 경남 산청 등 영남 지역에서 발생한 산불로 31명이 죽고 산림 등 4만8000ha가 불탔다. 서울 여의도 면적의 165배다. 이재민은 3만7000명에 달했다. 그동안 가장 큰 산불은 2000년 강원도 동해안 산불(2만3794㏊)이었는데 이 2배 이상 큰 상처를 남긴 것이다. 경북도는 10일 이번 산불 피해를 복구하는 데 경북 지역만 2조7000억원이 들 것이라고 추산했다.그러나 산불은 끊이지 않고 있다.최근에도 경남 하동, 울산 울주, 대구 등에서 산불이 번졌다.전문가들은 “이상 기후의 여파로 매년 봄마다 대형 산불이 반복될 것”이라며 “지금이라도 대책 수립에 나서야 한다”고 했다.이와 관련해 산불 전문가 4명의 의견을 들었다. 남성현 전 산림청장, 정우담 미 오리건주립대 교수, 최무열 한국임업진흥원장, 박준영 전 전남지사다.남성현 전 산림청장남성현 전 산림청장은 산불을 막기 위해선 숲 속에 임도(林道)를 많이 만들어야 한다고 했다. 임도는 소방차가 들어갈 수 있는 숲속 찻길을 말한다. 헬기는 안전상 야간에 투입할 수 없는데 임도가 있으면 숲속에 소방차를 대고 밤에도 물을 뿌릴 수 있게 된다. 지난달 영남 지역 산불 현장에선 낮에 애써 잡은 산불이 밤만 되면 다시 번지는 일이 반복됐다.특히 경북 지역의 피해가 컸던 이유도 다른 지역보다 임도가 부족하기 때문이라고 지적했다.그래픽=김의균남 전 청장은 “경북은 특히 개인이 소유한 사유림이 많아 임도 확대에 한계가 있다”고 했다.임도를 개설할 때 국유림은 정부가 비용을 100% 부담하지만 사유림은 정부와 지방자치단체가 90%, 소유주가 10%를 낸다. 산림청에 따르면 임도 1㎞를 만드는 데 드는 돈은 약 3억3500만원이다. 소유주는 그중 3350만원을 부담해야 한다. 이 때문에 임도 개설에 소극적일 수밖에 없다는 것이다. 그는 “국가가 예산을 확보해 사업을 추진해야 한다”고 했다.그는 올봄 경북 일대에 창궐했던 소나무재선충병도 산불을 키운 원인으로 꼽았다. 산림 당국과 경북도는 재선충병 확산을 막기 위해 재선충병에 걸린 소나무를 베어낸 뒤 숲속에 쌓아뒀는데 이게 땔감이 됐다는 것이다. 남 전 청장은 “경북 산에만 이런 나무 더미가 50만개나 됐다”며 “봄철마다 소나무재선충병이 도는데 방제 작업을 한 뒤 잘라낸 나무를 바로 빼내야 한다”고 지적했다.남 전 청장은 “전국에서 동시다발하는 산불을 막으려면 담수량 5000L 이상인 대형 헬기가 최소 24대 필요하다”고 했다. 현재 산림청이 보유한 대형 헬기(5000L 이상)는 7대다. 주력 헬기인 러시아제 카모프는 담수량이 3000L로 적은 데다 그마저 29대 중 16대만 진화 현장에 투입됐다. 남 전 청장은 “러시아·우크라이나 전쟁 여파로 부품 공급이 끊겨 카모프 헬기 8대에서 뜯어낸 부품을 나머지 21대에 끼워 맞추는 실정”이라고 했다. 물 8000L를 뿌릴 수 있는 미국 시코르스키 헬기는 1대당 가격이 500억원이 넘는다.“이제는 산불도 전쟁으로 봐야 합니다. 국방비 책정하듯 고정적으로 예산을 투입해야 한다는 거죠. 그런데 여야가 싸우느라 매년 예산 증액이 안 돼요.”정우담 美 오리건 주립대 교수정우담 교수는 2014년부터 미 오리건 주립대 산림공학과 교수로 재직 중이다. 미국과 한국의 산림 정책을 비교 분석할 수 있는 전문가로 통한다.그는 “한국은 산불이 나면 헬기의 역할을 지나치게 중요하게 생각한다”며 “지상 진화 인력의 역할이 더 중요하다”고 했다.미국은 진화 인력을 확보하기 위해 ‘레드 카드’란 자격증 제도를 운영한다. 산불 진화와 관련된 교육·실습과 체력 시험을 통과하면 진화 대원으로 활동할 자격을 주는 것이다.대형 산불이 나면 레드 카드를 가진 사람 1000명 이상이 모인다고 한다.정 교수는 “산불 진화 자격증을 만들고 수당도 보통 아르바이트보다 2~3배를 주니 대학생들도 레드 카드를 많이 딴다”고 했다. 산불 현장에 뛰어들면 시간당 30달러(약 4만3700원) 정도를 벌 수 있다고 한다.정 교수는 “산불 진화 능력을 갖춘 ‘산불 예비군’ ‘진화 기동대’를 최대한 확보해 탄력적으로 활용하는 방식”이라고 했다.반면에 우리나라는 지방자치단체들이 매년 봄 3~4개월씩 일용직 일자리로 산불 감시 요원을 채용하고 진화 현장에도 투입한다. 이 때문에 노인이 대부분이고 전문성을 쌓기도 어렵다. 실제 진화는 산림청 소속 진화대원 400여 명에게 의존하는 상태다.정 교수는 미국은 ‘간벌 (thinning)’과 ‘처방화입(prescribed fire)’을 중요하게 여긴다고 했다. 간벌은 숲이 너무 빽빽해지지 않게 나무를 베는 것이고, 처방화입은 산에 쌓인 낙엽을 계획적으로 태우는 것이다.지난달 경남 산청 지리산 일대에 확산한 산불은 진화에 열흘이 걸렸는데 어른 허리춤까지 쌓인 낙엽이 원인이었다. 산불 헬기가 물을 쏟아부었지만 낙엽 속 잔불이 강풍을 타고 계속 살아났던 것이다. 정 교수는 “산불 피해를 최소화하기 위해선 산불의 ‘연료’를 최대한 줄이는 것부터 시작해야 한다”며 “미국은 수시로 나무를 베어내고 낙엽을 긁어 불태운다”고 했다.그는 “한국은 간벌을 환경 파괴로 보지만 미국처럼 체계적으로 하면 된다”고 했다. 미국은 간벌을 하기 전에 벌채 전문가, 야생동물 전문가, 환경 전문가 등이 모여 간벌을 할 지역과 환경에 미치는 영향 등을 검토한다. 주민 공청회도 거친다.최무열 한국임업진흥원장지난달 경북 의성에서 발생한 산불이 순식간에 확산한 원인 중 하나로 소나무가 꼽힌다. 의성 등 경북 지역엔 특히 소나무가 많이 사는데 송진을 품고 있어 참나무 등 활엽수보다 더 잘 탄다는 것이다. 이에 대해 최무열 한국임업진흥원장은 “소나무는 죄가 없다”고 했다.“우리나라는 바위산이 많고 토심(흙의 깊이)도 평균 57㎝밖에 안 돼요. 이런 척박한 환경에서도 자랄 수 있는 나무가 소나무예요. 그래서 소나무가 많은 겁니다. 문제는 사람이지요.”지난달 경북 의성 산불도 과수원에서 쓰레기를 태우다 발생한 것으로 추정된다.그는 “산이나 밭에서 쓰레기를 태우면 과태료를 부과해야 하는데 실제로는 계도(啓導) 조치에 그치는 경우가 대부분”이라며 “산불 낸 사람은 패가망신한다는 강력한 인상을 심어주기 전까지는 산불이 계속 날 수밖에 없다”고 했다.지난달 산불로 나무나 송이버섯 등을 키우는 임업인들도 막대한 피해를 당했다. 국내 송이 채취량의 30%를 차지하는 경북 영덕에선 소나무 숲이 대부분 불타 캘 송이가 사라졌다.최 원장은 “산불 보험이 없다 보니 임업인들은 남이 낸 산불에 전 재산이 불타는 황당한 일을 당했다”며 “이번에 임업인들에 대한 보상 시스템도 만들어야 한다”고 했다.효율적인 산불 진화 대책을 묻자 최 원장은 “산에서 나무를 키우는 임업인들도 한결같이 얘기하는 게 임도(林道)”라고 했다. 임도는 소방차 등이 들어갈 수 있는 숲속 길이다. “임도는 있어도 되고 없어도 되는 선택적인 수단이 아닙니다. 산불 예방과 진화를 위해서도 필요하고 산림을 효율적으로 관리하기 위해서도 필요해요.” 산에서 베어낸 나무를 옮길 때도 활용할 수 있다는 것.최 원장은 우리나라는 산을 규제 대상으로만 보고 있어 이도 저도 못 하고 사실상 방치되고 있다고 지적했다.“6·25전쟁 이후 우리나라는 ‘민둥산’에 나무를 심는 데 집중했습니다. 이제 산림 녹화(綠化)는 달성했어요. 그 다음을 봐야죠.”일각에선 소방청으로 산불 진화 체계를 일원화해야 한다는 주장이 나온다. 산림청의 산불 진화 역량이 부족하다는 이유다. 이에 대해 최 원장은 “건물 화재와 산불은 완전히 다르다”며 “나무와 산을 모르는 소방청이 산불 진화를 어떻게 지휘하느냐”고 했다.박준영 전 전남지사“숲을 자원으로 보고 가꾸면 산불은 저절로 줄어듭니다. 다 자란 나무를 잘라내는 간벌(間伐)을 죄악시해선 안 됩니다.”박준영 전 전남지사는 목소리를 높였다. 그는 2004년부터 11년간 전남지사를 지냈다. 2008년 전남 화순 산불 등 크고 작은 산불을 겪으며 내린 결론이다.그는 2005년부터 ‘숲 가꾸기’ 사업을 시작했다. 핵심은 다 자란 나무를 잘라내 숲의 밀도를 낮추고 수시로 잡목과 낙엽, 솔방울 등을 치우는 것이다.박 전 지사는 2008년 화순군 도암면 산불 때 ‘숲 가꾸기’ 사업의 산불 억제 효과를 확인했다고 했다. 당시 운주사 뒤편에서 불이 났지만 불길이 절 안으로 번지지 않았다. 운주사는 원형 다층석탑, 석조불감 등 보물을 품고 있는 사찰이다. 박 전 지사는 “2005년부터 운주사 주변의 숲을 간벌하고 낙엽을 긁어낸 덕분”이라며 “불이 번지는 ‘도화선’이 사라지니 피해가 적었다”고 했다. 간벌 작업을 하기 전 운주사 주변은 낙엽이 어른 무릎까지 쌓였었다고 한다.박 전 지사는 “간벌한 나무를 산에 그대로 두면 불을 키우는 장작이나 불쏘시개가 된다”며 “간벌한 나무를 빼내는 것도 중요하다”고 했다. 이를 위해 만든 게 ‘나무 은행’이다. 그는 2007년 전남에서 가장 숲이 많은 화순과 곡성에 나무 은행을 설립했다. 간벌한 나무를 가로수나 목공예 재료 등으로 활용할 수 있게 중개하는 기구다. 나무 은행을 통해 곡성에서 뽑아낸 소나무가 가로수가 됐다. 목공예 애호가들에겐 잘라낸 나무를 공짜로 나눠줬다. 간벌을 해 생긴 공간에는 칡이나 버섯, 도라지 등을 심어 주민들이 캘 수 있게 했다. 그는 “나무 은행을 만드니 간벌도 활성화되고 산에도 불쏘시개가 남지 않아 일거양득”이라고 했다.박 전 지사는 “빽빽한 숲을 중간중간 솎아내면 햇볕이 잘 들어 흙속의 미생물 활동이 활발해지고 낙엽이 빨리 썩는 효과도 있다”고 했다. 흙이 더 많은 빗물을 머금을 수 있어 산불이 덜 확산한다고 한다.“이렇게 노력한 덕분에 전남에선 2008년 이후 큰 산불이 나지 않고 있습니다. 숲을 더 이상 방치하면 안 됩니다. 이제 ‘관리’해야 해요. 사람이 사는 마을 근처 야산부터 시작합시다.”</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>김나한 기자</t>
+          <t>박진성 기자</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/025/79514</t>
+          <t>https://media.naver.com/journalist/talk/023/80078</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>이재명 전 민주당 대표의 경선 캠프 구성과 비전 발표에 관한 기사로 건강 정보와 관련이 없습니다.</t>
+          <t>산불 예방 및 진화 대책에 관한 기사로 건강 관리와 직접적인 연관성이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6333,44 +6461,44 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[사설] 한덕수 대행, 관리자냐 선수냐 빨리 입장 정해야</t>
+          <t>[김시덕의 도시 발견] 지방 소멸 문제에 진지한가요</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327795</t>
+          <t>https://www.mk.co.kr/article/11289291</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433457?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474948?sid=110</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>예방/생활습관</t>
+          <t>노령화/고령층</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>수면</t>
+          <t>노인</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>한덕수 대통령 권한대행 국무총리가 10일 서울 종로구 정부서울청사에서 열신 국정현안관계장관회의에서 발언을 하고 있다. 국무총리실 제공━정부 수반 출마설 자체가 대선 공정관리 흠집 소지━미국 대통령도 질문, 위기 속 어정쩡한 태도는 곤란대선 주자들의 출마 선언이 잇따르는 등 6·3 대선이 본격화하는 와중에 선거 관리를 책임지고 있는 한덕수 대통령 권한대행의 거취가 정치권의 쟁점으로 떠올랐다. 국민의힘 일각에서 한 대행이 차기 대선에 출마해야 한다는 목소리가 나오고 있다. 반면에 더불어민주당에서는 “출마는 어림도 없다”며 재탄핵 카드를 만지작거리는 중이다. 비상계엄 선포에 이은 윤석열 전 대통령 파면으로 국가 리더십 공백이 발생하고, 미국발 관세전쟁의 파도가 몰아치는 등 위기가 한창이다. 이런 때에 국정 안정을 책임져야 할 한 대행이 오히려 정치적 논란의 중심에 선 것은 바람직한 일이 아니다.한 대행 차출론은 당초 국민의힘 친윤계 인사 일부가 제기했었다. 그러다 이재명 전 민주당 대표에게 맞서 이길 만한 보수 쪽 대항마가 뚜렷하게 부각되지 않으면서 수면 위로 떠오르는 양상이다. 최근 국민의힘 상임고문과 지도부 오찬에서도 한 대행을 대선후보로 내세우자는 의견이 다수 나왔다고 한다. 어제는 한 대행이 국정 운영을 잘할 것 같은지, 아닌지에 대한 여론조사 결과까지 발표됐다. 얼마나 소문이 퍼졌는지 도널드 트럼프 미국 대통령까지 지난 8일 밤 통화에서 한 대행에게 대선에 나갈 것인지 직접 묻기도 했다. 한 대행 본인이 트럼프 대통령의 질문에 “여러 요구와 상황이 있어 고민 중이다. 결정한 것은 없다”는 취지로 즉답을 피했다는 소식이 전해지면서 출마설은 가라앉지 않고 있다.대선에 나갈지, 말지는 한 대행이 선택할 문제다. 하지만 그는 두 달도 채 안 남은 선거를 공정하게 관리해야 할 정부의 수장이다. 특정 정당의 후보 출마 가능성이 거론되는 것 자체가 선거 관리 공정성에 흠집을 낼 소지가 있다. 더욱이 한 대행은 최근 대통령 몫 헌법재판관 후보자 2명을 지명해 정치권에서 월권 논란을 일으켰다. 국회 선출 재판관 후보자 3명의 임명을 거부할 때는 “대통령의 고유 권한 행사를 자제하라는 것이 헌법정신”이라더니, 윤 전 대통령의 친구이자 내란 방조 혐의로 수사 받는 이완규 법제처장을 지명해 민주당의 반발을 불렀다. 한 대행의 이런 행보가 대선 차출설과 맞물리면서 정치적 의도를 의심받는 것도 무리는 아니다.지금은 중립적인 대선 관리와 대미 협상을 성공적으로 이끌기 위한 정부의 역할이 어느 때보다 중요한 시점이다. 미국발 관세전쟁의 태풍을 이겨내기 위해선 기업을 적극 지원하고 정치권의 초당적 협력을 이끌어내는 일이 절실하다. 정부 수반으로서 이런 과제를 수행할 책임이 있는 한 대행이 자신의 정치적 거취에 대해 어정쩡한 태도를 보이는 것은 국가 위기 극복이나 정국 안정에 도움이 되지 않는다. 한 대행은 대선 관리자를 할 것인지, 선수로 뛸 것인지 서둘러 입장을 정리하기 바란다.</t>
+          <t>지자체들 지방소멸 주장하나진짜 심각한 군 단위 마을선이슈화할 힘조차 없는 상황쏟아내는 건 졸속정책일 뿐의원마저 지역구엔 집 없어시민·정치인 너나할 것 없이정말 절박한 이 있는지 의문인구 감소와 지방 소멸 문제에 대해 이 칼럼에서 몇 차례 말씀드리고 있다. 이들 문제가 요즘 워낙 사회 곳곳에서 언급되다 보니 시민들에게는 오히려 식상하게 받아들여지고 있다는 느낌도 받는다.이런 반응이 나오는 데에는 몇 가지 이유가 있다. 인구 감소와 지방 소멸 문제는 마치 기상이변과 같이 너무 거대한 문제이고 해답을 찾기가 쉽지 않으며 변화에 시간이 걸린다. 그렇다 보니 대통령 임기 5년이나 국회의원·지자체장 임기 4년 단위로 세상을 바라보는 것이 관례가 되어버린 한국 사회에서는 자신들의 임기 초에 거창하게 문제를 제기하고 졸속으로 정책을 만들었다가는 유야무야되는 일이 반복되고 있다.또 한 가지는 모든 지자체가 인구 감소와 지방 소멸을 주장하다 보니, 정말로 심각한 지역이 존재한다는 사실이 묻혀버린다는 것이다. 예를 들어 현재 한국에서 두 번째로 인구가 많은 지자체는 부산광역시이고, 세 번째는 인천광역시다. 하지만 부산은 인구가 줄고 있고 인천은 인구가 늘다 보니 2030년대에는 인천이 부산을 제치고 한국에서 두 번째로 인구가 많은 도시가 될 것으로 예상된다.이런 상황에서 부산은 지방 소멸 위기를 주장하며, 산업은행 이전이나 엑스포 개최 등 부산으로의 각종 권한 이임 및 인프라 사업을 요구하고 있다. 하지만 냉정하게 생각해 보면, 현재 한국 제2위의 인구를 가진 부산이 인구 감소와 지방 소멸을 주장하는 것은 부산보다 훨씬 더 심각하게 인구 감소 위기를 겪고 있는 중소도시와 군 단위 지자체에는 실례가 아닐까?부산을 비롯한 대도시들 내부에도 인구 감소가 심각한 원도심이 존재하는 것은 사실이다. 하지만 이것은 도시 외곽에 잇달아 신도시가 개발된 결과, 그 도시 내에서 인구 이동이 일어났기 때문이기도 하다. 이런 내부적 요인을 무시하고 인구 감소와 지방 소멸을 주장한다면, 대도시에 비해 자신들의 문제를 전국구 레벨로 확산시킬 권력과 언론을 가지지 못한 중소도시나 군 단위는 대응할 방법이 없어지게 된다.얼마 전 전라북도 김제시에서 강연이 있었다. 강연이 끝난 뒤 어떤 노인께서 "전라도 사람이냐"고 여쭤보셨다. 아니라고 하니, 그러면 부모님은? 할아버지는? 하고 질문이 이어졌다. 타지 사람이 자신의 고향이 아닌 지역에 관심을 갖고 들여다보는 것이 그분께는 낯설게 느껴졌던 것 같다. 지난해 충청남도에 대한 내용이 포함된 책을 쓴 뒤에는 충청도 사람이냐는 질문을 현지에서 받기도 했다. 이런 질문들이 지역을 막론하고 필자에게 던져진 것은, 중소도시나 군 단위에서는 그 지역 출신만이 그 지역에 관심을 가져온 것이 지난 수십 년간의 한국 현실이기 때문이었을 것이다.그렇다면 그 지역의 문제를 대변해줄 그 지역 출신의 출향민은 자기 고향의 소멸에 관심을 갖고 진지하게 대응하고 있나? 그렇지 않아 보인다. 국회 공직자윤리위원회가 3월 27일에 발표한 2024년 말 기준 국회의원 재산 변동사항에 따르면, 전라남도의 열 곳 지역구 국회의원 가운데 전라남도에 자가를 소유한 사람은 한 명도 없었다. 그 지역의 이익을 대변하는 국회의원들조차 이런데, 일반 시민들이 그 지역에 거주하라고 요구하는 건 이상한 일이 아닐까?얼마 전 어떤 지역의 폐교된 초등학교에 대한 영상을 유튜브에서 보았다. 그 영상에 대해 어떤 시민이 지방 인구가 줄어들어 마음이 아프다며 "지방에 많은 사람들이 살 수 있게끔 나라가 해주었으면 좋겠다"는 코멘트를 남겼다. 그러자 다른 시민이 "님이 좀 가주세요"라는 코멘트를 덧붙였다. 인구 감소와 지방 소멸 문제에 대한 한국 사회의 분위기를 압축적으로 보여주는 코멘트라고 느꼈다. 내가 뛰어들 만큼 이 문제를 절박하게 느끼는 시민은 많지 않다는 것.한국 국민들이 지금 해야 할 일은 인구 감소와 지방 소멸 문제를 레토릭처럼 사용해서 자신들의 이익을 어떻게 확보할 것인지를 계산하는 게 아니다. 이 문제에 대해 자신이 정말로 절박하게 느끼고 있는지를 되묻는 것이다. 그리고 정치인과 지자체장은 자신의 임기 내에 이 문제를 해결할 수 있다는 식의 환상을 시민들에게 제시하지 않아야 한다. 여기서부터 시작해야 한다.[김시덕 도시문헌학자]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>한덕수 대통령 권한대행의 대선 출마설과 정치적 논란에 관한 기사로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 인구 감소와 지방 소멸 문제에 대한 사회적 논의와 정치적 대응을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6382,7 +6510,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>“운전대 놓으시면 50만원 줍니다”…이 동네, 보상금 5배 올렸더니 한...</t>
+          <t>125번째 생일 맞은 1900년생 페루 남성…장수 비결은 바로 ‘이것’</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6392,12 +6520,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11288851</t>
+          <t>https://www.mk.co.kr/article/11289043</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474703?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474814?sid=104</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6407,27 +6535,19 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>고령자</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>울산 울주군 운전면허 반납 보상 확대한 달 만에 작년 1년간 반납 실적 초과추경 통해 재원 확보 7월 중 2차 보상운전면허 자진 반납 챗지피티 생성 이미지전국적으로 고령 운전자 운전면허증 반납 실적이 저조한 가운데 울산 울주군이 반납 보상금을 5배 늘리자 자진 반납이 급증한 것으로 나타났다.울산 울주군은 지난달부터 고령 운전자 운전면허증 자진 반납 지원 사업 시행한 결과 410건이 반납돼 사업 시행 한 달 만에 지난해 1년간 반납 실적 358건을 초과했다고 11일 밝혔다.울주군은 고령 운전자 교통사고 예방을 위해 올해부터 운전면허증 반납 인센티브를 기존 10만원에서 50만원으로 확대했다. 65세 이상 군민이 운전면허증을 반납하면 온누리상품권 40만원과 울산시가 주는 10만원 상당의 교통카드를 지급한다.지역 일각에서는 ‘보상금을 더 준다고 해서 자진 반납이 늘겠냐’고 우려도 제기됐으나 사업 초기 성과는 좋은 편이다. 군은 읍면별 배부한 온누리상품권(1개당 40만원) 450개 중 91.1%가 소진돼 추경을 통해 온누리상품권 추가 확보에 나섰다.연령별로는 70세 이상 운전면허 반납자가 78%로 가장 많았다. 군은 최근 70대 이상 고령 운전자가 운전하는 차량에서 교통사고가 빈번하게 발생하는 상황에서 교통사고 발생을 예방하고 보행자 안전 확보에 도움이 될 것으로 기대했다.울주군은 온누리상품권 구매 재원이 확보되면 오는 7월 2차 보상에 나설 계획이다. 또 울산시에 교통카드 추가 배부를 요청했다.울주군 관계자는 “고령층 이동 편의를 고려해 오는 9월부터 65세 이상 노인을 대상으로 시내버스 요금 지원 사업을 추진하는 등 교통 약자의 교통 격차 해소와 편리한 이동권 보장에 힘쓸 것”이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>서대현 기자</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/009/23007</t>
-        </is>
-      </c>
+          <t>2025년 4월 5일 125세 생일을 맞은 마르셀리노 마시코 아바드 톨렌티노 [사진출처 = Jam Press]페루 남성이 2025년 4월 5일자로 125번째 생일을 맞아 세계 최고 고령자로 비공인 등극했다.7일(현지시간) 미국 뉴욕포스트에 따르면 이 남성의 이름은 마르셀리노 마시코 아바드 톨렌티노로 키가 약 129.5cm이며 정부가 공식적으로 발급한 신분증에는 출생연도가 1900년으로 나와 있다.톨렌티노는 결혼을 하지 않아 부인과 자녀가 없어 현재 페루 우아누코의 요양원에서 지내며 이곳에서 생일을 맞았다.그는 페루의 외딴 지역인 차글라 지구에서 태어났으며 어릴 때부터 가족 없이 혼자 살아왔다.일곱 살의 나이에 부모님이 강을 건너려다 목숨을 잃어 고아가 된 그는 거리가 먼 학교를 다닐 수 없어 어릴 때부터 밭일, 가축 사육, 농산물 물물교환 등을 하며 자립적으로 살아왔다.지난 7일(현지시간) 아르헨티나 매체 인포바에(Infobae) 등 외신은 톨렌티노와의 인터뷰를 통해 장수 비결을 보도했다.그는 비결을 식단으로 꼽았는데 ‘에덴동산’이라고 부르는 자신의 텃밭에서 키운 채소를 먹었고, 과일과 양고기를 즐겼다고 전했다.특히 들에서 일할 때 힘을 내기 위해 코카잎을 뜯어 씹었고, 야생에서 얻은 허브와 약초로 식단을 보충하기도 했다고 덧붙였다.그가 특히 좋아한 것은 아보카도였다. 톨렌티노의 요양원 요리사는 “그는 항상 아침 식사로 아보카도를 달라고 주문한다”면서 “그는 아보카도 없이는 살 수 없다”고 말했다.톨렌티노의 지인들은 그를 항상 도움이 필요한 사람을 돕는 “친절한” 사람이라고 평가했다.톨렌티노는 페루 정부가 공인하기는 했지만, 기네스 공인 세계 최고령자는 아니다.기네스 세계 기록의 대변인은 전 세계에서 가장 오래 산 사람이라고 주장하는 개인으로부터 “많은 지원서”를 받았으며, 기록 보유 타이틀을 주기 전에 장수 및 노년학 연구자들이 추가로 검토한다고 말했다. 그러면서 “톨렌티노도 그나 그의 가족이 웹사이트를 통해 지원서를 제출할 수 있다”고 덧붙였다.현재 세계 최고령자 공인 기록은 116세인 이나 카나바로 루카스 수녀가 보유하고 있다. 브라질 수녀인 그는 오는 6월 8일에 117세가 된다.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>울산 울주군의 고령 운전자 운전면허 반납 보상 확대가 반납 증가로 이어졌다.</t>
+          <t>해당 기사는 특정 개인의 장수 사례로, 일반적인 건강 관리 정보와 연결성이 낮습니다.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6439,22 +6559,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>‘5억원대 뇌물 수수’ 윤우진 前세무서장 징역 12년 구형</t>
+          <t>소 잃고 수리? 산불 진화헬기 ‘수리온’ 도입 늦어지는 까닭</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/court_law/2025/04/11/KXOS3C4WYRB3PHUM4UTJ2NNKXA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.joongang.co.kr/article/25327747</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003899016?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433410?sid=101</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6464,27 +6584,27 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>노후</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2022년 12월 인허가 로비 명목으로 수억 원을 수수한 혐의로 재판에 넘겨진 윤우진 전 용산세무서장이 서울 서초구 서울중앙지방법원에서 열린 특수범죄 가중처벌 등에 관한 법률위반(뇌물) 혐의에 대한 공판에 출석하고 있다./뉴스1세무조사 무마 대가로 5억원대 뇌물을 받은 혐의로 재판에 넘겨진 윤우진(70) 전 서울 용산세무서장에게 검찰이 징역 12년을 구형했다. 재판부는 오는 6월 20일 1심 판결을 선고할 예정이다.11일 서울중앙지법 형사27부(재판장 우인성)는 특정범죄 가중처벌 등에 관한 법률 위반(뇌물) 등 혐의로 기소된 윤 전 서장의 결심공판을 진행했다. 이날 검찰은 최종 의견에서 “피고인은 수사와 공판 단계에서 범행을 부인하고 있고 금품수수 액수와 기간이 상당해 사안이 중대하다”며 “징역 12년과 벌금 20억원, 추징금 5억3000여만원을 선고해달라”라고 재판부에 요청했다.반면 윤 전 서장 측은 “무리한 장기간 수사로 이미 공소시효가 지났다”며 면소 판결을 받아야 한다고 주장했다. 윤 전 서장의 변호인은 또 “피고인은 59년생 70세 노인으로 재판 과정에서 중압감을 이기지 못하고 공황 증세 등 건강 상태가 악화됐다”며 이를 참작해 형량을 정해달라고 요청했다.윤 전 서장은 이날 법정에 출석했지만 건강 상태를 이유로 직접 최후 진술에 나서진 않았다. 공판이 진행되는 동안 엎드려 있는 등 어지러움을 호소한 윤 전 서장은 공판을 마친 뒤 구급대원의 부축을 받아 곧바로 병원으로 이송됐다.윤 전 서장은 2004년~2012년 세무 업무시 편의 제공 명목으로 세무사와 육류 수입업자로부터 2억 원을 챙긴 혐의로 2021년 12월 기소됐다. 검찰은 이듬해 5월 공소장을 변경해 뇌물 3억2900만원을 추가했다.한편 윤 전 서장은 세무공무원 인맥을 활용해 세금을 줄여주겠다며 뒷돈을 챙긴 혐의(변호사법 위반)로도 재판을 받고 있다. 2023년 10월 1심 재판부는 윤 전 서장에게 징역 10개월을 선고했다. 현재 해당 사건은 2심 재판이 진행 중이다.</t>
+          <t>━화재 대응 장비 태부족영남권 산불 진화 과정에서 헬기 추락 사고가 발생하면서 산불진화 헬기에 대한 관심이 커지고 있다. 노후한 러시아산 헬기 대신 국산 헬기가 대안으로 떠오르고 있지만, 관련 예산 부족 등 걸림돌이 만만찮다는 평가다.10일 산림청에 따르면 현재 산림청이 보유한 산불진화 헬기는 총 50대다. 담수 능력 8000리터(L)급 미국 S-64(시코르스키) 7대, 3000L급 러시아 KA-32(카모프) 29대, 2000L급 국산 KUH-1(수리온) 3대가 주력이다.문제는 주력 헬기이자 전체의 58%를 차지하는 카모프 대부분이 낡고 오래됐다는 점이다. 카모프 29대 중 20대가 기령 21년 이상이다. 산림청에 따르면 14대는 2026년부터 가동 중단될 예정이고 이 규모는 2027년 15대, 2028년 17대로 빠르게 증가할 전망이다. 특히 카모프는 러시아-우크라이나 전쟁 여파로 부품 수급조차 어렵다. 이에 산림청은 29대 중 8대는 운항을 중단하고 해당 기체 부품을 빼서 나머지 운항 기체에 조립하는 ‘돌려막기’식으로 운용하고 있다.이에 카모프와 비슷한 중형 헬기인 수리온이 대체재로 주목받고 있다. 한국항공우주산업(KAI)이 2005년부터 개발해 2013년 군 전력화된 수리온은 2018년부터 산불진화용 모델이 현장에 투입됐다. 현재 배치된 수리온은 담수 능력이 카모프보다 적지만, 3000L 물탱크를 장착한 계량 모델이 2027년부터 납품될 예정이다. 특히 수리온은 카모프와 달리, 야간에도 산불 진화에 투입할 수 있다. 야간투시장비(NVG)를 통해 조종사가 밤에도 시야를 확보할 수 있고, 4축 자동조종장치(AFCS)로 자동 제자리 비행이 가능해 대량의 물을 기체 하부에 달린 탱크로 끌어올릴 수 있다. 2020년 4월 안동 산불(4회), 2022년 3월 울진 산불(6회) 진화를 위해 산림청 소속 수리온 헬기가 야간에 투입됐다.산림청은 올해 수리온 1대를 추가로 도입해 총 4대를 운용할 예정이다. 이와 별개로 에어버스 헬리콥터스의 4200L급 AS-332(슈퍼푸마) 2대를 올해 3~5월 단기 임차했다. 하지만 임차만으로 노후 헬기 문제를 해결하기는 쉽지 않다. 항공업계 관계자는 “헬기 임대 업체는 수익성을 위해 고령 조종사가 운항하는 노후 헬기를 임대하는 경우가 많아 자칫하면 안전사고로 이어질 수 있다”고 지적했다.상황이 이런데도 산불진화 헬기를 수리온 같은 대체 헬기로 전환하지 않는 배경에 관심이 모인다. 항공업계에선 정부의 헬기 교체 예산이 적고, 발주 주체도 분산된 영향이라고 지적한다. 현재 산불진화 헬기를 운영하는 주체는 산림청, 소방청, 각 지자체로 나뉘어 있다. 이 가운데 산림청의 올해 예산 2조6246억원 중 산림 헬기 도입·운영 예산은 938억5800만원에 불과하다. 수리온 헬기 1대가 약 350억원임을 고려하면 3대도 구입하기 어렵다.공하성 우석대 소방방재학과 교수는 “주력 헬기에 대한 준비가 없다면 산불 조기 진화에 또다시 실패할 수 있다”며 “중앙 정부 차원에서 통합적으로 헬기를 발주·운영한다면 더 효율적으로 산불진화 헬기를 보급할 수 있을 것”이라고 전망했다.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>김나영 기자</t>
+          <t>김효성 기자</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/023/79466</t>
+          <t>https://media.naver.com/journalist/025/72665</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>윤우진 전 용산세무서장의 뇌물 수수 혐의 관련 재판 소식으로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 산불 진화 헬기의 노후 문제와 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6496,22 +6616,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>"AI 속도 따라잡을 '새로운 몸'…창의적 컴퓨터가 미래 가른다"</t>
+          <t>[생애설계교육] ‘한국시니어생애설계사(KALPS)’ 교육생 모집</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/2025041164371</t>
+          <t>https://www.mk.co.kr/article/11289203</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118201?sid=105</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474882?sid=102</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6521,27 +6641,19 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>노후</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>K퓨처테크 현장을 가다(3) 서울대 컴퓨터연구소AI가 두뇌라면 컴퓨터는 '몸'지금은 몸이 두뇌 속도 못따라가연산 속도·전력 효율 개선 필요韓·美·中·日 등 글로벌 선진국창의적 컴퓨터 아키텍처 경쟁컴퓨터硏, 새로운 모델 개발 주력중요한 정보에 집중 '어텐션 연산'인간과 상호작용 돕는 '휴먼 AI'서울대 컴퓨터연구소 패러덱스 설비 공간에서 서진욱 서울대 컴퓨터연구소장이 로봇 손과 악수하고 있다. 이곳에서는 인간의 움직임을 여러 대의 카메라로 촬영해 동작을 모사하는 인공지능(AI) 모델을 개발하고 이를 로봇으로 재현하는 기술을 연구한다.   /이솔 기자인공지능(AI)이 두뇌라면 컴퓨터는 AI를 담은 물리적 실체다. 서진욱 서울대 컴퓨터연구소 소장은 11일 “미래의 컴퓨터는 스스로 사고하고 인간과 소통하는 ‘기계 이상의 존재’가 될 것”이라고 말했다. 두뇌의 속도에 따라 몸도 날렵해질 것이란 얘기다. 한국을 비롯해 미국, 중국, 유럽, 일본 등 주요 국가는 ‘창의적인 컴퓨터’를 누가 먼저 내놓느냐는 아키텍처 경쟁에 돌입했다. 인간의 두뇌처럼 적은 전력만으로도 중요한 정보에만 집중함으로써 효율을 높이는 ‘어텐션(attention·집중) 연산’을 비롯해 인간 행동을 모사해 로봇의 움직임을 만들어내는 ‘인간-물체 상호작용(HOI) 모델링’ 등이 주요 경쟁 영역이다. 서 소장을 비롯해 연구소의 핵심인 이재욱, 주한별, 원정담 서울대 컴퓨터공학과 교수는 “컴퓨터가 인류 난제에 도전하고 이를 다양한 영역으로 확장시킬 것”이라고 입을 모았다.◇인간의 두뇌 닮아가는 컴퓨터서 소장은 “생성형 AI 시대에서 나타난 가장 큰 문제는 기존 컴퓨터로는 초대규모 데이터를 처리하는 것이 점점 어려워지고 있다는 점”이라고 말했다. 몸이 두뇌 속도를 못 따라간다는 것이다. 전력을 너무 많이 소모하는 것도 해결해야 할 과제 중 하나다. 이를 위해 서울대 컴퓨터연구소는 AI 연산을 가속화하고 저전력·고효율·고확장 컴퓨팅 환경을 구축하기 위한 새로운 컴퓨터 아키텍처 개발에 주력하고 있다.예컨대 하드웨어(HW)와 소프트웨어(SW)가 최적의 성능을 낼 수 있도록 함께 설계하는 ‘협조 최적화’(co-design)가 대표적인 기술로 꼽힌다. 현재까지의 설계 방식은 ‘따로국밥’ 식이다. HW 엔지니어는 빠르고 안정적인 회로와 장치를 설계하는 데만 주력하고, SW 개발자는 그 위에서 돌아가는 프로그램을 별도로 개발한다. 하지만 AI에 최적화된 컴퓨터를 만들려면 이에 특화된 전용 회로를 설계해야 하고, SW도 AI 모델 구조를 HW가 더 잘 처리할 수 있도록 최적화해야 한다.서 소장은 “일반 컴퓨터가 평범한 자동차라면 서울대가 연구 중인 AI 연산 특화 컴퓨터는 레이싱카처럼 특정 작업을 훨씬 빠르고 효율적으로 수행하는 것이 목표”라고 설명했다.주요 연구로는 어텐션 연산을 빠르게 처리하는 전용 하드웨어 가속기 개발이 꼽힌다. 수조 개의 파라미터(매개변수)를 갖는 어텐션 연산은 딥러닝과 자연어 처리(NLP), 이미지 처리와 같은 AI 분야에서 핵심 역할을 한다. 어텐션 연산은 AI 모델이 데이터 중에서 어디에 집중할지, 무엇이 중요한지를 찾아내고 이에 집중하게 만든다. 책을 읽을 때 중요한 부분에 빨간펜으로 표시해가며 반복해 읽고 이해하는 것에 비유할 수 있다.이재욱 교수는 “어텐션 연산에 최적화된 칩으로 가속기를 만들었고, 측정 결과 연산량과 전력 소비를 기존 컴퓨팅의 절반 수준으로 줄이면서도 정확도를 유지했다”고 말했다. 어텐션 연산은 AI 연구와 개발에서 핵심적인 기술로 자리 잡는 추세다. 구글의 BERT, 마이크로소프트의 터닝 NLG, 페이스북의 RoBERTa, 삼성전자의 스마트폰 음성 인식 기술이 어텐션 연산의 대표 사례다.◇주목받는 로봇 학습 컴퓨팅서울대 컴퓨터연구소가 주목한 또 다른 차세대 연구는 ‘휴먼 AI’다. 서 소장은 “이 연구에는 컴퓨터 비전, 머신러닝, 3차원(3D) 모델링 등이 유기적으로 융합된다”며 “인간의 외형, 동작, 의류, 의사소통, 물체와의 상호작용을 AI가 정밀하게 이해하고 사실적으로 재현할 수 있을 것”이라고 설명했다. 주한별 교수는 연구소 내 연구시설인 ‘패러덱스(pardex)’에서 인간의 움직임을 여러 대의 카메라로 촬영해 인간 동작을 모사하는 AI 모델을 개발하고 이를 로봇으로 재현하는 기술을 연구하고 있다.이 과정에서 강조되는 기술이 HOI 모델링이다. 주 교수는 “HOI 모델링과 70대 이상의 카메라를 활용한 멀티센서 기반 3D 데이터 수집 시스템을 통해 고품질 학습 데이터를 확보하고 있다”며 “AI의 표현력과 적응력을 끌어올릴 것”이라고 말했다. HOI 모델링이 고도화되면 스마트 가전과 홈 오토메이션 분야에서 획기적인 변화가 일어날 것으로 예상된다.HOI 모델링이 적용된 AI는 사람의 동작을 보다 정교하게 이해해 스마트홈 기기가 사용자 행동을 예측하고 자동으로 작동할 수 있다. 사용자가 컵을 집으면 AI가 이를 감지해 정수기에서 물을 채우거나 요리를 시작하면 오븐을 적절한 온도로 설정하는 식이다. 로보틱스 및 스마트 제조 분야, 자율주행과 스마트 모빌리티 등 산업 현장에도 다양하게 적용할 수 있다. 주 교수는 “HOI 모델링을 적용한 협업 로봇은 작업자가 어떤 도구를 사용하려 하는지 인식하고 필요한 도구를 전달하거나 작업의 다음 단계를 예측해 준비한다”고 예를 들었다.◇수백 개 전신 근육도 디지털로 구현인간의 행동을 모방하는 ‘로봇 학습’은 휴머노이드 완성을 위한 필수 기술로 꼽힌다. 불과 몇 년 전까지만 해도 로봇 행동 모델은 코딩에 의존해 왔다. 정해진 대본에 따라 움직이는 배우에 비유할 수 있다. 하지만 인간처럼 미세한 움직임을 로봇으로 구현하려면 아주 사소한 행동 하나라도 구현할 수 있어야 하는데 이를 위해선 로봇이 스스로 행동을 배우도록 하는 것이 핵심이다.주 교수는 “로봇 학습은 동작 모사를 넘어 사람의 복잡한 신체 움직임과 물체를 다루는 방식까지 정밀하게 학습한다”며 “AI 기반 로봇이 실제 환경에서 사람의 역할을 대체하거나 보조할 능력을 갖추도록 하는 데 집중하고 있다”고 했다. 로봇이 인간이 처한 상황과 대화의 맥락까지 이해할 수 있다는 뜻이다. 향후 노동, 의료, 재난 대응, 노인 돌봄 등의 분야에서 큰 사회적 파급력을 가질 것으로 기대된다.근골격 디지털 트윈 모델링 및 시뮬레이션 기술도 컴퓨터연구소가 주목하는 차세대 연구 분야다. 정밀 의료와 헬스케어 분야에 특화된 기술로 인간 신체를 디지털 트윈으로 구현하는 것이 목표다.</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>강경주 기자</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/68986</t>
-        </is>
-      </c>
+          <t>매일경제 생애설계센터와 한국생애설계협회(회장 최성재)는 ‘한국시니어생애설계사(KALPS)’ 자격시험 교육생을 모집하고 있다.한국시니어생애설계사(KALPS)는 퇴직준비 단계부터 노후 생활 전반에 대한 인생을 체계적으로 설계하고 컨설팅하는 전문가로, 자격증 취득 후 기업재취업지원서비스 진로설계 교육 강사, 공공기관, 복지관 등에서 진로설계, 생애설계 강사, 컨설컨트 등 다양한 활동을 할 수 있다.특히, 최근 매일경제 생애설계센터와 한국생애설계협회는 종업원 300 이상의 기업들을 대상으로 재취업지원서비스 진로설계 교육과 컨설팅 서비스를 시작하였으며, 6월 시험에 합격한 이후 희망자에게는 사업에 참여할 수 있는 기회를 제공할 예정이다.고용노동부에서는 2020년부터 기업 퇴직예정자들을 대상으로 재취업지원서비스 정책을 시행하고 있으며, 50+ 생애설계교육, 기업 재취업지원서비스 교육과 컨설팅 수요는 계속해서 증가하고 있다.한국시니어생애설계사 (KALPS) 자격표장시험 과목은 ▲생애설계총론 ▲생애재무설계 ▲건강설계 ▲여가 및 취미생활 ▲가족 및 사회적 관계 ▲커리어 관리 및 개발 등 6개 과목이며, 이론교육 60시간, 컨설팅 역량 향상을 위한 실무 40시간 등 총 100시간으로 구성되어 있다. 교육비는 80만원이며, 교육 수료생은 오는 6월 시행 예정인 ‘한국시니어생애설계사 자격시험’에 응시할 수 있다.아울러, 매일경제 생애설계센터는 청소년부터 노년까지의 생애주기 전반에 대한 생애설계 전문가 양성을 위한 ‘제20회 한국생애설계사(CLP) 자격시험’ 교육생을 모집 중에 있다. 한국생애설계사(CLP) 자격시험 과목들은 한양사이버대학 실버산업학과의 전공과목으로 개설되어 있으며, 교육은 생애설계 이론 120시간, 실무 40시간 등 160시간으로 구성되어 있다. 교육비용은 기존 교육비 180만원에서 특별할인 된 120만원으로, 자격시험은 오는 6월에 시행된다.교육에 대한 자세한 내용과 문의는 매일경제 생애설계센터 홈페이지에서 가능하다.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>서울대 컴퓨터연구소는 AI와 로봇 기술을 발전시켜 인간 두뇌와 상호작용을 모방하는 컴퓨터 아키텍처를 개발 중이다.</t>
+          <t>이 기사는 건강 정보보다는 생애설계 및 자격증 교육에 관한 내용으로 보험 상담에 직접 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6553,7 +6665,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>아가, 영양제 챙겨먹었지는 이제 옛말...한국인 건기식 사랑 빠르게 식...</t>
+          <t>강동구 “싱크홀 일대 탐사 마쳐···소규모 공동 1곳 외 이상없다”</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6563,12 +6675,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289470</t>
+          <t>https://www.mk.co.kr/article/11289218</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005475060?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474893?sid=102</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6578,27 +6690,27 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>노후</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>서울 중구 명동 CU 편의점에서 방문객들이 건강기능식품을 살펴보고 있다. 2025.3.12 [사진 = 연합뉴스]40대 직장인 윤 모씨는 최근 가족들이 복용하는 영양제를 확 줄였다. 치솟는 물가에 지출 줄일 곳을 찾다 보니 가장 먼저 눈에 띈 것이 건강기능식품이었다. 윤씨는 “온 가족이 몇 년간 매일 먹어온 비타민C와 오메가3를 빼고, 남편 챙겨 주던 비타민B 영양제와 홍삼도 끊기로 했다”면서 “부모님께 보내드리는 종합비타민과 연골 영양제는 차마 줄일 수 없어서, 딸이랑 먹던 콜라겐을 중단했다”고 말했다.한국인의 유난한 ‘건기식 사랑’이 식어가고 있다. 이 시장 큰손인 3050 여성들이 지갑을 닫고 있다. 온 가족 영양제를 구매하고, 명절이나 어버이날 선물로 건기식을 찾는 핵심 고객층이다. 고령층도 주요 고객인데, 건기식 시장이 온라인 위주인 데다 노인 맞춤형 제품군이 많지 않아 좀처럼 수요가 늘지 않는다. 건강에 관심이 많은 젊은층은 ‘해외 직구’로 눈을 돌렸고, 단백질 보충제 등 특정 제품군에만 몰린다.지난해 건기식 시장 규모는 6조440억원으로 2019년 4조8936억원 대비 23.5% 증가했다. 하지만 최근 성장률을 보면 2021년 10%에서 2022년 8.1%, 2023년 -0.1%, 2024년 -1.6%로 꺾였다.제약바이오 업계는 물론 식품, 화장품 기업들까지 뛰어들며 내수 시장이 빠르게 포화한 점도 발목을 잡았다. 건기식은 사실상 진입 장벽이 없는 데다 즉각적인 매출 창출도 용이하다. 한 제약업계 관계자는 “의약품은 몇 년 단위로 효능과 안전성을 재입증해야 하고 개발에 시간과 비용이 많이 소요된다”며 “반면 건기식은 다른 상품군 대비 마진율이 높고, 고객들이 꾸준히 복용하는 경우가 많아 여전히 매력적인 시장”이라고 전했다.매년 600곳씩 사업자가 늘고 있지만, 아직도 많은 기업이 시장 진출을 준비 중이다. 최근 압타바이오, 박셀바이오, 신신제약 등이 정관 변경을 통해 건기식을 사업목적에 추가했다. 이미 건기식 브랜드를 다수 보유한 신신제약은 제조·판매 등으로 건기식 사업을 확대한다는 구상이다.KT&amp;G 산하 KGC인삼공사의 정관장을 비롯해 CJ제일제당의 CJ웰케어, hy의 야쿠르트 및 쉼, 농심 라이필, 빙그레 tft 등도 건기식을 내놓고 있다. LG생활건강과 아모레퍼시픽 등 뷰티 업체들도 홍삼 브랜드는 기본으로 갖추고 있을 정도다.삼양식품은 지난해 10월 말 오너 3세인 전병우 상무가 주도한 신사업으로 식물성 헬스케어 브랜드 잭앤펄스를 선보였다. 불닭볶음면 의존도를 낮추기 위한 전략으로, 건기식과 간편식, 단백질 음료 등을 선보였다.주얼리 기업 제이에스티나는 지난달 건기식·건강보조식품 개발·제조·판매업을 정관에 추가했다. 지난해 영업손실 26억원을 기록하는 등 실적 부진을 겪자 사업 다각화에 나선 것이다.무한 경쟁은 한동안 이어질 전망이다. 한 식품업계 관계자는 “제약부터 식품, 화장품까지 건기식에 도전하고 있는데 아직 절대 강자는 없는 상황”이라며 “우리가 팔 수 있는 공간이 있으면 어디든 들어가는 게 맞다고 본다”고 말했다.제약업계도 건기식 사업을 강화하며 시장 수성에 나섰다. 한독은 최근 건기식 사업 부문을 분할해 신설회사를 설립하기로 결의했다. 신설법인을 통해 건기식 사업의 전문성을 강화해 시장을 넓힌다는 계획이다.휴온스그룹도 건기식사업부를 오는 5월 자회사인 휴온스푸디언스에 흡수 합병시키기로 했다. 기존에 휴온스와 휴온스푸디언스로 분리됐던 건기식 사업을 휴온스푸디언스로 합치는 사업구조 개편으로 전문성과 경쟁력을 끌어올린다는 구상이다. 국내 대표 바이오기업인 셀트리온 역시 건기식 사업 진출을 저울질하고 있다. 올해 초 서정진 셀트리온 회장은 “투자 대상으로 인삼과 홍삼 등 건기식을 눈여겨보고 있다”고 밝힌 바 있다.국내 시장이 포화된 단적인 증거는 ‘건기식의 황제’로 군림했던 홍삼 매출이 몇 년째 감소하고 있다는 점이다. 정관장을 보유한 KT&amp;G의 건강기능식품 사업부문은 지난해 매출액이 전년 대비 6.6% 감소한 1조3016억원, 영업이익은 17.7% 줄어든 964억원을 기록했다.정관장은 국내 수요 감소를 해외 확장으로 메우려는 분위기다. 지난해 정관장의 미국 아마존 매출은 전년 대비 27% 늘었다. 미국 코스트코 매출도 9% 상승했다. 중국은 더 성장세가 가파르다. 티몰·징둥닷컴 등 온라인 플랫폼과 프리미엄 마트 올레, 창고형 마트 샘스클럽 등에도 입점해 있다. 정관장의 일반의약품 채널 매출 및 온라인 플랫폼 매출은 지난해 60% 넘게 성장했다. 정관장이 일본 드러그스토어에서 올린 매출액은 전년 대비 21%, 코스트코는 58% 상승했다.CJ웰케어 역시 미국 아마존에 진출하는 등 해외 진출에 노력을 기울였다. 하지만 지금은 아마존에서 빠지고, 동남아시아 온라인몰 위주로 운영하는 등 해외 시장 확대에 난항을 겪고 있다. 지난해 CJ웰케어 매출은 700억원 전후이며 영업손실이 62억원으로, 3년 연속 적자다.제약업계를 중심으로 개별인정형 원료를 통해 시장의 돌파구를 찾으려는 움직임도 활발하다. 개별인정형 원료는 건기식 공전에 등재되지 않은 신규 개발 원료로, 식품의약품안전처가 개별적으로 기능성을 인정한다. 개별인정형 원료로 인정받으면 6년간 해당 원료의 제조·판매권을 독점할 수 있다.개별인정형 건기식의 신규 등재 건수는 2018~2021년 연간 20건 수준에서 2022~2024년엔 연간 40건으로 올라섰다. 치열한 경쟁 속에서 제품의 차별화를 도모하기 위한 수단이자 새로운 건기식으로 소비자 수요를 잡기 위한 노력이라는 평가다.</t>
+          <t>싱크홀 사고 현장 인근 도로공동탐사 및 굴착조사 진행20일 오후 11시부터 통행재개서울 강동구 공동(空洞) 탐사 특별 점검 시행구간 위치도. &lt;제공=서울 강동구청&gt;서울 강동구가 지난 달 발생한 ‘싱크홀(도로 땅꺼짐)’ 사고 현장 주변에서 지하 공동(빈 공간) 탐사를 한 결과 소규모 공동이 발견된 1개소를 제외하고 이상이 없는 것을 확인했다고 11일 밝혔다.강동구는 지난 달 27~28일 구 동남로 인근 교차로 일대 주택가 이면도로와 보도구간을 대상으로 공동 탐사를 진행했다. 이번 조사는 지표투과레이더(GPR)로 정밀 분석을 진행하는 방식으로 진행됐다. 추가 조사가 필요한 구간은 토질 전문가 입회 하에 굴착 조사도 진행했다.강동구는 “조사 결과 하수관 접합부의 노후로 인해 소규모 공동이 발견된 1개소를 대상으로 지난 10일까지 정비를 마쳤다”며 “나머지 탐사 구간은 모두 이상이 없는 것으로 파악됐다”고 밝혔다. 앞서 서울시가 진행한 사고 지점 일대인 동남로 북측 및 상암로 공동 탐사에서도 이상이 없는 것으로 나타났다.지난 27일 서울 강동구 공동 탐사 특별점검 현장. &lt;제공=서울 강동구&gt;사고가 났던 지점은 도로 안정화 작업과 되메우기, 지반 보강 등의 작업이 이뤄진 뒤 오는 20일 오후 11시부터 도로 통행이 재개된다. 동남로 구간을 임시 우회하던 버스들은 21일 첫차부터 정상 운행한다. 사고 이후 공급이 중단된 도시가스는 정밀 검사 완료 후 지난 10일 공급이 재개됐다.강동구는 구민 불안 해소와 도로 안전성 확인 등을 위해 상반기 내에 지하철 9호선 연장사업 공사 구간 일대에 있는 강동구 관리 도로에 대한 공동 탐사 용역에 착수할 계획이다. 이수희 강동구청장은 “도로를 꼼꼼하게 살피고 안전한 도로 환경을 지속해서 조성하겠다”고 밝혔다.</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>김지희 기자</t>
+          <t>정석환 기자</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/009/79674</t>
+          <t>https://media.naver.com/journalist/009/75256</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>건강기능식품 시장의 성장 둔화와 기업들의 전략 변화에 대한 기사로, 건강관리와 보험 상담과 직접적 관련성이 낮습니다.</t>
+          <t>이 기사는 싱크홀 사고와 관련된 도로 안전 점검에 관한 내용으로 건강 관리와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6610,22 +6722,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>'5억대 뇌물수수' 윤우진 前세무서장 징역 12년 구형</t>
+          <t>[논설실의 뉴스 읽기] 덩치 3배 커질 국민연금, 증시 밸류업 이끌고 국...</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/2025041163117</t>
+          <t>https://www.chosun.com/opinion/2025/04/11/C2D4RW5ZRBHMNPT35Y7RDQTFJU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118163?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898849?sid=110</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6635,27 +6747,19 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>노후</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>윤우진 전 서울 용산세무서장./사진=연합뉴스세무 업무 편의를 제공하고 대가로 5억원 상당의 뇌물을 받은 혐의로 재판에 넘겨진 윤우진(70) 전 서울 용산세무서장에게 검찰이 징역 12년을 구형했다.검찰은 11일 서울중앙지법 형사합의27부(우인성 부장판사) 심리로 열린 윤 전 서장의 결심공판에서 징역 12년과 벌금 20억원, 추징금 5억3000여만원을 선고해달라고 요청했다.검찰은 "피고인은 수사와 공판 단계에서 범행을 부인하고 있고 금품수수 액수와 기간이 상당해 사안이 중대하다"며 "법에 상응하는 처벌이 이뤄져야 한다"고 밝혔다.윤 전 서장의 변호인은 최후 변론에서 이미 불기소 처분이 이뤄진 사건에 대해 정권 교체 후 수사가 이뤄졌으며 이미 공소시효가 완성돼 면소 판결을 받아야 한다고 주장했다.그러면서 "만약 실체 판단을 하더라도 직무 관련성과 대가성이 없어 뇌물죄가 성립하지 않는다"며 "설령 일부 유죄를 인정한다 해도 70세 노인으로 재판 과정에서 중압감을 이기지 못하고 건강 상태가 악화한 점도 참작해달라"고 덧붙였다.앞서 윤 전 서장은 지난 2021년 12월 세무 업무 시 편의 제공 명목으로 세무사와 육류 수입업자로부터 2억원을 챙긴 혐의로 기소됐다.검찰은 이듬해 5월 포괄일죄(수 개의 행위가 포괄적으로 한 개의 범죄 구성요건에 해당해 일죄를 구성하는 경우) 관계인 범죄사실을 추가하는 취지로 공소장 변경을 신청해 뇌물 3억2900만원을 추가했다. 이에 따라 뇌물 수수액은 총 5억2900만원으로 늘었다.재판부는 오는 6월20일 1심 판결을 선고할 예정이다윤 전 서장은 이 사건과 별개로 세무조사를 무마해주는 대가로 뒷돈을 챙긴 혐의(변호사법 위반)로 기소돼 2023년 10월 1심에서 징역 10개월을 선고받고 현재 2심 재판이 진행 중이다.</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>고정삼 기자</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/81284</t>
-        </is>
-      </c>
+          <t>국민연금, 투자 수익률 올리기 전략27년만에 보험료율을 9%에서 13%로 올리는 국민연금 개혁안이 지난 3월 20일 국회를 통과했다. 이 개혁안으로 국민연금 기금은 2053년 3659조원까지 불어날 수 있게 됐다./뉴시스국민연금 개혁안이 국회를 통과했다. 보험료율(내는 돈)을 27년 만에 9%에서 13%로 올렸다. 소득대체율(받는 돈)도 40%에서 43%로 올려 미래 세대의 부담을 덜어주는 면에서 미흡하다는 비판이 많지만, 어쨌든 보험료율 인상으로 국민연금의 덩치는 최대 3배로 커지게 생겼다. 이번 보험료율 인상이 없었으면, 국민연금 적립금은 2039년 1972조원으로 정점을 찍고 내리막길을 걸었을 것이다. 보험료율을 13%로 인상한 덕에 현재 1213조원(작년 말 기준)인 국민연금 적립금이 2053년엔 3659조원(연평균 수익률을 5.5%로 가정한 시나리오)으로 불어난다. 종잣돈이 훨씬 더 커지는 만큼 돈을 어떻게 굴리느냐에 따른 수익 변동 폭도 더 커질 것이다. 이번 연금 개혁으로 기금 고갈 시점이 2056년에서 2064년으로 8년가량 늦춰진다고 한다. 기금 수익률을 1%포인트만 올리면 고갈 시점을 7년 더 늦출 수 있다. 향후 70년간 국민연금의 연평균 목표 수익률은 5.5%이다. 전 세계 연기금 중 수익률 1위(10%)인 캐나다연금(CPP) 수준까지 수익률을 높이면 연금 고갈 시점을 30년 가량 늦출 수 있다.◇국민연금 작년 수익률 15%1988년 출범한 국민연금은 작년 말까지 보험료로 859조원을 걷고, 737조원의 수익을 내 총 1596조원의 기금을 조성했다. 이 중 384조원을 연금 급여로 지출하고 현재 1213조원이 남아 있다.그래픽=백형선국민연금은 지난해 이 돈을 굴려 160조원의 수익을 내며 15%라는 놀라운 수익률을 기록했다. 미국 증시의 초활황 덕에 해외 주식 투자에서 34.3%라는 경이적인 수익률을 낸 덕분이다. 하지만 이 수익률은 원화 기준이고, 달러 기준으로 환산하면 18%대로 떨어진다. 해외 채권(17.1%)과 대체 투자(17.0%)에서도 고수익을 낸 반면 국내 주식 투자에선 -6.9%의 손실을 기록했다. 기금 설립 이후 지난해까지 해외 주식 투자에선 15.1% 누적 수익률을 기록한 반면, 국내 주식 투자 수익률은 5.4%에 불과하다. 채권 투자에선 해외 채권 투자(5.8%)가 국내 채권 투자(3.7%)보다 높기는 하지만, 주식만큼 격차가 크지는 않다.◇계속 줄어드는 국내 주식 투자현재 기금 투자 포트폴리오는 해외 주식 35.5%, 국내 채권 28.4%, 대체 투자 17.1%, 국내 주식 11.5%, 해외 채권 7.3%이다. 중기 자산 배분 계획에 따르면 국내 주식 투자 비율은 15% 정도인데, 작년 주가 하락 탓에 국내 주식 보유액이 139조원대로 줄어든 결과, 비율도 축소된 상태다. 중기 자산 배분 목표 15%에 맞추려면 국내 주식을 40조원 이상 더 채워 넣어야 한다. 실제로 국민연금은 올 들어 국내 주식을 꾸준히 매입하며 요즘 같은 폭락장에서 증시 방파제 역할을 하고 있다.그래픽=백형선그런데 최근 몇 년간 국민연금은 국내 주식 투자 비율을 계속 줄여 왔다. 2020년 기금 규모가 833조원이었을 때, 국내 주식 투자액은 176조원(비율 21%)에 달했다. 보험료 수입보다 연금 지출액이 더 커지는 시점이 도래했을 때, 연금 지급 자금을 마련하기 위해 국민연금이 주식을 대거 매물로 내놓을 경우 증시가 큰 충격을 받을 가능성이 있기에 국내 주식 투자 비율 축소는 불가피하다는 게 국민연금 측 설명이다. 하지만 연금 개혁으로 기금 덩치가 더 커지고, 기금 고갈 시점도 늦춰지는 만큼 포트폴리오 배분 전략을 재검토할 필요성이 생겼다.◇28년간 국내 주식 336조원 더 매수해야국민연금 중기 계획에 따르면, 2029년에는 해외 주식을 42%까지 늘리고, 국내 주식 비율은 13%로 줄일 예정이다. 2053년 기금이 3659조원으로 불어나고, 국내 주식 비율을 13%로 가정하면 연금이 보유할 국내 주식 보유액은 475조원이 된다. 작년 말 기준 국내 주식 투자액은 139조7000억원 수준이다. 향후 28년간 연금이 국내 주식을 336조원 더 사야 한다는 계산이 나온다. 작년 말 기준 기금의 국내 주식 투자 TOP10은 삼성전자(34조원), SK하이닉스(8조2235억원), LG에너지솔루션(5조5196억원), 삼성바이오로직스(3조6167억원), 네이버(3조3861억원), 현대차(3조원), 기아(2조8576억원), 포스코홀딩스(2조6894억원), 삼성SDI(2조 4678억원), LG화학(2조3484억원) 등이다. 삼성전자를 제외하고는 해외 주식 투자 1~2위인 애플(13조원), 마이크로소프트(11조원)보다 투자액이 훨씬 적다.◇국내 주식 투자 수익률 더 높여야최근 10년간 일본 증시의 주가 지수 상승률이 297%로 한국(61%)보다 월등히 높다. 여기엔 2150조원을 굴리는 일본 공적연금(GPIF)의 공이 컸다. GPIF는 10여 년 전부터 투자 포트폴리오를 변경, 국내와 해외 투자 비율을 50대50으로 하고, 투자금의 25%를 국내 주식에 투자해 왔다. 일본 증시에서 큰손 역할을 톡톡히 하며, 증시 밸류업(기업 가치 제고)을 이끌어 온 것이다. 이복현 금융감독원장은 “일본 공적연금의 지속적인 주식 투자 확대가 시장 저평가를 해소하고, 일본 밸류업 정책에도 긍정적으로 기여했다”고 평가한다.그래픽=백형선우리도 국민연금이 증시 밸류업의 견인차 역할을 하면 연금(수익률 상승), 기업(자금 조달), 국민(노후 대비) 모두에게 좋은 결과로 이어질 수 있다. 그러기 위해선 우선 정부가 세제 혜택을 통한 기업 주주 환원 확대, 중복 상장 규제, 배당소득 분리 과세 등 밸류업 프로그램부터 착실히 추진해 가야 한다.수익률 세계 1위 연금 되려면국민연금이 캐나다 연금처럼 수익률 세계 1위 기관이 되려면 지배 구조 개편, 서울 사무소 설치, 직원 인센티브 강화 등 대대적인 조직 쇄신이 필요하다.우선 국민연금이 정치에 휘둘리는 ‘연금 사회주의’ 위험에서 벗어나, 오직 수익 중심으로 운영되려면 최고 의사 결정 기구인 기금운용위원회를 정부에서 독립시키고, 전문가 체제로 개편해야 한다. 보건복지부 장관이 위원장이고, 고용노동부, 농림축산식품부 등 네 부처 차관이 당연직 위원이며, 공공노조 위원장, 한국노총 부위원장 등 이사진 면면이 투자 전문가와는 거리가 멀다.캐나다 연금의 경우 본부(CPP)와 투자 기관(CPPIB)이 분리돼 있고, CPPIB의 이사회는 1급 투자 전문가들로 구성돼 있다. 또 CPPIB법에 “(정치적 고려 없이) 수익률 하나만 보고 투자를 해야 한다”고 못을 박아놔 외풍을 차단할 수 있게 해놨다. 투자 전문가들이라 부동산, 인프라, 사모 펀드 등 고난도 분야에 투자하는 ‘대체 투자’ 비율이 60%에 달한다. 기본 연봉 외에 성과 보수도 별도로 받아 실력 있는 직원은 수십억 원대 보수를 받는다.반면 국민연금 기금운용본부는 평균 연봉이 1억원 남짓이다. 공공기관 인건비 제한을 받기 때문에 과감한 인센티브 지급이 불가능하다. 우수 인력을 유치하기 어렵고, 유치한다 해도 경력만 쌓고 금방 떠난다.1200조원대 돈을 굴리는 국민연금은 ‘세계 자본시장의 큰손’인데, 외국 투자 기관들이 이름도 모르는 지방 도시, 전주에 본부가 있다. 기금운용본부장을 지낸 A씨는 “월가의 거물이 아시아에 출장을 오면 촘촘한 일정으로 홍콩, 싱가포르, 일본, 한국을 한 바퀴 도는데, 왕복에 6~7시간씩 걸리는 전주 방문은 엄두도 못 낸다”면서 “본부를 서울로 옮기거나, 최소한 서울 사무소라도 설치해야 한다”고 말했다.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>윤우진 전 서울 용산세무서장이 뇌물 혐의로 재판 중이며, 검찰이 징역 12년을 구형했다.</t>
+          <t>기사 내용은 국민연금의 투자 전략과 수익률에 관한 것으로 건강 관리와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6667,22 +6771,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>오늘 오후 5시 이사하는 尹…관저·사저 인근서 잇단 집회 예고</t>
+          <t>씨너렉스 “확장성 뛰어난 ‘초정밀 위성항법 장치’로 자율주행 시대 ...</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327850</t>
+          <t>https://www.donga.com/news/It/article/all/20250411/131398584/1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433511?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627705?sid=105</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6692,27 +6796,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>노후</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령(왼쪽)이 지난 8일 오후 서울 용산구 한남동 관저에서 산책하고 있다. 김종호 기자윤석열 전 대통령이 파면된 지 일주일 만인 11일 서울 한남동 관저에서 나와 서초동 사저로 거처를 옮긴다. 윤 전 대통령 지지자와 반대 단체들은 관저와 사저 인근에서 찬반 집회를 열 계획이다.시민단체 촛불행동은 이날 오전 서울 용산구 한남동 관저 인근 볼보빌딩 앞에서 2만명 규모(경찰 신고 기준)의 윤 전 대통령 구속 촉구 집회를 연다. 국민주권당도 오후 4시 같은 장소에서 집회를 열고 윤 전 대통령의 조속한 퇴거를 촉구한다.윤 전 대통령 지지자들도 관저 인근으로 모인다. 자유대한국민연대는 이날 오전, 보수 유튜버 신의한수 등은 오후 3시 볼보빌딩 앞에서 윤 전 대통령 응원 집회를 열겠다고 신고했다.사저인 서초구 서초동 아크로비스타 인근에서도 집회가 예고됐다. 오전 11시 진보 유튜버 정치한잔 등이, 오후 3시쯤에는 보수 유튜버 벨라도 등이 각각 50명, 5000명 규모의 집회를 신고했다. 일부 윤 전 대통령 지지자들은 한남동 관저에서 서초동까지 '인간띠'를 만들겠다고 예고하기도 했다.집회는 관저 퇴거 시점인 오후 5시 이후부터 헌법재판소 인근으로 옮겨간다.국민의힘비대위갤러리는 오후 6시 안국역 인근 노인복지센터 앞에서 '헌법재판소 국가 장례식 발인 집회'를 하고, 내란청산·사회대개혁 비상행동은 오후 7시 30분 경복궁 서십자각에서 '내란 종식 긴급행동'을 벌인다. 각각 200명과 1만명을 참가 인원으로 신고한 이들은 집회 후 도심을 행진할 계획이다.윤 전 대통령은 이날 오후 5시 한남동 관저를 떠나 서초동 사저로 이주한다. 그가 관저 또는 사저 앞에서 지지자들에게 인사를 할 가능성도 있다.대통령경호처는 약 40명 규모의 사저 경호팀 편성을 마친 것으로 알려졌다. 윤 전 대통령은 '대통령 등의 경호에 관한 법률'에 따라 앞으로 최대 10년까지 대통령경호처의 경호를 받을 수 있다.</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>정혜정 기자</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/025/73060</t>
-        </is>
-      </c>
+          <t>“자율주행 차량이 오차 없이 정해진 위치로 스스로 움직이려면, 초정밀 위성항법 장치가 필수입니다. 정밀 농기계와 드론, 로봇, 지하시설물 관리에도 초정밀 위성항법 장치가 반드시 필요합니다. 이처럼 뛰어난 확장성을 지닌 초정밀 위성항법 장치의 내구성을 높여 사막이나 열대림에서도 버틸 수 있는 강인한 제품을 개발하겠습니다.박재덕 씨너렉스 대표 / 출처=IT동아초정밀 위성항법 장치 개발 기업 씨너렉스 박재덕 대표의 포부다. 2016년 창업 이후 꾸준히 초정밀 위성항법 장치를 연구·개발해 온 씨너렉스는 임박한 자율주행 시대를 앞두고 제품 공급처 확대에 매진하고 있다. 다양한 자율주행 기기가 정해진 위치로 정확하게 이동하기 하기 위해 반드시 필요한 초정밀 위성항법 장치 수요가 급증하기 때문이다. 어떠한 환경에서도 제품이 제대로 성능을 발휘하려면, 내구성 강화도 필수다.위성항법 시스템(GPS)은 지구 궤도를 도는 다수 위성이 쏘는 신호를 활용해 거리를 측정하는 방식으로 위치정보를 제공하는 데 쓰인다. 다만, 위성이 쏜 신호가 단말기까지 도달하는 과정에서 수많은 전파 간섭과 굴절이 발생해 최대 10m 안팎의 오차가 발생하곤 한다. 씨너렉스는 지상의 기준국을 기반으로 위성 신호 오차를 보정해 오차범위 2cm~3cm 이내인 초정밀 위치정보를 제공하는 장치를 개발했다. 외산 장비가 대부분인 위성항법 장치 시장에 국내 기술을 적용한 제품을 선보였다.GPS 신호보정을 통한 초정밀 위성항법 장치 기술 개요도 / 출처=씨너렉스박재덕 대표는 “예컨대 자율주행차가 안전하게 주행하기 위해서 차선을 구분할 줄 알아야 한다. 하지만 우리가 사용하는 내비게이션은 도로는 구분하지만, 차선은 구분하지 못하기 때문에 이를 가능케 하는 부품이 필요하다. 자율주행차의 경우 오작동은 곧 생명과 직결되므로, 초정밀 위치항법 장치가 길을 잡아줘야 한다”며 “현재 초정밀 위성항법 장치 시장에는 값비싼 외산이 대부분인데 자사는 2016년 창업 이후 줄곧 초정밀 위성항법 장치만 연구하고 개발해 온 덕분에 미국, 유럽의 경쟁사 제품에 비해 1/3 이하 가격으로 제품 공급이 가능하다. 현대차를 비롯해 두산모빌리티, 오토노머스에이투지, 42dot 등 250개 이상 고객사를 확보한 배경”이라고 설명했다.초정밀 위성항법 장치는 뛰어난 확장성을 지녔다.박재덕 대표는 “초정밀 위성항법 장치는 자율주행차뿐만 아니라 드론, 로봇, 무인선박 등 정밀한 위치정보를 기반으로 작동하는 기기에 필수적으로 들어가는 부품이다. 특히 최근 급격히 시장이 확대되는 자율주행·정밀 농기계에도 초정밀 위성항법 장치가 필요하다. 일례로 글로벌 Top5 업체로 평가받는 일본 Y사가 국내에서 판매하는 이앙기와 트랙터에도 자사 제품을 납품하기 시작했다”며 “지하시설물 관리에도 초정밀 위성항법 장치가 필요하다. 통신구와 열 수송관, 도시가스 배관 등 사회 핵심 인프라를 이루는 지하시설물의 노후화로 정비나 교체 작업을 하려고 땅을 파다가 폭발 사고가 일어나는 등 사건사고가 끊이지 않는다. 지난 2018년 11월, 서울 서대문구 KT 아현지사 건물 지하 통신구에서 발생한 화재로 인명피해와 함께 일대 통신이 마비된 사고가 한 예다. 초정밀 위성항법 장치를 활용하면, 땅을 파내지 않고도 지하시설물의 정확한 위치 파악이 가능하다. 증강현실을 이용하면, 파악한 지하시설물의 위치를 시각화할 수도 있다”고 말했다.씨너렉스는 해외 시장 공략에도 박차를 가하고 있다.박재덕 대표는 “현재, 일본, 미국, 유럽, 동남아 등 다양한 국가에 제품을 전시하고 파트너십을 구축했다. 특히, 일본은 2곳의 공식 대리점 계약을 체결해 작년부터 수출을 시작했고, 주로 드론 분야에 중점을 두고 사업을 진행하고 있다. 초정밀 위성항법 장치와 이를 활용한 드론 조종 면허시험 훈련시스템을 수출하고 있으며, 앞으로 드론 원격제어 및 관제 기능 등을 결합한 다양한 제품을 일본시장에 공급할 예정”이라고 말했다.박재덕 씨너렉스 대표 / 출처=IT동아그는 이어 “유럽 위치 보정정보 인프라 회사인 오노코이(ONOCOY)와도 업무협약을 맺고 자사 초정밀 위성항법 장치를 오노코이 인프라에 결합하는 방식의 파트너십을 구축했다. 유럽의 위치정보를 정밀하게 제공하는 데 자사 기술을 활용 중”이라며 “중국 림스 다이내믹스(LimX Dynamics)와도 협력해 이족보행 로봇을 국내에 선보이기 시작했다. 특히 Tron1 모델은 국내에서 휴머노이드 로봇을 개발하려는 연구기관 및 대학에 연구 플랫폼으로 공급 중이다. 향후, 초정밀 위성항법장치를 결합한 비즈니스 모델을 양사 간 논의하기로 했다”고 전했다.“자율주행 시장 확대 절실…초정밀 위성항법 장치 내구성 강화에 매진할 것”박재덕 대표는 국내 자율주행 시장 확대 속도가 다소 더딘 것에 대한 안타까움도 표했다.그는 “자율주행차와 드론, 로봇 등 무인 모빌리티 분야 시장이 활성화, 즉 양산체제로 전환되지 못하는 상황이 아쉽다. 자율주행 관련 기술 기업들이 막대한 연구개발비를 쏟아붓고도 공급할 곳을 찾지 못해 사라지는 것을 보면 안타까움이 크다. 무인 모빌리티 시장이 아직까지는 정부 주도하에 움직이므로, 정부 지원금이 끊기면 생존이 어려운 게 사실”이라며 “자율주행 관련 규제가 완화되고, 정부 주도의 지원 사업도 연속성 있게 유지돼서 국내 자율주행 기술 시장이 확대됐으면 한다”고 말했다.씨너렉스는 초정밀 위성항법 장치의 내구성을 강화하는 데 매진하고 있다. 건설·농업·임업 등에 주로 쓰이는 자율주행 필드용 로봇은 대부분 야외에서 활용되므로, 급격한 온도변화나 충격, 진동 등을 견디며 스스로 성능을 발휘해야 한다. 특히 자율주행으로 작동하는 해당 로봇에는 무수한 센서가 탑재되는데 전자파에 민감한 센서 특성상 내성을 얻지 못하면, 기계의 치명적인 오작동을 유발할 수 있다. 정부 주도로 자율주행 필드용 로봇을 위한 전자파 내성 센서 개발 사업이 진행되는 배경이다.전자파 내성이 있는 소형 고해상도 6축 회전각 측정 센서 개발 사업 개요 / 출처=씨너렉스박재덕 대표는 “한국산업기술기획평가원을 주관으로 전자파에 대한 내성이 있는 소형 고해상도 6축 회전각 측정 센서 개발 사업이 지난해부터 진행 중이다. 자사는 해당 사업에서 초정밀 위성 항법시스템에 대한 기술력을 바탕으로 전자파에 대한 내성을 갖춘 센서 개발을 담당한다”며 “험지에서 주로 활용하는 자율주행 필드용 로봇은 어떠한 충격이나 가혹한 기상 환경에도 사람 없이 정상 동작해야 하는 기계다. 해당 기계가 정확하게 필요한 위치에서 정해진 기능을 수행하려면, 초정밀 위성항법 장치 기술과 전자파 내성을 갖춘 센서가 반드시 필요하다. 지금까지 쌓아온 기술력을 바탕으로 일손이 부족한 지역이나, 사람이 개입하기 어려운 위험한 환경에서도 자율주행 필드용 로봇이 활용될 수 있도록 최선을 다하겠다”고 말했다.끝으로 씨너렉스의 향후 계획을 들었다.씨너렉스의 최신 초정밀 위성항법 장치 SYN-3200을 들고 있는 박재덕 대표 / 출처=IT동아박재덕 대표는 “올해 본격적으로 매출 확대를 추진하려고 한다. 자율주행분야 뿐만 아니라 정밀 농기계 및 지하시설물 관리와 드론 및 로봇 분야에서 실질적인 매출 성장을 이루는 것이 올해 중점 목표다. 아울러, 올해는 일본시장 매출 확대가 기대되는 한 해”라며 “정부 사업을 진행 중인 만큼, 초정밀 위성항법장치 활용처를 건설기계 분야로 확대해 사막, 열대림 등 열악한 환경에서도 견뎌낼 수 있는 강인한 제품 개발에 중점을 두겠다. 실내외 환경에서 모두 cm급 초정밀 측위를 할 수 있는 제품을 개발해 활용처를 더욱 확대하겠다”고 강조했다.IT동아 김동진 기자 (kdj@itdonga.com)</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>윤석열 전 대통령의 퇴거와 관련된 정치적 집회 소식으로, 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 초정밀 위성항법 장치와 관련된 기술 개발에 대한 내용으로, 건강 관리와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6724,22 +6820,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[현장24시] 김수현 사과문, 전현무에 써달랄 걸…학 씨!</t>
+          <t>日 국유림 산림욕-온천욕 ‘헬스 투어’… 지역경제도 살려</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289386</t>
+          <t>https://www.donga.com/news/Society/article/all/20250410/131393627/2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005475025</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627528?sid=102</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6749,34 +6845,46 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>노인</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>노후</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[그린 시프트, 숲이 바뀌어야 사람도 산다]건강-체험 접목해 산림관광 육성산림稅 만들어 산촌경제 활성화엑스포엔 기네스 목조 건축물이달 13일 개막하는 2025 오사카 간사이 엑스포의 ‘그랜드 링’. 못을 쓰지 않고 목재들을 끼워 넣는 일본 전통 기법으로 만들었다. ⓒExpo 2025일본의 산림 면적은 약 2500ha로 국토의 68.4%를 차지한다. 경제협력개발기구(OECD) 국가들 중 핀란드(73.7%), 스웨덴(68.7%) 다음으로 많다. 제2차 세계대전 패전 이후 황폐화된 산림 복구 산업이 결실을 거둬 지난 50년 사이 산림 면적이 2.6배로 늘었다. 산림 자원이 풍족해진 만큼 단순히 목재를 생산하는 것이 아니라 산림이 갖고 있는 다양한 가치를 끌어올리기 위한 시도가 활발하게 이뤄지고 있다.이를 위해 우리나라의 산림청 역할을 하는 일본 임야청은 2018년 ‘산림서비스산업 검토위원회’를 마련했다. 크게 건강, 교육, 관광, 지속가능발전목표(SDGs) 등 4개 분야로 나눠 산림 정책을 추진하고 있다. ‘국토녹화추진기구’ ‘숲만들기전국추진회’ 등 민간 단체들과의 의견 교류도 활발하다.‘관광 대국’ 일본은 특히 도쿄, 오사카, 교토 등 일부 대도시에 외국인 관광객이 몰리는 것을 분산시키고 지역 경제를 살리기 위해 최근 산림 관광 활성화에 힘을 쏟고 있다. 2017년 전국 국유림 83곳을 ‘일본 아름다운 숲, 추천 국유림’으로 선정하고 알리기에 나섰다. 지역의 표지판과 안내문 설치 등 외국어 정보 서비스를 늘리고 있으며, 노후한 숙박과 교통 시설 정비에도 나서고 있다. 산림욕, 온천욕 등과 결합시킨 ‘헬스 투어’도 인기다.나가노현 이이야마(飯山)시 모리노이에(森の家)와 같은 산촌생태시설은 대표적인 성공 사례로 꼽힌다. 산림 치료를 중심으로 요가, 카누, 소바 만들기, 산나물 캐기 등 200여 가지 체험 코스를 만들어 사업 초기인 2007년에 최고 200만 명이 다녀갔다. 지금도 연간 수만 명이 찾는다.기업들도 산림 활용에 적극적이다. 정보기술(IT) 기업 세일스포스닷컴은 직원 46명이 1년간 와카야마현 산림에서 재택업무와 지역 봉사를 하는 프로그램을 진행했다. 그 결과 이전보다 매출(계약 금액)이 24% 증가하는 등 생산성이 오르는 효과를 봤다. 일본 정부는 2019년 ‘산림환경양여세’, 2024년 ‘산림환경세’ 등을 신설해 마련한 예산을 산림 지역에 투입해 산촌 경제 활성화를 지원하고 있다.일본은 대형 이벤트가 있을 때마다 산림 강국의 이미지도 강조하고 있다. 2020 도쿄 올림픽 주경기장 건물은 목재로 지어졌다. 이달 13일 개막하는 2025 오사카 간사이 엑스포의 상징물 또한 목재로 만들어진 ‘그랜드 링’이다. 폭 30ｍ, 최대 높이 20ｍ에 둘레가 무려 2km에 달하는 원형의 목조 건축물을 못을 쓰지 않고 목재들을 끼워 넣는 일본 전통 기법으로 만들었다. 지난달 4일 세계 최대 목조 건축물로 기네스 인증도 받았다.</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>기사 내용은 일본의 산림 관리와 관광 활성화에 관한 것으로, 건강 관리와 보험 상담에 직접적인 연관성이 부족합니다.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[광화문·뷰] 어느 79세 청년의 죽음</t>
+          <t>"나이는 숫자일 뿐"…65세 커플스, 마스터스서 191야드 '이글' [여기는 ...</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/opinion/2025/04/11/L4QMNKUTIVHADO7WXWGZQDNIMA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.hankyung.com/article/202504114493i</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898851?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005117858?sid=104</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6786,21 +6894,25 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>시니어</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>시위 함성에 묻힌 분신 사건성공한 사업가는 왜?공동체와 미래에 대한 걱정순정한 마음은 폄하 말아야대통령 탄핵 찬반 시위가 한창이던 지난 3월 7일 정오, 덕수궁 근처 서울도시건축전시관 노천 옥상에서 79세 남성이 분신을 했다. 기사에는 그 남성이 “윤석열 대통령 만세”라고 적힌 유인물을 뿌렸다고 쓰여 있었고, 악플이 어마어마했다. 그는 12일 후 사망했다.지하철에서 정치 유튜브를 크게 틀어놓는 그런 어르신이었을까. 대체 왜. 수소문 끝에 그의 동창 세 분을 만났다. 우리 사회 엘리트들이었다. 그들이 서로 ‘팩트체크’ 해가며 이야기를 들려줬다.1946년생 K씨는 함흥에서 월남한 기독교 가정에서 자랐다. 경복고에는 남들보다 한 해 늦게 입학, 말썽쟁이들에게 밥 사주고 타이르던 형 같은 동급생이었다. 연세대 졸업 후 교사를 하다 제조업체를 차려 성공했다. 경기도 부천의 작은 교회 시무 장로로 은퇴할 때까지 목사와 함께 교회를 일으켰고, 서초동 자택 근처 작은 교회를 다니면서도 비슷했다. 기부와 봉사, 배려의 일화가 계속 나왔다. 지난 3일 K는 무신론자인 친구에게 전화를 했다. “내 소망은 네가 교회에 나가는 것”이라며 책을 보냈다. 제목이 ‘예수’였다.지난 3월 6일 밤, 그는 자기 마음을 적었다. “저는 젊어서 진보였습니다. 김대중씨를 좋아했고, 노무현 대통령에게 한 표 찍었습니다. 그런데 나이가 들면서 미선이, 효순이 미군 탱크에 의한 교통사고와 광우병 사건, 세월호 사건을 보면서 의심이 들기 시작했습니다. 뒤에 숨은 종북 세력들의 음모가 엄청났습니다. 이제는 좌우의 문제가 아니고 옳고 그름의 문제인 것입니다….” 글은 종북 세력 확산과 자유민주주의·신앙의 자유에 대한 걱정으로 이어졌다. 선관위에 대한 불만을 적었지만, 부정선거론을 맹신하지도 않았다.7일 아침, K는 영정으로 쓸 사진을 액자에 넣어 책상에 올려두고 집을 나섰다. 배낭에는 문서 서른 장과 시너가 담긴 페트병 두 개가 들어 있었다. 오전 11시 59분, 그는 라이터를 켰다.말수가 적고, 주장이 많지 않던 그는 ‘윤석열 대통령 탄핵 반대’ 시위에는 꼬박꼬박 나갔다. 한 동창이 이유를 물었다. “(민주주의를 지키자는) 저 소리가 듣고 싶어서 그래.”정치적 주장에 목숨을 걸어서는 안 된다. 하지만 어떤 사람들은 그런다. 70, 80년대 대학생들이 그랬다. 그들에게는 민주 투사, 열사 호칭이 붙었다. 70여 년 모범 시민으로 산 남성은 기사 속 익명으로 남을 뿐이다. 그의 주장이 기득권에 대한 저항이 아니라 우파적이고, 그가 청년이 아니고 노인이기 때문이다.헌재는 그의 바람과는 다른 결론을 내놨다. 정치 공학을 아는 이들은 “보수가 깔끔하게 윤석열을 버렸으면 대선이 조금 더 유리해졌을 것”이라고, 시간을 끈 것은 ‘낭비’라고 지적한다. 동의하지 않는다. 거리의 주장 때문에 탄핵으로 가는 길에 많은 ‘논쟁’이 일어났다. 영장 청구권, 수사권, 헌재 심판의 절차적 정당성을 두고 갑론을박했다. 민주주의는 ‘절차의 전쟁’이라는 걸 알게 됐다. 그래서 한덕수, 이상민, 박성재가 돌아오고, 이재명 2심은 무죄가 나고, 윤석열은 돌아오지 못하는 결과를 그 많은 대중이 수용할 수 있었다.여유로운 노년을 보내기에 부족함이 없던 K가 왜 꼭 그랬어야 하는지 아직도 친구들은 정확히 이해하지 못한다. “며칠 전 새벽 기도를 갔다가 부름을 받은 것 같다” “괴물 같은 한국 정치에 휩쓸리고 말았다” “윤석열이 아니라 민주주의와 종교를 지키려는 자발적 순교였다.”분신 직전, K는 단톡방 몇 군데에 메시지를 보냈다. “사랑합니다.” “사랑해요.” 79세 K에게는 미래를, 공동체를 생각하는 청년의 마음, 그게 있었다. 그의 영혼이 안식처에 이르렀길 빈다.정치적인 이유로 극단적인 선택을 하기 전, K씨가 떠올린 건 사랑하는 이들이었다. /K씨 지인 제공</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>정치적 분신 사건과 관련된 기사로, 건강 정보와는 관련이 없습니다.</t>
-        </is>
-      </c>
+          <t>마스터스 토너먼트 1R'베테랑' 커플스, 14번홀서 하이브리드 잡고 이글1언더파로 커트 통과 '청신호'프레드 커플스가 11일(한국시간) 마스터스 1라운드 1번홀에서 버디를 잡은 뒤 팬들과 환호하고 있다.  /AFP연합뉴스나이는 숫자에 불과하다. 191야드의 거리 역시 숫자일 뿐이다. 11일(한국시간) 개막한 마스터스 토너먼트에서 '백전노장' 프레드 커플스(65)가 증명해낸 사실이다.커플스는 이날 미국 조지아주 오거스타내셔널GC에서 열린 시즌 첫 메이저대회 마스터스 1라운드 14번홀(파4)에서 191야드 거리에서 친 샷이 그대로 홀에 빠져들어가며 이글을 잡아냈다. 이날 커플스는 이 이글과 함께 버디 2개, 보기 3개로 1언더파 71타로 첫날을 마쳤다. 현지시간 오후 3시 현재 공동 10위에 이름을 올리고 있다.이날 전반 9개 홀에서 커플스는 2개의 보기를 범해 1오버파로 14번홀에 들어섰다. 6번 하이브리드를 잡고 친 두번째 샷으로 공은 그린 왼쪽에 정확히 떨어진 뒤 그대로 홀로 굴러 들어갔다. 그는 왼팔을 번쩍 들어 팬들에게 화답한 뒤 클럽 헤드에 입을 맞췄다. 이후 나머지 홀에서 커플스는 파 행진으로 타수를 지켰고 언더파로 마스터스 첫 날을 마쳤다.사진=마스터스 조직위원회경기를 마친 뒤 커플스는 14번홀에서의 플레이에 대해 "6번 하이브리드로 쳤는데 공이 정말 정말 잘 맞았다"며 "홀이 언덕 너머에 있어서 들어가는 장면을 보지 못했는데 관중들의 반응을 보고 이글이라는 사실을 알았다"고 활짝 웃었다. 이어 "이 코스 파4홀에서 이글을 잡아본 적이 없었던 것 같다. 정말 재미있었다"라고 덧붙였다.커플스는 미국프로골프(PGA)투어의 대표 베테랑으로, '명예의 전당' 입회자이기도 하다. 1992년 마스터스 우승자로, 이번이 32번째 출전이다. 2023년 이 대회에서는 64세로 최고령 본선 진출 기록을 세웠다.현재 시니어투어인 챔피언스 투어에서 활동하고 있는 그는 이날 골프백에 퍼터와 드라이버를 비롯해 3·5번 우드, 3·4·5·6 하이브리드, 7·8·9번 아이언과 웨지를 꽂았다. 한창 때의 선수들과는 다른 구성이다. 이날 경기에서는 공도 어린 현역들이 거의 사용하지 않는 노란 형광색을 쓴다. 공이 눈에 더 잘 보이기 때문에 선택한 색이다.이번 대회 목표는 커트 통과다. 작년에는 커트탈락을 했고 부상으로 고통받기도 했다. 커플스는 "65세의 나이에도 이 코스로 돌아올 수 있어서 행복하다"며 "오거스타 내셔널은 어려운 코스다. 나는 더이상 충분히 멀리 칠 수 없고, 파5에 레귤러온을 할 수 없지만 여전히 경쟁할 수 있다"고 자신감을 보였다.오거스타=조수영 기자 delinews@hankyung.com</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>조수영 기자</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/015/25619</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>False</t>
@@ -6810,22 +6922,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>천안시 “인구 늘리기 정책에 1.5조 투입”</t>
+          <t>"대통령 내외분 수고하셨습니다"…尹 사저에 걸린 현수막 [현장+]</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250410/131391852/2</t>
+          <t>https://www.hankyung.com/article/2025041156187</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627578?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118040?sid=100</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6835,27 +6947,27 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>저출생-고령화 대응 인구정책 추진… 육아휴직 장려금 등 실질적 지원AI컴퓨팅센터 유치해 일자리 창출… 어르신 고용 늘려 소득 보장 강화충남 천안시는 2월 28일 시청 중회의실에서 김석필 부시장을 주재로 인구정책자문위원회를 개최하며 저출생·고령화 등 인구구조 변화에 대응하는 정책을 논의했다. 천안시 제공충남 천안시가 저출생과 고령화로 인한 인구구조 변화에 대응하기 위해 생애주기 전반을 아우르는 정책을 추진한다. 출생과 양육 기반을 확대하고, 미래 산업 육성을 통해 일자리를 만들어 인구 유입을 유도하겠다는 구상이다.시는 인구 70만 명과 생활 인구 200만 명 시대를 위해 187개 사업에 1조4953억 원을 투입한다고 10일 밝혔다. 시는 올해 초 ‘2025 인구정책 시행계획’을 마련해 인구 증가를 위한 협의체인 인구구조변화대응단을 신설하고 인구영향평가제를 시범 도입하는 등 지역 특색에 맞는 신규 사업 발굴에 집중하고 있다. 출생부터 양육까지의 지원체계 마련과 노인과 여성, 취약계층을 위한 맞춤형 돌봄 생태계 구축에 나서겠다는 계획이다.먼저 국비와 도비를 포함한 3198억 원의 예산을 출산 및 양육 환경 개선에 투입한다. 주요 정책은 아빠 육아휴직 장려금 지원, 출생축하금 지급, 충남 최초 임산부 교통비 지원, 산후조리원 비용 지원, 네 자녀 이상 가구 대상 양육바우처 등이다. 또 연령·혼인 여부 등과 관계없이 모든 20∼49세 남녀에게 필수 가임력 검사비를 지원하고, 이른둥이 외래 본인부담금도 경감하는 등 실질적인 출산 장려 환경 조성에 나섰다.보육 인프라 확충을 위해선 올해 다함께돌봄센터 7곳을 신규 설치해 총 15곳으로 확대할 예정이다. 365일 24시간 풀케어 어린이집도 기존 4곳에서 2곳을 추가 설치해 운영한다.고령세대를 위한 다양한 정책도 병행한다. 올해 노인 일자리 사업에 총 220억2500만 원의 예산을 편성하고 4833명이 참여할 수 있도록 사업을 확대한다. 이를 통해 노인의 사회 참여 기회와 소득 보장을 동시에 강화하겠다는 계획이다. 돌봄이 필요한 어르신을 위해 ‘천안시 통합돌봄센터’를 개소했으며, 올해부터 경로당 난방비를 200만 원, 양곡 지원을 12포대로 늘리기로 했다.양질의 일자리를 제공할 고부가가치 산업 유치와 육성 등을 통한 청년인구 유입에도 중점을 둔다. 국내를 대표하는 스마트도시로 부상하기 위해 ‘국가 AI컴퓨팅센터 구축 공모사업’ 유치에 도전한다. 국가 AI컴퓨팅센터는 인공지능(AI) 서비스와 모델 개발 등을 지원하기 위한 첨단 반도체가 집적된 인프라 시설이다. 공모 선정 시 국내외 AI 분야 기업들이 대거 천안으로 모일 수 있다.시 관계자는 “생애 전 주기를 아우르는 촘촘한 정책과 각종 돌봄 정책을 마련해 시민 삶의 질을 높여 나가겠다”며 “일자리 창출, 주거 안정, 교통 개선, 돌봄 서비스 강화 등 핵심 분야의 부족한 부분을 보완하는 등 종합적인 인구정책을 추진하겠다”고 말했다.지난해 시 합계출산율은 0.77명으로 전국 평균 0.75명을 웃돌았다. 누적 출생아 수는 3507명으로 전국 기초자치단체 중 10위를 달성했다. 1월 기준 총인구는 69만7544명이다.</t>
+          <t>서초동 윤 전 대통령 사저 '아크로비스타' 보안 강화입주민들 사이에서도 복귀 두고 의견 갈려윤 전 대통령이 11일 복귀할 것으로 예정된 서초동 '아크로비스타'에 걸린 현수막/사진=유지희 기자윤석열 전 대통령의 서울 서초구 아크로비스타 사저 복귀가 임박하면서 단지 주변은 긴장감이 감돌고 있다. 사저 인근은 경비가 강화됐고, 주민 반응도 찬반으로 나뉘고 있다.11일 낮 12시 30분쯤 기자가 방문한 아크로비스타 주변은 평소와는 다른 긴장감이 감돌았다. 경찰차들이 단지 주변에 배치됐고, 보안이 강화된 모습이었다.단지 내부는 적막했으며, 외부인에 대한 주민들의 경계심도 높았다. 일부 주민은 외지인이 단지 내에 모여있는 사람들에게 "어디서 왔냐"고 묻는 등 예민한 반응을 보였다. 아크로비스타 상가 상인들도 말을 아끼는 분위기였다.윤 전 대통령을 지지하는 주민과 지지자들은 이미 '환영 무드'를 조성하고 있다. 아크로비스타 단지에는 '대통령 내외분 수고하셨습니다'라는 문구가 적힌 현수막이 걸렸고, 인근 인도에도 'Yoon Again!(윤 어게인) 다시 대한민국!'이라 적힌 현수막이 보였다.60대 주민 A씨는 "사람들이 사진 찍으려고 몰려와서 렌즈만 봐도 깨버리고 싶었다"며 불편한 심경을 드러냈다. 이어 "그 사람(윤 전 대통령)이 원래는 참 괜찮은 사람이다. 대통령이 되는 바람에 온갖 안 좋은 일을 겪었지, 우리는 그를 미워하지 않는다. 탄핵이 인용된 게 법적으로도 참 안타깝다"고 말했다.출처=당근하지만 모두가 그의 복귀를 반기는 것은 아니다. 30대 주민 B씨는 "대통령직에서 물러난 이유가 내란 혐의가 인정된 거 아닌가. 그런 사람이 다시 이곳에 돌아온다는 건 솔직히 불편하다"며 "처음 당선됐을 때는 자랑스러운 주민이라고 생각했지만, 지금은 형언할 수 없이 실망감이 크다"고 밝혔다.온라인 커뮤니티에서도 인근 지역 주민들의 우려가 나왔다. 지역 커뮤니티 플랫폼 '당근'에는 "윤석열 아크로비스타 진짜 오는 거냐, 근처 자주 다니는데 시끄러워질까 걱정된다"며 "차 막힐까 봐 벌써 짜증 난다. 이 사람 다니는 곳은 다 소란스럽다" 같은 글이 올라오기도 했다.경찰은 이날 오후 5시 서울 용산구 한남동 관저에서 출발이 예정된 윤 전 대통령의 사저 복귀를 대비해 만반의 준비에 나섰다. 복귀 당일 오후에는 찬반 집회가 예정돼 있어, 경찰은 사저 인근에 소음 측정기를 설치하고, 기동대 2개 부대를 배치해 만일의 충돌 상황에 대비할 방침이다. 사저 주변은 일시적 교통 통제 가능성도 제기되는 상황이다.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>이정훈 기자</t>
+          <t>유지희 기자</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/020/79984</t>
+          <t>https://media.naver.com/journalist/015/80247</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>천안시의 저출생 및 고령화 대응 정책에 관한 기사로 건강 정보와 직접 연관성이 낮습니다.</t>
+          <t>정치적 사건과 관련된 기사로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -6867,22 +6979,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>“산불 재앙 겪고 난 지금이 임도 건설 골든 타임… 놓치면 또 당한다”</t>
+          <t>"피의자 죽으면 다 끝나나"…장제원이 소환한 '공소권 없음' 논란</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/national_general/2025/04/11/XGNZAOMAJJFOLMUMMKO3C37IN4/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.joongang.co.kr/article/25327825</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898915?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433487?sid=102</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6892,29 +7004,25 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>산림 전문가 4인이 말하는 예방 대책지난달 25일 경북 안동시 임하면에서 산불이 번지는 모습. 불길이 타올라 밤하늘이 벌겋게 보인다. 지난달 22일 경북 의성에서 시작된 산불은 이날 태풍급 강풍을 타고 안동, 청송, 영양, 영덕으로 확산됐다. /연합뉴스지난달 경북 의성, 경남 산청 등 영남 지역에서 발생한 산불로 31명이 죽고 산림 등 4만8000ha가 불탔다. 서울 여의도 면적의 165배다. 이재민은 3만7000명에 달했다. 그동안 가장 큰 산불은 2000년 강원도 동해안 산불(2만3794㏊)이었는데 이 2배 이상 큰 상처를 남긴 것이다. 경북도는 10일 이번 산불 피해를 복구하는 데 경북 지역만 2조7000억원이 들 것이라고 추산했다.그러나 산불은 끊이지 않고 있다.최근에도 경남 하동, 울산 울주, 대구 등에서 산불이 번졌다.전문가들은 “이상 기후의 여파로 매년 봄마다 대형 산불이 반복될 것”이라며 “지금이라도 대책 수립에 나서야 한다”고 했다.이와 관련해 산불 전문가 4명의 의견을 들었다. 남성현 전 산림청장, 정우담 미 오리건주립대 교수, 최무열 한국임업진흥원장, 박준영 전 전남지사다.남성현 전 산림청장남성현 전 산림청장은 산불을 막기 위해선 숲 속에 임도(林道)를 많이 만들어야 한다고 했다. 임도는 소방차가 들어갈 수 있는 숲속 찻길을 말한다. 헬기는 안전상 야간에 투입할 수 없는데 임도가 있으면 숲속에 소방차를 대고 밤에도 물을 뿌릴 수 있게 된다. 지난달 영남 지역 산불 현장에선 낮에 애써 잡은 산불이 밤만 되면 다시 번지는 일이 반복됐다.특히 경북 지역의 피해가 컸던 이유도 다른 지역보다 임도가 부족하기 때문이라고 지적했다.그래픽=김의균남 전 청장은 “경북은 특히 개인이 소유한 사유림이 많아 임도 확대에 한계가 있다”고 했다.임도를 개설할 때 국유림은 정부가 비용을 100% 부담하지만 사유림은 정부와 지방자치단체가 90%, 소유주가 10%를 낸다. 산림청에 따르면 임도 1㎞를 만드는 데 드는 돈은 약 3억3500만원이다. 소유주는 그중 3350만원을 부담해야 한다. 이 때문에 임도 개설에 소극적일 수밖에 없다는 것이다. 그는 “국가가 예산을 확보해 사업을 추진해야 한다”고 했다.그는 올봄 경북 일대에 창궐했던 소나무재선충병도 산불을 키운 원인으로 꼽았다. 산림 당국과 경북도는 재선충병 확산을 막기 위해 재선충병에 걸린 소나무를 베어낸 뒤 숲속에 쌓아뒀는데 이게 땔감이 됐다는 것이다. 남 전 청장은 “경북 산에만 이런 나무 더미가 50만개나 됐다”며 “봄철마다 소나무재선충병이 도는데 방제 작업을 한 뒤 잘라낸 나무를 바로 빼내야 한다”고 지적했다.남 전 청장은 “전국에서 동시다발하는 산불을 막으려면 담수량 5000L 이상인 대형 헬기가 최소 24대 필요하다”고 했다. 현재 산림청이 보유한 대형 헬기(5000L 이상)는 7대다. 주력 헬기인 러시아제 카모프는 담수량이 3000L로 적은 데다 그마저 29대 중 16대만 진화 현장에 투입됐다. 남 전 청장은 “러시아·우크라이나 전쟁 여파로 부품 공급이 끊겨 카모프 헬기 8대에서 뜯어낸 부품을 나머지 21대에 끼워 맞추는 실정”이라고 했다. 물 8000L를 뿌릴 수 있는 미국 시코르스키 헬기는 1대당 가격이 500억원이 넘는다.“이제는 산불도 전쟁으로 봐야 합니다. 국방비 책정하듯 고정적으로 예산을 투입해야 한다는 거죠. 그런데 여야가 싸우느라 매년 예산 증액이 안 돼요.”정우담 美 오리건 주립대 교수정우담 교수는 2014년부터 미 오리건 주립대 산림공학과 교수로 재직 중이다. 미국과 한국의 산림 정책을 비교 분석할 수 있는 전문가로 통한다.그는 “한국은 산불이 나면 헬기의 역할을 지나치게 중요하게 생각한다”며 “지상 진화 인력의 역할이 더 중요하다”고 했다.미국은 진화 인력을 확보하기 위해 ‘레드 카드’란 자격증 제도를 운영한다. 산불 진화와 관련된 교육·실습과 체력 시험을 통과하면 진화 대원으로 활동할 자격을 주는 것이다.대형 산불이 나면 레드 카드를 가진 사람 1000명 이상이 모인다고 한다.정 교수는 “산불 진화 자격증을 만들고 수당도 보통 아르바이트보다 2~3배를 주니 대학생들도 레드 카드를 많이 딴다”고 했다. 산불 현장에 뛰어들면 시간당 30달러(약 4만3700원) 정도를 벌 수 있다고 한다.정 교수는 “산불 진화 능력을 갖춘 ‘산불 예비군’ ‘진화 기동대’를 최대한 확보해 탄력적으로 활용하는 방식”이라고 했다.반면에 우리나라는 지방자치단체들이 매년 봄 3~4개월씩 일용직 일자리로 산불 감시 요원을 채용하고 진화 현장에도 투입한다. 이 때문에 노인이 대부분이고 전문성을 쌓기도 어렵다. 실제 진화는 산림청 소속 진화대원 400여 명에게 의존하는 상태다.정 교수는 미국은 ‘간벌 (thinning)’과 ‘처방화입(prescribed fire)’을 중요하게 여긴다고 했다. 간벌은 숲이 너무 빽빽해지지 않게 나무를 베는 것이고, 처방화입은 산에 쌓인 낙엽을 계획적으로 태우는 것이다.지난달 경남 산청 지리산 일대에 확산한 산불은 진화에 열흘이 걸렸는데 어른 허리춤까지 쌓인 낙엽이 원인이었다. 산불 헬기가 물을 쏟아부었지만 낙엽 속 잔불이 강풍을 타고 계속 살아났던 것이다. 정 교수는 “산불 피해를 최소화하기 위해선 산불의 ‘연료’를 최대한 줄이는 것부터 시작해야 한다”며 “미국은 수시로 나무를 베어내고 낙엽을 긁어 불태운다”고 했다.그는 “한국은 간벌을 환경 파괴로 보지만 미국처럼 체계적으로 하면 된다”고 했다. 미국은 간벌을 하기 전에 벌채 전문가, 야생동물 전문가, 환경 전문가 등이 모여 간벌을 할 지역과 환경에 미치는 영향 등을 검토한다. 주민 공청회도 거친다.최무열 한국임업진흥원장지난달 경북 의성에서 발생한 산불이 순식간에 확산한 원인 중 하나로 소나무가 꼽힌다. 의성 등 경북 지역엔 특히 소나무가 많이 사는데 송진을 품고 있어 참나무 등 활엽수보다 더 잘 탄다는 것이다. 이에 대해 최무열 한국임업진흥원장은 “소나무는 죄가 없다”고 했다.“우리나라는 바위산이 많고 토심(흙의 깊이)도 평균 57㎝밖에 안 돼요. 이런 척박한 환경에서도 자랄 수 있는 나무가 소나무예요. 그래서 소나무가 많은 겁니다. 문제는 사람이지요.”지난달 경북 의성 산불도 과수원에서 쓰레기를 태우다 발생한 것으로 추정된다.그는 “산이나 밭에서 쓰레기를 태우면 과태료를 부과해야 하는데 실제로는 계도(啓導) 조치에 그치는 경우가 대부분”이라며 “산불 낸 사람은 패가망신한다는 강력한 인상을 심어주기 전까지는 산불이 계속 날 수밖에 없다”고 했다.지난달 산불로 나무나 송이버섯 등을 키우는 임업인들도 막대한 피해를 당했다. 국내 송이 채취량의 30%를 차지하는 경북 영덕에선 소나무 숲이 대부분 불타 캘 송이가 사라졌다.최 원장은 “산불 보험이 없다 보니 임업인들은 남이 낸 산불에 전 재산이 불타는 황당한 일을 당했다”며 “이번에 임업인들에 대한 보상 시스템도 만들어야 한다”고 했다.효율적인 산불 진화 대책을 묻자 최 원장은 “산에서 나무를 키우는 임업인들도 한결같이 얘기하는 게 임도(林道)”라고 했다. 임도는 소방차 등이 들어갈 수 있는 숲속 길이다. “임도는 있어도 되고 없어도 되는 선택적인 수단이 아닙니다. 산불 예방과 진화를 위해서도 필요하고 산림을 효율적으로 관리하기 위해서도 필요해요.” 산에서 베어낸 나무를 옮길 때도 활용할 수 있다는 것.최 원장은 우리나라는 산을 규제 대상으로만 보고 있어 이도 저도 못 하고 사실상 방치되고 있다고 지적했다.“6·25전쟁 이후 우리나라는 ‘민둥산’에 나무를 심는 데 집중했습니다. 이제 산림 녹화(綠化)는 달성했어요. 그 다음을 봐야죠.”일각에선 소방청으로 산불 진화 체계를 일원화해야 한다는 주장이 나온다. 산림청의 산불 진화 역량이 부족하다는 이유다. 이에 대해 최 원장은 “건물 화재와 산불은 완전히 다르다”며 “나무와 산을 모르는 소방청이 산불 진화를 어떻게 지휘하느냐”고 했다.박준영 전 전남지사“숲을 자원으로 보고 가꾸면 산불은 저절로 줄어듭니다. 다 자란 나무를 잘라내는 간벌(間伐)을 죄악시해선 안 됩니다.”박준영 전 전남지사는 목소리를 높였다. 그는 2004년부터 11년간 전남지사를 지냈다. 2008년 전남 화순 산불 등 크고 작은 산불을 겪으며 내린 결론이다.그는 2005년부터 ‘숲 가꾸기’ 사업을 시작했다. 핵심은 다 자란 나무를 잘라내 숲의 밀도를 낮추고 수시로 잡목과 낙엽, 솔방울 등을 치우는 것이다.박 전 지사는 2008년 화순군 도암면 산불 때 ‘숲 가꾸기’ 사업의 산불 억제 효과를 확인했다고 했다. 당시 운주사 뒤편에서 불이 났지만 불길이 절 안으로 번지지 않았다. 운주사는 원형 다층석탑, 석조불감 등 보물을 품고 있는 사찰이다. 박 전 지사는 “2005년부터 운주사 주변의 숲을 간벌하고 낙엽을 긁어낸 덕분”이라며 “불이 번지는 ‘도화선’이 사라지니 피해가 적었다”고 했다. 간벌 작업을 하기 전 운주사 주변은 낙엽이 어른 무릎까지 쌓였었다고 한다.박 전 지사는 “간벌한 나무를 산에 그대로 두면 불을 키우는 장작이나 불쏘시개가 된다”며 “간벌한 나무를 빼내는 것도 중요하다”고 했다. 이를 위해 만든 게 ‘나무 은행’이다. 그는 2007년 전남에서 가장 숲이 많은 화순과 곡성에 나무 은행을 설립했다. 간벌한 나무를 가로수나 목공예 재료 등으로 활용할 수 있게 중개하는 기구다. 나무 은행을 통해 곡성에서 뽑아낸 소나무가 가로수가 됐다. 목공예 애호가들에겐 잘라낸 나무를 공짜로 나눠줬다. 간벌을 해 생긴 공간에는 칡이나 버섯, 도라지 등을 심어 주민들이 캘 수 있게 했다. 그는 “나무 은행을 만드니 간벌도 활성화되고 산에도 불쏘시개가 남지 않아 일거양득”이라고 했다.박 전 지사는 “빽빽한 숲을 중간중간 솎아내면 햇볕이 잘 들어 흙속의 미생물 활동이 활발해지고 낙엽이 빨리 썩는 효과도 있다”고 했다. 흙이 더 많은 빗물을 머금을 수 있어 산불이 덜 확산한다고 한다.“이렇게 노력한 덕분에 전남에선 2008년 이후 큰 산불이 나지 않고 있습니다. 숲을 더 이상 방치하면 안 됩니다. 이제 ‘관리’해야 해요. 사람이 사는 마을 근처 야산부터 시작합시다.”</t>
+          <t>한국여성의전화·한국성폭력상담소가 지난 9일 서울 종로구 서울경찰청 앞에서 기자회견을 열고 고(故) 장제원 전 국민의힘 의원의 성폭력 사건 조사 결과를 발표하라고 촉구하고 있다. 사진 한국성폭력상담소성폭력 혐의로 수사를 받다가 스스로 목숨을 끊은 장제원 전 국민의힘 의원에 대해 경찰이 ‘공소권 없음’으로 사건을 마무리할 방침이다. 이에피의자 사망을 이유로 한 수사 종결 관행에 대해 비판의 목소리가 나오고 있다.한국성폭력상담소와 한국여성의전화 등 여성단체는 지난 9일 서울 종로구 서울경찰청 앞에서 기자회견을 열고 장 전 의원 사건 피해자 이윤슬(가명)씨의 입장문을 대독했다. 이씨는 입장문을 통해 “가해자의 죽음으로 이 사건이 끝나서는 안 된다”며 “온전히 가해자의 손에 의해 모든 것이 시작되고 마무리되는 것을 바라만 볼 수밖에 없는 상황이 참담하다”고 했다. 이씨의 변호인 김재련 변호사는 “가해자의 사망이 기소 여부엔 영향을 줄 수 있지만, 범죄 판단에 장애가 돼선 안 된다”며 “경찰은 수사 기록을 발표해야 한다”고 주장했다.피의자 사망으로 인한 ‘공소권 없음’ 수사 종결은 그간 관행처럼 이어져 왔다. 형사사법절차의 기본 목적인 국가의 형벌권을 실현할 수 없기 때문이다. 2014년 유병언 전 세모그룹 회장의 세월호 참사 관련 사건, 2020년 박원순 전 서울시장의 성추행 의혹도 피의자 사망으로 인해 공소권 없음으로 종결됐다. 2021년 한 30대 여성이 피해자인 살해·유기 사건에서도 60대 피의자의 범죄 혐의를 입증할 만한 증거가 수사 과정에서 나왔지만, 당시 교도소에 수감 중이던 피의자가 극단 선택을 하면서 공소권 없음 처분됐다.수사기관은 통상 피의자가 사망하면 피의자의 방어권이 사라진다는 이유로 수사를 종결한다. 그러나 이는 피해자의 권리와 피해 회복을 보장하지 못한다는 점에서 문제라는 지적이 나온다. 2018년 배우 조민기씨 성폭행 사건을 고발한 송하늘(30)씨는 중앙일보와의 통화에서 “피의자의 사망은 모든 것을 ‘올스톱’ 시킨 최후의 일격이었다”고 했다.조씨 사망 이후 수사는 종결됐고, 송씨에게 남은 건 피해 사실과 죄책감뿐이었다. 자신의 이름조차 이야기하기 어려웠던 송씨가 다시 사회생활을 시작하는 데엔 5년이 걸렸다고 한다. 그는 “장 전 의원 사건을 지켜보며 다시금 무력감이 밀려왔다”며 “가해자가 사회적 명예를 지키기 위해 극단 선택을 하는 걸 방조하면 안 된다”고 목소리를 높였다.피의자의 사망이 수사 종결과 직결되면, 수사기관의 동력이 떨어질 수 있단 우려도 나온다. 수사기관의 의무 중 하나인 ‘실체적 진실 발견’이 어려워지고 피의자를 직접 상대했던 수사관들이 위축될 수 있기 때문이다. 한 지방청 강력계 형사는 “피의자가 수사 도중 사망하는 일은 담당 경찰에게도 큰 충격으로 다가온다”며 “범죄사실을 마저 알아내지 못해 찝찝한 상태로 남으면 다른 사건에서도 위축되는 등의 부작용이 있다”고 말했다.경북경찰청 감식반이 지난해 7월 17일 경북 봉화군 봉화읍 내성4리 경로당을 찾아 감식하는 모습. 연합뉴스피의자 사망 이후에도 경찰이 수사를 진행한 사례도 있다. 경북경찰청은 지난해 7월 ‘봉화 경로당 살충제 사건’과 관련해 용의자가 사망했음에도 두 달간의 수사를 거쳐 진범을 밝혀 수사 결과를 냈다. 국립과학수사연구원에 감정을 의뢰한 결과 피의자의 집에서 나온 농약이 피해자들이 마신 성분과 일치하다는 게 결정적이었다. 사건을 수사했던 경찰 관계자는 “만에 하나 다른 피의자가 있을 가능성을 열어두고 수사를 이어갔다”며 “피의자가 사망했더라도 진실을 밝혀냈기 위해 노력했고, 그 결과 어르신들이 다시 마음 놓고 경로당을 다니실 수 있게 됐다”고 했다.전문가들은 피해자의 회복이 필요한 사건에 국한해서라도 피의자 사망 여부와 관계없이 진실을 밝힐 수 있는 제도 마련이 필요하다고 조언했다. 논문 『피의자 사망을 이유로 한 공소권 없음 수사종결 관행에 대한 고찰』의 저자인 한민경 경찰대학 행정학과 교수는 “피의자가 사망하더라도 피해자에게 수사 진행 경과에 대해 통지할 수 있도록 행정안전부령 등으로 명문화할 필요가 있다”고 주장했다. 한 교수는 “영국에서는 ‘피해자 재심사 요구 제도’를 통해 피해자가 피의사의 사망 이후 사건의 재심사를 요청할 수 있도록 하고 있다”며 “우리나라도 경찰수사심의위원회 등을 거쳐 피해자의 재수사 요구를 반영할 수 있도록 해야 한다”고 덧붙였다.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>박진성 기자</t>
+          <t>이찬규 기자</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/talk/023/80078</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>산불 예방 및 대응에 대한 전문가 의견을 다룬 기사로 건강 정보와 직접적인 관련은 없습니다.</t>
-        </is>
-      </c>
+          <t>https://media.naver.com/journalist/025/78882</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>False</t>
@@ -6924,7 +7032,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[김시덕의 도시 발견] 지방 소멸 문제에 진지한가요</t>
+          <t>이재명, 양자대결 누구와 붙어도 과반…민주 43.2%·국힘 33.5% [에이스리...</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6934,12 +7042,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289291</t>
+          <t>https://www.mk.co.kr/article/11288742</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474948?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005474639?sid=100</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6949,19 +7057,27 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>노인</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>지자체들 지방소멸 주장하나진짜 심각한 군 단위 마을선이슈화할 힘조차 없는 상황쏟아내는 건 졸속정책일 뿐의원마저 지역구엔 집 없어시민·정치인 너나할 것 없이정말 절박한 이 있는지 의문인구 감소와 지방 소멸 문제에 대해 이 칼럼에서 몇 차례 말씀드리고 있다. 이들 문제가 요즘 워낙 사회 곳곳에서 언급되다 보니 시민들에게는 오히려 식상하게 받아들여지고 있다는 느낌도 받는다.이런 반응이 나오는 데에는 몇 가지 이유가 있다. 인구 감소와 지방 소멸 문제는 마치 기상이변과 같이 너무 거대한 문제이고 해답을 찾기가 쉽지 않으며 변화에 시간이 걸린다. 그렇다 보니 대통령 임기 5년이나 국회의원·지자체장 임기 4년 단위로 세상을 바라보는 것이 관례가 되어버린 한국 사회에서는 자신들의 임기 초에 거창하게 문제를 제기하고 졸속으로 정책을 만들었다가는 유야무야되는 일이 반복되고 있다.또 한 가지는 모든 지자체가 인구 감소와 지방 소멸을 주장하다 보니, 정말로 심각한 지역이 존재한다는 사실이 묻혀버린다는 것이다. 예를 들어 현재 한국에서 두 번째로 인구가 많은 지자체는 부산광역시이고, 세 번째는 인천광역시다. 하지만 부산은 인구가 줄고 있고 인천은 인구가 늘다 보니 2030년대에는 인천이 부산을 제치고 한국에서 두 번째로 인구가 많은 도시가 될 것으로 예상된다.이런 상황에서 부산은 지방 소멸 위기를 주장하며, 산업은행 이전이나 엑스포 개최 등 부산으로의 각종 권한 이임 및 인프라 사업을 요구하고 있다. 하지만 냉정하게 생각해 보면, 현재 한국 제2위의 인구를 가진 부산이 인구 감소와 지방 소멸을 주장하는 것은 부산보다 훨씬 더 심각하게 인구 감소 위기를 겪고 있는 중소도시와 군 단위 지자체에는 실례가 아닐까?부산을 비롯한 대도시들 내부에도 인구 감소가 심각한 원도심이 존재하는 것은 사실이다. 하지만 이것은 도시 외곽에 잇달아 신도시가 개발된 결과, 그 도시 내에서 인구 이동이 일어났기 때문이기도 하다. 이런 내부적 요인을 무시하고 인구 감소와 지방 소멸을 주장한다면, 대도시에 비해 자신들의 문제를 전국구 레벨로 확산시킬 권력과 언론을 가지지 못한 중소도시나 군 단위는 대응할 방법이 없어지게 된다.얼마 전 전라북도 김제시에서 강연이 있었다. 강연이 끝난 뒤 어떤 노인께서 "전라도 사람이냐"고 여쭤보셨다. 아니라고 하니, 그러면 부모님은? 할아버지는? 하고 질문이 이어졌다. 타지 사람이 자신의 고향이 아닌 지역에 관심을 갖고 들여다보는 것이 그분께는 낯설게 느껴졌던 것 같다. 지난해 충청남도에 대한 내용이 포함된 책을 쓴 뒤에는 충청도 사람이냐는 질문을 현지에서 받기도 했다. 이런 질문들이 지역을 막론하고 필자에게 던져진 것은, 중소도시나 군 단위에서는 그 지역 출신만이 그 지역에 관심을 가져온 것이 지난 수십 년간의 한국 현실이기 때문이었을 것이다.그렇다면 그 지역의 문제를 대변해줄 그 지역 출신의 출향민은 자기 고향의 소멸에 관심을 갖고 진지하게 대응하고 있나? 그렇지 않아 보인다. 국회 공직자윤리위원회가 3월 27일에 발표한 2024년 말 기준 국회의원 재산 변동사항에 따르면, 전라남도의 열 곳 지역구 국회의원 가운데 전라남도에 자가를 소유한 사람은 한 명도 없었다. 그 지역의 이익을 대변하는 국회의원들조차 이런데, 일반 시민들이 그 지역에 거주하라고 요구하는 건 이상한 일이 아닐까?얼마 전 어떤 지역의 폐교된 초등학교에 대한 영상을 유튜브에서 보았다. 그 영상에 대해 어떤 시민이 지방 인구가 줄어들어 마음이 아프다며 "지방에 많은 사람들이 살 수 있게끔 나라가 해주었으면 좋겠다"는 코멘트를 남겼다. 그러자 다른 시민이 "님이 좀 가주세요"라는 코멘트를 덧붙였다. 인구 감소와 지방 소멸 문제에 대한 한국 사회의 분위기를 압축적으로 보여주는 코멘트라고 느꼈다. 내가 뛰어들 만큼 이 문제를 절박하게 느끼는 시민은 많지 않다는 것.한국 국민들이 지금 해야 할 일은 인구 감소와 지방 소멸 문제를 레토릭처럼 사용해서 자신들의 이익을 어떻게 확보할 것인지를 계산하는 게 아니다. 이 문제에 대해 자신이 정말로 절박하게 느끼고 있는지를 되묻는 것이다. 그리고 정치인과 지자체장은 자신의 임기 내에 이 문제를 해결할 수 있다는 식의 환상을 시민들에게 제시하지 않아야 한다. 여기서부터 시작해야 한다.[김시덕 도시문헌학자]</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+          <t>거대 양당 지지율 격차, 오차범위 밖으로이재명 전 더불어민주당 대표가 지난 10일 영상 메시지를 통해 대선 출마의 각오와 의지를 밝혔다. [사진 출처 = 이재명 캠프]이재명 전 더불어민주당 대표가 11일 누구와 붙어도 50%가 넘는 지지를 받는다는 여론조사 결과가 나왔다.에이스리서치는 뉴시스 의뢰로 지난 8~9일 전국 만 18세 이상 남녀 1212명을 대상으로 조사한 결과, 이 전 대표와 김문수 전 고용노동부 장관의 가상 양자 대결에서 이 전 대표를 지지한다는 응답이 52.0%, 김 전 장관을 지지한다는 응답이 36.8%였다.이 전 대표가 김 전 장관에 15.2%포인트 앞섰다.이 전 대표는 홍준표 대구시장과의 양자 대결에서는 이 전 대표 52.2%, 홍 시장 34.0%를 보였다. 오세훈 서울시장과의 양자 대결에서도 이 전 대표 53.5%, 오 시장 31.9%였다.이 전 대표와 한동훈 전 국민의힘 대표간 양자 대결에서 역시 이 전 대표 53.4%, 한 전 대표 27.5%로 조사됐다.다만 지지 정당이 없다고 응답한 무당층 조사에서는 이 전 대표가 김 전 장관과의 양자 대결에서 오차범위 내이긴 하지만 4.1%포인트 밀렸다. 무당층의 양자 대결에선 이재명(34.5%)-김문수(38.6%), 이재명(35.4%)-오세훈(31.5%), 이재명(37.5%)-홍준표(35.8%), 이재명(39.2%)-한동훈(29.5%)이었다.국회 전경. [사진 출처 = 연합뉴스]더불어민주당과 국민의힘 간 지지율 격차는 오차범위 밖으로 나타났다. 지지하는 정당을 조사한 결과, 더불어민주당 43.2%, 국민의힘 33.5%로 조사됐다.두 정당 간 격차는 9.7%포인트로 오차범위(±2.8%p) 밖이었다. 직전 조사였던 3월 셋째 주와 비교하면 민주당 지지율은 0.3%포인트 올랐고 국민의힘은 5.2%p 떨어졌다.정당 지지율은 이어 조국혁신당 3.5%, 개혁신당 2.7%, 진보당 0.6%로 집계됐다. 11.4%가 지지하는 정당이 없다고 답했으며, 4.2%는 기타 정당을 지지한다고 답했다.연령별로는 민주당 지지율이 20대·40대·50대·60대에서 국민의힘보다 높았고, 70대 이상은 국민의힘 지지율이 민주당보다 높았다. 30대는 민주당이 국민의힘보다 3.7% 높았지만 오차범위 내 격차를 보였다.지역별로 보면 민주당이 수도권·충청·호남권에서 국민의힘을 앞섰고, 국민의힘은 대구·경북 및 부산·울산·경남에서 민주당을 제쳤다.이번 조사는 구조화된 설문지를 이용해 무선 RDD 표집틀에 ARS(무선 100%) 방식으로 이뤄졌다. 응답률은 3.5%로, 표본오차는 95% 신뢰수준에 ±2.8%포인트다. 자세한 내용은 중앙선거여론조사심의위원회 홈페이지를 참조하면 된다.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>배윤경 기자</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/009/23412</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>인구 감소와 지방 소멸 문제에 대한 한국 사회의 대응과 시민의 절박함 부족을 논의하는 칼럼입니다.</t>
+          <t>정치 및 여론조사 관련 기사로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6973,22 +7089,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>125번째 생일 맞은 1900년생 페루 남성…장수 비결은 바로 ‘이것’</t>
+          <t>대전시, 전기 이륜차 보조금 최대 300만 원</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289043</t>
+          <t>https://www.donga.com/news/Society/article/all/20250410/131391847/2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474814?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627579?sid=102</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6998,19 +7114,19 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>고령자</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025년 4월 5일 125세 생일을 맞은 마르셀리노 마시코 아바드 톨렌티노 [사진출처 = Jam Press]페루 남성이 2025년 4월 5일자로 125번째 생일을 맞아 세계 최고 고령자로 비공인 등극했다.7일(현지시간) 미국 뉴욕포스트에 따르면 이 남성의 이름은 마르셀리노 마시코 아바드 톨렌티노로 키가 약 129.5cm이며 정부가 공식적으로 발급한 신분증에는 출생연도가 1900년으로 나와 있다.톨렌티노는 결혼을 하지 않아 부인과 자녀가 없어 현재 페루 우아누코의 요양원에서 지내며 이곳에서 생일을 맞았다.그는 페루의 외딴 지역인 차글라 지구에서 태어났으며 어릴 때부터 가족 없이 혼자 살아왔다.일곱 살의 나이에 부모님이 강을 건너려다 목숨을 잃어 고아가 된 그는 거리가 먼 학교를 다닐 수 없어 어릴 때부터 밭일, 가축 사육, 농산물 물물교환 등을 하며 자립적으로 살아왔다.지난 7일(현지시간) 아르헨티나 매체 인포바에(Infobae) 등 외신은 톨렌티노와의 인터뷰를 통해 장수 비결을 보도했다.그는 비결을 식단으로 꼽았는데 ‘에덴동산’이라고 부르는 자신의 텃밭에서 키운 채소를 먹었고, 과일과 양고기를 즐겼다고 전했다.특히 들에서 일할 때 힘을 내기 위해 코카잎을 뜯어 씹었고, 야생에서 얻은 허브와 약초로 식단을 보충하기도 했다고 덧붙였다.그가 특히 좋아한 것은 아보카도였다. 톨렌티노의 요양원 요리사는 “그는 항상 아침 식사로 아보카도를 달라고 주문한다”면서 “그는 아보카도 없이는 살 수 없다”고 말했다.톨렌티노의 지인들은 그를 항상 도움이 필요한 사람을 돕는 “친절한” 사람이라고 평가했다.톨렌티노는 페루 정부가 공인하기는 했지만, 기네스 공인 세계 최고령자는 아니다.기네스 세계 기록의 대변인은 전 세계에서 가장 오래 산 사람이라고 주장하는 개인으로부터 “많은 지원서”를 받았으며, 기록 보유 타이틀을 주기 전에 장수 및 노년학 연구자들이 추가로 검토한다고 말했다. 그러면서 “톨렌티노도 그나 그의 가족이 웹사이트를 통해 지원서를 제출할 수 있다”고 덧붙였다.현재 세계 최고령자 공인 기록은 116세인 이나 카나바로 루카스 수녀가 보유하고 있다. 브라질 수녀인 그는 오는 6월 8일에 117세가 된다.</t>
+          <t>299대 한정… 차종별 차등 지급최소 거주기간도 30일로 완화대전시는 올해 전기 이륜차 구매 시 최대 300만 원까지 보조금을 지원한다고 10일 밝혔다. 전체 299대까지 지원한다.시는 전기 이륜차 제작, 수입사 영업점을 통해 예산 소진 시까지 신청을 받는다. 보급 물량은 일반용 209대(70%), 배달용 60대(20%),  취약계층, 장애인, 다자녀가구 같은 우선순위 대상 30대(10%) 순이다. 보조금은 전기 이륜차의 규모, 유형, 성능(연비, 배터리 용량, 등판 능력) 등을 바탕으로 차등 지급된다. 지원 금액은 경형 140만 원, 소형 230만 원, 중형 및 기타형 270만 원, 대형 300만 원까지다. 구매 가능 대수는 개인 1대, 법인 최대 10대, 개인사업자는 2대까지다.올해부터는 자격 문턱이 낮아졌다. 최소 거주 기간을 기존 90일에서 30일로 완화해 신청일 기준 대전시에 30일 이상 연속 거주한 개인, 법인, 공공기관 등도 신청할 수 있다. 소상공인과 취약계층(장애인 또는 차상위 이하 계층), 농업인은 국비 보조금의 20%를 추가 지원한다. 배달용 전기 이륜차는 유상운송보험(시간제 포함) 6개월 또는 비유상운송보험 3개월 이상 유지 확인서를 제출하면, 국비와 시비 각각 10%의 추가 보조금을 받을 수 있다.보조금은 신청 순서에 따라 지급된다. 시가 전기 이륜차 제작, 수입사에 보조금을 직접 지급하면 구매자는 보조금을 제외한 나머지 금액을 해당 업체에 내는 방식이다. 문창용 시 환경국장은 “전기 이륜차 보급을 통해 지역 공기 질을 개선하는 데 보탬이 될 것으로 기대한다”고 했다.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>페루의 125세 남성의 장수 비결은 아보카도와 채소, 양고기 등 건강한 식단에 있다.</t>
+          <t>전기 이륜차 보조금 관련 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7022,22 +7138,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>소 잃고 수리? 산불 진화헬기 ‘수리온’ 도입 늦어지는 까닭</t>
+          <t>초등생 장래희망 1위 등극했는데…살인·마약·명예훼손 연이은 범죄</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327747</t>
+          <t>https://www.hankyung.com/article/2025041146457</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433410?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005117882?sid=105</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -7047,27 +7163,27 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>노후</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>━화재 대응 장비 태부족영남권 산불 진화 과정에서 헬기 추락 사고가 발생하면서 산불진화 헬기에 대한 관심이 커지고 있다. 노후한 러시아산 헬기 대신 국산 헬기가 대안으로 떠오르고 있지만, 관련 예산 부족 등 걸림돌이 만만찮다는 평가다.10일 산림청에 따르면 현재 산림청이 보유한 산불진화 헬기는 총 50대다. 담수 능력 8000리터(L)급 미국 S-64(시코르스키) 7대, 3000L급 러시아 KA-32(카모프) 29대, 2000L급 국산 KUH-1(수리온) 3대가 주력이다.문제는 주력 헬기이자 전체의 58%를 차지하는 카모프 대부분이 낡고 오래됐다는 점이다. 카모프 29대 중 20대가 기령 21년 이상이다. 산림청에 따르면 14대는 2026년부터 가동 중단될 예정이고 이 규모는 2027년 15대, 2028년 17대로 빠르게 증가할 전망이다. 특히 카모프는 러시아-우크라이나 전쟁 여파로 부품 수급조차 어렵다. 이에 산림청은 29대 중 8대는 운항을 중단하고 해당 기체 부품을 빼서 나머지 운항 기체에 조립하는 ‘돌려막기’식으로 운용하고 있다.이에 카모프와 비슷한 중형 헬기인 수리온이 대체재로 주목받고 있다. 한국항공우주산업(KAI)이 2005년부터 개발해 2013년 군 전력화된 수리온은 2018년부터 산불진화용 모델이 현장에 투입됐다. 현재 배치된 수리온은 담수 능력이 카모프보다 적지만, 3000L 물탱크를 장착한 계량 모델이 2027년부터 납품될 예정이다. 특히 수리온은 카모프와 달리, 야간에도 산불 진화에 투입할 수 있다. 야간투시장비(NVG)를 통해 조종사가 밤에도 시야를 확보할 수 있고, 4축 자동조종장치(AFCS)로 자동 제자리 비행이 가능해 대량의 물을 기체 하부에 달린 탱크로 끌어올릴 수 있다. 2020년 4월 안동 산불(4회), 2022년 3월 울진 산불(6회) 진화를 위해 산림청 소속 수리온 헬기가 야간에 투입됐다.산림청은 올해 수리온 1대를 추가로 도입해 총 4대를 운용할 예정이다. 이와 별개로 에어버스 헬리콥터스의 4200L급 AS-332(슈퍼푸마) 2대를 올해 3~5월 단기 임차했다. 하지만 임차만으로 노후 헬기 문제를 해결하기는 쉽지 않다. 항공업계 관계자는 “헬기 임대 업체는 수익성을 위해 고령 조종사가 운항하는 노후 헬기를 임대하는 경우가 많아 자칫하면 안전사고로 이어질 수 있다”고 지적했다.상황이 이런데도 산불진화 헬기를 수리온 같은 대체 헬기로 전환하지 않는 배경에 관심이 모인다. 항공업계에선 정부의 헬기 교체 예산이 적고, 발주 주체도 분산된 영향이라고 지적한다. 현재 산불진화 헬기를 운영하는 주체는 산림청, 소방청, 각 지자체로 나뉘어 있다. 이 가운데 산림청의 올해 예산 2조6246억원 중 산림 헬기 도입·운영 예산은 938억5800만원에 불과하다. 수리온 헬기 1대가 약 350억원임을 고려하면 3대도 구입하기 어렵다.공하성 우석대 소방방재학과 교수는 “주력 헬기에 대한 준비가 없다면 산불 조기 진화에 또다시 실패할 수 있다”며 “중앙 정부 차원에서 통합적으로 헬기를 발주·운영한다면 더 효율적으로 산불진화 헬기를 보급할 수 있을 것”이라고 전망했다.</t>
+          <t>인터넷 방송인 집단 마약 의혹에 연루된 유명 BJ 세야(본명 박대세)가 20일 오전 서울 강남경찰서에서 검찰로 송치되고 있다. 사진=뉴스1유튜버가 초등학생 장래희망 1순위로 등극했지만, 범죄에 연루돼 수사나 재판받는 사례도 늘어나고 있다는 지적이다.10일 동료 유튜버를 살해한 혐의로 재판에 넘겨진 50대 유튜버 홍모 씨에게 항소심 재판부도 1심과 동일한 무기징역을 선고했다. 홍씨는 지난해 5월 9일 오전 9시 52분께 부산 연제구 부산지법 앞에서 동료 유튜버를 흉기로 여러 차례 찔러 살해한 혐의로 재판에 넘겨졌다.인기 BJ로 이름을 알렸던 세야(본명 박대세)는 상습 마약 투약 혐의로 실형을 선고받았다.세야는 2021년 6월부터 2023년 8월까지 케타민·엑스터시·대마 등 1억5000만원 상당의 마약류를 구매해 투약·흡연한 혐의로 재판에 넘겨졌다. 특정범죄가중처벌등에관한법률 위반(향정) 등의 혐의 등으로 구속기소 됐고, 1심에서 징역 3년 6개월과 40시간 약물중독 치료, 추징금 1억5316만원을 명령받았다.세야는 조직폭력배 출신 유튜버 등으로부터 마약류를 건네받아 자신의 집에서 지인들과 투약한 혐의도 받았다. 세야와 연루된 것으로 알려진 조폭 출신 유튜버 김강패(본명 김재왕)는 징역 3년을 선고받았다.쯔양 협박' 의혹 유튜버 구제역/사진=뉴스1'먹방' 유튜버 쯔양(본명 박정원)의 과거를 폭로하겠다고 협박하고, 금품을 뜯어낸 렉카 유튜버들에 대한 재판은 현재 진행 중이다. 유튜버 구제역(본명 이준희), 주작감별사(본명 전진국) 등은 공갈 등의 혐의로 재판에 넘겨졌고, 1심 재판부는 구제역에게 징역 3년을, 주작감별사에게는 징역 1년에 집행유예 3년, 사회봉사 160시간을 선고했다. 구제역의 공갈을 방조한 혐의로 기소된 카라큘라(본명 이세욱)는 징역 1년에 집행유예 3년을 선고받았다.하지만 구제역은 이에 불복해 항소했다. 쯔양은 구제역과 주작감별사를 대상으로 1억원 상당의 손해배상 청구 소송도 제기한 상태다.근거 없는 영상을 만들어 고인의 명예를 훼손하며 지탄받는 사례도 늘고 있다. 지난해 12월 29일 무안 제주항공 여객기 참사로 179명이 사망하며 전 국민이 슬픔에 빠졌을 때 '가짜 사고'를 주장하는 영상을 올린 60대 남성과 70대 남성은 각각 구속, 불구속 상태로 재판에 넘겨졌다. 이들의 영상에는 '제주항공 여객기 사고는 실제 발생하지 않았고, 사고 영상은 컴퓨터 그래픽(CG) 처리된 허위 영상이다' '유족들은 세월호, 이태원 사건 때도 등장한 배우들'이라고 주장하는 내용이 담긴 것으로 알려졌다.문형배 헌법재판소장 권한대행을 겨냥한 살인 예고 글을 올린 유튜버도 협박과 업무방해, 폭행 등의 혐의로 입건됐고, 성매매 업소나 마약 고발 등을 하던 채널이 오히려 금품 갈취 등을 한 사례도 있다.배우 김수현이 31일 오후 서울 상암동 스탠포드 호텔에서 열린 '사생활 논란' 관련 기자회견에서 입장을 밝히고 있다. / 변성현 한경닷컴 기자 byun84@hankyung.com그뿐만 아니라 배우 김수현이 고인이 된 김새론이 미성년자인 시기에 교제했다는 유족들의 말을 전한 유튜브 채널 가로세로연구소와 고인과 관련한 영상을 생전에 다수 게재한 것으로 알려진 유튜버 이진호는 각각 해당 사안과 관련해 명예훼손 혐의로 피소됐다.</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>김효성 기자</t>
+          <t>김소연 기자</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/025/72665</t>
+          <t>https://media.naver.com/journalist/015/71569</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>산불진화 헬기의 노후화와 예산 부족으로 국산 헬기 도입이 어려운 상황을 다룬 기사입니다.</t>
+          <t>해당 기사는 범죄 및 유튜버 관련 내용으로 건강 관리와 관련이 없어 활용 부적합합니다.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7079,22 +7195,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[생애설계교육] ‘한국시니어생애설계사(KALPS)’ 교육생 모집</t>
+          <t>무·저해지 보험료, 최대 33% 올라</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289203</t>
+          <t>https://www.chosun.com/economy/stock-finance/2025/04/11/WTQT47SSRBAPRKR7AJM4WLX3DI/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474882?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898876?sid=101</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -7104,19 +7220,19 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>노후</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>매일경제 생애설계센터와 한국생애설계협회(회장 최성재)는 ‘한국시니어생애설계사(KALPS)’ 자격시험 교육생을 모집하고 있다.한국시니어생애설계사(KALPS)는 퇴직준비 단계부터 노후 생활 전반에 대한 인생을 체계적으로 설계하고 컨설팅하는 전문가로, 자격증 취득 후 기업재취업지원서비스 진로설계 교육 강사, 공공기관, 복지관 등에서 진로설계, 생애설계 강사, 컨설컨트 등 다양한 활동을 할 수 있다.특히, 최근 매일경제 생애설계센터와 한국생애설계협회는 종업원 300 이상의 기업들을 대상으로 재취업지원서비스 진로설계 교육과 컨설팅 서비스를 시작하였으며, 6월 시험에 합격한 이후 희망자에게는 사업에 참여할 수 있는 기회를 제공할 예정이다.고용노동부에서는 2020년부터 기업 퇴직예정자들을 대상으로 재취업지원서비스 정책을 시행하고 있으며, 50+ 생애설계교육, 기업 재취업지원서비스 교육과 컨설팅 수요는 계속해서 증가하고 있다.한국시니어생애설계사 (KALPS) 자격표장시험 과목은 ▲생애설계총론 ▲생애재무설계 ▲건강설계 ▲여가 및 취미생활 ▲가족 및 사회적 관계 ▲커리어 관리 및 개발 등 6개 과목이며, 이론교육 60시간, 컨설팅 역량 향상을 위한 실무 40시간 등 총 100시간으로 구성되어 있다. 교육비는 80만원이며, 교육 수료생은 오는 6월 시행 예정인 ‘한국시니어생애설계사 자격시험’에 응시할 수 있다.아울러, 매일경제 생애설계센터는 청소년부터 노년까지의 생애주기 전반에 대한 생애설계 전문가 양성을 위한 ‘제20회 한국생애설계사(CLP) 자격시험’ 교육생을 모집 중에 있다. 한국생애설계사(CLP) 자격시험 과목들은 한양사이버대학 실버산업학과의 전공과목으로 개설되어 있으며, 교육은 생애설계 이론 120시간, 실무 40시간 등 160시간으로 구성되어 있다. 교육비용은 기존 교육비 180만원에서 특별할인 된 120만원으로, 자격시험은 오는 6월에 시행된다.교육에 대한 자세한 내용과 문의는 매일경제 생애설계센터 홈페이지에서 가능하다.</t>
+          <t>이달부터 무·저해지 보험의 보험료가 최대 33%가량 올랐다.10일 금융권에 따르면 이달 들어 주요 손해보험사들은 무·저해지 보험료를 인상했다. 무·저해지 보험은 보험료를 납입해야 하는 기간 중 해지해도 환급금이 없거나 적은 상품이다. 대신 일반 보험보다 보험료가 10~40%가량 저렴하다.금융 당국은 작년에 보험사들이 해지율을 높게 설정해 실적을 부풀렸다고 보고 예정 해지율을 낮추도록 가이드라인을 제시했고, 이에 보험료가 오르게 된 것이다. 업계 관계자는 “기존에 해지율을 낙관적으로 가정한 보험사일수록 보험료 인상 부담이 커졌다”고 했다.3대 진단비, 상해·질병 수술비 등 주요 담보가 포함된 간편심사보험 2종은 대표 가입 연령인 50~60대 남성의 경우 보험료가 현대해상은 전월 대비 평균 7.8%, 삼성화재는 6.3%, KB손해보험은 5%, DB손보는 4.1%가량 올랐다. 40대 남성 기준 통합보험의 경우 KB손보가 전월 대비 32.7% 올랐고, 삼성화재(16.9%), DB손보(16%) 등도 크게 올랐다. 어린이보험은 남아 10세 기준 인상률이 삼성화재(27.9%), DB손보(27.7%), KB손보(25%) 등의 순이었다.</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>KALPS 자격시험 모집 기사로 건강 정보와 관련이 없어 보험 상담에 활용하기 어렵습니다.</t>
+          <t>이 기사는 보험료 인상에 관한 내용으로 건강 정보나 예방 관리와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7128,22 +7244,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[MBN] 조건 없이 받아준 황혼의 사랑</t>
+          <t>[그 영화 어때]휴 그랜트가 알려주는 오싹한 정답, 유일하고 진실한 종...</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/article/11289259</t>
+          <t>https://www.chosun.com/culture-life/culture_general/2025/04/11/VYO2IGUJ4VHGTA5FOP4FAJPLUA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://m.entertain.naver.com/article/009/0005474929</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003898945?sid=103</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7153,34 +7269,54 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>노후</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+          <t>60대</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>안녕하세요, 조선일보 문화부 신정선 기자입니다.‘그 영화 어때’ 126번째 레터는지난 2일 개봉한 영화 ‘헤레틱’입니다. 공포영화로 보이지만 알고보면 심리 스릴러에 가까운, 이 영화에는 매우 흥미로운 질문이 들어있습니다.“이 세상에서 유일하고도 진실한 종교는 무엇인가.” “당신이 지금 믿고 있는 것은 실제로 믿어서 믿는 것인가, 누군가 믿게 만들어서 믿는다고 착각하고 믿고 있는 것인가.”궁금하시죠? 그 답을 가지고 휴 그랜트와 밀당하는 영화가 ‘헤레틱‘입니다. 그럼 종교영화냐, 아닙니다. 종교를 앞세우곤 있지만 ‘인간을 움직이게 만드는 궁극적인 힘은 무엇인가‘에 대한 지적인 탐구에 가깝습니다. 휴 그랜트를 사악한 산신령이라고 생각하시면 돼요.‘노팅힐‘에서 딸기우유빛 셔츠를 입었던 휴 그랜트가 시골아저씨 가디건을 입고 나와 묻는거죠.“금도끼 줄까, 은도끼 줄까.” 그 도끼에는 피가 묻어있고, 어느 도끼를 선택하느냐에 따라 죽느냐 사느냐가 달려있습니다. ‘유일하고 진실한 그것‘이 뭔지 맞혀야 살아나갈수 있어요. 제가 마지막 문단에 답을 알려드릴텐데, 스포가 싫으신 분을 위해선 읽다가 멈추셔야할 지점을 알려드릴 테니 일단 따라오세요.영화 '헤레틱'/롯데엔터테인먼트’헤레틱’은모르몬교 전도에 나선 두 여성 선교사가 어느 집을 찾아가면서 시작합니다. 모르몬교에 관심이 있다며 방문을 신청한 사람이 있었거든요. 비가 억수같이 퍼부었지만 하나님의 가르침을 전하는 데에 악천후가 어찌 장애가 될 수 있겠습니까. 두 선교사가 벨을 누르니 따뜻한 미소를 지으며 집주인이 나타납니다. 바로 휴 그랜트. 그의 이름은미스터 리드(Mr.Reed)입니다. 이 이름을 소리내서 읽어보세요. 미스터 리드, 미스터리드, 미스터리. 그렇습니다. 읽다보면이름부터가 Mystery가 되는 이 남자. 참으로 친절하게도 두 선교사를 집안으로 초청합니다.“어휴, 비도 이렇게 오는데 잠시 들어오지 않으시겠어요?”휴 그랜트가 미소로 초청하는데 어찌 아니라고 말하겠어요. 감사하다며 집안으로 들어선 두 선교사. 어찌 알았겠습니까. 잠시가 영원이 되고, 빠져나갈 수 없는 핏빛 시험의 늪에 빠지게 된다는 것을.여기까지 읽으면 짐작하시겠지만, 그 집은 한 번 들어가면 살아서는 다시 나가기 어려운 집이었습니다. 다시 나가고 싶으면 휴 그랜트가 내는 수수께끼에 답을 해야 합니다. 첨엔 몰랐죠. 미스터 리드가 권한 소파에 앉아 두 선교사는 맛있는블루베리파이냄새를 맡습니다. 미스터 리드의 아내가 구워서 곧 내온다고 하니, 아, 감사하기도 하여라. 문답을 주고 받다 미스터 리드가“자, 이제 깨달음의 시간이 왔다”고 말합니다. 첫번째 질문. “일부다처제를 어떻게 생각해요?” 알고보니 미스터 리드는 모르몬교 경전을 두 선교사보다도 더 많이 읽었고, 다른 종교에도 아주 해박했습니다. 일부다처제 질문은 모르몬교 창시자 조셉 스미스의 여성 관계를 비판하기 위해 던진 거였고요.“신의 계시가 인간을 통해 전달되는데 인간이 결점투성이에 죄인에 거짓말쟁이면 어떻게 믿죠?”당황한 두 선교사를 더 몰아붙입니다. “내가 하나님 아버지를 마음으로 영접하면서 뭘 찾았게요? 알면 알수록 더 모르겠다는 거에요. 종교라는 패스트푸드만 머리에 가득차서 정신적인 영양 결핍이 됐어요.내가 정말 하기 싫었던 게 유일하게 진실한 종교를 찾는 거였어요. 그런데 운 나쁘게도 찾아냈어요.” 그가 파이를 가져오겠다며 자리를 비운 찰나, 두 선교사 중 한 명은 블루베리파이 냄새의 정체가 무엇인지 알아내죠. 어서 빨리 집을 나가려고 하지만, 짐작하시다시피 문은 열리지 않습니다. 미스터 리드는 그게 무슨 대수냐는 듯 말해요.“아, 문은 안 열려요. 하지만 가시고 싶을 땐 언제든 가세요.”영화 '헤레틱'/롯데엔터테인먼트이후 미스터 리드는 두 개의 문, 즉‘믿음의 문‘과 ‘불신의 문’중 하나를 선택하게 하고 두 선교사를 공포에 몰아넣습니다. 집에 있던 다른 존재도 모습을 드러내는데 그건 직접 보시고 확인을. 휴 그랜트라는 배우를 표현할 때 해외 언론에 가장 자주 등장하는 단어가 charming인데요, 매력적이라는 단어가 악인이라는 단어와 만났을 때 발현할 수 있는 최적의 악독함을 보여줍니다.특히 자신의 종교관을 설명하는 장광설은 어이가 없어서 솔깃합니다. 부루마블 기억하세요? 부루마블의 미국판이라 할 수 있는 보드게임모노폴리와 라디오헤드의 ‘크립(Creep)’이 주장의 근거로 등장합니다. 모노폴리는 그보다 앞서 나온 지주게임을 적당히 복붙해서 만들었고, 라디오헤드도 그보다 20년 전에 발표된 홀리스의 ‘내가 숨쉬는 공기(The Air That I Breathe)‘를 베껴서 크립을 만든거라면서, 현재 존재하는 종교는 결국 앞서 나온 여러 신화를 적당히 변형시켜서 퍼뜨린 거라고 주장합니다. 핵심은 변형(iteration). 예수보다 앞서 12월25일 태어난 신은 10명도 넘는다, 그런데 기독교가 잘 변형해서 이야기를 퍼뜨려 신자를 모았다고요. 기독교는 마케팅을 잘해서 신자가 많은 것일뿐이라는 거죠. 참고로, 영화에 나오는홀리스와 라디오헤드, 라나 델 레이의 표절 소송은 팩트입니다. 홀리스 곡과 라디오헤드의 크립은 법원에서 코드 전개의 유사성이 인정됐고, 라나 델 레이 곡 ‘겟 프리‘도 크립과 유사성이 인정돼 결국 저작권을 나눠가지게 됐습니다. 이 부분을 ‘헤레틱‘이 각본에서 영리하게 활용했습니다.영화 '헤레틱'/롯데엔터테인먼트‘헤레틱‘은 결말에서도 자신만의 질문을 던지는데요, 그렇다고 무책임한 열린 결말은 아닙니다. 감독이 생각한 결말은 분명히 있는데 관객에게 생각거리를 주기 위해 여지를 충분히 준 것 같아요. 영화 도입부에서 두 선교사 중 한 명이나비얘기를 해요.“죽고나면 나비가 돼서 사랑하는 사람들의 손가락 끝에 앉고 싶다”고요. 그리고 중간에 미스터 리드가 장자의 나비 꿈을 얘기합니다.내가 나비의 꿈을 꾸는 건가, 아니면 나비가 나의 꿈을 꿈을 꾸는 건가, 이것은 현실인가, 현실처럼 느껴지는 시뮬레이션인가.관객이 어느 편을 선택해도 답이 될 수 있도록 중의적인 문을 열어뒀습니다.그렇다면 ‘헤레틱‘에서 휴 그랜트가 말하는 ‘유일하고 진실한 종교‘는 무엇인지, 제가 생각한 결말은 무엇인지 아래 문단에서 말씀드리겠습니다. 스포가 싫은 분은 여기까지만 읽으세요. 그냥 끝내기 섭하신 구독자 분들을 위해 아래에 사진 두 장 준비했습니다.휴 그랜트의 배우 인생 40년을 축약한 모습보시고 나가실게요. 아래 왼쪽 사진은 20대 휴 그랜트, 오른쪽은 60대 휴 그랜트입니다. 참 멋지게 나이든 배우라는 생각이 드네요. ‘헤레틱’ 포스터를 보고 다시 보시면 더욱.그럼 스포 나갑니다. 휴 그랜트가 질문하고, 두 선교사 중 한 명이 풀어낸 정답,‘세상 유일하고 진실한 종교’는?‘통제(Control)’입니다. 인간의 정신을 지배하는 최종의 궁극적인 힘은 ‘그렇게 믿도록 만드는 힘‘, 통제라는 거죠. 블루베리파이가 구워지고 있다고 믿게 만들고, 그렇게 믿게 만든 사실을 의도적으로 노출해서 알게 만드는 겁니다.네가 아는 모든 것은 네가 선택해서가 아니다, 네가 선택했다고 내가 믿게 만들었기에 가능했다고 조소하는 미스터 리드. 그는 결국 두 선교사 중 한 명에게 최후의 일격을 당하고, 한 선교사만 살아서 탈출합니다.이 결말이 너무 뻔하다고 생각하실 수 있어요. 그렇다면 약간 다르게 보시면 어떨까요. 그토록 뻔한 건 그게‘나비의 꿈’이라서 그런 거라고요. 사실은 둘 다 죽었고, 둘 중 하나가 탈출의 꿈을 꾸는 것일수도 있죠. 둘 다 죽은 버전은 비관적이고 한 명이 살아남은 버전은 희망찬 버전이라 정반대라고 볼 수 있겠는데요, 저는 둘 중 희망적 결말 쪽입니다. 둘 중 한 명은 살아남은 거 같아요. 기도(praying) 대사 때문이에요. 죽어가던 선교사가 “우리를 위해 기도해달라”고 사정하는 미스터 리드에게 말합니다.“기도의 효과를 실험한 얘기 알아요? 환자를 두 그룹으로 나눠서 한 그룹만 기도를 받게 했어요. 결과는 명확했어요. 효과가 없었거든요. 그래도 서로를 위한 기도는 아름답다고 생각해요. 달라질 게 없다는 걸 안다고 해도요. 잠시라도 내가 아닌 타인을 생각하는 거잖아요. 그게 당신이라도요. 신이여, 지금까지 제게 주신 시련에 감사합니다. 이 길에도 감사드립니다.”그래서 저는 ‘헤레틱‘이 종교의 무용함을 얘기하기보단 내가 아닌 타인을 생각하는 마음의 고귀함이 세상을 지탱한다는 믿음을 전하는 영화라고 봤어요. 달라질 게 없다는 걸 알면서도 끝내 해내는 건 철저한, 때로는 처절한 인간의 의지가 있어야만 가능하니까요. ‘헤레틱‘은 자신만의 질문을 던지고 관객에게 각자의 답을 찾게하는 흥미로운 영화입니다. 롯데시네마 단독 개봉이라 상영관을 좀 찾으셔야할 수 있어요. 그래도 그만한 가치가 있으니 선택해보시길. 여러분이 선택했다고 제가 믿게 하는 거 아니고요~ 그럼 전 다음 레터에서 뵙겠습니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>신정선 기자</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/023/79770</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>해당 기사는 영화 리뷰로 건강 관련 정보가 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[논설실의 뉴스 읽기] 덩치 3배 커질 국민연금, 증시 밸류업 이끌고 국...</t>
+          <t>소비자원 “가스레인지 삼발이 커버, 일산화탄소 중독 위험”</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/opinion/2025/04/11/C2D4RW5ZRBHMNPT35Y7RDQTFJU/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.donga.com/news/Health/article/all/20250411/131395472/2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898849?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627629?sid=102</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7190,31 +7326,39 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>노후</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>국민연금, 투자 수익률 올리기 전략27년만에 보험료율을 9%에서 13%로 올리는 국민연금 개혁안이 지난 3월 20일 국회를 통과했다. 이 개혁안으로 국민연금 기금은 2053년 3659조원까지 불어날 수 있게 됐다./뉴시스국민연금 개혁안이 국회를 통과했다. 보험료율(내는 돈)을 27년 만에 9%에서 13%로 올렸다. 소득대체율(받는 돈)도 40%에서 43%로 올려 미래 세대의 부담을 덜어주는 면에서 미흡하다는 비판이 많지만, 어쨌든 보험료율 인상으로 국민연금의 덩치는 최대 3배로 커지게 생겼다. 이번 보험료율 인상이 없었으면, 국민연금 적립금은 2039년 1972조원으로 정점을 찍고 내리막길을 걸었을 것이다. 보험료율을 13%로 인상한 덕에 현재 1213조원(작년 말 기준)인 국민연금 적립금이 2053년엔 3659조원(연평균 수익률을 5.5%로 가정한 시나리오)으로 불어난다. 종잣돈이 훨씬 더 커지는 만큼 돈을 어떻게 굴리느냐에 따른 수익 변동 폭도 더 커질 것이다. 이번 연금 개혁으로 기금 고갈 시점이 2056년에서 2064년으로 8년가량 늦춰진다고 한다. 기금 수익률을 1%포인트만 올리면 고갈 시점을 7년 더 늦출 수 있다. 향후 70년간 국민연금의 연평균 목표 수익률은 5.5%이다. 전 세계 연기금 중 수익률 1위(10%)인 캐나다연금(CPP) 수준까지 수익률을 높이면 연금 고갈 시점을 30년 가량 늦출 수 있다.◇국민연금 작년 수익률 15%1988년 출범한 국민연금은 작년 말까지 보험료로 859조원을 걷고, 737조원의 수익을 내 총 1596조원의 기금을 조성했다. 이 중 384조원을 연금 급여로 지출하고 현재 1213조원이 남아 있다.그래픽=백형선국민연금은 지난해 이 돈을 굴려 160조원의 수익을 내며 15%라는 놀라운 수익률을 기록했다. 미국 증시의 초활황 덕에 해외 주식 투자에서 34.3%라는 경이적인 수익률을 낸 덕분이다. 하지만 이 수익률은 원화 기준이고, 달러 기준으로 환산하면 18%대로 떨어진다. 해외 채권(17.1%)과 대체 투자(17.0%)에서도 고수익을 낸 반면 국내 주식 투자에선 -6.9%의 손실을 기록했다. 기금 설립 이후 지난해까지 해외 주식 투자에선 15.1% 누적 수익률을 기록한 반면, 국내 주식 투자 수익률은 5.4%에 불과하다. 채권 투자에선 해외 채권 투자(5.8%)가 국내 채권 투자(3.7%)보다 높기는 하지만, 주식만큼 격차가 크지는 않다.◇계속 줄어드는 국내 주식 투자현재 기금 투자 포트폴리오는 해외 주식 35.5%, 국내 채권 28.4%, 대체 투자 17.1%, 국내 주식 11.5%, 해외 채권 7.3%이다. 중기 자산 배분 계획에 따르면 국내 주식 투자 비율은 15% 정도인데, 작년 주가 하락 탓에 국내 주식 보유액이 139조원대로 줄어든 결과, 비율도 축소된 상태다. 중기 자산 배분 목표 15%에 맞추려면 국내 주식을 40조원 이상 더 채워 넣어야 한다. 실제로 국민연금은 올 들어 국내 주식을 꾸준히 매입하며 요즘 같은 폭락장에서 증시 방파제 역할을 하고 있다.그래픽=백형선그런데 최근 몇 년간 국민연금은 국내 주식 투자 비율을 계속 줄여 왔다. 2020년 기금 규모가 833조원이었을 때, 국내 주식 투자액은 176조원(비율 21%)에 달했다. 보험료 수입보다 연금 지출액이 더 커지는 시점이 도래했을 때, 연금 지급 자금을 마련하기 위해 국민연금이 주식을 대거 매물로 내놓을 경우 증시가 큰 충격을 받을 가능성이 있기에 국내 주식 투자 비율 축소는 불가피하다는 게 국민연금 측 설명이다. 하지만 연금 개혁으로 기금 덩치가 더 커지고, 기금 고갈 시점도 늦춰지는 만큼 포트폴리오 배분 전략을 재검토할 필요성이 생겼다.◇28년간 국내 주식 336조원 더 매수해야국민연금 중기 계획에 따르면, 2029년에는 해외 주식을 42%까지 늘리고, 국내 주식 비율은 13%로 줄일 예정이다. 2053년 기금이 3659조원으로 불어나고, 국내 주식 비율을 13%로 가정하면 연금이 보유할 국내 주식 보유액은 475조원이 된다. 작년 말 기준 국내 주식 투자액은 139조7000억원 수준이다. 향후 28년간 연금이 국내 주식을 336조원 더 사야 한다는 계산이 나온다. 작년 말 기준 기금의 국내 주식 투자 TOP10은 삼성전자(34조원), SK하이닉스(8조2235억원), LG에너지솔루션(5조5196억원), 삼성바이오로직스(3조6167억원), 네이버(3조3861억원), 현대차(3조원), 기아(2조8576억원), 포스코홀딩스(2조6894억원), 삼성SDI(2조 4678억원), LG화학(2조3484억원) 등이다. 삼성전자를 제외하고는 해외 주식 투자 1~2위인 애플(13조원), 마이크로소프트(11조원)보다 투자액이 훨씬 적다.◇국내 주식 투자 수익률 더 높여야최근 10년간 일본 증시의 주가 지수 상승률이 297%로 한국(61%)보다 월등히 높다. 여기엔 2150조원을 굴리는 일본 공적연금(GPIF)의 공이 컸다. GPIF는 10여 년 전부터 투자 포트폴리오를 변경, 국내와 해외 투자 비율을 50대50으로 하고, 투자금의 25%를 국내 주식에 투자해 왔다. 일본 증시에서 큰손 역할을 톡톡히 하며, 증시 밸류업(기업 가치 제고)을 이끌어 온 것이다. 이복현 금융감독원장은 “일본 공적연금의 지속적인 주식 투자 확대가 시장 저평가를 해소하고, 일본 밸류업 정책에도 긍정적으로 기여했다”고 평가한다.그래픽=백형선우리도 국민연금이 증시 밸류업의 견인차 역할을 하면 연금(수익률 상승), 기업(자금 조달), 국민(노후 대비) 모두에게 좋은 결과로 이어질 수 있다. 그러기 위해선 우선 정부가 세제 혜택을 통한 기업 주주 환원 확대, 중복 상장 규제, 배당소득 분리 과세 등 밸류업 프로그램부터 착실히 추진해 가야 한다.수익률 세계 1위 연금 되려면국민연금이 캐나다 연금처럼 수익률 세계 1위 기관이 되려면 지배 구조 개편, 서울 사무소 설치, 직원 인센티브 강화 등 대대적인 조직 쇄신이 필요하다.우선 국민연금이 정치에 휘둘리는 ‘연금 사회주의’ 위험에서 벗어나, 오직 수익 중심으로 운영되려면 최고 의사 결정 기구인 기금운용위원회를 정부에서 독립시키고, 전문가 체제로 개편해야 한다. 보건복지부 장관이 위원장이고, 고용노동부, 농림축산식품부 등 네 부처 차관이 당연직 위원이며, 공공노조 위원장, 한국노총 부위원장 등 이사진 면면이 투자 전문가와는 거리가 멀다.캐나다 연금의 경우 본부(CPP)와 투자 기관(CPPIB)이 분리돼 있고, CPPIB의 이사회는 1급 투자 전문가들로 구성돼 있다. 또 CPPIB법에 “(정치적 고려 없이) 수익률 하나만 보고 투자를 해야 한다”고 못을 박아놔 외풍을 차단할 수 있게 해놨다. 투자 전문가들이라 부동산, 인프라, 사모 펀드 등 고난도 분야에 투자하는 ‘대체 투자’ 비율이 60%에 달한다. 기본 연봉 외에 성과 보수도 별도로 받아 실력 있는 직원은 수십억 원대 보수를 받는다.반면 국민연금 기금운용본부는 평균 연봉이 1억원 남짓이다. 공공기관 인건비 제한을 받기 때문에 과감한 인센티브 지급이 불가능하다. 우수 인력을 유치하기 어렵고, 유치한다 해도 경력만 쌓고 금방 떠난다.1200조원대 돈을 굴리는 국민연금은 ‘세계 자본시장의 큰손’인데, 외국 투자 기관들이 이름도 모르는 지방 도시, 전주에 본부가 있다. 기금운용본부장을 지낸 A씨는 “월가의 거물이 아시아에 출장을 오면 촘촘한 일정으로 홍콩, 싱가포르, 일본, 한국을 한 바퀴 도는데, 왕복에 6~7시간씩 걸리는 전주 방문은 엄두도 못 낸다”면서 “본부를 서울로 옮기거나, 최소한 서울 사무소라도 설치해야 한다”고 말했다.</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+          <t>게티이미지뱅크가스레인지 화력 조절, 바람막이 등을 목적으로 판매하는 보조 장치인 삼발이 커버를 사용할 경우, 자칫 일산화탄소 중독 사고로 이어질 수 있는 것으로 알려졌다.한국소비자원과 한국가스안전공사가 온라인에서 가스레인지 삼발이에 부착하는 추가 부품인 ‘삼발이 커버’를 조사한 결과, 불완전연소로 인한 일산화탄소(CO) 중독 위험성이 있는 것으로 나타났다. 가스레인지 삼발이는 가스레인지에 냄비 등을 안정성 있게 올릴 수 있도록 조리도구 지탱 부품이다.가스레인지 사용 중 일산화탄소 중독 사고는 자주 발생하지 않지만, 무색·무취인 일산화탄소의 특성으로 자가 인지가 어렵고 심할 경우 사망으로 이어질 수 있다. 올해 2월에는 다세대주택에서 60대 부부가 요리 중 어지러움 등 일산화탄소 중독 증상으로 내원했고, 지난해 9월에는 60대 남성과 50대 여성이 부엌에서 한약재를 끓이다 일산화탄소 중독 추정으로 사망한 바 있다.한국소비자원 제공.최근 한국가스안전공사가 온라인에서 삼발이 커버 5종을 구매하여 일산화탄소 농도를 측정한 결과, 연소 약 3분 만에 4종에서 두통과 판단력을 상실할 수 있는 200ppm 이상의 일산화탄소 농도가 측정되었고, 그중 1종은 3분 내 사망에 이를 수 있는 1만2800ppm 이상의 농도가 확인되었다. 이는 ‘화학물질 및 물리적 인자의 노출 기준’ 일산화탄소 기준(200ppm)에 비하면 매우 높은 것으로 나타났다.다만 이번 실증 실험은 밀폐된 공간에서 일산화탄소 농도를 측정한 것으로, 환기가 양호한 환경에서는 소비자에게 직접적인 위해가 미친다고 판단하기는 어렵다고 봤다.한국소비자원은 한국온라인쇼핑협회에 입점 업체가 가스레인지 추가 부품 판매 시 사용에 관한 주의 사항을 충분히 안내하도록 요청했고, 한국도시가스협회도 해당 정보를 제공해 전국의 도시가스 사용 소비자들에게 정보를 확산하기로 했다. 더불어 한국가스안전공사에서는 가스 사고 안전관리를 위해 가스레인지 제조사에서 제조하지 않은 추가 부품 사용 금지 방안을 검토할 예정이다.한국소비자원 제공.한국소비자원과 한국가스안전공사에서는 안전한 가스레인지 사용을 위해 ▲가스레인지 사용 시에는 반드시 창문 등을 열어 환기할 것 ▲가스레인지에 삼발이 커버 등의 추가 부품 사용에 주의할 것 ▲장시간 연소 시 주기적으로 점화 상태를 확인할 것 등을 당부했다.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>조유경 기자</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/020/78669</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>국민연금의 보험료율 인상과 투자 전략 변화에 대한 기사로, 건강 관련 정보와는 직접적 연관이 없습니다.</t>
+          <t>가스레인지 사용 시 일산화탄소 중독 위험을 줄이기 위해 환기를 철저히 하고 추가 부품 사용에 주의해야 합니다.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>씨너렉스 “확장성 뛰어난 ‘초정밀 위성항법 장치’로 자율주행 시대 ...</t>
+          <t>‘無해지 보험’ 이달부터 보험료 최고 33% 올라… 소비자 부담 커져</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7224,12 +7368,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/It/article/all/20250411/131398584/1</t>
+          <t>https://www.donga.com/news/Economy/article/all/20250410/131392552/2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627705?sid=105</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627559?sid=101</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7239,19 +7383,27 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>노후</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>“자율주행 차량이 오차 없이 정해진 위치로 스스로 움직이려면, 초정밀 위성항법 장치가 필수입니다. 정밀 농기계와 드론, 로봇, 지하시설물 관리에도 초정밀 위성항법 장치가 반드시 필요합니다. 이처럼 뛰어난 확장성을 지닌 초정밀 위성항법 장치의 내구성을 높여 사막이나 열대림에서도 버틸 수 있는 강인한 제품을 개발하겠습니다.박재덕 씨너렉스 대표 / 출처=IT동아초정밀 위성항법 장치 개발 기업 씨너렉스 박재덕 대표의 포부다. 2016년 창업 이후 꾸준히 초정밀 위성항법 장치를 연구·개발해 온 씨너렉스는 임박한 자율주행 시대를 앞두고 제품 공급처 확대에 매진하고 있다. 다양한 자율주행 기기가 정해진 위치로 정확하게 이동하기 하기 위해 반드시 필요한 초정밀 위성항법 장치 수요가 급증하기 때문이다. 어떠한 환경에서도 제품이 제대로 성능을 발휘하려면, 내구성 강화도 필수다.위성항법 시스템(GPS)은 지구 궤도를 도는 다수 위성이 쏘는 신호를 활용해 거리를 측정하는 방식으로 위치정보를 제공하는 데 쓰인다. 다만, 위성이 쏜 신호가 단말기까지 도달하는 과정에서 수많은 전파 간섭과 굴절이 발생해 최대 10m 안팎의 오차가 발생하곤 한다. 씨너렉스는 지상의 기준국을 기반으로 위성 신호 오차를 보정해 오차범위 2cm~3cm 이내인 초정밀 위치정보를 제공하는 장치를 개발했다. 외산 장비가 대부분인 위성항법 장치 시장에 국내 기술을 적용한 제품을 선보였다.GPS 신호보정을 통한 초정밀 위성항법 장치 기술 개요도 / 출처=씨너렉스박재덕 대표는 “예컨대 자율주행차가 안전하게 주행하기 위해서 차선을 구분할 줄 알아야 한다. 하지만 우리가 사용하는 내비게이션은 도로는 구분하지만, 차선은 구분하지 못하기 때문에 이를 가능케 하는 부품이 필요하다. 자율주행차의 경우 오작동은 곧 생명과 직결되므로, 초정밀 위치항법 장치가 길을 잡아줘야 한다”며 “현재 초정밀 위성항법 장치 시장에는 값비싼 외산이 대부분인데 자사는 2016년 창업 이후 줄곧 초정밀 위성항법 장치만 연구하고 개발해 온 덕분에 미국, 유럽의 경쟁사 제품에 비해 1/3 이하 가격으로 제품 공급이 가능하다. 현대차를 비롯해 두산모빌리티, 오토노머스에이투지, 42dot 등 250개 이상 고객사를 확보한 배경”이라고 설명했다.초정밀 위성항법 장치는 뛰어난 확장성을 지녔다.박재덕 대표는 “초정밀 위성항법 장치는 자율주행차뿐만 아니라 드론, 로봇, 무인선박 등 정밀한 위치정보를 기반으로 작동하는 기기에 필수적으로 들어가는 부품이다. 특히 최근 급격히 시장이 확대되는 자율주행·정밀 농기계에도 초정밀 위성항법 장치가 필요하다. 일례로 글로벌 Top5 업체로 평가받는 일본 Y사가 국내에서 판매하는 이앙기와 트랙터에도 자사 제품을 납품하기 시작했다”며 “지하시설물 관리에도 초정밀 위성항법 장치가 필요하다. 통신구와 열 수송관, 도시가스 배관 등 사회 핵심 인프라를 이루는 지하시설물의 노후화로 정비나 교체 작업을 하려고 땅을 파다가 폭발 사고가 일어나는 등 사건사고가 끊이지 않는다. 지난 2018년 11월, 서울 서대문구 KT 아현지사 건물 지하 통신구에서 발생한 화재로 인명피해와 함께 일대 통신이 마비된 사고가 한 예다. 초정밀 위성항법 장치를 활용하면, 땅을 파내지 않고도 지하시설물의 정확한 위치 파악이 가능하다. 증강현실을 이용하면, 파악한 지하시설물의 위치를 시각화할 수도 있다”고 말했다.씨너렉스는 해외 시장 공략에도 박차를 가하고 있다.박재덕 대표는 “현재, 일본, 미국, 유럽, 동남아 등 다양한 국가에 제품을 전시하고 파트너십을 구축했다. 특히, 일본은 2곳의 공식 대리점 계약을 체결해 작년부터 수출을 시작했고, 주로 드론 분야에 중점을 두고 사업을 진행하고 있다. 초정밀 위성항법 장치와 이를 활용한 드론 조종 면허시험 훈련시스템을 수출하고 있으며, 앞으로 드론 원격제어 및 관제 기능 등을 결합한 다양한 제품을 일본시장에 공급할 예정”이라고 말했다.박재덕 씨너렉스 대표 / 출처=IT동아그는 이어 “유럽 위치 보정정보 인프라 회사인 오노코이(ONOCOY)와도 업무협약을 맺고 자사 초정밀 위성항법 장치를 오노코이 인프라에 결합하는 방식의 파트너십을 구축했다. 유럽의 위치정보를 정밀하게 제공하는 데 자사 기술을 활용 중”이라며 “중국 림스 다이내믹스(LimX Dynamics)와도 협력해 이족보행 로봇을 국내에 선보이기 시작했다. 특히 Tron1 모델은 국내에서 휴머노이드 로봇을 개발하려는 연구기관 및 대학에 연구 플랫폼으로 공급 중이다. 향후, 초정밀 위성항법장치를 결합한 비즈니스 모델을 양사 간 논의하기로 했다”고 전했다.“자율주행 시장 확대 절실…초정밀 위성항법 장치 내구성 강화에 매진할 것”박재덕 대표는 국내 자율주행 시장 확대 속도가 다소 더딘 것에 대한 안타까움도 표했다.그는 “자율주행차와 드론, 로봇 등 무인 모빌리티 분야 시장이 활성화, 즉 양산체제로 전환되지 못하는 상황이 아쉽다. 자율주행 관련 기술 기업들이 막대한 연구개발비를 쏟아붓고도 공급할 곳을 찾지 못해 사라지는 것을 보면 안타까움이 크다. 무인 모빌리티 시장이 아직까지는 정부 주도하에 움직이므로, 정부 지원금이 끊기면 생존이 어려운 게 사실”이라며 “자율주행 관련 규제가 완화되고, 정부 주도의 지원 사업도 연속성 있게 유지돼서 국내 자율주행 기술 시장이 확대됐으면 한다”고 말했다.씨너렉스는 초정밀 위성항법 장치의 내구성을 강화하는 데 매진하고 있다. 건설·농업·임업 등에 주로 쓰이는 자율주행 필드용 로봇은 대부분 야외에서 활용되므로, 급격한 온도변화나 충격, 진동 등을 견디며 스스로 성능을 발휘해야 한다. 특히 자율주행으로 작동하는 해당 로봇에는 무수한 센서가 탑재되는데 전자파에 민감한 센서 특성상 내성을 얻지 못하면, 기계의 치명적인 오작동을 유발할 수 있다. 정부 주도로 자율주행 필드용 로봇을 위한 전자파 내성 센서 개발 사업이 진행되는 배경이다.전자파 내성이 있는 소형 고해상도 6축 회전각 측정 센서 개발 사업 개요 / 출처=씨너렉스박재덕 대표는 “한국산업기술기획평가원을 주관으로 전자파에 대한 내성이 있는 소형 고해상도 6축 회전각 측정 센서 개발 사업이 지난해부터 진행 중이다. 자사는 해당 사업에서 초정밀 위성 항법시스템에 대한 기술력을 바탕으로 전자파에 대한 내성을 갖춘 센서 개발을 담당한다”며 “험지에서 주로 활용하는 자율주행 필드용 로봇은 어떠한 충격이나 가혹한 기상 환경에도 사람 없이 정상 동작해야 하는 기계다. 해당 기계가 정확하게 필요한 위치에서 정해진 기능을 수행하려면, 초정밀 위성항법 장치 기술과 전자파 내성을 갖춘 센서가 반드시 필요하다. 지금까지 쌓아온 기술력을 바탕으로 일손이 부족한 지역이나, 사람이 개입하기 어려운 위험한 환경에서도 자율주행 필드용 로봇이 활용될 수 있도록 최선을 다하겠다”고 말했다.끝으로 씨너렉스의 향후 계획을 들었다.씨너렉스의 최신 초정밀 위성항법 장치 SYN-3200을 들고 있는 박재덕 대표 / 출처=IT동아박재덕 대표는 “올해 본격적으로 매출 확대를 추진하려고 한다. 자율주행분야 뿐만 아니라 정밀 농기계 및 지하시설물 관리와 드론 및 로봇 분야에서 실질적인 매출 성장을 이루는 것이 올해 중점 목표다. 아울러, 올해는 일본시장 매출 확대가 기대되는 한 해”라며 “정부 사업을 진행 중인 만큼, 초정밀 위성항법장치 활용처를 건설기계 분야로 확대해 사막, 열대림 등 열악한 환경에서도 견뎌낼 수 있는 강인한 제품 개발에 중점을 두겠다. 실내외 환경에서 모두 cm급 초정밀 측위를 할 수 있는 제품을 개발해 활용처를 더욱 확대하겠다”고 강조했다.IT동아 김동진 기자 (kdj@itdonga.com)</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+          <t>환급금 없는 대신 보험료 저렴보험업계, 자의적 해지율 적용해공격적 영업으로 ‘실적 부풀리기’금융당국, 출혈경쟁 차단 나서이달부터 금융당국의 무·저해지 보험 해지율 가정 가이드라인이 적용되면서 보험사마다 주요 상품의 보험료가 최고 30% 이상 급등하는 것으로 나타났다. 무·저해지 보험은 중도에 계약을 해지하면 환급금이 없거나 적은 대신 보험료가 저렴해 소비자들로부터 꾸준히 인기가 있었던 보험이다. 이젠 보험료가 오르면서 소비자들의 부담이 늘어날 것으로 전망된다.10일 보험업계에 따르면 이달 들어 주요 손해보험사들이 무·저해지 보험료를 일제히 인상했다. 지난해 금융당국이 새 회계기준(IFRS17) 가이드라인, 특히 무·저해지 보험의 해지율 등 계리적 가정 가이드라인을 발표한 데 따른 것이다.이는 보험회사의 ‘고무줄 회계’ ‘실적 부풀리기’를 차단하기 위한 조치였다. 당시 일부 보험사가 무·저해지 상품의 해지율을 높게 가정해 실적을 부풀린다는 논란이 일었기 때문이다. 무·저해지 상품은 해지 환급금이 없거나 적어, 해지율을 높게 가정하면 도리어 보험사 이익은 늘어난다. 금융당국은 보험사들이 이런 낙관적 가정을 바탕으로 보험료를 낮춰 공격적으로 영업해왔다고 봤다.예정 해지율을 낮추는 새로운 가이드라인이 적용되면서 보험료가 오르는 가운데, 보험사와 상품에 따라 인상률은 큰 차이를 보였다. 3대 진단비, 상해·질병 수술비 등 주요 담보가 포함된 간편심사보험 대표 상품 2종의 50·60대(대표 가입 연령) 남성 보험료의 경우 현대해상은 평균 7.8% 올린 것으로 나타났다. 이어 삼성화재가 6.3%, KB손해보험이 5.0%, DB손보가 4.1%, 메리츠화재가 1%를 인상했다.같은 상품의 여성 보험료 기준으로는 DB손보가 7.6%, 현대해상이 6.1%, 삼성화재가 5.1%, KB손보가 4.4%를 각각 인상했다. 다만 메리츠화재는 오히려 보험료를 10% 인하한 것으로 나타났다.40대 남성 기준 통합보험 보험료의 경우 KB손보는 전월 대비 무려 32.7% 인상했다. 이어 삼성화재(16.9%), DB손보(16.0%)도 두 자릿수 인상률을 보였다. 메리츠화재는 7.7%, 현대해상은 3.4% 인상했다.어린이보험 남아(10세 기준) 보험료 인상률은 삼성화재(27.9%), DB손보(27.7%), KB손보(25.0%), 현대해상(16.4%), 메리츠화재(4.1%) 순으로 나타났다. 여아 보험료는 삼성화재(29.4%), DB손보(27.5%), KB손보(24.9%), 현대해상(20.4%), 메리츠화재(13.3%) 순으로 인상됐다.보험업계에서는 그동안 낙관적이고 자의적인 해지율 가정을 적용해 온 보험사일수록 이번에 보험료를 대폭 올렸을 것이라는 분석이 나온다. 보험업계 관계자는 “보수적인 가정을 적용해온 보험사는 보험료 인상 폭이 작거나 오히려 인하한 상품도 있다”고 설명했다.일각에서는 금융당국의 잇따른 규제가 보험료 인상으로 이어져 소비자의 부담을 높이고 있다는 지적이 나온다. 반면 보험사 간 출혈경쟁이 일어났던 무·저해지 보험 시장에서 이번 가이드라인 적용이 보험사 재무 건전성에 긍정적인 영향을 줄 것이라는 전망도 있다. 보험업계 관계자는 “해지율에 대한 보수적인 가정이 적용되면서 보험료 인상은 불가피한 측면이 있다”며 “중장기적으로 재무 건전성 개선 효과도 기대할 수 있다”고 말했다.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>전주영 기자</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/020/77771</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>초정밀 위성항법 장치 개발 및 자율주행 시장 확대에 관한 기술적 내용 중심의 기사</t>
+          <t>이 기사는 보험료 인상과 관련된 내용으로 건강 정보와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7263,22 +7415,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>日 국유림 산림욕-온천욕 ‘헬스 투어’… 지역경제도 살려</t>
+          <t>[한경에세이] 지브리풍 열풍과 AI 이슈</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.donga.com/news/Society/article/all/20250410/131393627/2</t>
+          <t>https://www.hankyung.com/article/2025041040101</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627528?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005117843?sid=110</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7288,19 +7440,19 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>노후</t>
+          <t>60대</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[그린 시프트, 숲이 바뀌어야 사람도 산다]건강-체험 접목해 산림관광 육성산림稅 만들어 산촌경제 활성화엑스포엔 기네스 목조 건축물이달 13일 개막하는 2025 오사카 간사이 엑스포의 ‘그랜드 링’. 못을 쓰지 않고 목재들을 끼워 넣는 일본 전통 기법으로 만들었다. ⓒExpo 2025일본의 산림 면적은 약 2500ha로 국토의 68.4%를 차지한다. 경제협력개발기구(OECD) 국가들 중 핀란드(73.7%), 스웨덴(68.7%) 다음으로 많다. 제2차 세계대전 패전 이후 황폐화된 산림 복구 산업이 결실을 거둬 지난 50년 사이 산림 면적이 2.6배로 늘었다. 산림 자원이 풍족해진 만큼 단순히 목재를 생산하는 것이 아니라 산림이 갖고 있는 다양한 가치를 끌어올리기 위한 시도가 활발하게 이뤄지고 있다.이를 위해 우리나라의 산림청 역할을 하는 일본 임야청은 2018년 ‘산림서비스산업 검토위원회’를 마련했다. 크게 건강, 교육, 관광, 지속가능발전목표(SDGs) 등 4개 분야로 나눠 산림 정책을 추진하고 있다. ‘국토녹화추진기구’ ‘숲만들기전국추진회’ 등 민간 단체들과의 의견 교류도 활발하다.‘관광 대국’ 일본은 특히 도쿄, 오사카, 교토 등 일부 대도시에 외국인 관광객이 몰리는 것을 분산시키고 지역 경제를 살리기 위해 최근 산림 관광 활성화에 힘을 쏟고 있다. 2017년 전국 국유림 83곳을 ‘일본 아름다운 숲, 추천 국유림’으로 선정하고 알리기에 나섰다. 지역의 표지판과 안내문 설치 등 외국어 정보 서비스를 늘리고 있으며, 노후한 숙박과 교통 시설 정비에도 나서고 있다. 산림욕, 온천욕 등과 결합시킨 ‘헬스 투어’도 인기다.나가노현 이이야마(飯山)시 모리노이에(森の家)와 같은 산촌생태시설은 대표적인 성공 사례로 꼽힌다. 산림 치료를 중심으로 요가, 카누, 소바 만들기, 산나물 캐기 등 200여 가지 체험 코스를 만들어 사업 초기인 2007년에 최고 200만 명이 다녀갔다. 지금도 연간 수만 명이 찾는다.기업들도 산림 활용에 적극적이다. 정보기술(IT) 기업 세일스포스닷컴은 직원 46명이 1년간 와카야마현 산림에서 재택업무와 지역 봉사를 하는 프로그램을 진행했다. 그 결과 이전보다 매출(계약 금액)이 24% 증가하는 등 생산성이 오르는 효과를 봤다. 일본 정부는 2019년 ‘산림환경양여세’, 2024년 ‘산림환경세’ 등을 신설해 마련한 예산을 산림 지역에 투입해 산촌 경제 활성화를 지원하고 있다.일본은 대형 이벤트가 있을 때마다 산림 강국의 이미지도 강조하고 있다. 2020 도쿄 올림픽 주경기장 건물은 목재로 지어졌다. 이달 13일 개막하는 2025 오사카 간사이 엑스포의 상징물 또한 목재로 만들어진 ‘그랜드 링’이다. 폭 30ｍ, 최대 높이 20ｍ에 둘레가 무려 2km에 달하는 원형의 목조 건축물을 못을 쓰지 않고 목재들을 끼워 넣는 일본 전통 기법으로 만들었다. 지난달 4일 세계 최대 목조 건축물로 기네스 인증도 받았다.</t>
+          <t>이효진 에잇퍼센트 대표카카오톡 친구 목록을 보니 ‘지브리 화풍’ 프로필 사진이 눈에 띄게 늘었다. 인공지능(AI) 기술의 대중화를 실감하는 순간이다.AI를 생각하면 떠오르는 인상적인 순간이 세 번 있다. 첫 번째는 2016년 이세돌 9단과 딥마인드 알파고의 바둑 대결이다. 당시만 해도 AI가 세계 최강 프로기사를 이길 거라고는 상상하지 못했다. 결과는 알파고의 4승1패. 이후 기업들은 AI 기술에 본격 투자했고 유통 분야에서는 수요예측과 물류 최적화, 금융에서는 신용평가와 대출 심사, 의료에서는 영상 진단 보조와 신약 개발 등 산업 전반에서 AI 기반 혁신이 이어졌다.두 번째는 오픈AI 챗GPT의 등장이다. 누구나 똑똑한 개인 비서를 두고 일하는 시대가 열렸다. 리서치, 번역, 요약은 물론 개발자는 코드 작성과 디버깅을, 마케터는 광고 문구와 디자인 초안을 빠르게 생성하며 활용 범위를 넓혀가고 있다.세 번째는 지금 이 순간이다. 손쉽게 특정 화풍을 반영한 그림이 유행하고, 60대 후반 부모님도 가족사진을 AI로 바꿔 SNS에 올린다. 아이들은 챗GPT와 그림 그리고 퀴즈를 즐긴다. 산업의 중심에서 일상으로, 이제 AI는 전 연령대에 자연스럽게 스며들고 있다. 기업은 AI를 통해 서비스를 고도화하며 삶의 질을 높이고 있다. 에잇퍼센트 역시 신용평가 자동화, 대량 거래 처리 등에 AI를 적용해 더 많은 이가 합리적인 금융 서비스를 누릴 수 있게 돕고 있다.하지만 AI의 확산은 일자리 대체라는 중대한 질문도 남긴다. 유발 하라리는 &lt;넥서스&gt;에서 “대부분의 일은 AI가 수행하고, 인간은 소수만이 결정권을 가진 역할로 남게 될 것”으로 예측했다. 이는 단순한 효율의 문제가 아니라 부의 재분배와 사회 구조 재설계가 필요한 시대임을 뜻한다.더 근본적인 문제는 일을 통해 인간이 느끼던 자기 효능감의 상실이다. 특히 창작 영역에서 AI가 인간을 대체할 때 느끼는 상실감은 더 크다. 지브리 화풍의 AI 그림이 유행하는 가운데, 미야자키 하야오 감독은 2016년 한 다큐멘터리 인터뷰에서 “AI가 만든 결과물은 고통을 모른다. 완전히 역겹다. 삶에 대한 모욕”이라며 AI로 이뤄지는 작업을 강하게 비판했다. 인간의 존재 가치와 새로운 질서 확립이 필요하다는 지적이다.AI 기술의 확장은 저작권 소송 결과에 따라 큰 영향을 받을 수 있다. 오픈AI는 일부 언론사와의 소송에서 승소했지만, 뉴욕타임스와의 소송은 불리하게 전개 중이다. 국내에서도 지상파 방송 3사가 네이버를 상대로 비슷한 소송을 제기했다. 인간과 AI가 공존하는 시대는 이미 도래했다. 기술 발전을 외면하면 도태될 수밖에 없다. 대한민국이 기술과 규범의 균형을 이뤄가는 AI 선진국이 되기를 기대해본다.</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>일본의 산림 관광과 경제 활성화 사례는 국내 고객과 관련성이 낮아 활용하기 어렵습니다.</t>
+          <t>AI 기술의 확산과 그로 인한 사회적 변화와 도전 과제를 다룬 기사로, 건강 관련 정보는 포함되지 않음.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -7312,22 +7464,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>야구 방망이 대신 카메라 잡은 야구 전설… 켄 그리피 주니어, 마스터스...</t>
+          <t>트럼프, 한국에 SOS?…"곧 대박 기회 온다" 기대감 폭발 [분석+]</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/sports/golf/2025/04/11/3VGDUFHSFBFCTD7WAHYU42GPUM/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
+          <t>https://www.hankyung.com/article/202504115293i</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://m.sports.naver.com/golf/article/023/0003898968</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118035?sid=101</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7337,34 +7489,54 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>시니어</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+          <t>70대</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>트럼프 "타국서 최첨단 선박 살 수도"한국 조선업 협력 시사HD현대중공업 울산조선소. 사진=HD현대중공업'해양 패권 재건'을 선언한 미국이 한국 조선소에 대규모 선박 주문을 할 가능성이 점차 커지고 있다. 도널드 트럼프 미국 대통령이 처음으로 "해외 선박을 구매할 수 있다"고 직접 언급하면서다. 조만간 미국이 군함과 드릴십, 전략상선 등에 대한 패키지 건조요청을 할 수 있다는 관측이 나온다. 실제 주문이 이뤄지고 우리 정부와 K조선사들이 이 기회를 잘 살린다면 대미 관세협상에서도 도움이 될 것이라는 관측이 나온다.트럼프, "동맹국 선박 주문 가능"10일(현지시간) 트럼프 대통령은 미국 백악관 각료회의에서 “미국 조선업을 재건할 것”이라며 “의회에 (선박 구매자금을) 요청해야 할 수도 있지만, (미국과) 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수도 있다”고 밝혔다. K조선업과의 협력을 언급해온 트럼프 대통령이 어떤 요청을 조치를 할지 이목이 쏠린다.미국은 중국과의 해양 패권전쟁에서 이기기 위해서라도 자국 조선업을 키워야 하는 상황이다. 하지만 현 미국의 선박 건조 역량으로는 동맹국으로부터 군함과 미국적 상선을 구매할 수밖에 없는 현실을 트럼프 대통령이 드러낸 것이라는 분석이 나온다.우리 정부는 미국이 △한국 기업의 미 조선소에 대한 투자 △현지 조선·해양 인력 교육과 신규 인력 양성에 대한 협조 △선박 건조에 대한 패키지 요청 등을 해올 것으로 보고 있다.전날 트럼프 대통령이 발표한 ‘미 해양 지배력 강화’ 행정명령을 보면 미국이 한국에 어떤 요청을 해올지 가늠할 수 있다. 트럼프 대통령은 행정명령 8조 ‘동맹국 및 파트너국을 통한 적대국(선박) 의존도 감소’에서 상무부 장관에게 동맹국 조선소들이 미국에 자본 투자하도록 협력할 수 있는 모든 인센티브를 검토한 보고서를 작성해 국가안보보좌관 등에 보고하도록 지시했다. 기한은 90일을 줬다.10조 ‘선박금융 인센티브 프로그램’에서는 교통부 장관에게 ‘유연성을 갖춘 선박금융 인센티브 프로그램을 수립하는 입법안을 제출하라’고 명령했다. 상업용 선박 조선소에 대한 자본 개선과 선박 수리 시설 및 드라이독 투자에 필요한 금융지원책을 마련하라는 취지다. 보조금에 대한 검토도 언급했는데 현재로선 ‘존스법(미국 내 항구에서 화물과 승객을 운송하는 선박은 자국에서 건조돼야 한다는 원칙)’에 따라 미국산 선박에 대한 인센티브가 될 가능성이 높다는 관측이다.12조에서 트럼프 대통령은 교통부 장관에게 ‘해양산업 필요성’ 관련 보고서를 90일 이내에 제출하도록 요구했다. 해양산업 관련 공급과 수요를 유지하는 데 필요한 사항을 목록화하고, 선원 교육 및 미연방 상선사관학교 현대화 등 해양인력 문제 해결을 위한 보고서를 국무장관, 국방장관, 노동장관에게 작성하라고도 명령했다. 조선업계 관계자는 "행정명령에 중국 선박에 입항 수수료를 부과하기 위한 준비를 하고, 자국 조선업 정상화에 필요한 인센티브 계획을 준비하는 내용이 폭넓게 담겼다"고 평가했다.美 '탱커, 드릴십, 상선' 건조 요구할 수도이에 앞으로 미국이 조만간 필리 조선소를 인수한 한화오션처럼 국내 조선소에 현지 조선소 추가 투자를 요청하고, 인력 교육에 대한 도움을 요구할 가능성이 높다는 관측이 나온다. 산업부 관계자는 "한국의 우수 조선소 인력을 교관으로 파견해주고, 각종 산학협력 프로그램을 만드는 방안은 검토할만하다"고 평가했다. 이미 조선사들과 학계에서 현지 엔지니어를 양성하려는 프로그램이 만들어지고 있다. HD현대의 중간지주사인 HD한국조선해양이 지난해 미국 미시간대, 서울대와 함께 '조선산업 인재 육성을 위한 업무협약'을 체결한 게 대표적 사례다.미국은 중국과의 해양 패권 싸움에서 이기고, 군사 안보적 차원에서 전략상선대를 늘리는 방안도 추진 중이다. 작년 12월 미 의회엔 미국 조선과 항만 인프라 안보를 위한 '쉽스액트' 법안이 발의되기도 했다. 이 법의 골자는 미정부가 10년 내 250척 규모의 전략상선대를 구축해야 한다는 내용이다. 전략상선이란 평소 상선으로 쓰이지만, 전쟁 등의 비상 상황이 되면 전략물자나 무기 등을 실을 수 있는 국가 동원 선박을 말한다. 미국이 보유한 전략상선은 현재 70대 수준에 불과한 것으로 알려졌다. 업계 관계자는 "한국도 해양수산부령을 통해 유사시 선박을 동원할 수 있는 체계를 갖고 있고, 중국의 경우 비상시국엔 대부분의 국적선을 전면 동원할 수도 있지만, 미국은 그렇지 못하다"고 평가했다. 현재 쉽스액트 법은 미 국회 회기가 종료돼 다시 발의돼야하는 것으로 전해졌다.전략상선은 '미국 내 건조, 미국 선적, 미국 선원 탑승'이 원칙이지만 동맹국에서 건조된 선박도 상선대에 포함할 수 있는 여지가 있다. 그동안에는 존스법이 폐기되거나 수정돼야 미국이 선박을 한국에서 주문할 수 있다는 분석이 나왔다. 산업부 관계자는 "트럼프 대통령이 관련 행정명령을 내려 해외 발주 근거를 만들 수도 있다"고 분석했다.미국이 전략상선과 알래스카 에너지 개발에 필요한 드릴십, 원유 운송용 탱커 등을 한국에 패키지로 주문할 수도 있다. 안덕근 산업부 장관은 지난 3월 방미 직후 기자들과 만나 진행한 백브리핑에서 미국이 제시한 조선 협력에 관한 질문에 "미국에서 필요한 건 해군력을 서포트하는 차원의 군함 유지보수(MRO)도 있지만, 가스 등 에너지 수출을 위해선 탱커가 필요하고, 쇄빙선 수요도 많다"면서 "한국 조선사들에도 백로그(수주잔고)가 많음에도 미국과 규모 있는 합의가 된다면 합리적으로 조정해서 조선업계와 협의할 수 있다"고 설명했다. 미국의 선박 주문이 있을 경우, 수요를 맞출 수 있도록 조선사들과 도크 일정을 조정할 수 있다는 뜻을 밝힌 것으로 풀이된다.산업부는 앞으로 안 장관이 방미 기간에 만든 국장급 '조선 협의체'에서 앞으로의 한·미 조선협력을 논의해보겠다는 입장이다. 조선 협의체는 가동에 들어갔지만, 아직 미국 내 카운터파트너가 확정되지 않아 '현지 교통정리'가 필요한 것으로 전해졌다. 산업부 관계자는 "미국은 상무부, 백악관, 해군, 해양경비대, 교통부, 상무부가 해양 산업에 대한 권한을 조금씩 갖고 있는 형태"라고 말했다.김대훈 기자</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>김대훈 기자</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/015/73554</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>이 기사는 조선업과 관련된 내용으로 건강 정보와 관련이 없어 활용 불가합니다.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>"나이는 숫자일 뿐"…65세 커플스, 마스터스서 191야드 '이글' [여기는 ...</t>
+          <t>尹, 관저 앞 청년만 골라 악수?…"200명 모여라, 5070 입장불가"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/202504114493i</t>
+          <t>https://www.joongang.co.kr/article/25327939</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005117858?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/025/0003433587?sid=100</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7374,27 +7546,27 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>시니어</t>
+          <t>70대</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>마스터스 토너먼트 1R'베테랑' 커플스, 14번홀서 하이브리드 잡고 이글1언더파로 커트 통과 '청신호'프레드 커플스가 11일(한국시간) 마스터스 1라운드 1번홀에서 버디를 잡은 뒤 팬들과 환호하고 있다.  /AFP연합뉴스나이는 숫자에 불과하다. 191야드의 거리 역시 숫자일 뿐이다. 11일(한국시간) 개막한 마스터스 토너먼트에서 '백전노장' 프레드 커플스(65)가 증명해낸 사실이다.커플스는 이날 미국 조지아주 오거스타내셔널GC에서 열린 시즌 첫 메이저대회 마스터스 1라운드 14번홀(파4)에서 191야드 거리에서 친 샷이 그대로 홀에 빠져들어가며 이글을 잡아냈다. 이날 커플스는 이 이글과 함께 버디 2개, 보기 3개로 1언더파 71타로 첫날을 마쳤다. 현지시간 오후 3시 현재 공동 10위에 이름을 올리고 있다.이날 전반 9개 홀에서 커플스는 2개의 보기를 범해 1오버파로 14번홀에 들어섰다. 6번 하이브리드를 잡고 친 두번째 샷으로 공은 그린 왼쪽에 정확히 떨어진 뒤 그대로 홀로 굴러 들어갔다. 그는 왼팔을 번쩍 들어 팬들에게 화답한 뒤 클럽 헤드에 입을 맞췄다. 이후 나머지 홀에서 커플스는 파 행진으로 타수를 지켰고 언더파로 마스터스 첫 날을 마쳤다.사진=마스터스 조직위원회경기를 마친 뒤 커플스는 14번홀에서의 플레이에 대해 "6번 하이브리드로 쳤는데 공이 정말 정말 잘 맞았다"며 "홀이 언덕 너머에 있어서 들어가는 장면을 보지 못했는데 관중들의 반응을 보고 이글이라는 사실을 알았다"고 활짝 웃었다. 이어 "이 코스 파4홀에서 이글을 잡아본 적이 없었던 것 같다. 정말 재미있었다"라고 덧붙였다.커플스는 미국프로골프(PGA)투어의 대표 베테랑으로, '명예의 전당' 입회자이기도 하다. 1992년 마스터스 우승자로, 이번이 32번째 출전이다. 2023년 이 대회에서는 64세로 최고령 본선 진출 기록을 세웠다.현재 시니어투어인 챔피언스 투어에서 활동하고 있는 그는 이날 골프백에 퍼터와 드라이버를 비롯해 3·5번 우드, 3·4·5·6 하이브리드, 7·8·9번 아이언과 웨지를 꽂았다. 한창 때의 선수들과는 다른 구성이다. 이날 경기에서는 공도 어린 현역들이 거의 사용하지 않는 노란 형광색을 쓴다. 공이 눈에 더 잘 보이기 때문에 선택한 색이다.이번 대회 목표는 커트 통과다. 작년에는 커트탈락을 했고 부상으로 고통받기도 했다. 커플스는 "65세의 나이에도 이 코스로 돌아올 수 있어서 행복하다"며 "오거스타 내셔널은 어려운 코스다. 나는 더이상 충분히 멀리 칠 수 없고, 파5에 레귤러온을 할 수 없지만 여전히 경쟁할 수 있다"고 자신감을 보였다.오거스타=조수영 기자 delinews@hankyung.com</t>
+          <t>11일 윤석열 전 대통령 사저인 서울 서초구 아크로비스타에 윤 전 대통령의 이삿짐이 옮겨지고 있다.  윤 전 대통령은 이날 오후5시 한남동 관저를 떠나 서초동 사저로 옮긴다. 뉴스1윤석열 전 대통령의 한남동 관저 퇴거가 예정된 11일 오후 지지자들이 관저 앞으로 모여들고 있다. 헌법재판소의 파면 결정이 내려진 지 일주일 만이다.연합뉴스에 따르면 윤 전 대통령이 관저를 떠나기 두 시간 전인 오후 3시 현재, 한남동 관저 주변에는 경찰 비공식 추산으로 약 500명이 모였다.유튜브 채널 '신의한수'는 이날 오후 3시 관저 인근 볼보빌딩 앞에서 윤 전 대통령 지지 집회를 열었다. 집회 인원은 1만명으로 신고됐다.사회자는 "대통령이 떠날 때 청년들한테 말씀하실 것이란 이야기가 있다"며 "오후 4시에 관저 앞으로 이동할 거니까 청년 200분 모여달라"고 했다.이어 "대통령경호처에서 신원이 확실해야 한다고 연락이 왔다"고 주장하며 "40대까지 신분증을 준비해달라"고 말했다. 또 "윤 전 대통령이 직접 악수할 수도 있다. 윤 전 대통령 측 요청이기 때문에 50, 60, 70대는 입장이 불가능하다"고 덧붙였다윤석열 전 대통령이 한남동 관저를 떠나 서초동 사저로 거처를 옮기는 것으로 알려진 11일 서울 서초구 사저 아크로비스타 인근에서 한 지지자가 손팻말을 들고 있다. 연합뉴스윤석열 전 대통령이 한남동 관저를 떠나 서초동 사저로 거처를 옮기는 것으로 알려진 11일 서울 서초구 사저 아크로비스타 인근에서 구속 촉구 집회가 열리고 있다. 연합뉴스윤 전 대통령 지지 단체인 자유대한국민연대는 이날 오전 10시부터 관저 인근 루터교회 앞에서 집회를 열고 "각하 재출마 해달라", "탄핵을 절대 승복할 수 없다"고 외쳤다.일부 지지자들은 관저 인근에서 윤 전 대통령 반대 시민과의 충돌을 막기 위해 배치된 경찰관들에게 "중국인이냐"며 항의하기도 했다. 또 취재진을 둘러싸고 욕설하며 호루라기를 불었다.한편 같은 시각 윤 전 대통령의 복귀가 예상되는 서초동 아크로비스타 앞은 비교적 적막한 분위기 속에 긴장감이 감돌았다. 주민이 주문한 것으로 보이는 꽃다발 상자가 놓여 있었고, 태극기와 성조기를 든 일부 지지자도 눈에 띄었다. 주상복합 건물 경비원들은 외부인 출입을 통제하며 순찰에 나섰다.탄핵에 반대해온 유튜버 벨라도는 오후 3시께 아크로비스타 인근에서 5000명 규모 집회를 열겠다고 신고한 상태다.다만 아크로비스타 앞은 서울중앙지방법원에서 100m 거리에 있어, 집회 및 시위에 관한 법률에 따라 옥외 집회 및 시위가 금지된다.</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>조수영 기자</t>
+          <t>이해준 기자</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/25619</t>
+          <t>https://media.naver.com/journalist/025/74431</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>이 기사는 마스터스 골프 토너먼트에서 프레드 커플스의 경기 성과를 다루고 있어 건강 정보와 관련이 없습니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -7406,22 +7578,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>폭행에 성폭력…골프 천국에 뜬 ‘논란의 천사’</t>
+          <t>트럼프, 조선재건 특명…건조역량 뛰어난 한국에 손 내밀듯</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327744</t>
+          <t>https://www.hankyung.com/article/2025041165161</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://m.sports.naver.com/golf/article/025/0003433405</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118236?sid=101</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7431,19 +7603,39 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>시니어</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+          <t>70대</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>"타국서 첨단 선박 살 수 있다"트럼프, K조선과 협력 시사美 조선업 재건 의지 강조한국에 건조 요청 가능성'조선 빅3' 주가 일제히 급등HD현대중공업 울산 조선소에서 액화천연가스(LNG) 선박이 건조되고 있다.  HD현대중공업 제공도널드 트럼프 미국 대통령이 미국 조선업을 재건하는 동안 다른 나라에 첨단 선박을 발주할 수 있다고 밝혔다. 트럼프 대통령은 당선 직후부터 한국의 조선 역량을 언급하며 ‘러브콜’을 보낸 데다 지난 8일 한덕수 대통령 권한대행과의 통화에서도 조선 협력을 언급해 국내 조선업계의 기대가 크다.트럼프 대통령은 10일(현지시간) 백악관 각료회의에서 “우리는 조선업을 재건할 것”이라며 “의회에 요청해야겠지만 미국과 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수 있다”고 했다. 그러면서 “이들 국가에 ‘최첨단 선박’을 주문할 수 있다”고 덧붙였다.미국은 패권 경쟁국인 중국보다 뒤떨어진 조선·해운 역량을 강화하는 정책을 추진 중이다. 해군 함정에 2054년까지 최대 1조달러를 투입하고, 군사적 목적으로 투입하는 전략상선단을 70대에서 250대로 확대하는 방안을 마련했다. 전날 트럼프 대통령은 계획을 뒷받침할 ‘해양 지배력 회복’ 행정명령에 서명했다.미국이 조만간 한국에 현지 조선소 투자와 조선·해양 인력 교육 지원, 새 선박 건조를 망라한 ‘조선 협력 패키지’를 제안할 수 있다는 관측이 나온다. 11일 국내 ‘조선 빅3’ 주가는 일제히 상승했다. HD현대중공업은 전날보다 5.71%, 한화오션은 6.16%, 삼성중공업은 3.94% 올랐다. 빅3 주가는 트럼프 대통령 당선 이후 각각 89.1%, 179.1%, 46.1% 상승했다.군함·원유 수송선 해외 구매 가능성…韓조선 최대 수혜韓, 함정·일반선박 건조에 강해…조선업 부활·인력양성 요청 전망작년 11월 6일 도널드 트럼프 미국 대통령 당선인이 윤석열 전 대통령과의 통화에서 “선박 건조와 유지·보수·정비(MRO) 분야에서 협력하자”고 제안했을 때, 국내 조선업계의 반응은 뜨뜻미지근했다. 돈 될 만한 게 딱히 보이지 않는다는 이유에서였다. 수익성 좋은 미 군함이나 상선을 만드는 건 해외 건조를 막는 번스-톨리프슨 수정법과 존스액트법 탓에 불가능하고, 군수지원함 MRO 사업은 마진이 얼마 안 되기 때문이다.이랬던 기류가 확 바뀌었다. 트럼프 대통령이 10일(현지시간) “조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수도 있다”고 언급해서다. 함정과 상선을 가장 잘 제작하는 국내 조선업계에 엄청난 물량의 일감이 떨어질 가능성이 높아졌다는 전망이 나온다.◇ 조선업 재건과 인력 양성 특명정부는 미국이 한국 조선업계에 요청할 사안을 크게 세 가지로 파악하고 있다. 핵심은 미국 내 조선업 재건과 조선 인력 양성이다. 트럼프 대통령은 이날 각료 회의에서 “미국이 선박을 건조하지 않는 건 말도 안 되는 일”이라며 “머지않은 미래에 조선업은 우리에게 매우 큰 사업이 될 것”이라고 했다.미국 정부는 이미 자국 조선업 정상화에 필요한 정책 개발에 들어갔다. 전날 트럼프 대통령은 ‘미 해양 지배력 강화’ 행정명령 8조를 통해 동맹국 조선소들이 미국에 투자할 수 있도록 모든 인센티브를 검토하라고 지시했다. 상세안은 미국 상무부 주도로 90일 안에 나올 전망이다. 교통부에는 행정명령 10조를 통해 조선소 투자와 선박 수리 시설 개조 등에 필요한 금융 지원책을 마련하라는 지시를, 국무부 등엔 선원 인력 양성 방안을 제안하라고 지시했다.이 소식을 접한 HD현대중공업과 한화오션은 미묘한 반응 차이를 보였다. HD현대중공업은 미국 조선소를 인수하거나 새로 짓는 것에 신중한 입장이다. 투자 규모가 큰 데다 배를 짓는 데 필요한 전문 인력, 공급망이 거의 없다는 이유에서다. HD현대중공업이 직진출 대신 미국 최대 방위산업 조선사 헌팅턴잉걸스와의 협업을 택한 이유다. 헌팅턴잉걸스는 지난해 미 해군이 발주한 이지스 구축함 9척 중 6척을 수주한 이 분야 최강자다. HD현대중공업은 헌팅턴잉걸스와 생산 인력 파견뿐 아니라 미국 내 하청 공급망 재건, 공동 수주 방안 등을 논의하고 있다.반면 한화오션은 미국 내 조선 인프라 구축에 적극 나서고 있다. 한화는 작년 말 인수한 미국 필라델피아 필리조선소에 인수 금액(1억달러) 이상을 추가 투자할 계획이다. 지난달엔 미국에 조선소를 운영하고 있는 호주 오스탈 지분 9.9%도 매입했다. 필리조선소를 상선 건조 거점으로, 앨라배마와 캘리포니아에 있는 오스탈의 미국 조선소들을 군함 건조·수리 거점으로 삼겠다는 것이다.◇ 이지스함 건조 가능할까조선업계는 미국 정부가 한국에 상선과 함정 건조를 요청할 것으로 예상하고 있다. 번스-톨리프슨 수정법 및 존스액트법을 개정하거나 트럼프 대통령이 예외조항을 발동하는 식으로 해외에서 건조한 선박 구매를 허용할 것이란 얘기다. 업계는 “조선업을 잘하는 국가로부터 최첨단 선박을 주문할 것”이라는 트럼프 대통령의 언급에 주목하고 있다. 미국이 필요한 최첨단 선박으로는 원유 운송선과 알래스카 에너지 개발에 필요한 쇄빙선, 이지스급 구축함 등이 거론된다.다만 국내 조선 3사(HD현대중공업·삼성중공업·한화오션)가 이미 3~4년치 일감을 확보한 만큼 일반 상선용 독을 확보하는 건 쉽지 않은 일이다. 반면 이지스함 등을 만들 수 있는 특수선 독은 상대적으로 여유가 있다. 척당 1조원이 넘는 이지스함은 마진이 좋다는 점에서 HD현대중공업과 한화오션 모두 관심을 보이고 있다. 미국에서 이지스 구축함을 건조할 수 있는 제너럴다이내믹스와 헌팅턴잉걸스는 미 해군이 요구하는 연간 신조 건수(5척)에 한참 못 미치는 연 1.6~1.8척만 건조하고 있다. 업계는 HD현대중공업과 한화오션이 특수선 독을 모두 활용하면 연 4척 이상을 제조할 수 있을 것으로 보고 있다.김대훈/김우섭 기자/워싱턴=이상은 특파원 daepun@hankyung.com</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>김대훈 외 2명</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://media.naver.com/journalist/015/73554</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>이 기사는 건강 정보와 관련이 없으며, 조선업과 관련된 경제 기사입니다.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>"대통령 내외분 수고하셨습니다"…尹 사저에 걸린 현수막 [현장+]</t>
+          <t>"타국서 첨단 선박 살 수 있다"…트럼프, K조선과 협력 시사</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7453,12 +7645,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.hankyung.com/article/2025041156187</t>
+          <t>https://www.hankyung.com/article/2025041165321</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118040?sid=100</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005118233?sid=101</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7468,27 +7660,27 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>60대</t>
+          <t>70대</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>서초동 윤 전 대통령 사저 '아크로비스타' 보안 강화입주민들 사이에서도 복귀 두고 의견 갈려윤 전 대통령이 11일 복귀할 것으로 예정된 서초동 '아크로비스타'에 걸린 현수막/사진=유지희 기자윤석열 전 대통령의 서울 서초구 아크로비스타 사저 복귀가 임박하면서 단지 주변은 긴장감이 감돌고 있다. 사저 인근은 경비가 강화됐고, 주민 반응도 찬반으로 나뉘고 있다.11일 낮 12시 30분쯤 기자가 방문한 아크로비스타 주변은 평소와는 다른 긴장감이 감돌았다. 경찰차들이 단지 주변에 배치됐고, 보안이 강화된 모습이었다.단지 내부는 적막했으며, 외부인에 대한 주민들의 경계심도 높았다. 일부 주민은 외지인이 단지 내에 모여있는 사람들에게 "어디서 왔냐"고 묻는 등 예민한 반응을 보였다. 아크로비스타 상가 상인들도 말을 아끼는 분위기였다.윤 전 대통령을 지지하는 주민과 지지자들은 이미 '환영 무드'를 조성하고 있다. 아크로비스타 단지에는 '대통령 내외분 수고하셨습니다'라는 문구가 적힌 현수막이 걸렸고, 인근 인도에도 'Yoon Again!(윤 어게인) 다시 대한민국!'이라 적힌 현수막이 보였다.60대 주민 A씨는 "사람들이 사진 찍으려고 몰려와서 렌즈만 봐도 깨버리고 싶었다"며 불편한 심경을 드러냈다. 이어 "그 사람(윤 전 대통령)이 원래는 참 괜찮은 사람이다. 대통령이 되는 바람에 온갖 안 좋은 일을 겪었지, 우리는 그를 미워하지 않는다. 탄핵이 인용된 게 법적으로도 참 안타깝다"고 말했다.출처=당근하지만 모두가 그의 복귀를 반기는 것은 아니다. 30대 주민 B씨는 "대통령직에서 물러난 이유가 내란 혐의가 인정된 거 아닌가. 그런 사람이 다시 이곳에 돌아온다는 건 솔직히 불편하다"며 "처음 당선됐을 때는 자랑스러운 주민이라고 생각했지만, 지금은 형언할 수 없이 실망감이 크다"고 밝혔다.온라인 커뮤니티에서도 인근 지역 주민들의 우려가 나왔다. 지역 커뮤니티 플랫폼 '당근'에는 "윤석열 아크로비스타 진짜 오는 거냐, 근처 자주 다니는데 시끄러워질까 걱정된다"며 "차 막힐까 봐 벌써 짜증 난다. 이 사람 다니는 곳은 다 소란스럽다" 같은 글이 올라오기도 했다.경찰은 이날 오후 5시 서울 용산구 한남동 관저에서 출발이 예정된 윤 전 대통령의 사저 복귀를 대비해 만반의 준비에 나섰다. 복귀 당일 오후에는 찬반 집회가 예정돼 있어, 경찰은 사저 인근에 소음 측정기를 설치하고, 기동대 2개 부대를 배치해 만일의 충돌 상황에 대비할 방침이다. 사저 주변은 일시적 교통 통제 가능성도 제기되는 상황이다.</t>
+          <t>美 조선업 재건 의지 강조한국에 건조 요청 가능성'조선 빅3' 주가 일제히 급등도널드 트럼프 미국 대통령이 미국 조선업을 재건하는 동안 다른 나라에 첨단 선박을 발주할 수 있다고 밝혔다. 트럼프 대통령은 당선 직후부터 한국의 조선 역량을 언급하며 ‘러브콜’을 보낸 데다 지난 8일 한덕수 대통령 권한대행과의 통화에서도 조선 협력을 언급해 국내 조선업계의 기대가 크다.트럼프 대통령은 10일(현지시간) 백악관 각료회의에서 “우리는 조선업을 재건할 것”이라며 “의회에 요청해야겠지만 미국과 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수 있다”고 했다. 그러면서 “이들 국가에 ‘최첨단 선박’을 주문할 수 있다”고 덧붙였다.미국은 패권 경쟁국인 중국보다 뒤떨어진 조선·해운 역량을 강화하는 정책을 추진 중이다. 해군 함정에 2054년까지 최대 1조달러를 투입하고, 군사적 목적으로 투입하는 전략상선단을 70대에서 250대로 확대하는 방안을 마련했다. 전날 트럼프 대통령은 계획을 뒷받침할 ‘해양 지배력 회복’ 행정명령에 서명했다.미국이 조만간 한국에 현지 조선소 투자와 조선·해양 인력 교육 지원, 새 선박 건조를 망라한 ‘조선 협력 패키지’를 제안할 수 있다는 관측이 나온다. 11일 국내 ‘조선 빅3’ 주가는 일제히 상승했다. HD현대중공업은 전날보다 5.71%, 한화오션은 6.16%, 삼성중공업은 3.94% 올랐다. 빅3 주가는 트럼프 대통령 당선 이후 각각 89.1%, 179.1%, 46.1% 상승했다.김대훈/김우섭 기자/워싱턴=이상은 특파원 daepun@hankyung.com</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>유지희 기자</t>
+          <t>김대훈 외 2명</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://media.naver.com/journalist/015/80247</t>
+          <t>https://media.naver.com/journalist/015/73554</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>윤 전 대통령의 사저 복귀로 인한 서초동 주민들의 반응과 보안 강화에 대한 기사입니다.</t>
+          <t>이 기사는 미국 조선업 재건과 관련된 내용으로, 건강 정보와 관련성이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7500,22 +7692,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>"피의자 죽으면 다 끝나나"…장제원이 소환한 '공소권 없음' 논란</t>
+          <t>광주, 병상 과잉… “한방병원 등 신설 제한”</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25327825</t>
+          <t>https://www.donga.com/news/Society/article/all/20250410/131391933/2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433487?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003627576?sid=102</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7525,741 +7717,24 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>60대</t>
+          <t>요양병원</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>한국여성의전화·한국성폭력상담소가 지난 9일 서울 종로구 서울경찰청 앞에서 기자회견을 열고 고(故) 장제원 전 국민의힘 의원의 성폭력 사건 조사 결과를 발표하라고 촉구하고 있다. 사진 한국성폭력상담소성폭력 혐의로 수사를 받다가 스스로 목숨을 끊은 장제원 전 국민의힘 의원에 대해 경찰이 ‘공소권 없음’으로 사건을 마무리할 방침이다. 이에피의자 사망을 이유로 한 수사 종결 관행에 대해 비판의 목소리가 나오고 있다.한국성폭력상담소와 한국여성의전화 등 여성단체는 지난 9일 서울 종로구 서울경찰청 앞에서 기자회견을 열고 장 전 의원 사건 피해자 이윤슬(가명)씨의 입장문을 대독했다. 이씨는 입장문을 통해 “가해자의 죽음으로 이 사건이 끝나서는 안 된다”며 “온전히 가해자의 손에 의해 모든 것이 시작되고 마무리되는 것을 바라만 볼 수밖에 없는 상황이 참담하다”고 했다. 이씨의 변호인 김재련 변호사는 “가해자의 사망이 기소 여부엔 영향을 줄 수 있지만, 범죄 판단에 장애가 돼선 안 된다”며 “경찰은 수사 기록을 발표해야 한다”고 주장했다.피의자 사망으로 인한 ‘공소권 없음’ 수사 종결은 그간 관행처럼 이어져 왔다. 형사사법절차의 기본 목적인 국가의 형벌권을 실현할 수 없기 때문이다. 2014년 유병언 전 세모그룹 회장의 세월호 참사 관련 사건, 2020년 박원순 전 서울시장의 성추행 의혹도 피의자 사망으로 인해 공소권 없음으로 종결됐다. 2021년 한 30대 여성이 피해자인 살해·유기 사건에서도 60대 피의자의 범죄 혐의를 입증할 만한 증거가 수사 과정에서 나왔지만, 당시 교도소에 수감 중이던 피의자가 극단 선택을 하면서 공소권 없음 처분됐다.수사기관은 통상 피의자가 사망하면 피의자의 방어권이 사라진다는 이유로 수사를 종결한다. 그러나 이는 피해자의 권리와 피해 회복을 보장하지 못한다는 점에서 문제라는 지적이 나온다. 2018년 배우 조민기씨 성폭행 사건을 고발한 송하늘(30)씨는 중앙일보와의 통화에서 “피의자의 사망은 모든 것을 ‘올스톱’ 시킨 최후의 일격이었다”고 했다.조씨 사망 이후 수사는 종결됐고, 송씨에게 남은 건 피해 사실과 죄책감뿐이었다. 자신의 이름조차 이야기하기 어려웠던 송씨가 다시 사회생활을 시작하는 데엔 5년이 걸렸다고 한다. 그는 “장 전 의원 사건을 지켜보며 다시금 무력감이 밀려왔다”며 “가해자가 사회적 명예를 지키기 위해 극단 선택을 하는 걸 방조하면 안 된다”고 목소리를 높였다.피의자의 사망이 수사 종결과 직결되면, 수사기관의 동력이 떨어질 수 있단 우려도 나온다. 수사기관의 의무 중 하나인 ‘실체적 진실 발견’이 어려워지고 피의자를 직접 상대했던 수사관들이 위축될 수 있기 때문이다. 한 지방청 강력계 형사는 “피의자가 수사 도중 사망하는 일은 담당 경찰에게도 큰 충격으로 다가온다”며 “범죄사실을 마저 알아내지 못해 찝찝한 상태로 남으면 다른 사건에서도 위축되는 등의 부작용이 있다”고 말했다.경북경찰청 감식반이 지난해 7월 17일 경북 봉화군 봉화읍 내성4리 경로당을 찾아 감식하는 모습. 연합뉴스피의자 사망 이후에도 경찰이 수사를 진행한 사례도 있다. 경북경찰청은 지난해 7월 ‘봉화 경로당 살충제 사건’과 관련해 용의자가 사망했음에도 두 달간의 수사를 거쳐 진범을 밝혀 수사 결과를 냈다. 국립과학수사연구원에 감정을 의뢰한 결과 피의자의 집에서 나온 농약이 피해자들이 마신 성분과 일치하다는 게 결정적이었다. 사건을 수사했던 경찰 관계자는 “만에 하나 다른 피의자가 있을 가능성을 열어두고 수사를 이어갔다”며 “피의자가 사망했더라도 진실을 밝혀냈기 위해 노력했고, 그 결과 어르신들이 다시 마음 놓고 경로당을 다니실 수 있게 됐다”고 했다.전문가들은 피해자의 회복이 필요한 사건에 국한해서라도 피의자 사망 여부와 관계없이 진실을 밝힐 수 있는 제도 마련이 필요하다고 조언했다. 논문 『피의자 사망을 이유로 한 공소권 없음 수사종결 관행에 대한 고찰』의 저자인 한민경 경찰대학 행정학과 교수는 “피의자가 사망하더라도 피해자에게 수사 진행 경과에 대해 통지할 수 있도록 행정안전부령 등으로 명문화할 필요가 있다”고 주장했다. 한 교수는 “영국에서는 ‘피해자 재심사 요구 제도’를 통해 피해자가 피의사의 사망 이후 사건의 재심사를 요청할 수 있도록 하고 있다”며 “우리나라도 경찰수사심의위원회 등을 거쳐 피해자의 재수사 요구를 반영할 수 있도록 해야 한다”고 덧붙였다.</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>이찬규 기자</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/025/78882</t>
-        </is>
-      </c>
+          <t>병상 대비 의료인력은 전국 최하위응급 등 필수병상 외 신증설 제한광주시가 불필요한 의료 이용과 국민 의료비 상승을 유발하는 병상 과잉 공급 현상을 막기 위해 체계적인 병상 수급관리에 나선다. 광주시는 5월부터 제3기 병상 수급 및 관리계획을 시행한다고 10일 밝혔다.시는 계획에 따라 지속적으로 증가하는 병상 수를 지역 수요에 맞게 관리하고, 합리적인 병상 운영체계를 구축할 방침이다. 광주지역은 인구 대비 일반병원, 요양병원, 한방병원의 수가 전국에서 가장 많지만 병상 대비 의료 인력인 의사, 간호사, 한의사 수는 전국 최하위 수준에 머물렀다.시가 2027년 기준으로 진료권별 병상 공급 및 수요량과 수급 차이를 분석한 결과, 일반병원은 약 8200∼9800병상, 요양병원은 약 6200∼7400병상, 한방병원은 약 1700∼2800병상이 과잉 공급될 것으로 예측됐다. 과잉 공급이 예상되는 병상에 대해 관련 법 등에 따라 병상 신설, 증설을 제한할 방침이다.광주지역 인구 10만 명당 한방병원 수(2023년 기준)는 6.1개로, 전국 평균 1.1개보다 5.5배 많다. 특광역시 한방병원 수를 보면 광주가 87개로 서울(85개)보다 많다. 광주지역 한방병상 수는 5835개로, 전국 한방병상 수의 16.7%를 차지하고 있다. 시는 광주지역 한방병상의 과잉 수준이 타 지역보다 커 관리대상에 포함시켰다고 설명했다.반면 응급, 분만, 소아 등 필수의료 병상에 대해서는 의료기관 개설심의위원회를 거쳐 예외적으로 신증설이 가능하도록 했다. 정영화 광주시 복지건강국장은 “공공성과 효율성을 균형 있게 고려한 병상관리체계를 구축하겠다”고 말했다.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>피의자 사망으로 수사 종결 관행에 대한 비판과 피해자 권리 보장의 필요성을 논의한 기사입니다.</t>
+          <t>이 기사는 병상 수급 관리에 관한 내용으로, 건강 관리나 보험 상담에 직접 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>이재명, 양자대결 누구와 붙어도 과반…민주 43.2%·국힘 33.5% [에이스리...</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>매일경제</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>https://www.mk.co.kr/article/11288742</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005474639?sid=100</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>거대 양당 지지율 격차, 오차범위 밖으로이재명 전 더불어민주당 대표가 지난 10일 영상 메시지를 통해 대선 출마의 각오와 의지를 밝혔다. [사진 출처 = 이재명 캠프]이재명 전 더불어민주당 대표가 11일 누구와 붙어도 50%가 넘는 지지를 받는다는 여론조사 결과가 나왔다.에이스리서치는 뉴시스 의뢰로 지난 8~9일 전국 만 18세 이상 남녀 1212명을 대상으로 조사한 결과, 이 전 대표와 김문수 전 고용노동부 장관의 가상 양자 대결에서 이 전 대표를 지지한다는 응답이 52.0%, 김 전 장관을 지지한다는 응답이 36.8%였다.이 전 대표가 김 전 장관에 15.2%포인트 앞섰다.이 전 대표는 홍준표 대구시장과의 양자 대결에서는 이 전 대표 52.2%, 홍 시장 34.0%를 보였다. 오세훈 서울시장과의 양자 대결에서도 이 전 대표 53.5%, 오 시장 31.9%였다.이 전 대표와 한동훈 전 국민의힘 대표간 양자 대결에서 역시 이 전 대표 53.4%, 한 전 대표 27.5%로 조사됐다.다만 지지 정당이 없다고 응답한 무당층 조사에서는 이 전 대표가 김 전 장관과의 양자 대결에서 오차범위 내이긴 하지만 4.1%포인트 밀렸다. 무당층의 양자 대결에선 이재명(34.5%)-김문수(38.6%), 이재명(35.4%)-오세훈(31.5%), 이재명(37.5%)-홍준표(35.8%), 이재명(39.2%)-한동훈(29.5%)이었다.국회 전경. [사진 출처 = 연합뉴스]더불어민주당과 국민의힘 간 지지율 격차는 오차범위 밖으로 나타났다. 지지하는 정당을 조사한 결과, 더불어민주당 43.2%, 국민의힘 33.5%로 조사됐다.두 정당 간 격차는 9.7%포인트로 오차범위(±2.8%p) 밖이었다. 직전 조사였던 3월 셋째 주와 비교하면 민주당 지지율은 0.3%포인트 올랐고 국민의힘은 5.2%p 떨어졌다.정당 지지율은 이어 조국혁신당 3.5%, 개혁신당 2.7%, 진보당 0.6%로 집계됐다. 11.4%가 지지하는 정당이 없다고 답했으며, 4.2%는 기타 정당을 지지한다고 답했다.연령별로는 민주당 지지율이 20대·40대·50대·60대에서 국민의힘보다 높았고, 70대 이상은 국민의힘 지지율이 민주당보다 높았다. 30대는 민주당이 국민의힘보다 3.7% 높았지만 오차범위 내 격차를 보였다.지역별로 보면 민주당이 수도권·충청·호남권에서 국민의힘을 앞섰고, 국민의힘은 대구·경북 및 부산·울산·경남에서 민주당을 제쳤다.이번 조사는 구조화된 설문지를 이용해 무선 RDD 표집틀에 ARS(무선 100%) 방식으로 이뤄졌다. 응답률은 3.5%로, 표본오차는 95% 신뢰수준에 ±2.8%포인트다. 자세한 내용은 중앙선거여론조사심의위원회 홈페이지를 참조하면 된다.</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>배윤경 기자</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/009/23412</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>이 기사는 정치적 여론 조사 결과를 다루며 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>대전시, 전기 이륜차 보조금 최대 300만 원</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>동아일보</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>https://www.donga.com/news/Society/article/all/20250410/131391847/2</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627579?sid=102</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>299대 한정… 차종별 차등 지급최소 거주기간도 30일로 완화대전시는 올해 전기 이륜차 구매 시 최대 300만 원까지 보조금을 지원한다고 10일 밝혔다. 전체 299대까지 지원한다.시는 전기 이륜차 제작, 수입사 영업점을 통해 예산 소진 시까지 신청을 받는다. 보급 물량은 일반용 209대(70%), 배달용 60대(20%),  취약계층, 장애인, 다자녀가구 같은 우선순위 대상 30대(10%) 순이다. 보조금은 전기 이륜차의 규모, 유형, 성능(연비, 배터리 용량, 등판 능력) 등을 바탕으로 차등 지급된다. 지원 금액은 경형 140만 원, 소형 230만 원, 중형 및 기타형 270만 원, 대형 300만 원까지다. 구매 가능 대수는 개인 1대, 법인 최대 10대, 개인사업자는 2대까지다.올해부터는 자격 문턱이 낮아졌다. 최소 거주 기간을 기존 90일에서 30일로 완화해 신청일 기준 대전시에 30일 이상 연속 거주한 개인, 법인, 공공기관 등도 신청할 수 있다. 소상공인과 취약계층(장애인 또는 차상위 이하 계층), 농업인은 국비 보조금의 20%를 추가 지원한다. 배달용 전기 이륜차는 유상운송보험(시간제 포함) 6개월 또는 비유상운송보험 3개월 이상 유지 확인서를 제출하면, 국비와 시비 각각 10%의 추가 보조금을 받을 수 있다.보조금은 신청 순서에 따라 지급된다. 시가 전기 이륜차 제작, 수입사에 보조금을 직접 지급하면 구매자는 보조금을 제외한 나머지 금액을 해당 업체에 내는 방식이다. 문창용 시 환경국장은 “전기 이륜차 보급을 통해 지역 공기 질을 개선하는 데 보탬이 될 것으로 기대한다”고 했다.</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>대전시 전기 이륜차 보조금 지원은 건강 정보와 관련이 없어 보험 상담에 활용하기 어렵습니다.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>초등생 장래희망 1위 등극했는데…살인·마약·명예훼손 연이은 범죄</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>https://www.hankyung.com/article/2025041146457</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005117882?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>인터넷 방송인 집단 마약 의혹에 연루된 유명 BJ 세야(본명 박대세)가 20일 오전 서울 강남경찰서에서 검찰로 송치되고 있다. 사진=뉴스1유튜버가 초등학생 장래희망 1순위로 등극했지만, 범죄에 연루돼 수사나 재판받는 사례도 늘어나고 있다는 지적이다.10일 동료 유튜버를 살해한 혐의로 재판에 넘겨진 50대 유튜버 홍모 씨에게 항소심 재판부도 1심과 동일한 무기징역을 선고했다. 홍씨는 지난해 5월 9일 오전 9시 52분께 부산 연제구 부산지법 앞에서 동료 유튜버를 흉기로 여러 차례 찔러 살해한 혐의로 재판에 넘겨졌다.인기 BJ로 이름을 알렸던 세야(본명 박대세)는 상습 마약 투약 혐의로 실형을 선고받았다.세야는 2021년 6월부터 2023년 8월까지 케타민·엑스터시·대마 등 1억5000만원 상당의 마약류를 구매해 투약·흡연한 혐의로 재판에 넘겨졌다. 특정범죄가중처벌등에관한법률 위반(향정) 등의 혐의 등으로 구속기소 됐고, 1심에서 징역 3년 6개월과 40시간 약물중독 치료, 추징금 1억5316만원을 명령받았다.세야는 조직폭력배 출신 유튜버 등으로부터 마약류를 건네받아 자신의 집에서 지인들과 투약한 혐의도 받았다. 세야와 연루된 것으로 알려진 조폭 출신 유튜버 김강패(본명 김재왕)는 징역 3년을 선고받았다.쯔양 협박' 의혹 유튜버 구제역/사진=뉴스1'먹방' 유튜버 쯔양(본명 박정원)의 과거를 폭로하겠다고 협박하고, 금품을 뜯어낸 렉카 유튜버들에 대한 재판은 현재 진행 중이다. 유튜버 구제역(본명 이준희), 주작감별사(본명 전진국) 등은 공갈 등의 혐의로 재판에 넘겨졌고, 1심 재판부는 구제역에게 징역 3년을, 주작감별사에게는 징역 1년에 집행유예 3년, 사회봉사 160시간을 선고했다. 구제역의 공갈을 방조한 혐의로 기소된 카라큘라(본명 이세욱)는 징역 1년에 집행유예 3년을 선고받았다.하지만 구제역은 이에 불복해 항소했다. 쯔양은 구제역과 주작감별사를 대상으로 1억원 상당의 손해배상 청구 소송도 제기한 상태다.근거 없는 영상을 만들어 고인의 명예를 훼손하며 지탄받는 사례도 늘고 있다. 지난해 12월 29일 무안 제주항공 여객기 참사로 179명이 사망하며 전 국민이 슬픔에 빠졌을 때 '가짜 사고'를 주장하는 영상을 올린 60대 남성과 70대 남성은 각각 구속, 불구속 상태로 재판에 넘겨졌다. 이들의 영상에는 '제주항공 여객기 사고는 실제 발생하지 않았고, 사고 영상은 컴퓨터 그래픽(CG) 처리된 허위 영상이다' '유족들은 세월호, 이태원 사건 때도 등장한 배우들'이라고 주장하는 내용이 담긴 것으로 알려졌다.문형배 헌법재판소장 권한대행을 겨냥한 살인 예고 글을 올린 유튜버도 협박과 업무방해, 폭행 등의 혐의로 입건됐고, 성매매 업소나 마약 고발 등을 하던 채널이 오히려 금품 갈취 등을 한 사례도 있다.배우 김수현이 31일 오후 서울 상암동 스탠포드 호텔에서 열린 '사생활 논란' 관련 기자회견에서 입장을 밝히고 있다. / 변성현 한경닷컴 기자 byun84@hankyung.com그뿐만 아니라 배우 김수현이 고인이 된 김새론이 미성년자인 시기에 교제했다는 유족들의 말을 전한 유튜브 채널 가로세로연구소와 고인과 관련한 영상을 생전에 다수 게재한 것으로 알려진 유튜버 이진호는 각각 해당 사안과 관련해 명예훼손 혐의로 피소됐다.</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>김소연 기자</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/71569</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>인터넷 방송인들의 범죄 연루 사례가 증가하고 있으며, 이는 건강 정보와 관련이 없습니다.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>무·저해지 보험료, 최대 33% 올라</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>https://www.chosun.com/economy/stock-finance/2025/04/11/WTQT47SSRBAPRKR7AJM4WLX3DI/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898876?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>이달부터 무·저해지 보험의 보험료가 최대 33%가량 올랐다.10일 금융권에 따르면 이달 들어 주요 손해보험사들은 무·저해지 보험료를 인상했다. 무·저해지 보험은 보험료를 납입해야 하는 기간 중 해지해도 환급금이 없거나 적은 상품이다. 대신 일반 보험보다 보험료가 10~40%가량 저렴하다.금융 당국은 작년에 보험사들이 해지율을 높게 설정해 실적을 부풀렸다고 보고 예정 해지율을 낮추도록 가이드라인을 제시했고, 이에 보험료가 오르게 된 것이다. 업계 관계자는 “기존에 해지율을 낙관적으로 가정한 보험사일수록 보험료 인상 부담이 커졌다”고 했다.3대 진단비, 상해·질병 수술비 등 주요 담보가 포함된 간편심사보험 2종은 대표 가입 연령인 50~60대 남성의 경우 보험료가 현대해상은 전월 대비 평균 7.8%, 삼성화재는 6.3%, KB손해보험은 5%, DB손보는 4.1%가량 올랐다. 40대 남성 기준 통합보험의 경우 KB손보가 전월 대비 32.7% 올랐고, 삼성화재(16.9%), DB손보(16%) 등도 크게 올랐다. 어린이보험은 남아 10세 기준 인상률이 삼성화재(27.9%), DB손보(27.7%), KB손보(25%) 등의 순이었다.</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>무·저해지 보험료 인상 소식으로, 건강 정보나 예방 관리와 직접 관련이 없습니다.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>[그 영화 어때]휴 그랜트가 알려주는 오싹한 정답, 유일하고 진실한 종...</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>https://www.chosun.com/culture-life/culture_general/2025/04/11/VYO2IGUJ4VHGTA5FOP4FAJPLUA/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003898945?sid=103</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>안녕하세요, 조선일보 문화부 신정선 기자입니다.‘그 영화 어때’ 126번째 레터는지난 2일 개봉한 영화 ‘헤레틱’입니다. 공포영화로 보이지만 알고보면 심리 스릴러에 가까운, 이 영화에는 매우 흥미로운 질문이 들어있습니다.“이 세상에서 유일하고도 진실한 종교는 무엇인가.” “당신이 지금 믿고 있는 것은 실제로 믿어서 믿는 것인가, 누군가 믿게 만들어서 믿는다고 착각하고 믿고 있는 것인가.”궁금하시죠? 그 답을 가지고 휴 그랜트와 밀당하는 영화가 ‘헤레틱‘입니다. 그럼 종교영화냐, 아닙니다. 종교를 앞세우곤 있지만 ‘인간을 움직이게 만드는 궁극적인 힘은 무엇인가‘에 대한 지적인 탐구에 가깝습니다. 휴 그랜트를 사악한 산신령이라고 생각하시면 돼요.‘노팅힐‘에서 딸기우유빛 셔츠를 입었던 휴 그랜트가 시골아저씨 가디건을 입고 나와 묻는거죠.“금도끼 줄까, 은도끼 줄까.” 그 도끼에는 피가 묻어있고, 어느 도끼를 선택하느냐에 따라 죽느냐 사느냐가 달려있습니다. ‘유일하고 진실한 그것‘이 뭔지 맞혀야 살아나갈수 있어요. 제가 마지막 문단에 답을 알려드릴텐데, 스포가 싫으신 분을 위해선 읽다가 멈추셔야할 지점을 알려드릴 테니 일단 따라오세요.영화 '헤레틱'/롯데엔터테인먼트’헤레틱’은모르몬교 전도에 나선 두 여성 선교사가 어느 집을 찾아가면서 시작합니다. 모르몬교에 관심이 있다며 방문을 신청한 사람이 있었거든요. 비가 억수같이 퍼부었지만 하나님의 가르침을 전하는 데에 악천후가 어찌 장애가 될 수 있겠습니까. 두 선교사가 벨을 누르니 따뜻한 미소를 지으며 집주인이 나타납니다. 바로 휴 그랜트. 그의 이름은미스터 리드(Mr.Reed)입니다. 이 이름을 소리내서 읽어보세요. 미스터 리드, 미스터리드, 미스터리. 그렇습니다. 읽다보면이름부터가 Mystery가 되는 이 남자. 참으로 친절하게도 두 선교사를 집안으로 초청합니다.“어휴, 비도 이렇게 오는데 잠시 들어오지 않으시겠어요?”휴 그랜트가 미소로 초청하는데 어찌 아니라고 말하겠어요. 감사하다며 집안으로 들어선 두 선교사. 어찌 알았겠습니까. 잠시가 영원이 되고, 빠져나갈 수 없는 핏빛 시험의 늪에 빠지게 된다는 것을.여기까지 읽으면 짐작하시겠지만, 그 집은 한 번 들어가면 살아서는 다시 나가기 어려운 집이었습니다. 다시 나가고 싶으면 휴 그랜트가 내는 수수께끼에 답을 해야 합니다. 첨엔 몰랐죠. 미스터 리드가 권한 소파에 앉아 두 선교사는 맛있는블루베리파이냄새를 맡습니다. 미스터 리드의 아내가 구워서 곧 내온다고 하니, 아, 감사하기도 하여라. 문답을 주고 받다 미스터 리드가“자, 이제 깨달음의 시간이 왔다”고 말합니다. 첫번째 질문. “일부다처제를 어떻게 생각해요?” 알고보니 미스터 리드는 모르몬교 경전을 두 선교사보다도 더 많이 읽었고, 다른 종교에도 아주 해박했습니다. 일부다처제 질문은 모르몬교 창시자 조셉 스미스의 여성 관계를 비판하기 위해 던진 거였고요.“신의 계시가 인간을 통해 전달되는데 인간이 결점투성이에 죄인에 거짓말쟁이면 어떻게 믿죠?”당황한 두 선교사를 더 몰아붙입니다. “내가 하나님 아버지를 마음으로 영접하면서 뭘 찾았게요? 알면 알수록 더 모르겠다는 거에요. 종교라는 패스트푸드만 머리에 가득차서 정신적인 영양 결핍이 됐어요.내가 정말 하기 싫었던 게 유일하게 진실한 종교를 찾는 거였어요. 그런데 운 나쁘게도 찾아냈어요.” 그가 파이를 가져오겠다며 자리를 비운 찰나, 두 선교사 중 한 명은 블루베리파이 냄새의 정체가 무엇인지 알아내죠. 어서 빨리 집을 나가려고 하지만, 짐작하시다시피 문은 열리지 않습니다. 미스터 리드는 그게 무슨 대수냐는 듯 말해요.“아, 문은 안 열려요. 하지만 가시고 싶을 땐 언제든 가세요.”영화 '헤레틱'/롯데엔터테인먼트이후 미스터 리드는 두 개의 문, 즉‘믿음의 문‘과 ‘불신의 문’중 하나를 선택하게 하고 두 선교사를 공포에 몰아넣습니다. 집에 있던 다른 존재도 모습을 드러내는데 그건 직접 보시고 확인을. 휴 그랜트라는 배우를 표현할 때 해외 언론에 가장 자주 등장하는 단어가 charming인데요, 매력적이라는 단어가 악인이라는 단어와 만났을 때 발현할 수 있는 최적의 악독함을 보여줍니다.특히 자신의 종교관을 설명하는 장광설은 어이가 없어서 솔깃합니다. 부루마블 기억하세요? 부루마블의 미국판이라 할 수 있는 보드게임모노폴리와 라디오헤드의 ‘크립(Creep)’이 주장의 근거로 등장합니다. 모노폴리는 그보다 앞서 나온 지주게임을 적당히 복붙해서 만들었고, 라디오헤드도 그보다 20년 전에 발표된 홀리스의 ‘내가 숨쉬는 공기(The Air That I Breathe)‘를 베껴서 크립을 만든거라면서, 현재 존재하는 종교는 결국 앞서 나온 여러 신화를 적당히 변형시켜서 퍼뜨린 거라고 주장합니다. 핵심은 변형(iteration). 예수보다 앞서 12월25일 태어난 신은 10명도 넘는다, 그런데 기독교가 잘 변형해서 이야기를 퍼뜨려 신자를 모았다고요. 기독교는 마케팅을 잘해서 신자가 많은 것일뿐이라는 거죠. 참고로, 영화에 나오는홀리스와 라디오헤드, 라나 델 레이의 표절 소송은 팩트입니다. 홀리스 곡과 라디오헤드의 크립은 법원에서 코드 전개의 유사성이 인정됐고, 라나 델 레이 곡 ‘겟 프리‘도 크립과 유사성이 인정돼 결국 저작권을 나눠가지게 됐습니다. 이 부분을 ‘헤레틱‘이 각본에서 영리하게 활용했습니다.영화 '헤레틱'/롯데엔터테인먼트‘헤레틱‘은 결말에서도 자신만의 질문을 던지는데요, 그렇다고 무책임한 열린 결말은 아닙니다. 감독이 생각한 결말은 분명히 있는데 관객에게 생각거리를 주기 위해 여지를 충분히 준 것 같아요. 영화 도입부에서 두 선교사 중 한 명이나비얘기를 해요.“죽고나면 나비가 돼서 사랑하는 사람들의 손가락 끝에 앉고 싶다”고요. 그리고 중간에 미스터 리드가 장자의 나비 꿈을 얘기합니다.내가 나비의 꿈을 꾸는 건가, 아니면 나비가 나의 꿈을 꿈을 꾸는 건가, 이것은 현실인가, 현실처럼 느껴지는 시뮬레이션인가.관객이 어느 편을 선택해도 답이 될 수 있도록 중의적인 문을 열어뒀습니다.그렇다면 ‘헤레틱‘에서 휴 그랜트가 말하는 ‘유일하고 진실한 종교‘는 무엇인지, 제가 생각한 결말은 무엇인지 아래 문단에서 말씀드리겠습니다. 스포가 싫은 분은 여기까지만 읽으세요. 그냥 끝내기 섭하신 구독자 분들을 위해 아래에 사진 두 장 준비했습니다.휴 그랜트의 배우 인생 40년을 축약한 모습보시고 나가실게요. 아래 왼쪽 사진은 20대 휴 그랜트, 오른쪽은 60대 휴 그랜트입니다. 참 멋지게 나이든 배우라는 생각이 드네요. ‘헤레틱’ 포스터를 보고 다시 보시면 더욱.그럼 스포 나갑니다. 휴 그랜트가 질문하고, 두 선교사 중 한 명이 풀어낸 정답,‘세상 유일하고 진실한 종교’는?‘통제(Control)’입니다. 인간의 정신을 지배하는 최종의 궁극적인 힘은 ‘그렇게 믿도록 만드는 힘‘, 통제라는 거죠. 블루베리파이가 구워지고 있다고 믿게 만들고, 그렇게 믿게 만든 사실을 의도적으로 노출해서 알게 만드는 겁니다.네가 아는 모든 것은 네가 선택해서가 아니다, 네가 선택했다고 내가 믿게 만들었기에 가능했다고 조소하는 미스터 리드. 그는 결국 두 선교사 중 한 명에게 최후의 일격을 당하고, 한 선교사만 살아서 탈출합니다.이 결말이 너무 뻔하다고 생각하실 수 있어요. 그렇다면 약간 다르게 보시면 어떨까요. 그토록 뻔한 건 그게‘나비의 꿈’이라서 그런 거라고요. 사실은 둘 다 죽었고, 둘 중 하나가 탈출의 꿈을 꾸는 것일수도 있죠. 둘 다 죽은 버전은 비관적이고 한 명이 살아남은 버전은 희망찬 버전이라 정반대라고 볼 수 있겠는데요, 저는 둘 중 희망적 결말 쪽입니다. 둘 중 한 명은 살아남은 거 같아요. 기도(praying) 대사 때문이에요. 죽어가던 선교사가 “우리를 위해 기도해달라”고 사정하는 미스터 리드에게 말합니다.“기도의 효과를 실험한 얘기 알아요? 환자를 두 그룹으로 나눠서 한 그룹만 기도를 받게 했어요. 결과는 명확했어요. 효과가 없었거든요. 그래도 서로를 위한 기도는 아름답다고 생각해요. 달라질 게 없다는 걸 안다고 해도요. 잠시라도 내가 아닌 타인을 생각하는 거잖아요. 그게 당신이라도요. 신이여, 지금까지 제게 주신 시련에 감사합니다. 이 길에도 감사드립니다.”그래서 저는 ‘헤레틱‘이 종교의 무용함을 얘기하기보단 내가 아닌 타인을 생각하는 마음의 고귀함이 세상을 지탱한다는 믿음을 전하는 영화라고 봤어요. 달라질 게 없다는 걸 알면서도 끝내 해내는 건 철저한, 때로는 처절한 인간의 의지가 있어야만 가능하니까요. ‘헤레틱‘은 자신만의 질문을 던지고 관객에게 각자의 답을 찾게하는 흥미로운 영화입니다. 롯데시네마 단독 개봉이라 상영관을 좀 찾으셔야할 수 있어요. 그래도 그만한 가치가 있으니 선택해보시길. 여러분이 선택했다고 제가 믿게 하는 거 아니고요~ 그럼 전 다음 레터에서 뵙겠습니다. 감사합니다.</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>신정선 기자</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/023/79770</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>영화 '헤레틱'은 종교와 인간 심리를 탐구하는 심리 스릴러로, 건강 정보와 직접적 관련이 없습니다.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>소비자원 “가스레인지 삼발이 커버, 일산화탄소 중독 위험”</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>동아일보</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>https://www.donga.com/news/Health/article/all/20250411/131395472/2</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627629?sid=102</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크가스레인지 화력 조절, 바람막이 등을 목적으로 판매하는 보조 장치인 삼발이 커버를 사용할 경우, 자칫 일산화탄소 중독 사고로 이어질 수 있는 것으로 알려졌다.한국소비자원과 한국가스안전공사가 온라인에서 가스레인지 삼발이에 부착하는 추가 부품인 ‘삼발이 커버’를 조사한 결과, 불완전연소로 인한 일산화탄소(CO) 중독 위험성이 있는 것으로 나타났다. 가스레인지 삼발이는 가스레인지에 냄비 등을 안정성 있게 올릴 수 있도록 조리도구 지탱 부품이다.가스레인지 사용 중 일산화탄소 중독 사고는 자주 발생하지 않지만, 무색·무취인 일산화탄소의 특성으로 자가 인지가 어렵고 심할 경우 사망으로 이어질 수 있다. 올해 2월에는 다세대주택에서 60대 부부가 요리 중 어지러움 등 일산화탄소 중독 증상으로 내원했고, 지난해 9월에는 60대 남성과 50대 여성이 부엌에서 한약재를 끓이다 일산화탄소 중독 추정으로 사망한 바 있다.한국소비자원 제공.최근 한국가스안전공사가 온라인에서 삼발이 커버 5종을 구매하여 일산화탄소 농도를 측정한 결과, 연소 약 3분 만에 4종에서 두통과 판단력을 상실할 수 있는 200ppm 이상의 일산화탄소 농도가 측정되었고, 그중 1종은 3분 내 사망에 이를 수 있는 1만2800ppm 이상의 농도가 확인되었다. 이는 ‘화학물질 및 물리적 인자의 노출 기준’ 일산화탄소 기준(200ppm)에 비하면 매우 높은 것으로 나타났다.다만 이번 실증 실험은 밀폐된 공간에서 일산화탄소 농도를 측정한 것으로, 환기가 양호한 환경에서는 소비자에게 직접적인 위해가 미친다고 판단하기는 어렵다고 봤다.한국소비자원은 한국온라인쇼핑협회에 입점 업체가 가스레인지 추가 부품 판매 시 사용에 관한 주의 사항을 충분히 안내하도록 요청했고, 한국도시가스협회도 해당 정보를 제공해 전국의 도시가스 사용 소비자들에게 정보를 확산하기로 했다. 더불어 한국가스안전공사에서는 가스 사고 안전관리를 위해 가스레인지 제조사에서 제조하지 않은 추가 부품 사용 금지 방안을 검토할 예정이다.한국소비자원 제공.한국소비자원과 한국가스안전공사에서는 안전한 가스레인지 사용을 위해 ▲가스레인지 사용 시에는 반드시 창문 등을 열어 환기할 것 ▲가스레인지에 삼발이 커버 등의 추가 부품 사용에 주의할 것 ▲장시간 연소 시 주기적으로 점화 상태를 확인할 것 등을 당부했다.</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>조유경 기자</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/020/78669</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>가스레인지 추가 부품 사용 시 일산화탄소 중독 위험이 있어 환기와 주의가 필요합니다.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>‘無해지 보험’ 이달부터 보험료 최고 33% 올라… 소비자 부담 커져</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>동아일보</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>https://www.donga.com/news/Economy/article/all/20250410/131392552/2</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627559?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>환급금 없는 대신 보험료 저렴보험업계, 자의적 해지율 적용해공격적 영업으로 ‘실적 부풀리기’금융당국, 출혈경쟁 차단 나서이달부터 금융당국의 무·저해지 보험 해지율 가정 가이드라인이 적용되면서 보험사마다 주요 상품의 보험료가 최고 30% 이상 급등하는 것으로 나타났다. 무·저해지 보험은 중도에 계약을 해지하면 환급금이 없거나 적은 대신 보험료가 저렴해 소비자들로부터 꾸준히 인기가 있었던 보험이다. 이젠 보험료가 오르면서 소비자들의 부담이 늘어날 것으로 전망된다.10일 보험업계에 따르면 이달 들어 주요 손해보험사들이 무·저해지 보험료를 일제히 인상했다. 지난해 금융당국이 새 회계기준(IFRS17) 가이드라인, 특히 무·저해지 보험의 해지율 등 계리적 가정 가이드라인을 발표한 데 따른 것이다.이는 보험회사의 ‘고무줄 회계’ ‘실적 부풀리기’를 차단하기 위한 조치였다. 당시 일부 보험사가 무·저해지 상품의 해지율을 높게 가정해 실적을 부풀린다는 논란이 일었기 때문이다. 무·저해지 상품은 해지 환급금이 없거나 적어, 해지율을 높게 가정하면 도리어 보험사 이익은 늘어난다. 금융당국은 보험사들이 이런 낙관적 가정을 바탕으로 보험료를 낮춰 공격적으로 영업해왔다고 봤다.예정 해지율을 낮추는 새로운 가이드라인이 적용되면서 보험료가 오르는 가운데, 보험사와 상품에 따라 인상률은 큰 차이를 보였다. 3대 진단비, 상해·질병 수술비 등 주요 담보가 포함된 간편심사보험 대표 상품 2종의 50·60대(대표 가입 연령) 남성 보험료의 경우 현대해상은 평균 7.8% 올린 것으로 나타났다. 이어 삼성화재가 6.3%, KB손해보험이 5.0%, DB손보가 4.1%, 메리츠화재가 1%를 인상했다.같은 상품의 여성 보험료 기준으로는 DB손보가 7.6%, 현대해상이 6.1%, 삼성화재가 5.1%, KB손보가 4.4%를 각각 인상했다. 다만 메리츠화재는 오히려 보험료를 10% 인하한 것으로 나타났다.40대 남성 기준 통합보험 보험료의 경우 KB손보는 전월 대비 무려 32.7% 인상했다. 이어 삼성화재(16.9%), DB손보(16.0%)도 두 자릿수 인상률을 보였다. 메리츠화재는 7.7%, 현대해상은 3.4% 인상했다.어린이보험 남아(10세 기준) 보험료 인상률은 삼성화재(27.9%), DB손보(27.7%), KB손보(25.0%), 현대해상(16.4%), 메리츠화재(4.1%) 순으로 나타났다. 여아 보험료는 삼성화재(29.4%), DB손보(27.5%), KB손보(24.9%), 현대해상(20.4%), 메리츠화재(13.3%) 순으로 인상됐다.보험업계에서는 그동안 낙관적이고 자의적인 해지율 가정을 적용해 온 보험사일수록 이번에 보험료를 대폭 올렸을 것이라는 분석이 나온다. 보험업계 관계자는 “보수적인 가정을 적용해온 보험사는 보험료 인상 폭이 작거나 오히려 인하한 상품도 있다”고 설명했다.일각에서는 금융당국의 잇따른 규제가 보험료 인상으로 이어져 소비자의 부담을 높이고 있다는 지적이 나온다. 반면 보험사 간 출혈경쟁이 일어났던 무·저해지 보험 시장에서 이번 가이드라인 적용이 보험사 재무 건전성에 긍정적인 영향을 줄 것이라는 전망도 있다. 보험업계 관계자는 “해지율에 대한 보수적인 가정이 적용되면서 보험료 인상은 불가피한 측면이 있다”며 “중장기적으로 재무 건전성 개선 효과도 기대할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>전주영 기자</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/020/77771</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>금융당국의 가이드라인으로 무·저해지 보험료가 인상되어 소비자 부담이 증가할 전망이다.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>[한경에세이] 지브리풍 열풍과 AI 이슈</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>https://www.hankyung.com/article/2025041040101</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005117843?sid=110</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>60대</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>이효진 에잇퍼센트 대표카카오톡 친구 목록을 보니 ‘지브리 화풍’ 프로필 사진이 눈에 띄게 늘었다. 인공지능(AI) 기술의 대중화를 실감하는 순간이다.AI를 생각하면 떠오르는 인상적인 순간이 세 번 있다. 첫 번째는 2016년 이세돌 9단과 딥마인드 알파고의 바둑 대결이다. 당시만 해도 AI가 세계 최강 프로기사를 이길 거라고는 상상하지 못했다. 결과는 알파고의 4승1패. 이후 기업들은 AI 기술에 본격 투자했고 유통 분야에서는 수요예측과 물류 최적화, 금융에서는 신용평가와 대출 심사, 의료에서는 영상 진단 보조와 신약 개발 등 산업 전반에서 AI 기반 혁신이 이어졌다.두 번째는 오픈AI 챗GPT의 등장이다. 누구나 똑똑한 개인 비서를 두고 일하는 시대가 열렸다. 리서치, 번역, 요약은 물론 개발자는 코드 작성과 디버깅을, 마케터는 광고 문구와 디자인 초안을 빠르게 생성하며 활용 범위를 넓혀가고 있다.세 번째는 지금 이 순간이다. 손쉽게 특정 화풍을 반영한 그림이 유행하고, 60대 후반 부모님도 가족사진을 AI로 바꿔 SNS에 올린다. 아이들은 챗GPT와 그림 그리고 퀴즈를 즐긴다. 산업의 중심에서 일상으로, 이제 AI는 전 연령대에 자연스럽게 스며들고 있다. 기업은 AI를 통해 서비스를 고도화하며 삶의 질을 높이고 있다. 에잇퍼센트 역시 신용평가 자동화, 대량 거래 처리 등에 AI를 적용해 더 많은 이가 합리적인 금융 서비스를 누릴 수 있게 돕고 있다.하지만 AI의 확산은 일자리 대체라는 중대한 질문도 남긴다. 유발 하라리는 &lt;넥서스&gt;에서 “대부분의 일은 AI가 수행하고, 인간은 소수만이 결정권을 가진 역할로 남게 될 것”으로 예측했다. 이는 단순한 효율의 문제가 아니라 부의 재분배와 사회 구조 재설계가 필요한 시대임을 뜻한다.더 근본적인 문제는 일을 통해 인간이 느끼던 자기 효능감의 상실이다. 특히 창작 영역에서 AI가 인간을 대체할 때 느끼는 상실감은 더 크다. 지브리 화풍의 AI 그림이 유행하는 가운데, 미야자키 하야오 감독은 2016년 한 다큐멘터리 인터뷰에서 “AI가 만든 결과물은 고통을 모른다. 완전히 역겹다. 삶에 대한 모욕”이라며 AI로 이뤄지는 작업을 강하게 비판했다. 인간의 존재 가치와 새로운 질서 확립이 필요하다는 지적이다.AI 기술의 확장은 저작권 소송 결과에 따라 큰 영향을 받을 수 있다. 오픈AI는 일부 언론사와의 소송에서 승소했지만, 뉴욕타임스와의 소송은 불리하게 전개 중이다. 국내에서도 지상파 방송 3사가 네이버를 상대로 비슷한 소송을 제기했다. 인간과 AI가 공존하는 시대는 이미 도래했다. 기술 발전을 외면하면 도태될 수밖에 없다. 대한민국이 기술과 규범의 균형을 이뤄가는 AI 선진국이 되기를 기대해본다.</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>AI 기술의 발전과 확산이 일자리 대체와 창작 영역에서의 인간 효능감 상실을 초래할 수 있다는 우려가 제기된다.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>트럼프, 한국에 SOS?…"곧 대박 기회 온다" 기대감 폭발 [분석+]</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>https://www.hankyung.com/article/202504115293i</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118035?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>70대</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>트럼프 "타국서 최첨단 선박 살 수도"한국 조선업 협력 시사HD현대중공업 울산조선소. 사진=HD현대중공업'해양 패권 재건'을 선언한 미국이 한국 조선소에 대규모 선박 주문을 할 가능성이 점차 커지고 있다. 도널드 트럼프 미국 대통령이 처음으로 "해외 선박을 구매할 수 있다"고 직접 언급하면서다. 조만간 미국이 군함과 드릴십, 전략상선 등에 대한 패키지 건조요청을 할 수 있다는 관측이 나온다. 실제 주문이 이뤄지고 우리 정부와 K조선사들이 이 기회를 잘 살린다면 대미 관세협상에서도 도움이 될 것이라는 관측이 나온다.트럼프, "동맹국 선박 주문 가능"10일(현지시간) 트럼프 대통령은 미국 백악관 각료회의에서 “미국 조선업을 재건할 것”이라며 “의회에 (선박 구매자금을) 요청해야 할 수도 있지만, (미국과) 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수도 있다”고 밝혔다. K조선업과의 협력을 언급해온 트럼프 대통령이 어떤 요청을 조치를 할지 이목이 쏠린다.미국은 중국과의 해양 패권전쟁에서 이기기 위해서라도 자국 조선업을 키워야 하는 상황이다. 하지만 현 미국의 선박 건조 역량으로는 동맹국으로부터 군함과 미국적 상선을 구매할 수밖에 없는 현실을 트럼프 대통령이 드러낸 것이라는 분석이 나온다.우리 정부는 미국이 △한국 기업의 미 조선소에 대한 투자 △현지 조선·해양 인력 교육과 신규 인력 양성에 대한 협조 △선박 건조에 대한 패키지 요청 등을 해올 것으로 보고 있다.전날 트럼프 대통령이 발표한 ‘미 해양 지배력 강화’ 행정명령을 보면 미국이 한국에 어떤 요청을 해올지 가늠할 수 있다. 트럼프 대통령은 행정명령 8조 ‘동맹국 및 파트너국을 통한 적대국(선박) 의존도 감소’에서 상무부 장관에게 동맹국 조선소들이 미국에 자본 투자하도록 협력할 수 있는 모든 인센티브를 검토한 보고서를 작성해 국가안보보좌관 등에 보고하도록 지시했다. 기한은 90일을 줬다.10조 ‘선박금융 인센티브 프로그램’에서는 교통부 장관에게 ‘유연성을 갖춘 선박금융 인센티브 프로그램을 수립하는 입법안을 제출하라’고 명령했다. 상업용 선박 조선소에 대한 자본 개선과 선박 수리 시설 및 드라이독 투자에 필요한 금융지원책을 마련하라는 취지다. 보조금에 대한 검토도 언급했는데 현재로선 ‘존스법(미국 내 항구에서 화물과 승객을 운송하는 선박은 자국에서 건조돼야 한다는 원칙)’에 따라 미국산 선박에 대한 인센티브가 될 가능성이 높다는 관측이다.12조에서 트럼프 대통령은 교통부 장관에게 ‘해양산업 필요성’ 관련 보고서를 90일 이내에 제출하도록 요구했다. 해양산업 관련 공급과 수요를 유지하는 데 필요한 사항을 목록화하고, 선원 교육 및 미연방 상선사관학교 현대화 등 해양인력 문제 해결을 위한 보고서를 국무장관, 국방장관, 노동장관에게 작성하라고도 명령했다. 조선업계 관계자는 "행정명령에 중국 선박에 입항 수수료를 부과하기 위한 준비를 하고, 자국 조선업 정상화에 필요한 인센티브 계획을 준비하는 내용이 폭넓게 담겼다"고 평가했다.美 '탱커, 드릴십, 상선' 건조 요구할 수도이에 앞으로 미국이 조만간 필리 조선소를 인수한 한화오션처럼 국내 조선소에 현지 조선소 추가 투자를 요청하고, 인력 교육에 대한 도움을 요구할 가능성이 높다는 관측이 나온다. 산업부 관계자는 "한국의 우수 조선소 인력을 교관으로 파견해주고, 각종 산학협력 프로그램을 만드는 방안은 검토할만하다"고 평가했다. 이미 조선사들과 학계에서 현지 엔지니어를 양성하려는 프로그램이 만들어지고 있다. HD현대의 중간지주사인 HD한국조선해양이 지난해 미국 미시간대, 서울대와 함께 '조선산업 인재 육성을 위한 업무협약'을 체결한 게 대표적 사례다.미국은 중국과의 해양 패권 싸움에서 이기고, 군사 안보적 차원에서 전략상선대를 늘리는 방안도 추진 중이다. 작년 12월 미 의회엔 미국 조선과 항만 인프라 안보를 위한 '쉽스액트' 법안이 발의되기도 했다. 이 법의 골자는 미정부가 10년 내 250척 규모의 전략상선대를 구축해야 한다는 내용이다. 전략상선이란 평소 상선으로 쓰이지만, 전쟁 등의 비상 상황이 되면 전략물자나 무기 등을 실을 수 있는 국가 동원 선박을 말한다. 미국이 보유한 전략상선은 현재 70대 수준에 불과한 것으로 알려졌다. 업계 관계자는 "한국도 해양수산부령을 통해 유사시 선박을 동원할 수 있는 체계를 갖고 있고, 중국의 경우 비상시국엔 대부분의 국적선을 전면 동원할 수도 있지만, 미국은 그렇지 못하다"고 평가했다. 현재 쉽스액트 법은 미 국회 회기가 종료돼 다시 발의돼야하는 것으로 전해졌다.전략상선은 '미국 내 건조, 미국 선적, 미국 선원 탑승'이 원칙이지만 동맹국에서 건조된 선박도 상선대에 포함할 수 있는 여지가 있다. 그동안에는 존스법이 폐기되거나 수정돼야 미국이 선박을 한국에서 주문할 수 있다는 분석이 나왔다. 산업부 관계자는 "트럼프 대통령이 관련 행정명령을 내려 해외 발주 근거를 만들 수도 있다"고 분석했다.미국이 전략상선과 알래스카 에너지 개발에 필요한 드릴십, 원유 운송용 탱커 등을 한국에 패키지로 주문할 수도 있다. 안덕근 산업부 장관은 지난 3월 방미 직후 기자들과 만나 진행한 백브리핑에서 미국이 제시한 조선 협력에 관한 질문에 "미국에서 필요한 건 해군력을 서포트하는 차원의 군함 유지보수(MRO)도 있지만, 가스 등 에너지 수출을 위해선 탱커가 필요하고, 쇄빙선 수요도 많다"면서 "한국 조선사들에도 백로그(수주잔고)가 많음에도 미국과 규모 있는 합의가 된다면 합리적으로 조정해서 조선업계와 협의할 수 있다"고 설명했다. 미국의 선박 주문이 있을 경우, 수요를 맞출 수 있도록 조선사들과 도크 일정을 조정할 수 있다는 뜻을 밝힌 것으로 풀이된다.산업부는 앞으로 안 장관이 방미 기간에 만든 국장급 '조선 협의체'에서 앞으로의 한·미 조선협력을 논의해보겠다는 입장이다. 조선 협의체는 가동에 들어갔지만, 아직 미국 내 카운터파트너가 확정되지 않아 '현지 교통정리'가 필요한 것으로 전해졌다. 산업부 관계자는 "미국은 상무부, 백악관, 해군, 해양경비대, 교통부, 상무부가 해양 산업에 대한 권한을 조금씩 갖고 있는 형태"라고 말했다.김대훈 기자</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>김대훈 기자</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/73554</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>미국의 해양 패권 재건 계획에 따라 한국 조선업체와의 협력이 논의되고 있다.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>尹, 관저 앞 청년만 골라 악수?…"200명 모여라, 5070 입장불가"</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>중앙일보</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>https://www.joongang.co.kr/article/25327939</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003433587?sid=100</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>70대</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>11일 윤석열 전 대통령 사저인 서울 서초구 아크로비스타에 윤 전 대통령의 이삿짐이 옮겨지고 있다.  윤 전 대통령은 이날 오후5시 한남동 관저를 떠나 서초동 사저로 옮긴다. 뉴스1윤석열 전 대통령의 한남동 관저 퇴거가 예정된 11일 오후 지지자들이 관저 앞으로 모여들고 있다. 헌법재판소의 파면 결정이 내려진 지 일주일 만이다.연합뉴스에 따르면 윤 전 대통령이 관저를 떠나기 두 시간 전인 오후 3시 현재, 한남동 관저 주변에는 경찰 비공식 추산으로 약 500명이 모였다.유튜브 채널 '신의한수'는 이날 오후 3시 관저 인근 볼보빌딩 앞에서 윤 전 대통령 지지 집회를 열었다. 집회 인원은 1만명으로 신고됐다.사회자는 "대통령이 떠날 때 청년들한테 말씀하실 것이란 이야기가 있다"며 "오후 4시에 관저 앞으로 이동할 거니까 청년 200분 모여달라"고 했다.이어 "대통령경호처에서 신원이 확실해야 한다고 연락이 왔다"고 주장하며 "40대까지 신분증을 준비해달라"고 말했다. 또 "윤 전 대통령이 직접 악수할 수도 있다. 윤 전 대통령 측 요청이기 때문에 50, 60, 70대는 입장이 불가능하다"고 덧붙였다윤석열 전 대통령이 한남동 관저를 떠나 서초동 사저로 거처를 옮기는 것으로 알려진 11일 서울 서초구 사저 아크로비스타 인근에서 한 지지자가 손팻말을 들고 있다. 연합뉴스윤석열 전 대통령이 한남동 관저를 떠나 서초동 사저로 거처를 옮기는 것으로 알려진 11일 서울 서초구 사저 아크로비스타 인근에서 구속 촉구 집회가 열리고 있다. 연합뉴스윤 전 대통령 지지 단체인 자유대한국민연대는 이날 오전 10시부터 관저 인근 루터교회 앞에서 집회를 열고 "각하 재출마 해달라", "탄핵을 절대 승복할 수 없다"고 외쳤다.일부 지지자들은 관저 인근에서 윤 전 대통령 반대 시민과의 충돌을 막기 위해 배치된 경찰관들에게 "중국인이냐"며 항의하기도 했다. 또 취재진을 둘러싸고 욕설하며 호루라기를 불었다.한편 같은 시각 윤 전 대통령의 복귀가 예상되는 서초동 아크로비스타 앞은 비교적 적막한 분위기 속에 긴장감이 감돌았다. 주민이 주문한 것으로 보이는 꽃다발 상자가 놓여 있었고, 태극기와 성조기를 든 일부 지지자도 눈에 띄었다. 주상복합 건물 경비원들은 외부인 출입을 통제하며 순찰에 나섰다.탄핵에 반대해온 유튜버 벨라도는 오후 3시께 아크로비스타 인근에서 5000명 규모 집회를 열겠다고 신고한 상태다.다만 아크로비스타 앞은 서울중앙지방법원에서 100m 거리에 있어, 집회 및 시위에 관한 법률에 따라 옥외 집회 및 시위가 금지된다.</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>이해준 기자</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/025/74431</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>윤석열 전 대통령의 사저 이전과 관련된 정치적 사건을 다루고 있어 건강 정보와 관련이 없습니다.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>트럼프, 조선재건 특명…건조역량 뛰어난 한국에 손 내밀듯</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>https://www.hankyung.com/article/2025041165161</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118236?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>70대</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>"타국서 첨단 선박 살 수 있다"트럼프, K조선과 협력 시사美 조선업 재건 의지 강조한국에 건조 요청 가능성'조선 빅3' 주가 일제히 급등HD현대중공업 울산 조선소에서 액화천연가스(LNG) 선박이 건조되고 있다.  HD현대중공업 제공도널드 트럼프 미국 대통령이 미국 조선업을 재건하는 동안 다른 나라에 첨단 선박을 발주할 수 있다고 밝혔다. 트럼프 대통령은 당선 직후부터 한국의 조선 역량을 언급하며 ‘러브콜’을 보낸 데다 지난 8일 한덕수 대통령 권한대행과의 통화에서도 조선 협력을 언급해 국내 조선업계의 기대가 크다.트럼프 대통령은 10일(현지시간) 백악관 각료회의에서 “우리는 조선업을 재건할 것”이라며 “의회에 요청해야겠지만 미국과 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수 있다”고 했다. 그러면서 “이들 국가에 ‘최첨단 선박’을 주문할 수 있다”고 덧붙였다.미국은 패권 경쟁국인 중국보다 뒤떨어진 조선·해운 역량을 강화하는 정책을 추진 중이다. 해군 함정에 2054년까지 최대 1조달러를 투입하고, 군사적 목적으로 투입하는 전략상선단을 70대에서 250대로 확대하는 방안을 마련했다. 전날 트럼프 대통령은 계획을 뒷받침할 ‘해양 지배력 회복’ 행정명령에 서명했다.미국이 조만간 한국에 현지 조선소 투자와 조선·해양 인력 교육 지원, 새 선박 건조를 망라한 ‘조선 협력 패키지’를 제안할 수 있다는 관측이 나온다. 11일 국내 ‘조선 빅3’ 주가는 일제히 상승했다. HD현대중공업은 전날보다 5.71%, 한화오션은 6.16%, 삼성중공업은 3.94% 올랐다. 빅3 주가는 트럼프 대통령 당선 이후 각각 89.1%, 179.1%, 46.1% 상승했다.군함·원유 수송선 해외 구매 가능성…韓조선 최대 수혜韓, 함정·일반선박 건조에 강해…조선업 부활·인력양성 요청 전망작년 11월 6일 도널드 트럼프 미국 대통령 당선인이 윤석열 전 대통령과의 통화에서 “선박 건조와 유지·보수·정비(MRO) 분야에서 협력하자”고 제안했을 때, 국내 조선업계의 반응은 뜨뜻미지근했다. 돈 될 만한 게 딱히 보이지 않는다는 이유에서였다. 수익성 좋은 미 군함이나 상선을 만드는 건 해외 건조를 막는 번스-톨리프슨 수정법과 존스액트법 탓에 불가능하고, 군수지원함 MRO 사업은 마진이 얼마 안 되기 때문이다.이랬던 기류가 확 바뀌었다. 트럼프 대통령이 10일(현지시간) “조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수도 있다”고 언급해서다. 함정과 상선을 가장 잘 제작하는 국내 조선업계에 엄청난 물량의 일감이 떨어질 가능성이 높아졌다는 전망이 나온다.◇ 조선업 재건과 인력 양성 특명정부는 미국이 한국 조선업계에 요청할 사안을 크게 세 가지로 파악하고 있다. 핵심은 미국 내 조선업 재건과 조선 인력 양성이다. 트럼프 대통령은 이날 각료 회의에서 “미국이 선박을 건조하지 않는 건 말도 안 되는 일”이라며 “머지않은 미래에 조선업은 우리에게 매우 큰 사업이 될 것”이라고 했다.미국 정부는 이미 자국 조선업 정상화에 필요한 정책 개발에 들어갔다. 전날 트럼프 대통령은 ‘미 해양 지배력 강화’ 행정명령 8조를 통해 동맹국 조선소들이 미국에 투자할 수 있도록 모든 인센티브를 검토하라고 지시했다. 상세안은 미국 상무부 주도로 90일 안에 나올 전망이다. 교통부에는 행정명령 10조를 통해 조선소 투자와 선박 수리 시설 개조 등에 필요한 금융 지원책을 마련하라는 지시를, 국무부 등엔 선원 인력 양성 방안을 제안하라고 지시했다.이 소식을 접한 HD현대중공업과 한화오션은 미묘한 반응 차이를 보였다. HD현대중공업은 미국 조선소를 인수하거나 새로 짓는 것에 신중한 입장이다. 투자 규모가 큰 데다 배를 짓는 데 필요한 전문 인력, 공급망이 거의 없다는 이유에서다. HD현대중공업이 직진출 대신 미국 최대 방위산업 조선사 헌팅턴잉걸스와의 협업을 택한 이유다. 헌팅턴잉걸스는 지난해 미 해군이 발주한 이지스 구축함 9척 중 6척을 수주한 이 분야 최강자다. HD현대중공업은 헌팅턴잉걸스와 생산 인력 파견뿐 아니라 미국 내 하청 공급망 재건, 공동 수주 방안 등을 논의하고 있다.반면 한화오션은 미국 내 조선 인프라 구축에 적극 나서고 있다. 한화는 작년 말 인수한 미국 필라델피아 필리조선소에 인수 금액(1억달러) 이상을 추가 투자할 계획이다. 지난달엔 미국에 조선소를 운영하고 있는 호주 오스탈 지분 9.9%도 매입했다. 필리조선소를 상선 건조 거점으로, 앨라배마와 캘리포니아에 있는 오스탈의 미국 조선소들을 군함 건조·수리 거점으로 삼겠다는 것이다.◇ 이지스함 건조 가능할까조선업계는 미국 정부가 한국에 상선과 함정 건조를 요청할 것으로 예상하고 있다. 번스-톨리프슨 수정법 및 존스액트법을 개정하거나 트럼프 대통령이 예외조항을 발동하는 식으로 해외에서 건조한 선박 구매를 허용할 것이란 얘기다. 업계는 “조선업을 잘하는 국가로부터 최첨단 선박을 주문할 것”이라는 트럼프 대통령의 언급에 주목하고 있다. 미국이 필요한 최첨단 선박으로는 원유 운송선과 알래스카 에너지 개발에 필요한 쇄빙선, 이지스급 구축함 등이 거론된다.다만 국내 조선 3사(HD현대중공업·삼성중공업·한화오션)가 이미 3~4년치 일감을 확보한 만큼 일반 상선용 독을 확보하는 건 쉽지 않은 일이다. 반면 이지스함 등을 만들 수 있는 특수선 독은 상대적으로 여유가 있다. 척당 1조원이 넘는 이지스함은 마진이 좋다는 점에서 HD현대중공업과 한화오션 모두 관심을 보이고 있다. 미국에서 이지스 구축함을 건조할 수 있는 제너럴다이내믹스와 헌팅턴잉걸스는 미 해군이 요구하는 연간 신조 건수(5척)에 한참 못 미치는 연 1.6~1.8척만 건조하고 있다. 업계는 HD현대중공업과 한화오션이 특수선 독을 모두 활용하면 연 4척 이상을 제조할 수 있을 것으로 보고 있다.김대훈/김우섭 기자/워싱턴=이상은 특파원 daepun@hankyung.com</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>김대훈 외 2명</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/73554</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>트럼프 대통령이 한국과의 조선 협력을 언급하며 국내 조선업계의 기대가 커지고 있다.</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>"타국서 첨단 선박 살 수 있다"…트럼프, K조선과 협력 시사</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>https://www.hankyung.com/article/2025041165321</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005118233?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>70대</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>美 조선업 재건 의지 강조한국에 건조 요청 가능성'조선 빅3' 주가 일제히 급등도널드 트럼프 미국 대통령이 미국 조선업을 재건하는 동안 다른 나라에 첨단 선박을 발주할 수 있다고 밝혔다. 트럼프 대통령은 당선 직후부터 한국의 조선 역량을 언급하며 ‘러브콜’을 보낸 데다 지난 8일 한덕수 대통령 권한대행과의 통화에서도 조선 협력을 언급해 국내 조선업계의 기대가 크다.트럼프 대통령은 10일(현지시간) 백악관 각료회의에서 “우리는 조선업을 재건할 것”이라며 “의회에 요청해야겠지만 미국과 가깝고 조선 실적이 훌륭한 다른 나라에서 선박을 구매할 수 있다”고 했다. 그러면서 “이들 국가에 ‘최첨단 선박’을 주문할 수 있다”고 덧붙였다.미국은 패권 경쟁국인 중국보다 뒤떨어진 조선·해운 역량을 강화하는 정책을 추진 중이다. 해군 함정에 2054년까지 최대 1조달러를 투입하고, 군사적 목적으로 투입하는 전략상선단을 70대에서 250대로 확대하는 방안을 마련했다. 전날 트럼프 대통령은 계획을 뒷받침할 ‘해양 지배력 회복’ 행정명령에 서명했다.미국이 조만간 한국에 현지 조선소 투자와 조선·해양 인력 교육 지원, 새 선박 건조를 망라한 ‘조선 협력 패키지’를 제안할 수 있다는 관측이 나온다. 11일 국내 ‘조선 빅3’ 주가는 일제히 상승했다. HD현대중공업은 전날보다 5.71%, 한화오션은 6.16%, 삼성중공업은 3.94% 올랐다. 빅3 주가는 트럼프 대통령 당선 이후 각각 89.1%, 179.1%, 46.1% 상승했다.김대훈/김우섭 기자/워싱턴=이상은 특파원 daepun@hankyung.com</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>김대훈 외 2명</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://media.naver.com/journalist/015/73554</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>미국 조선업 재건과 한국 조선업체의 협력 가능성에 대한 기사로, 건강 정보와 관련이 없습니다.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>광주, 병상 과잉… “한방병원 등 신설 제한”</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>동아일보</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>https://www.donga.com/news/Society/article/all/20250410/131391933/2</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003627576?sid=102</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>노령화/고령층</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>요양병원</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>병상 대비 의료인력은 전국 최하위응급 등 필수병상 외 신증설 제한광주시가 불필요한 의료 이용과 국민 의료비 상승을 유발하는 병상 과잉 공급 현상을 막기 위해 체계적인 병상 수급관리에 나선다. 광주시는 5월부터 제3기 병상 수급 및 관리계획을 시행한다고 10일 밝혔다.시는 계획에 따라 지속적으로 증가하는 병상 수를 지역 수요에 맞게 관리하고, 합리적인 병상 운영체계를 구축할 방침이다. 광주지역은 인구 대비 일반병원, 요양병원, 한방병원의 수가 전국에서 가장 많지만 병상 대비 의료 인력인 의사, 간호사, 한의사 수는 전국 최하위 수준에 머물렀다.시가 2027년 기준으로 진료권별 병상 공급 및 수요량과 수급 차이를 분석한 결과, 일반병원은 약 8200∼9800병상, 요양병원은 약 6200∼7400병상, 한방병원은 약 1700∼2800병상이 과잉 공급될 것으로 예측됐다. 과잉 공급이 예상되는 병상에 대해 관련 법 등에 따라 병상 신설, 증설을 제한할 방침이다.광주지역 인구 10만 명당 한방병원 수(2023년 기준)는 6.1개로, 전국 평균 1.1개보다 5.5배 많다. 특광역시 한방병원 수를 보면 광주가 87개로 서울(85개)보다 많다. 광주지역 한방병상 수는 5835개로, 전국 한방병상 수의 16.7%를 차지하고 있다. 시는 광주지역 한방병상의 과잉 수준이 타 지역보다 커 관리대상에 포함시켰다고 설명했다.반면 응급, 분만, 소아 등 필수의료 병상에 대해서는 의료기관 개설심의위원회를 거쳐 예외적으로 신증설이 가능하도록 했다. 정영화 광주시 복지건강국장은 “공공성과 효율성을 균형 있게 고려한 병상관리체계를 구축하겠다”고 말했다.</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>광주시, 과잉 병상 공급 억제와 필수 의료 병상 확충으로 효율적 의료 서비스 제공 계획</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>

--- a/prompt_test/data/health_20250411_summary.xlsx
+++ b/prompt_test/data/health_20250411_summary.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>사회적 차별과 불평등이 스트레스와 질병을 유발해 건강에 악영향을 미칠 수 있습니다.</t>
+          <t>차별과 불평등은 스트레스를 유발해 당뇨와 같은 질병의 발병 위험을 높일 수 있습니다.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>해외 디지털 헬스케어 서비스 확장에 관한 내용으로 건강관리 동기 유발과는 관련성이 낮습니다.</t>
+          <t>해외 시장에 한국형 1차 의료 모델을 안착시키려는 디지털 헬스케어 기업의 협약 소식.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>이 기사는 연예인과 관련된 내용으로 건강 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>연예인 관련 내용으로 건강 정보 중심의 기사로 보기 어려워 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>유명인의 사례를 중심으로 한 기사로, 고객과의 커뮤니케이션에 활용하기 부적합합니다.</t>
+          <t>유명인 여에스더의 뇌동맥류 투병 경험을 통해 질환의 위험성과 관리 방법을 알 수 있다.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>고지방·고탄수화물 식품은 폐선암 위험을 높일 수 있어 건강 관리를 위해 섭취를 줄이는 것이 중요합니다.</t>
+          <t>고지방·고탄수화물 식단이 폐선암 위험을 높일 수 있어 건강을 위해 식습관 개선이 필요합니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>양자컴퓨터의 발전과 관련된 기사로, 건강 관리와 직접적인 관련성이 낮습니다.</t>
+          <t>양자컴퓨터와 관련된 기술 및 산업 동향에 관한 기사로, 건강 관리와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -872,7 +872,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>이 기사는 기업의 사회공헌활동과 관련된 내용으로 건강 정보 중심의 기사로 보기 어렵습니다.</t>
+          <t>노인 구강 건강을 위한 캠페인 관련 내용으로, 보험 상담에 직접 활용하기에는 부적합합니다.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>이 기사는 건강 관련 정보보다는 역사적 사건과 개인의 인연에 관한 내용으로 건강 관리와 관련이 없습니다.</t>
+          <t>이 기사는 역사적 사건과 개인적 관계에 대한 이야기로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>AI와 바이오 기술이 노화 억제를 돕고, 건강한 노화를 설계하는 시대가 도래하고 있습니다.</t>
+          <t>AI와 바이오 기술은 노화를 제어하고 건강한 노화 관리법을 설계할 수 있는 시대를 열고 있습니다.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1041,7 +1041,11 @@
           <t>https://media.naver.com/journalist/009/22006</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>유명인의 우울증 경험과 관련된 내용으로, 건강 정보 중심의 기사로 활용하기에는 부적합합니다.</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>False</t>
@@ -1096,7 +1100,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>해당 기사는 고가 항암제와 희소 질환 치료제의 건강보험 등재 지연 문제를 다루며, 건강 관리 동기 유발과는 직접 관련이 없습니다.</t>
+          <t>고가 항암제의 건강보험 등재 지연이 환자 생명에 영향을 미친다는 문제를 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1153,7 +1157,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>첨단재생의료법 개정으로 암 치료를 위한 세포 치료가 대중화되고 치료 효율이 높아지고 있습니다.</t>
+          <t>첨단재생의료법 개정으로 CAR-T 세포 치료가 활성화되어 암 치료의 효율성과 접근성이 향상되고 있습니다.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1210,7 +1214,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>국내 바이오기업의 세포·유전자 치료제 개발이 활성화될 전망이나, 건강 관리와 직접적 연관성은 부족함.</t>
+          <t>국내 바이오기업의 세포·유전자 치료제 개발이 활성화될 전망이나, 일반 고객과의 직접적 연관성은 낮음.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1267,7 +1271,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>전자담배의 장기적 사용은 치명적인 폐 질환을 유발할 수 있어 청소년의 사용을 경계해야 합니다.</t>
+          <t>전자담배의 장기 흡입은 치명적 폐 질환을 유발할 수 있어 건강 관리를 위해 금연이 필수적입니다.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1324,7 +1328,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>해당 기사는 건강 정보와 관련이 없으며, 법적 문제와 관련된 내용입니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 고객과의 커뮤니케이션에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1381,7 +1385,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>개정된 첨생법으로 암 환자들이 첨단 세포 치료를 국내에서 받을 수 있어 치료 접근성이 향상되었습니다.</t>
+          <t>개정된 첨생법으로 모든 질환에 대한 세포 치료가 가능해져 암 치료의 새로운 가능성이 열렸습니다.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1438,7 +1442,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>전자담배 사용이 폐질환을 유발할 수 있어 청소년의 건강 관리와 예방이 중요합니다.</t>
+          <t>전자담배 사용이 폐쇄성 폐기관지염 등 심각한 건강 문제를 초래할 수 있으므로 주의가 필요합니다.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1495,7 +1499,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>현미의 비소 함량이 높아 어린이 섭취 시 주의가 필요하며, 쌀을 여러 번 씻어 비소를 줄일 수 있습니다.</t>
+          <t>현미에는 발암물질인 무기 비소가 많아 어린이 섭취 시 주의가 필요하며, 쌀 세척으로 비소를 줄일 수 있습니다.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1552,7 +1556,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>해당 기사는 보험과 관련된 건강 정보가 아닌 금융 사기 사건에 관한 내용입니다.</t>
+          <t>해당 기사는 보험 상담에 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1609,7 +1613,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>기사 내용은 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 법무부 장관 탄핵소추 관련 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1666,7 +1670,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>유명인의 개인적인 우울증 경험과 극복 방법을 다루어 보험 상담에 직접 활용하기 어렵습니다.</t>
+          <t>유명인 이성미의 우울증 고백과 관련된 기사로, 건강 정보 중심의 내용이 부족하여 활용 불가.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1715,7 +1719,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>이 기사는 게임 업데이트에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 게임 업데이트에 관한 내용으로 건강 관련 정보가 포함되어 있지 않습니다.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1772,7 +1776,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보보다는 기부와 사회적 지원에 관한 내용으로 보험 상담에 적합하지 않습니다.</t>
+          <t>기사 내용은 건강 정보와 관련이 없고, 기부와 복지에 관한 이야기입니다.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1829,7 +1833,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 밀라노 디자인 위크와 관련된 내용으로 건강 정보와 관련이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1886,7 +1890,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>이 기사는 기업의 상장 및 재무 상황에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>해당 기사는 주로 기업의 상장 및 금융 관련 내용을 다루고 있어 건강 관리와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1943,7 +1947,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>제품 출시와 관련된 광고성 내용으로 건강 정보 중심의 기사로 보기 어렵습니다.</t>
+          <t>제품 출시와 관련된 광고성 내용으로 건강 정보 중심의 기사로 활용하기 어려움</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2029,7 +2033,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>기사는 메탈리카의 음악과 정치적 메시지를 중심으로 하며, 건강 정보와 관련성이 없습니다.</t>
+          <t>기사 내용이 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2078,7 +2082,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>실손보험의 역사와 개혁 방안에 대한 내용으로 건강 관리 동기 유발과 직접적 관련이 적음.</t>
+          <t>실손보험의 역사와 개혁 방안에 대한 설명으로 건강 관리와 직접적 관련성이 낮음.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2135,7 +2139,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>전자담배 흡연이 폐질환 '팝콘 폐'를 유발할 수 있어 금연과 예방이 중요합니다.</t>
+          <t>전자담배 흡연이 심각한 폐 질환을 유발할 수 있어 금연의 중요성이 강조됩니다.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2192,7 +2196,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보나 보험 상담에 직접적으로 활용하기 적합하지 않습니다.</t>
+          <t>해당 기사는 건강 정보보다는 시인의 삶과 작품에 관한 내용으로, 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>해당 기사는 건강 정보와 관련이 없으며, 드라마와 연예인 관련 내용이 주를 이룹니다.</t>
+          <t>기사 내용은 건강 정보와 관련이 없고, 드라마와 관련된 문화적 현상에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2306,7 +2310,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>기사 내용은 특정 사건과 관련된 영웅적인 행동을 다루고 있으며, 건강 관리나 예방과 직접적인 연관성이 없습니다.</t>
+          <t>기사 내용은 저혈압 쇼크로 인한 응급상황 구조 사례로 건강관리 정보와 직접적 연관성이 적습니다.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2363,7 +2367,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>기사에는 건강 관련 정보가 포함되어 있지 않으며, 보험 상담에 활용하기 부적합합니다.</t>
+          <t>이 기사는 건강 정보와 직접적인 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2420,7 +2424,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>정치 관련 기사로 건강 정보와 관련성이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>해당 기사는 정치 관련 내용으로 건강 정보와 관련이 없어 활용이 불가합니다.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2477,7 +2481,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>이 기사는 개인의 자존감 회복 사례로 건강 정보와 직접적 관련성이 낮습니다.</t>
+          <t>해당 기사는 특정 개인 사례 중심으로 건강 관리와 보험 필요성과의 직접적 관련성이 부족합니다.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2526,7 +2530,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>스포츠 손상 예방을 위해 충분한 준비 운동과 조기 진단이 중요하며, 적절한 치료 계획이 필요합니다.</t>
+          <t>스포츠 손상 예방을 위해 충분한 준비 운동과 조기 진단이 중요하며, 부상 시 적절한 응급처치가 필요합니다.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2583,7 +2587,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>해당 기사는 금융 및 주식시장 관련 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>국내 증시와 관련된 외국인 투자 동향 및 트럼프 대통령의 정책 영향에 대한 기사입니다.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2632,7 +2636,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>프란치스코 교황의 폐렴 회복과 관련된 개인적 행보를 다룬 기사로 건강 정보 전달에는 부적합합니다.</t>
+          <t>프란치스코 교황의 건강 상태와 관련된 기사로, 일반적인 건강 관리 정보와는 관련이 적습니다.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2689,7 +2693,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 찰스 3세의 이탈리아 방문과 연설에 관한 내용으로 건강 관련 정보가 부족합니다.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2746,7 +2750,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>이 기사는 변호사 관련 법적 판결에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
+          <t>해당 기사는 건강이나 보험과 관련된 내용을 포함하지 않습니다.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2803,7 +2807,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>회전근개파열 예방을 위해 중장년층은 운동 전 준비운동과 적절한 강도의 운동을 통해 어깨를 보호해야 합니다.</t>
+          <t>중장년층은 운동 전 준비운동과 가벼운 강도의 운동으로 회전근개파열을 예방해야 합니다.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2858,11 +2862,7 @@
           <t>https://media.naver.com/journalist/015/26005</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>현대건설의 H 카밍부스는 명상과 AI 기반 운동 솔루션을 제공하는 주거 서비스입니다.</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>False</t>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>이 기사는 미국의 제조업과 정치적 밈에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없고, 미국의 경제 및 정치적 상황을 풍자한 AI 영상에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2972,11 +2972,7 @@
           <t>https://media.naver.com/journalist/025/25064</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>해당 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>False</t>
@@ -3031,7 +3027,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>이 기사는 건강이나 보험과 관련된 내용이 아니며, 법적 판결에 관한 내용입니다.</t>
+          <t>기사 내용은 강용석 변호사의 법적 문제와 관련된 것으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3088,7 +3084,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>이 기사는 경찰학교 졸업식과 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 경찰학교 졸업식과 관련된 내용으로 건강 정보와는 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3145,7 +3141,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>기사 내용은 독립운동가의 유묵 경매와 관련된 정보로 건강 관련 정보가 포함되어 있지 않습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3202,7 +3198,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>이 기사는 고 권호석 할아버지의 환경 보호 및 기부 활동에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
+          <t>이 기사는 권호석 할아버지의 환경 보호와 기부 활동에 관한 내용으로 건강 정보와 직접적인 연관성이 없습니다.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>기사 내용은 공공기관장 인선 문제와 관련된 정치적 이슈로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3308,7 +3304,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>부고 기사로 건강 정보나 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>부고 기사로 건강 정보나 보험 상담에 활용할 수 있는 내용이 포함되어 있지 않습니다.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3365,7 +3361,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>제주4·3기록물의 유네스코 세계기록유산 등재와 관련된 역사적 가치와 중요성을 다룬 기사입니다.</t>
+          <t>제주4·3기록물의 유네스코 세계기록유산 등재 소식은 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3422,7 +3418,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 건강 관련 정보가 아닌 제주4·3 기록물의 유네스코 등재에 관한 내용입니다.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3477,11 +3473,7 @@
           <t>https://media.naver.com/journalist/015/76139</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>이 기사는 정치적 내용으로 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>False</t>
@@ -3593,7 +3585,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>기사 내용은 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 공사 현장 붕괴 사고와 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3650,7 +3642,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>유명인의 체중 감량 사례와 관련된 기사로, 건강 관리 동기 유발에 적합하지 않습니다.</t>
+          <t>연예인의 체중 감량 사례를 다루고 있어 건강 정보로 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3707,7 +3699,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>이 기사는 삼성전자의 AI 로봇 '볼리'에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 삼성전자의 AI 로봇 '볼리'에 대한 내용으로 건강 정보와 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3762,7 +3754,11 @@
           <t>https://media.naver.com/journalist/015/73812</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>정치 및 연금 개혁 관련 내용으로 건강 정보와 관련이 없어 활용 불가합니다.</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>False</t>
@@ -3815,11 +3811,7 @@
           <t>https://media.naver.com/journalist/025/25019</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>False</t>
@@ -3874,7 +3866,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>당독소는 체내 독소를 증가시켜 건강에 해로우므로 당뇨 관리 시 당독소 관리가 중요합니다.</t>
+          <t>당독소 관리는 당뇨 및 체중 조절에 필수적이며, 건강을 위해 정기적인 검사가 필요합니다.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3931,7 +3923,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>직장 내 괴롭힘 사례로, 건강 정보나 보험 상담과 관련성이 낮아 활용하기 부적합한 기사입니다.</t>
+          <t>이 기사는 직장 내 괴롭힘 사건을 다루고 있어 건강 관리 및 보험 상담과 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3988,7 +3980,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 연예인의 기부 활동에 관한 내용으로 건강 정보와 관련이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4037,7 +4029,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>이 기사는 유네스코 세계기록유산 등재에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>유네스코 세계기록유산 관련 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4094,7 +4086,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>이 기사는 건강 관련 정보가 아닌 유네스코 세계기록유산 등재와 관련된 내용입니다.</t>
+          <t>이 기사는 유네스코 세계기록유산 등재와 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4151,7 +4143,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>정치 및 법률 관련 내용으로 건강 정보와 관련성이 없습니다.</t>
+          <t>정치 관련 기사로 건강 정보와 관련성이 낮아 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4200,7 +4192,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없으며, 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 고객과의 커뮤니케이션에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4257,7 +4249,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>기사 내용이 건강 정보와 관련이 없어 활용이 불가합니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4314,7 +4306,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>봄철 꽃가루 알레르기 예방을 위해 마스크 착용과 실내 활동을 권장하며, 약물 치료로 증상 완화가 가능하다.</t>
+          <t>봄철 꽃가루 알레르기 예방을 위해 마스크 착용과 약물 복용이 중요하며 실내 환경 관리가 필요합니다.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4371,12 +4363,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>현대건설이 아파트에 명상과 운동을 위한 공간을 도입해 정신적, 신체적 건강 관리를 지원합니다.</t>
+          <t>현대건설의 아파트 명상 공간 도입은 건강 정보와 직접적 관련이 없어 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4418,11 @@
           <t>https://media.naver.com/journalist/025/70806</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>해당 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 부적합합니다.</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>False</t>
@@ -4481,7 +4477,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>유명인의 체중 감량 사례와 비만 치료제 위고비의 부작용을 다룬 기사로, 건강 관리 동기 유발에 부적합합니다.</t>
+          <t>유명인의 체중 감량 경험을 다룬 기사로, 건강 관리 동기 유발과 보험 상담 활용에 적합하지 않음.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4538,7 +4534,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 재일동포의 공헌과 역사적 사건에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4595,7 +4591,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>정치적 이슈와 관련된 기사로 건강 정보와 관련성이 없어 활용이 불가합니다.</t>
+          <t>정치적 내용으로 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4652,7 +4648,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>유네스코 세계기록유산 등재 관련 내용으로 건강 정보와 관련성이 낮아 활용 불가</t>
+          <t>건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않은 기사입니다.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4709,7 +4705,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>기사는 마약 예방과 사회 활동에 관한 내용으로, 건강 관리나 보험 상담에 직접적인 관련이 없습니다.</t>
+          <t>이 기사는 마약 예방과 개인적 회복 이야기로 건강 정보와는 관련이 적습니다.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4766,7 +4762,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>드라마 '소년의 시간'에 대한 기사로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 넷플릭스 드라마 '소년의 시간'에 대한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4813,11 +4809,7 @@
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>이 기사는 도서관의 역사와 역할에 관한 내용으로 건강 관리와 보험 니즈와는 관련이 없습니다.</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>False</t>
@@ -4872,7 +4864,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>유네스코 세계기록유산 등재 관련 기사로 건강 정보와 무관합니다.</t>
+          <t>해당 기사는 건강 정보나 보험 상담과 관련이 없어 활용이 불가합니다.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4929,7 +4921,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>이 기사는 정치 및 인물 중심의 내용으로, 건강 관련 정보가 부족하여 활용이 적합하지 않습니다.</t>
+          <t>정치와 관련된 내용으로 건강 정보와 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4976,7 +4968,11 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>False</t>
@@ -5029,11 +5025,7 @@
           <t>https://media.naver.com/journalist/009/23343</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>이 기사는 패션 및 제품 홍보에 중점을 두고 있어 건강 관리나 보험 필요성과 직접적인 관련이 없습니다.</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>False</t>
@@ -5133,12 +5125,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>소방공무원의 정신건강 문제 증가, 스트레스 관리와 예방적 지원의 필요성이 강조됩니다.</t>
+          <t>소방공무원의 정신건강 악화와 관련 지원 부족을 지적한 기사로, 일반 고객과의 건강 상담에 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5182,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보와 관련이 없으며, 기업의 관세 정책 변화로 인한 경영 혼란을 다루고 있습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5247,7 +5239,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>이 기사는 투자 전략과 금융 시장에 관한 내용으로, 건강 관리와 보험 상담에 직접적인 관련이 없습니다.</t>
+          <t>투자 관련 내용으로 건강 관리와 보험 상담에 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5302,11 +5294,7 @@
           <t>https://media.naver.com/journalist/020/73744</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>디지털 성범죄 피해 증가에 대한 기사로, 건강 관리와 보험 필요성에 직접적 연관성이 부족합니다.</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>False</t>
@@ -5361,7 +5349,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>이 기사는 정치 및 사회적 이슈에 관한 내용으로 건강 정보와는 관련이 없습니다.</t>
+          <t>해당 기사는 건강 정보와 관련이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5410,7 +5398,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>가족 간의 전화 문제로 인한 스트레스에 관한 개인적인 사연으로 건강 정보와 관련이 적습니다.</t>
+          <t>이 기사는 시어머니와 며느리 간의 개인적 갈등을 다루고 있어 건강 관리와 보험 상담에 부적합합니다.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5465,11 +5453,7 @@
           <t>https://media.naver.com/journalist/020/78665</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>해당 기사는 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>False</t>
@@ -5524,7 +5508,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>산불 피해 주민 대상 심리 회복 프로그램이 PTSD 증상 해소에 효과적이며 건강 관리의 중요성을 강조합니다.</t>
+          <t>산불 피해 주민들의 심리적 회복을 돕는 프로그램이 PTSD 증상 해소에 효과적입니다.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5571,14 +5555,10 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>불공정한 사회가 주는 스트레스는 노화를 촉진하고 건강과 수명에 부정적 영향을 미친다.</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5610,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>이 기사는 주로 경제 및 관세 관련 내용을 다루고 있어 건강 관리와 보험 상담에 직접적인 활용이 어렵습니다.</t>
+          <t>이 기사는 건강과 관련된 내용이 아니며, 경제 및 관세 정책에 대한 내용입니다.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5679,7 +5659,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>기사 내용은 민원 처리와 스타트업 지원에 관한 것으로 건강 정보와는 관련이 없습니다.</t>
+          <t>기사 내용이 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5736,7 +5716,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>정치적 논의와 대선 출마 관련 내용으로, 건강 정보와 관련이 없어 활용 불가합니다.</t>
+          <t>정치적 인물과 선거 관련 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5793,7 +5773,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>해당 기사는 건강 정보와 관련이 없어 고객과의 커뮤니케이션에 활용하기에 적합하지 않습니다.</t>
+          <t>국외 헬리콥터 사고 관련 기사로 건강 정보와 관련이 없어 활용 불가.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5850,7 +5830,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>이 기사는 멸종한 인류 조상에 대한 연구로 건강 정보와 관련이 없습니다.</t>
+          <t>이 기사는 멸종한 인류의 조상에 관한 내용으로 건강 관리와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5952,7 +5932,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>정치적 논란과 대선 출마설에 관한 내용으로 건강 관련 정보가 포함되어 있지 않습니다.</t>
+          <t>정치적 논란과 대선 출마설 관련 기사로 건강 정보와 관련이 없어 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6009,7 +5989,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>기사 내용은 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 건강과 관련된 내용이 아니며, 정치적 집회와 관련된 내용을 다루고 있습니다.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6066,7 +6046,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>고령 운전자의 면허 반납 인센티브 확대가 교통사고 예방에 기여하고 있음.</t>
+          <t>고령 운전자의 면허 반납 증가와 관련된 지역 정책 기사로 건강 정보와 직접적 관련성이 적습니다.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6123,7 +6103,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>이 기사는 뇌물 수수 혐의로 재판 중인 전 세무서장에 관한 내용으로 건강 관련 정보가 아닙니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없으며 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6178,7 +6158,11 @@
           <t>https://media.naver.com/journalist/015/68986</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>이 기사는 인공지능과 컴퓨터 아키텍처에 관한 내용으로, 건강 관련 정보와 직접적인 연관성이 없습니다.</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>False</t>
@@ -6231,11 +6215,7 @@
           <t>https://media.naver.com/journalist/009/79674</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>기사는 건강기능식품 시장의 포화 상태와 기업들의 사업 확장 노력에 관한 내용으로 건강 관리와 직접적 연관이 적습니다.</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>False</t>
@@ -6288,11 +6268,7 @@
           <t>https://media.naver.com/journalist/025/73060</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>이 기사는 정치적 집회와 윤 전 대통령의 거처 이동에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>False</t>
@@ -6339,7 +6315,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>정치적 사건과 관련된 기사로 건강 관리 및 보험 상담에 활용하기 적절하지 않습니다.</t>
+          <t>정치적 사건과 관련된 기사로 건강 관리나 보험 니즈와 관련성이 낮습니다.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6394,7 +6370,11 @@
           <t>https://media.naver.com/journalist/020/79984</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>기사 내용은 주로 인구 정책과 관련된 지역 정부의 계획에 초점을 맞추고 있어 건강 관련성이 낮습니다.</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>False</t>
@@ -6449,7 +6429,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>산불 예방 및 진화 대책에 관한 기사로 건강 관리와 직접적인 연관성이 없어 활용 불가합니다.</t>
+          <t>기사 내용은 산불 예방 및 관리에 관한 것으로, 건강 관련 정보와 직접적인 연관성이 없습니다.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6498,7 +6478,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>이 기사는 인구 감소와 지방 소멸 문제에 대한 사회적 논의와 정치적 대응을 다루고 있습니다.</t>
+          <t>인구 감소와 지방 소멸 문제를 다루며 건강 관련 정보가 부족해 보험 상담에 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6547,7 +6527,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>해당 기사는 특정 개인의 장수 사례로, 일반적인 건강 관리 정보와 연결성이 낮습니다.</t>
+          <t>이 기사는 특정 개인의 장수 사례를 다루며, 일반적인 건강 관리나 보험과의 관련성이 낮습니다.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6602,11 +6582,7 @@
           <t>https://media.naver.com/journalist/025/72665</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>이 기사는 산불 진화 헬기의 노후 문제와 관련된 내용으로 건강 정보와 관련이 없습니다.</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>False</t>
@@ -6653,7 +6629,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>이 기사는 건강 정보보다는 생애설계 및 자격증 교육에 관한 내용으로 보험 상담에 직접 활용하기 어렵습니다.</t>
+          <t>이 기사는 노후 생애설계 전문가 양성에 관한 내용으로 건강 관리와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6710,7 +6686,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>이 기사는 싱크홀 사고와 관련된 도로 안전 점검에 관한 내용으로 건강 관리와 관련이 없습니다.</t>
+          <t>이 기사는 싱크홀 관련 도로 안전 점검에 관한 내용으로 건강 관리와 직접적인 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6759,7 +6735,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>기사 내용은 국민연금의 투자 전략과 수익률에 관한 것으로 건강 관리와 관련이 없습니다.</t>
+          <t>국민연금의 투자 전략과 수익률에 관한 내용으로, 건강 정보와 관련성이 낮아 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6808,7 +6784,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>이 기사는 초정밀 위성항법 장치와 관련된 기술 개발에 대한 내용으로, 건강 관리와 관련이 없습니다.</t>
+          <t>자율주행 및 정밀 농기계 등 기술 관련 기사로, 건강관리와 보험 상담에 직접적인 관련성이 없습니다.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6857,7 +6833,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>기사 내용은 일본의 산림 관리와 관광 활성화에 관한 것으로, 건강 관리와 보험 상담에 직접적인 연관성이 부족합니다.</t>
+          <t>이 기사는 주로 일본의 산림 관광과 경제 활성화에 관한 내용으로 건강 관리와 직접적인 관련성이 적습니다.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6912,7 +6888,11 @@
           <t>https://media.naver.com/journalist/015/25619</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>이 기사는 골프 대회에 참가한 베테랑 선수의 경기 내용으로 건강 관련 정보가 부족합니다.</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>False</t>
@@ -6967,7 +6947,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>정치적 사건과 관련된 기사로 건강 정보와는 관련이 없습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7077,7 +7057,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>정치 및 여론조사 관련 기사로 건강 정보와 관련이 없습니다.</t>
+          <t>정치 관련 기사로 건강 정보와 관련성이 없어 활용 불가.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7126,7 +7106,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>전기 이륜차 보조금 관련 내용으로 건강 정보와 관련이 없습니다.</t>
+          <t>해당 기사는 전기 이륜차 보조금 지원에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7183,7 +7163,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>해당 기사는 범죄 및 유튜버 관련 내용으로 건강 관리와 관련이 없어 활용 부적합합니다.</t>
+          <t>해당 기사는 범죄 및 유튜버 관련 사건에 관한 내용으로 건강 정보와 관련이 없습니다.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7232,7 +7212,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>이 기사는 보험료 인상에 관한 내용으로 건강 정보나 예방 관리와 직접적인 관련이 없습니다.</t>
+          <t>보험료 인상에 관한 기사로 건강 정보와 예방 관리와의 직접적 연관성이 부족합니다.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7289,7 +7269,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>해당 기사는 영화 리뷰로 건강 관련 정보가 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>영화 '헤레틱'에 대한 리뷰로 건강 관련 정보가 없어 보험 상담에 활용하기 부적합합니다.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7346,7 +7326,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>가스레인지 사용 시 일산화탄소 중독 위험을 줄이기 위해 환기를 철저히 하고 추가 부품 사용에 주의해야 합니다.</t>
+          <t>가스레인지 사용 시 삼발이 커버로 인한 일산화탄소 중독 위험이 있어 환기 및 추가 부품 사용에 주의가 필요합니다.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7403,7 +7383,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>이 기사는 보험료 인상과 관련된 내용으로 건강 정보와 직접적인 관련이 없습니다.</t>
+          <t>이 기사는 보험료 인상과 금융당국의 규제에 관한 내용으로, 건강 정보와 관련성이 낮아 활용 불가합니다.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7452,7 +7432,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>AI 기술의 확산과 그로 인한 사회적 변화와 도전 과제를 다룬 기사로, 건강 관련 정보는 포함되지 않음.</t>
+          <t>AI 기술의 확산과 그로 인한 사회적 영향에 대한 논의로, 건강 관련 내용이 부족하여 활용 불가.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -7507,11 +7487,7 @@
           <t>https://media.naver.com/journalist/015/73554</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>이 기사는 조선업과 관련된 내용으로 건강 정보와 관련이 없어 활용 불가합니다.</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>False</t>
@@ -7566,7 +7542,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>해당 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
+          <t>이 기사는 건강 정보와 관련이 없어 보험 상담에 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -7621,11 +7597,7 @@
           <t>https://media.naver.com/journalist/015/73554</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>이 기사는 건강 정보와 관련이 없으며, 조선업과 관련된 경제 기사입니다.</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>False</t>
@@ -7680,7 +7652,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>이 기사는 미국 조선업 재건과 관련된 내용으로, 건강 정보와 관련성이 없어 활용 불가합니다.</t>
+          <t>이 기사는 조선업 관련 내용으로 건강 정보와 관련이 없어 활용하기 적합하지 않습니다.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7729,7 +7701,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>이 기사는 병상 수급 관리에 관한 내용으로, 건강 관리나 보험 상담에 직접 활용하기 어렵습니다.</t>
+          <t>광주시의 병상 수급 관리 계획은 건강 정보와 직접 관련이 없어 보험 상담에 활용하기 어렵습니다.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
